--- a/AAII_Financials/Quarterly/KC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="92">
   <si>
     <t>KC</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,142 +665,168 @@
     <col min="1" max="1" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>164300</v>
+        <v>222900</v>
       </c>
       <c r="E8" s="3">
-        <v>140200</v>
+        <v>202000</v>
       </c>
       <c r="F8" s="3">
-        <v>130900</v>
+        <v>170400</v>
       </c>
       <c r="G8" s="3">
-        <v>118400</v>
+        <v>145500</v>
       </c>
       <c r="H8" s="3">
-        <v>101400</v>
+        <v>135800</v>
       </c>
       <c r="I8" s="3">
+        <v>122800</v>
+      </c>
+      <c r="J8" s="3">
+        <v>105200</v>
+      </c>
+      <c r="K8" s="3">
         <v>83900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>64300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>60900</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>156700</v>
+        <v>211200</v>
       </c>
       <c r="E9" s="3">
-        <v>137600</v>
+        <v>191700</v>
       </c>
       <c r="F9" s="3">
-        <v>133700</v>
+        <v>162600</v>
       </c>
       <c r="G9" s="3">
-        <v>124700</v>
+        <v>142800</v>
       </c>
       <c r="H9" s="3">
-        <v>110100</v>
+        <v>138800</v>
       </c>
       <c r="I9" s="3">
+        <v>129400</v>
+      </c>
+      <c r="J9" s="3">
+        <v>114200</v>
+      </c>
+      <c r="K9" s="3">
         <v>92300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>68900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>67200</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>7600</v>
+        <v>11700</v>
       </c>
       <c r="E10" s="3">
-        <v>2600</v>
+        <v>10300</v>
       </c>
       <c r="F10" s="3">
-        <v>-2800</v>
+        <v>7900</v>
       </c>
       <c r="G10" s="3">
+        <v>2700</v>
+      </c>
+      <c r="H10" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="I10" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="J10" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="K10" s="3">
+        <v>-8400</v>
+      </c>
+      <c r="L10" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="M10" s="3">
         <v>-6300</v>
       </c>
-      <c r="H10" s="3">
-        <v>-8700</v>
-      </c>
-      <c r="I10" s="3">
-        <v>-8400</v>
-      </c>
-      <c r="J10" s="3">
-        <v>-4600</v>
-      </c>
-      <c r="K10" s="3">
-        <v>-6300</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -812,37 +838,45 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>24000</v>
+        <v>33500</v>
       </c>
       <c r="E12" s="3">
-        <v>21800</v>
+        <v>28400</v>
       </c>
       <c r="F12" s="3">
-        <v>20100</v>
+        <v>24900</v>
       </c>
       <c r="G12" s="3">
-        <v>17400</v>
+        <v>22600</v>
       </c>
       <c r="H12" s="3">
-        <v>16600</v>
+        <v>20800</v>
       </c>
       <c r="I12" s="3">
+        <v>18100</v>
+      </c>
+      <c r="J12" s="3">
+        <v>17300</v>
+      </c>
+      <c r="K12" s="3">
         <v>17200</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>13300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>14600</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -870,8 +904,14 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -899,8 +939,14 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -928,8 +974,14 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -938,66 +990,80 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>206600</v>
+        <v>285400</v>
       </c>
       <c r="E17" s="3">
-        <v>179400</v>
+        <v>244000</v>
       </c>
       <c r="F17" s="3">
-        <v>173400</v>
+        <v>214400</v>
       </c>
       <c r="G17" s="3">
-        <v>154400</v>
+        <v>186100</v>
       </c>
       <c r="H17" s="3">
-        <v>144500</v>
+        <v>179900</v>
       </c>
       <c r="I17" s="3">
+        <v>160200</v>
+      </c>
+      <c r="J17" s="3">
+        <v>149900</v>
+      </c>
+      <c r="K17" s="3">
         <v>121600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>91700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>89800</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-42400</v>
+        <v>-62500</v>
       </c>
       <c r="E18" s="3">
-        <v>-39200</v>
+        <v>-41900</v>
       </c>
       <c r="F18" s="3">
-        <v>-42500</v>
+        <v>-44000</v>
       </c>
       <c r="G18" s="3">
-        <v>-36000</v>
+        <v>-40600</v>
       </c>
       <c r="H18" s="3">
-        <v>-43100</v>
+        <v>-44100</v>
       </c>
       <c r="I18" s="3">
+        <v>-37400</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-44700</v>
+      </c>
+      <c r="K18" s="3">
         <v>-37700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-27400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-28900</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1009,153 +1075,185 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>9100</v>
+        <v>2000</v>
       </c>
       <c r="E20" s="3">
-        <v>-9600</v>
+        <v>-5100</v>
       </c>
       <c r="F20" s="3">
-        <v>-1700</v>
+        <v>9500</v>
       </c>
       <c r="G20" s="3">
-        <v>8600</v>
+        <v>-9900</v>
       </c>
       <c r="H20" s="3">
-        <v>3900</v>
+        <v>-1800</v>
       </c>
       <c r="I20" s="3">
+        <v>9000</v>
+      </c>
+      <c r="J20" s="3">
+        <v>4000</v>
+      </c>
+      <c r="K20" s="3">
         <v>-3900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-4200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>-8800</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>16</v>
+        <v>-58600</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-17100</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-9100</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H21" s="3">
-        <v>18500</v>
-      </c>
-      <c r="I21" s="3">
+      <c r="H21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J21" s="3">
+        <v>-21600</v>
+      </c>
+      <c r="K21" s="3">
         <v>-2300</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E22" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
         <v>300</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>400</v>
       </c>
-      <c r="H22" s="3">
-        <v>1100</v>
-      </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
+        <v>1200</v>
+      </c>
+      <c r="K22" s="3">
         <v>1300</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>1500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-33200</v>
+        <v>-60800</v>
       </c>
       <c r="E23" s="3">
-        <v>-48700</v>
+        <v>-47300</v>
       </c>
       <c r="F23" s="3">
-        <v>-44500</v>
+        <v>-34500</v>
       </c>
       <c r="G23" s="3">
-        <v>-27800</v>
+        <v>-50600</v>
       </c>
       <c r="H23" s="3">
-        <v>-40400</v>
+        <v>-46200</v>
       </c>
       <c r="I23" s="3">
+        <v>-28800</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-41900</v>
+      </c>
+      <c r="K23" s="3">
         <v>-42900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-33100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-23200</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E24" s="3">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="F24" s="3">
         <v>300</v>
       </c>
       <c r="G24" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="H24" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="I24" s="3">
         <v>400</v>
       </c>
       <c r="J24" s="3">
+        <v>400</v>
+      </c>
+      <c r="K24" s="3">
+        <v>400</v>
+      </c>
+      <c r="L24" s="3">
         <v>300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1183,66 +1281,84 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-33500</v>
+        <v>-61000</v>
       </c>
       <c r="E26" s="3">
-        <v>-49100</v>
+        <v>-48200</v>
       </c>
       <c r="F26" s="3">
-        <v>-44800</v>
+        <v>-34800</v>
       </c>
       <c r="G26" s="3">
-        <v>-28200</v>
+        <v>-50900</v>
       </c>
       <c r="H26" s="3">
-        <v>-40800</v>
+        <v>-46400</v>
       </c>
       <c r="I26" s="3">
+        <v>-29200</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-42300</v>
+      </c>
+      <c r="K26" s="3">
         <v>-43200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-33400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-23500</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-40500</v>
+        <v>-61000</v>
       </c>
       <c r="E27" s="3">
-        <v>-49100</v>
+        <v>-51000</v>
       </c>
       <c r="F27" s="3">
-        <v>-44800</v>
+        <v>-42000</v>
       </c>
       <c r="G27" s="3">
-        <v>-28200</v>
+        <v>-50900</v>
       </c>
       <c r="H27" s="3">
-        <v>-40800</v>
+        <v>-46400</v>
       </c>
       <c r="I27" s="3">
+        <v>-29200</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-42300</v>
+      </c>
+      <c r="K27" s="3">
         <v>-147200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-33400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-23500</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1270,8 +1386,14 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1299,8 +1421,14 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1328,8 +1456,14 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1357,66 +1491,84 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-9100</v>
+        <v>-2000</v>
       </c>
       <c r="E32" s="3">
-        <v>9600</v>
+        <v>5100</v>
       </c>
       <c r="F32" s="3">
-        <v>1700</v>
+        <v>-9500</v>
       </c>
       <c r="G32" s="3">
-        <v>-8600</v>
+        <v>9900</v>
       </c>
       <c r="H32" s="3">
-        <v>-3900</v>
+        <v>1800</v>
       </c>
       <c r="I32" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="K32" s="3">
         <v>3900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>4200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-7200</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-40500</v>
+        <v>-61000</v>
       </c>
       <c r="E33" s="3">
-        <v>-49100</v>
+        <v>-51000</v>
       </c>
       <c r="F33" s="3">
-        <v>-44800</v>
+        <v>-42000</v>
       </c>
       <c r="G33" s="3">
-        <v>-28200</v>
+        <v>-50900</v>
       </c>
       <c r="H33" s="3">
-        <v>-40800</v>
+        <v>-46400</v>
       </c>
       <c r="I33" s="3">
+        <v>-29200</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-42300</v>
+      </c>
+      <c r="K33" s="3">
         <v>-147200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-33400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-23500</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1444,71 +1596,89 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-40500</v>
+        <v>-61000</v>
       </c>
       <c r="E35" s="3">
-        <v>-49100</v>
+        <v>-51000</v>
       </c>
       <c r="F35" s="3">
-        <v>-44800</v>
+        <v>-42000</v>
       </c>
       <c r="G35" s="3">
-        <v>-28200</v>
+        <v>-50900</v>
       </c>
       <c r="H35" s="3">
-        <v>-40800</v>
+        <v>-46400</v>
       </c>
       <c r="I35" s="3">
+        <v>-29200</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-42300</v>
+      </c>
+      <c r="K35" s="3">
         <v>-147200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-33400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-23500</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1520,8 +1690,10 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1533,22 +1705,24 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>283200</v>
+        <v>480800</v>
       </c>
       <c r="E41" s="3">
-        <v>243700</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>16</v>
+        <v>286100</v>
+      </c>
+      <c r="F41" s="3">
+        <v>293800</v>
+      </c>
+      <c r="G41" s="3">
+        <v>252900</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>16</v>
@@ -1562,22 +1736,28 @@
       <c r="K41" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M41" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>31600</v>
+        <v>356300</v>
       </c>
       <c r="E42" s="3">
-        <v>107700</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>16</v>
+        <v>33200</v>
+      </c>
+      <c r="F42" s="3">
+        <v>32700</v>
+      </c>
+      <c r="G42" s="3">
+        <v>111800</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>16</v>
@@ -1591,22 +1771,28 @@
       <c r="K42" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M42" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>207000</v>
+        <v>254800</v>
       </c>
       <c r="E43" s="3">
-        <v>191200</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>16</v>
+        <v>271500</v>
+      </c>
+      <c r="F43" s="3">
+        <v>214800</v>
+      </c>
+      <c r="G43" s="3">
+        <v>198400</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>16</v>
@@ -1620,8 +1806,14 @@
       <c r="K43" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M43" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1649,22 +1841,28 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>59100</v>
+        <v>77600</v>
       </c>
       <c r="E45" s="3">
-        <v>53700</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>16</v>
+        <v>72300</v>
+      </c>
+      <c r="F45" s="3">
+        <v>61300</v>
+      </c>
+      <c r="G45" s="3">
+        <v>55700</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>16</v>
@@ -1678,22 +1876,28 @@
       <c r="K45" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M45" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>580800</v>
+        <v>1169400</v>
       </c>
       <c r="E46" s="3">
-        <v>596400</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>16</v>
+        <v>663100</v>
+      </c>
+      <c r="F46" s="3">
+        <v>602700</v>
+      </c>
+      <c r="G46" s="3">
+        <v>618800</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>16</v>
@@ -1707,22 +1911,28 @@
       <c r="K46" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M46" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>16400</v>
+        <v>17700</v>
       </c>
       <c r="E47" s="3">
-        <v>9500</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>16</v>
+        <v>17700</v>
+      </c>
+      <c r="F47" s="3">
+        <v>17000</v>
+      </c>
+      <c r="G47" s="3">
+        <v>9800</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>16</v>
@@ -1736,22 +1946,28 @@
       <c r="K47" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M47" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>240900</v>
+        <v>305700</v>
       </c>
       <c r="E48" s="3">
-        <v>182700</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>16</v>
+        <v>292100</v>
+      </c>
+      <c r="F48" s="3">
+        <v>249900</v>
+      </c>
+      <c r="G48" s="3">
+        <v>189600</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>16</v>
@@ -1765,22 +1981,28 @@
       <c r="K48" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M48" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="E49" s="3">
         <v>1100</v>
       </c>
-      <c r="F49" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>16</v>
+      <c r="F49" s="3">
+        <v>1100</v>
+      </c>
+      <c r="G49" s="3">
+        <v>1200</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>16</v>
@@ -1794,8 +2016,14 @@
       <c r="K49" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M49" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1823,8 +2051,14 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1852,22 +2086,28 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>5100</v>
+        <v>4600</v>
       </c>
       <c r="E52" s="3">
-        <v>9500</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>16</v>
+        <v>4200</v>
+      </c>
+      <c r="F52" s="3">
+        <v>5300</v>
+      </c>
+      <c r="G52" s="3">
+        <v>9800</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>16</v>
@@ -1881,8 +2121,14 @@
       <c r="K52" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M52" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1910,22 +2156,28 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>844200</v>
+        <v>1498500</v>
       </c>
       <c r="E54" s="3">
-        <v>799200</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>16</v>
+        <v>978200</v>
+      </c>
+      <c r="F54" s="3">
+        <v>876000</v>
+      </c>
+      <c r="G54" s="3">
+        <v>829300</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>16</v>
@@ -1939,8 +2191,14 @@
       <c r="K54" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M54" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1952,8 +2210,10 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1965,22 +2225,24 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>175600</v>
+        <v>252100</v>
       </c>
       <c r="E57" s="3">
-        <v>173900</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>16</v>
+        <v>268600</v>
+      </c>
+      <c r="F57" s="3">
+        <v>182200</v>
+      </c>
+      <c r="G57" s="3">
+        <v>180400</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>16</v>
@@ -1994,22 +2256,28 @@
       <c r="K57" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M57" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>28600</v>
+        <v>49600</v>
       </c>
       <c r="E58" s="3">
-        <v>26500</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>16</v>
+        <v>29800</v>
+      </c>
+      <c r="F58" s="3">
+        <v>29700</v>
+      </c>
+      <c r="G58" s="3">
+        <v>27500</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>16</v>
@@ -2023,22 +2291,28 @@
       <c r="K58" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M58" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>134500</v>
+        <v>133200</v>
       </c>
       <c r="E59" s="3">
-        <v>97200</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>16</v>
+        <v>141900</v>
+      </c>
+      <c r="F59" s="3">
+        <v>139600</v>
+      </c>
+      <c r="G59" s="3">
+        <v>100900</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>16</v>
@@ -2052,22 +2326,28 @@
       <c r="K59" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M59" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>338700</v>
+        <v>434900</v>
       </c>
       <c r="E60" s="3">
-        <v>297600</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>16</v>
+        <v>440300</v>
+      </c>
+      <c r="F60" s="3">
+        <v>351500</v>
+      </c>
+      <c r="G60" s="3">
+        <v>308800</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>16</v>
@@ -2081,22 +2361,28 @@
       <c r="K60" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M60" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>10400</v>
+        <v>10800</v>
       </c>
       <c r="E61" s="3">
-        <v>17400</v>
+        <v>10800</v>
       </c>
       <c r="F61" s="3">
-        <v>0</v>
+        <v>10800</v>
       </c>
       <c r="G61" s="3">
-        <v>0</v>
+        <v>18100</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -2110,22 +2396,28 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>0</v>
+        <v>29900</v>
       </c>
       <c r="E62" s="3">
-        <v>700</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>16</v>
+        <v>32100</v>
+      </c>
+      <c r="F62" s="3">
+        <v>0</v>
+      </c>
+      <c r="G62" s="3">
+        <v>800</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>16</v>
@@ -2139,8 +2431,14 @@
       <c r="K62" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M62" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2168,8 +2466,14 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2197,8 +2501,14 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2226,22 +2536,28 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>349100</v>
+        <v>475500</v>
       </c>
       <c r="E66" s="3">
-        <v>315700</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>16</v>
+        <v>483200</v>
+      </c>
+      <c r="F66" s="3">
+        <v>362300</v>
+      </c>
+      <c r="G66" s="3">
+        <v>327600</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>16</v>
@@ -2255,8 +2571,14 @@
       <c r="K66" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M66" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2268,8 +2590,10 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2297,8 +2621,14 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2326,22 +2656,28 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>1099800</v>
+        <v>0</v>
       </c>
       <c r="E70" s="3">
-        <v>1045300</v>
+        <v>1163600</v>
       </c>
       <c r="F70" s="3">
-        <v>0</v>
+        <v>1141200</v>
       </c>
       <c r="G70" s="3">
-        <v>0</v>
+        <v>1084700</v>
       </c>
       <c r="H70" s="3">
         <v>0</v>
@@ -2355,8 +2691,14 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2384,22 +2726,28 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-686100</v>
+        <v>-821100</v>
       </c>
       <c r="E72" s="3">
-        <v>-652600</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>16</v>
+        <v>-760100</v>
+      </c>
+      <c r="F72" s="3">
+        <v>-711900</v>
+      </c>
+      <c r="G72" s="3">
+        <v>-677100</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>16</v>
@@ -2413,8 +2761,14 @@
       <c r="K72" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M72" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2442,8 +2796,14 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2471,8 +2831,14 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2500,22 +2866,28 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-604700</v>
+        <v>1023000</v>
       </c>
       <c r="E76" s="3">
-        <v>-561900</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>16</v>
+        <v>-668600</v>
+      </c>
+      <c r="F76" s="3">
+        <v>-627500</v>
+      </c>
+      <c r="G76" s="3">
+        <v>-583000</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>16</v>
@@ -2529,8 +2901,14 @@
       <c r="K76" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M76" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2558,71 +2936,89 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-40500</v>
+        <v>-61000</v>
       </c>
       <c r="E81" s="3">
-        <v>-49100</v>
+        <v>-51000</v>
       </c>
       <c r="F81" s="3">
-        <v>-44800</v>
+        <v>-42000</v>
       </c>
       <c r="G81" s="3">
-        <v>-28200</v>
+        <v>-50900</v>
       </c>
       <c r="H81" s="3">
-        <v>-40800</v>
+        <v>-46400</v>
       </c>
       <c r="I81" s="3">
+        <v>-29200</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-42300</v>
+      </c>
+      <c r="K81" s="3">
         <v>-147200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-33400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-23500</v>
       </c>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2634,19 +3030,21 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
-        <v>24500</v>
+      <c r="D83" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="E83" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F83" s="3" t="s">
-        <v>16</v>
+      <c r="F83" s="3">
+        <v>25400</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>16</v>
@@ -2657,14 +3055,20 @@
       <c r="I83" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>16</v>
+      <c r="J83" s="3">
+        <v>19100</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M83" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2692,8 +3096,14 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2721,8 +3131,14 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2750,8 +3166,14 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2779,8 +3201,14 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2808,37 +3236,49 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-21700</v>
-      </c>
-      <c r="E89" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>16</v>
+        <v>-400</v>
+      </c>
+      <c r="E89" s="3">
+        <v>13600</v>
+      </c>
+      <c r="F89" s="3">
+        <v>-22600</v>
+      </c>
+      <c r="G89" s="3">
+        <v>-18500</v>
+      </c>
+      <c r="H89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I89" s="3">
+        <v>-22400</v>
+      </c>
+      <c r="J89" s="3">
+        <v>7600</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M89" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2850,19 +3290,21 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>-43700</v>
+      <c r="D91" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="E91" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F91" s="3" t="s">
-        <v>16</v>
+      <c r="F91" s="3">
+        <v>-45300</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>16</v>
@@ -2873,14 +3315,20 @@
       <c r="I91" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>16</v>
+      <c r="J91" s="3">
+        <v>-46800</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M91" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2908,8 +3356,14 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2937,37 +3391,49 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>10900</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>16</v>
+        <v>-388200</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-42800</v>
+      </c>
+      <c r="F94" s="3">
+        <v>11300</v>
+      </c>
+      <c r="G94" s="3">
+        <v>21600</v>
+      </c>
+      <c r="H94" s="3">
+        <v>54700</v>
+      </c>
+      <c r="I94" s="3">
+        <v>40600</v>
+      </c>
+      <c r="J94" s="3">
+        <v>69000</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M94" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2979,8 +3445,10 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3008,8 +3476,14 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3037,8 +3511,14 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3066,8 +3546,14 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3095,91 +3581,115 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>43300</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>16</v>
+        <v>581900</v>
+      </c>
+      <c r="E100" s="3">
+        <v>20200</v>
+      </c>
+      <c r="F100" s="3">
+        <v>44900</v>
+      </c>
+      <c r="G100" s="3">
+        <v>100</v>
+      </c>
+      <c r="H100" s="3">
+        <v>-38600</v>
+      </c>
+      <c r="I100" s="3">
+        <v>3000</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-32400</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M100" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>7000</v>
-      </c>
-      <c r="E101" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F101" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G101" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H101" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I101" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>16</v>
+        <v>1400</v>
+      </c>
+      <c r="E101" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F101" s="3">
+        <v>7200</v>
+      </c>
+      <c r="G101" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="H101" s="3">
+        <v>700</v>
+      </c>
+      <c r="I101" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="J101" s="3">
+        <v>-200</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M101" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>39400</v>
-      </c>
-      <c r="E102" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>16</v>
+        <v>194700</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="F102" s="3">
+        <v>40900</v>
+      </c>
+      <c r="G102" s="3">
+        <v>-600</v>
+      </c>
+      <c r="H102" s="3">
+        <v>16400</v>
+      </c>
+      <c r="I102" s="3">
+        <v>18300</v>
+      </c>
+      <c r="J102" s="3">
+        <v>44000</v>
       </c>
       <c r="K102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M102" s="3" t="s">
         <v>16</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="92">
   <si>
     <t>KC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,168 +665,181 @@
     <col min="1" max="1" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>222900</v>
+        <v>263000</v>
       </c>
       <c r="E8" s="3">
-        <v>202000</v>
+        <v>233500</v>
       </c>
       <c r="F8" s="3">
-        <v>170400</v>
+        <v>211600</v>
       </c>
       <c r="G8" s="3">
-        <v>145500</v>
+        <v>178500</v>
       </c>
       <c r="H8" s="3">
-        <v>135800</v>
+        <v>152400</v>
       </c>
       <c r="I8" s="3">
-        <v>122800</v>
+        <v>142200</v>
       </c>
       <c r="J8" s="3">
+        <v>128700</v>
+      </c>
+      <c r="K8" s="3">
         <v>105200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>83900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>64300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>60900</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>211200</v>
+        <v>245800</v>
       </c>
       <c r="E9" s="3">
-        <v>191700</v>
+        <v>221200</v>
       </c>
       <c r="F9" s="3">
-        <v>162600</v>
+        <v>200800</v>
       </c>
       <c r="G9" s="3">
-        <v>142800</v>
+        <v>170300</v>
       </c>
       <c r="H9" s="3">
-        <v>138800</v>
+        <v>149500</v>
       </c>
       <c r="I9" s="3">
-        <v>129400</v>
+        <v>145300</v>
       </c>
       <c r="J9" s="3">
+        <v>135500</v>
+      </c>
+      <c r="K9" s="3">
         <v>114200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>92300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>68900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>67200</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>11700</v>
+        <v>17200</v>
       </c>
       <c r="E10" s="3">
-        <v>10300</v>
+        <v>12300</v>
       </c>
       <c r="F10" s="3">
-        <v>7900</v>
+        <v>10800</v>
       </c>
       <c r="G10" s="3">
-        <v>2700</v>
+        <v>8300</v>
       </c>
       <c r="H10" s="3">
-        <v>-2900</v>
+        <v>2900</v>
       </c>
       <c r="I10" s="3">
-        <v>-6500</v>
+        <v>-3100</v>
       </c>
       <c r="J10" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="K10" s="3">
         <v>-9000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>-8400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>-4600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>-6300</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -840,43 +853,47 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>33500</v>
+        <v>25500</v>
       </c>
       <c r="E12" s="3">
-        <v>28400</v>
+        <v>35100</v>
       </c>
       <c r="F12" s="3">
-        <v>24900</v>
+        <v>29800</v>
       </c>
       <c r="G12" s="3">
-        <v>22600</v>
+        <v>26100</v>
       </c>
       <c r="H12" s="3">
-        <v>20800</v>
+        <v>23700</v>
       </c>
       <c r="I12" s="3">
-        <v>18100</v>
+        <v>21800</v>
       </c>
       <c r="J12" s="3">
+        <v>18900</v>
+      </c>
+      <c r="K12" s="3">
         <v>17300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>17200</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>13300</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>14600</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -910,8 +927,11 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -945,8 +965,11 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -980,8 +1003,11 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -992,78 +1018,85 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>285400</v>
+        <v>299900</v>
       </c>
       <c r="E17" s="3">
-        <v>244000</v>
+        <v>298900</v>
       </c>
       <c r="F17" s="3">
-        <v>214400</v>
+        <v>255500</v>
       </c>
       <c r="G17" s="3">
-        <v>186100</v>
+        <v>224600</v>
       </c>
       <c r="H17" s="3">
-        <v>179900</v>
+        <v>195000</v>
       </c>
       <c r="I17" s="3">
-        <v>160200</v>
+        <v>188400</v>
       </c>
       <c r="J17" s="3">
+        <v>167800</v>
+      </c>
+      <c r="K17" s="3">
         <v>149900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>121600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>91700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>89800</v>
       </c>
     </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-62500</v>
+        <v>-36900</v>
       </c>
       <c r="E18" s="3">
-        <v>-41900</v>
+        <v>-65400</v>
       </c>
       <c r="F18" s="3">
-        <v>-44000</v>
+        <v>-43900</v>
       </c>
       <c r="G18" s="3">
-        <v>-40600</v>
+        <v>-46100</v>
       </c>
       <c r="H18" s="3">
-        <v>-44100</v>
+        <v>-42600</v>
       </c>
       <c r="I18" s="3">
-        <v>-37400</v>
+        <v>-46200</v>
       </c>
       <c r="J18" s="3">
+        <v>-39200</v>
+      </c>
+      <c r="K18" s="3">
         <v>-44700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-37700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-27400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-28900</v>
       </c>
     </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1077,57 +1110,61 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>2000</v>
+        <v>22100</v>
       </c>
       <c r="E20" s="3">
-        <v>-5100</v>
+        <v>2100</v>
       </c>
       <c r="F20" s="3">
-        <v>9500</v>
+        <v>-5300</v>
       </c>
       <c r="G20" s="3">
-        <v>-9900</v>
+        <v>9900</v>
       </c>
       <c r="H20" s="3">
-        <v>-1800</v>
+        <v>-10400</v>
       </c>
       <c r="I20" s="3">
-        <v>9000</v>
+        <v>-1900</v>
       </c>
       <c r="J20" s="3">
+        <v>9400</v>
+      </c>
+      <c r="K20" s="3">
         <v>4000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-3900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-4200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>-58600</v>
+        <v>-23900</v>
       </c>
       <c r="E21" s="3">
-        <v>-17100</v>
+        <v>-61400</v>
       </c>
       <c r="F21" s="3">
-        <v>-9100</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>16</v>
+        <v>-17900</v>
+      </c>
+      <c r="G21" s="3">
+        <v>-9500</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>16</v>
@@ -1135,110 +1172,119 @@
       <c r="I21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J21" s="3">
+      <c r="J21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K21" s="3">
         <v>-21600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-2300</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="E22" s="3">
         <v>300</v>
       </c>
       <c r="F22" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G22" s="3">
         <v>0</v>
       </c>
       <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
         <v>300</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>400</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>1200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>1300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>1500</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-60800</v>
+        <v>-15400</v>
       </c>
       <c r="E23" s="3">
-        <v>-47300</v>
+        <v>-63600</v>
       </c>
       <c r="F23" s="3">
-        <v>-34500</v>
+        <v>-49600</v>
       </c>
       <c r="G23" s="3">
-        <v>-50600</v>
+        <v>-36100</v>
       </c>
       <c r="H23" s="3">
-        <v>-46200</v>
+        <v>-53000</v>
       </c>
       <c r="I23" s="3">
-        <v>-28800</v>
+        <v>-48400</v>
       </c>
       <c r="J23" s="3">
+        <v>-30200</v>
+      </c>
+      <c r="K23" s="3">
         <v>-41900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-42900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-33100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-23200</v>
       </c>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="E24" s="3">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="F24" s="3">
-        <v>300</v>
+        <v>900</v>
       </c>
       <c r="G24" s="3">
         <v>300</v>
       </c>
       <c r="H24" s="3">
+        <v>400</v>
+      </c>
+      <c r="I24" s="3">
         <v>300</v>
-      </c>
-      <c r="I24" s="3">
-        <v>400</v>
       </c>
       <c r="J24" s="3">
         <v>400</v>
@@ -1247,13 +1293,16 @@
         <v>400</v>
       </c>
       <c r="L24" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="M24" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1287,78 +1336,87 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-61000</v>
+        <v>-16000</v>
       </c>
       <c r="E26" s="3">
-        <v>-48200</v>
+        <v>-63900</v>
       </c>
       <c r="F26" s="3">
-        <v>-34800</v>
+        <v>-50500</v>
       </c>
       <c r="G26" s="3">
-        <v>-50900</v>
+        <v>-36400</v>
       </c>
       <c r="H26" s="3">
-        <v>-46400</v>
+        <v>-53300</v>
       </c>
       <c r="I26" s="3">
-        <v>-29200</v>
+        <v>-48600</v>
       </c>
       <c r="J26" s="3">
+        <v>-30600</v>
+      </c>
+      <c r="K26" s="3">
         <v>-42300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-43200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-33400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-23500</v>
       </c>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-61000</v>
+        <v>-16100</v>
       </c>
       <c r="E27" s="3">
-        <v>-51000</v>
+        <v>-63900</v>
       </c>
       <c r="F27" s="3">
-        <v>-42000</v>
+        <v>-53400</v>
       </c>
       <c r="G27" s="3">
-        <v>-50900</v>
+        <v>-44000</v>
       </c>
       <c r="H27" s="3">
-        <v>-46400</v>
+        <v>-53300</v>
       </c>
       <c r="I27" s="3">
-        <v>-29200</v>
+        <v>-48600</v>
       </c>
       <c r="J27" s="3">
+        <v>-30600</v>
+      </c>
+      <c r="K27" s="3">
         <v>-42300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-147200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-33400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-23500</v>
       </c>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1392,8 +1450,11 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1427,8 +1488,11 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1462,8 +1526,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1497,78 +1564,87 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-2000</v>
+        <v>-22100</v>
       </c>
       <c r="E32" s="3">
-        <v>5100</v>
+        <v>-2100</v>
       </c>
       <c r="F32" s="3">
-        <v>-9500</v>
+        <v>5300</v>
       </c>
       <c r="G32" s="3">
-        <v>9900</v>
+        <v>-9900</v>
       </c>
       <c r="H32" s="3">
-        <v>1800</v>
+        <v>10400</v>
       </c>
       <c r="I32" s="3">
-        <v>-9000</v>
+        <v>1900</v>
       </c>
       <c r="J32" s="3">
+        <v>-9400</v>
+      </c>
+      <c r="K32" s="3">
         <v>-4000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>3900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>4200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-7200</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-61000</v>
+        <v>-16100</v>
       </c>
       <c r="E33" s="3">
-        <v>-51000</v>
+        <v>-63900</v>
       </c>
       <c r="F33" s="3">
-        <v>-42000</v>
+        <v>-53400</v>
       </c>
       <c r="G33" s="3">
-        <v>-50900</v>
+        <v>-44000</v>
       </c>
       <c r="H33" s="3">
-        <v>-46400</v>
+        <v>-53300</v>
       </c>
       <c r="I33" s="3">
-        <v>-29200</v>
+        <v>-48600</v>
       </c>
       <c r="J33" s="3">
+        <v>-30600</v>
+      </c>
+      <c r="K33" s="3">
         <v>-42300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-147200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-33400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-23500</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1602,83 +1678,92 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-61000</v>
+        <v>-16100</v>
       </c>
       <c r="E35" s="3">
-        <v>-51000</v>
+        <v>-63900</v>
       </c>
       <c r="F35" s="3">
-        <v>-42000</v>
+        <v>-53400</v>
       </c>
       <c r="G35" s="3">
-        <v>-50900</v>
+        <v>-44000</v>
       </c>
       <c r="H35" s="3">
-        <v>-46400</v>
+        <v>-53300</v>
       </c>
       <c r="I35" s="3">
-        <v>-29200</v>
+        <v>-48600</v>
       </c>
       <c r="J35" s="3">
+        <v>-30600</v>
+      </c>
+      <c r="K35" s="3">
         <v>-42300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-147200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-33400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-23500</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1692,8 +1777,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1707,25 +1793,26 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>480800</v>
+        <v>588200</v>
       </c>
       <c r="E41" s="3">
-        <v>286100</v>
+        <v>503600</v>
       </c>
       <c r="F41" s="3">
-        <v>293800</v>
+        <v>299700</v>
       </c>
       <c r="G41" s="3">
-        <v>252900</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>16</v>
+        <v>307800</v>
+      </c>
+      <c r="H41" s="3">
+        <v>264900</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>16</v>
@@ -1742,25 +1829,28 @@
       <c r="M41" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>356300</v>
+        <v>445800</v>
       </c>
       <c r="E42" s="3">
-        <v>33200</v>
+        <v>373200</v>
       </c>
       <c r="F42" s="3">
-        <v>32700</v>
+        <v>34800</v>
       </c>
       <c r="G42" s="3">
-        <v>111800</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>16</v>
+        <v>34300</v>
+      </c>
+      <c r="H42" s="3">
+        <v>117100</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>16</v>
@@ -1777,25 +1867,28 @@
       <c r="M42" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>254800</v>
+        <v>327800</v>
       </c>
       <c r="E43" s="3">
-        <v>271500</v>
+        <v>266900</v>
       </c>
       <c r="F43" s="3">
-        <v>214800</v>
+        <v>284400</v>
       </c>
       <c r="G43" s="3">
-        <v>198400</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>16</v>
+        <v>225000</v>
+      </c>
+      <c r="H43" s="3">
+        <v>207800</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>16</v>
@@ -1812,8 +1905,11 @@
       <c r="M43" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1847,25 +1943,28 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>77600</v>
+        <v>84200</v>
       </c>
       <c r="E45" s="3">
-        <v>72300</v>
+        <v>81200</v>
       </c>
       <c r="F45" s="3">
-        <v>61300</v>
+        <v>75700</v>
       </c>
       <c r="G45" s="3">
-        <v>55700</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>16</v>
+        <v>64200</v>
+      </c>
+      <c r="H45" s="3">
+        <v>58400</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>16</v>
@@ -1882,25 +1981,28 @@
       <c r="M45" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1169400</v>
+        <v>1445900</v>
       </c>
       <c r="E46" s="3">
-        <v>663100</v>
+        <v>1224900</v>
       </c>
       <c r="F46" s="3">
-        <v>602700</v>
+        <v>694500</v>
       </c>
       <c r="G46" s="3">
-        <v>618800</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>16</v>
+        <v>631300</v>
+      </c>
+      <c r="H46" s="3">
+        <v>648200</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>16</v>
@@ -1917,25 +2019,28 @@
       <c r="M46" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>17700</v>
+        <v>18700</v>
       </c>
       <c r="E47" s="3">
-        <v>17700</v>
+        <v>18500</v>
       </c>
       <c r="F47" s="3">
-        <v>17000</v>
+        <v>18500</v>
       </c>
       <c r="G47" s="3">
-        <v>9800</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>16</v>
+        <v>17800</v>
+      </c>
+      <c r="H47" s="3">
+        <v>10300</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>16</v>
@@ -1952,25 +2057,28 @@
       <c r="M47" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>305700</v>
+        <v>336500</v>
       </c>
       <c r="E48" s="3">
-        <v>292100</v>
+        <v>320200</v>
       </c>
       <c r="F48" s="3">
-        <v>249900</v>
+        <v>306000</v>
       </c>
       <c r="G48" s="3">
-        <v>189600</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>16</v>
+        <v>261800</v>
+      </c>
+      <c r="H48" s="3">
+        <v>198600</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>16</v>
@@ -1987,26 +2095,29 @@
       <c r="M48" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E49" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F49" s="3">
+        <v>1200</v>
+      </c>
+      <c r="G49" s="3">
         <v>1100</v>
       </c>
-      <c r="E49" s="3">
-        <v>1100</v>
-      </c>
-      <c r="F49" s="3">
-        <v>1100</v>
-      </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1200</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="I49" s="3" t="s">
         <v>16</v>
       </c>
@@ -2022,8 +2133,11 @@
       <c r="M49" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2057,8 +2171,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2092,25 +2209,28 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>4600</v>
+        <v>9100</v>
       </c>
       <c r="E52" s="3">
-        <v>4200</v>
+        <v>4800</v>
       </c>
       <c r="F52" s="3">
-        <v>5300</v>
+        <v>4400</v>
       </c>
       <c r="G52" s="3">
-        <v>9800</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>16</v>
+        <v>5500</v>
+      </c>
+      <c r="H52" s="3">
+        <v>10300</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>16</v>
@@ -2127,8 +2247,11 @@
       <c r="M52" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2162,25 +2285,28 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1498500</v>
+        <v>1813100</v>
       </c>
       <c r="E54" s="3">
-        <v>978200</v>
+        <v>1569600</v>
       </c>
       <c r="F54" s="3">
-        <v>876000</v>
+        <v>1024600</v>
       </c>
       <c r="G54" s="3">
-        <v>829300</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>16</v>
+        <v>917600</v>
+      </c>
+      <c r="H54" s="3">
+        <v>868600</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>16</v>
@@ -2197,8 +2323,11 @@
       <c r="M54" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2212,8 +2341,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2227,25 +2357,26 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>252100</v>
+        <v>303000</v>
       </c>
       <c r="E57" s="3">
-        <v>268600</v>
+        <v>264000</v>
       </c>
       <c r="F57" s="3">
-        <v>182200</v>
+        <v>281300</v>
       </c>
       <c r="G57" s="3">
-        <v>180400</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>16</v>
+        <v>190800</v>
+      </c>
+      <c r="H57" s="3">
+        <v>189000</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>16</v>
@@ -2262,25 +2393,28 @@
       <c r="M57" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>49600</v>
+        <v>79600</v>
       </c>
       <c r="E58" s="3">
-        <v>29800</v>
+        <v>52000</v>
       </c>
       <c r="F58" s="3">
-        <v>29700</v>
+        <v>31300</v>
       </c>
       <c r="G58" s="3">
-        <v>27500</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>16</v>
+        <v>31100</v>
+      </c>
+      <c r="H58" s="3">
+        <v>28800</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>16</v>
@@ -2297,25 +2431,28 @@
       <c r="M58" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>133200</v>
+        <v>122300</v>
       </c>
       <c r="E59" s="3">
-        <v>141900</v>
+        <v>139500</v>
       </c>
       <c r="F59" s="3">
-        <v>139600</v>
+        <v>148700</v>
       </c>
       <c r="G59" s="3">
-        <v>100900</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>16</v>
+        <v>146200</v>
+      </c>
+      <c r="H59" s="3">
+        <v>105700</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>16</v>
@@ -2332,25 +2469,28 @@
       <c r="M59" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>434900</v>
+        <v>504900</v>
       </c>
       <c r="E60" s="3">
-        <v>440300</v>
+        <v>455500</v>
       </c>
       <c r="F60" s="3">
-        <v>351500</v>
+        <v>461200</v>
       </c>
       <c r="G60" s="3">
-        <v>308800</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>16</v>
+        <v>368100</v>
+      </c>
+      <c r="H60" s="3">
+        <v>323400</v>
       </c>
       <c r="I60" s="3" t="s">
         <v>16</v>
@@ -2367,25 +2507,28 @@
       <c r="M60" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>10800</v>
+        <v>0</v>
       </c>
       <c r="E61" s="3">
-        <v>10800</v>
+        <v>11300</v>
       </c>
       <c r="F61" s="3">
-        <v>10800</v>
+        <v>11300</v>
       </c>
       <c r="G61" s="3">
-        <v>18100</v>
+        <v>11300</v>
       </c>
       <c r="H61" s="3">
-        <v>0</v>
+        <v>18900</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
@@ -2402,26 +2545,29 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>29900</v>
+        <v>38200</v>
       </c>
       <c r="E62" s="3">
-        <v>32100</v>
+        <v>31300</v>
       </c>
       <c r="F62" s="3">
-        <v>0</v>
+        <v>33600</v>
       </c>
       <c r="G62" s="3">
+        <v>0</v>
+      </c>
+      <c r="H62" s="3">
         <v>800</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="I62" s="3" t="s">
         <v>16</v>
       </c>
@@ -2437,8 +2583,11 @@
       <c r="M62" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2472,8 +2621,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2507,8 +2659,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2542,25 +2697,28 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>475500</v>
+        <v>543100</v>
       </c>
       <c r="E66" s="3">
-        <v>483200</v>
+        <v>498100</v>
       </c>
       <c r="F66" s="3">
-        <v>362300</v>
+        <v>506100</v>
       </c>
       <c r="G66" s="3">
-        <v>327600</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>16</v>
+        <v>379500</v>
+      </c>
+      <c r="H66" s="3">
+        <v>343200</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>16</v>
@@ -2577,8 +2735,11 @@
       <c r="M66" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2592,8 +2753,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2627,8 +2789,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2662,8 +2827,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2671,16 +2839,16 @@
         <v>0</v>
       </c>
       <c r="E70" s="3">
-        <v>1163600</v>
+        <v>0</v>
       </c>
       <c r="F70" s="3">
-        <v>1141200</v>
+        <v>1218800</v>
       </c>
       <c r="G70" s="3">
-        <v>1084700</v>
+        <v>1195300</v>
       </c>
       <c r="H70" s="3">
-        <v>0</v>
+        <v>1136200</v>
       </c>
       <c r="I70" s="3">
         <v>0</v>
@@ -2697,8 +2865,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2732,25 +2903,28 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-821100</v>
+        <v>-876100</v>
       </c>
       <c r="E72" s="3">
-        <v>-760100</v>
+        <v>-860000</v>
       </c>
       <c r="F72" s="3">
-        <v>-711900</v>
+        <v>-796100</v>
       </c>
       <c r="G72" s="3">
-        <v>-677100</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>16</v>
+        <v>-745700</v>
+      </c>
+      <c r="H72" s="3">
+        <v>-709300</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>16</v>
@@ -2767,8 +2941,11 @@
       <c r="M72" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2802,8 +2979,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2837,8 +3017,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2872,25 +3055,28 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1023000</v>
+        <v>1270000</v>
       </c>
       <c r="E76" s="3">
-        <v>-668600</v>
+        <v>1071500</v>
       </c>
       <c r="F76" s="3">
-        <v>-627500</v>
+        <v>-700300</v>
       </c>
       <c r="G76" s="3">
-        <v>-583000</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>16</v>
+        <v>-657200</v>
+      </c>
+      <c r="H76" s="3">
+        <v>-610700</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>16</v>
@@ -2907,8 +3093,11 @@
       <c r="M76" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2942,83 +3131,92 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
     </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-61000</v>
+        <v>-16100</v>
       </c>
       <c r="E81" s="3">
-        <v>-51000</v>
+        <v>-63900</v>
       </c>
       <c r="F81" s="3">
-        <v>-42000</v>
+        <v>-53400</v>
       </c>
       <c r="G81" s="3">
-        <v>-50900</v>
+        <v>-44000</v>
       </c>
       <c r="H81" s="3">
-        <v>-46400</v>
+        <v>-53300</v>
       </c>
       <c r="I81" s="3">
-        <v>-29200</v>
+        <v>-48600</v>
       </c>
       <c r="J81" s="3">
+        <v>-30600</v>
+      </c>
+      <c r="K81" s="3">
         <v>-42300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-147200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-33400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-23500</v>
       </c>
     </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3032,8 +3230,9 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3043,11 +3242,11 @@
       <c r="E83" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F83" s="3">
-        <v>25400</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>16</v>
+      <c r="F83" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G83" s="3">
+        <v>26600</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>16</v>
@@ -3055,20 +3254,23 @@
       <c r="I83" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J83" s="3">
+      <c r="J83" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K83" s="3">
         <v>19100</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="L83" s="3" t="s">
         <v>16</v>
       </c>
       <c r="M83" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3102,8 +3304,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3137,8 +3342,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3172,8 +3380,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3207,8 +3418,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3242,43 +3456,49 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-15700</v>
+      </c>
+      <c r="E89" s="3">
         <v>-400</v>
       </c>
-      <c r="E89" s="3">
-        <v>13600</v>
-      </c>
       <c r="F89" s="3">
-        <v>-22600</v>
+        <v>14300</v>
       </c>
       <c r="G89" s="3">
-        <v>-18500</v>
+        <v>-23600</v>
       </c>
       <c r="H89" s="3">
+        <v>-19400</v>
+      </c>
+      <c r="I89" s="3">
         <v>-300</v>
       </c>
-      <c r="I89" s="3">
-        <v>-22400</v>
-      </c>
       <c r="J89" s="3">
+        <v>-23400</v>
+      </c>
+      <c r="K89" s="3">
         <v>7600</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="L89" s="3" t="s">
         <v>16</v>
       </c>
       <c r="M89" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3292,8 +3512,9 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3303,11 +3524,11 @@
       <c r="E91" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F91" s="3">
-        <v>-45300</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>16</v>
+      <c r="F91" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-47400</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>16</v>
@@ -3315,20 +3536,23 @@
       <c r="I91" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J91" s="3">
+      <c r="J91" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K91" s="3">
         <v>-46800</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="L91" s="3" t="s">
         <v>16</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3362,8 +3586,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3397,43 +3624,49 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-388200</v>
+        <v>-157800</v>
       </c>
       <c r="E94" s="3">
-        <v>-42800</v>
+        <v>-406600</v>
       </c>
       <c r="F94" s="3">
-        <v>11300</v>
+        <v>-44900</v>
       </c>
       <c r="G94" s="3">
-        <v>21600</v>
+        <v>11900</v>
       </c>
       <c r="H94" s="3">
-        <v>54700</v>
+        <v>22700</v>
       </c>
       <c r="I94" s="3">
-        <v>40600</v>
+        <v>57300</v>
       </c>
       <c r="J94" s="3">
+        <v>42500</v>
+      </c>
+      <c r="K94" s="3">
         <v>69000</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="L94" s="3" t="s">
         <v>16</v>
       </c>
       <c r="M94" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3447,8 +3680,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3482,8 +3716,11 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3517,8 +3754,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3552,8 +3792,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3587,109 +3830,121 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>581900</v>
+        <v>269300</v>
       </c>
       <c r="E100" s="3">
-        <v>20200</v>
+        <v>609500</v>
       </c>
       <c r="F100" s="3">
-        <v>44900</v>
+        <v>21100</v>
       </c>
       <c r="G100" s="3">
+        <v>47000</v>
+      </c>
+      <c r="H100" s="3">
         <v>100</v>
       </c>
-      <c r="H100" s="3">
-        <v>-38600</v>
-      </c>
       <c r="I100" s="3">
-        <v>3000</v>
+        <v>-40500</v>
       </c>
       <c r="J100" s="3">
+        <v>3200</v>
+      </c>
+      <c r="K100" s="3">
         <v>-32400</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="L100" s="3" t="s">
         <v>16</v>
       </c>
       <c r="M100" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-11200</v>
+      </c>
+      <c r="E101" s="3">
         <v>1400</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>1300</v>
       </c>
-      <c r="F101" s="3">
-        <v>7200</v>
-      </c>
       <c r="G101" s="3">
-        <v>-3800</v>
+        <v>7600</v>
       </c>
       <c r="H101" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="I101" s="3">
         <v>700</v>
       </c>
-      <c r="I101" s="3">
-        <v>-3000</v>
-      </c>
       <c r="J101" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="K101" s="3">
         <v>-200</v>
       </c>
-      <c r="K101" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="L101" s="3" t="s">
         <v>16</v>
       </c>
       <c r="M101" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>194700</v>
+        <v>84600</v>
       </c>
       <c r="E102" s="3">
-        <v>-7800</v>
+        <v>203900</v>
       </c>
       <c r="F102" s="3">
-        <v>40900</v>
+        <v>-8100</v>
       </c>
       <c r="G102" s="3">
-        <v>-600</v>
+        <v>42900</v>
       </c>
       <c r="H102" s="3">
-        <v>16400</v>
+        <v>-700</v>
       </c>
       <c r="I102" s="3">
-        <v>18300</v>
+        <v>17200</v>
       </c>
       <c r="J102" s="3">
+        <v>19200</v>
+      </c>
+      <c r="K102" s="3">
         <v>44000</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="L102" s="3" t="s">
         <v>16</v>
       </c>
       <c r="M102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N102" s="3" t="s">
         <v>16</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="92">
   <si>
     <t>KC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,181 +665,193 @@
     <col min="1" max="1" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>263000</v>
+        <v>293800</v>
       </c>
       <c r="E8" s="3">
-        <v>233500</v>
+        <v>264100</v>
       </c>
       <c r="F8" s="3">
-        <v>211600</v>
+        <v>234500</v>
       </c>
       <c r="G8" s="3">
-        <v>178500</v>
+        <v>212500</v>
       </c>
       <c r="H8" s="3">
-        <v>152400</v>
+        <v>179300</v>
       </c>
       <c r="I8" s="3">
-        <v>142200</v>
+        <v>153100</v>
       </c>
       <c r="J8" s="3">
+        <v>142900</v>
+      </c>
+      <c r="K8" s="3">
         <v>128700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>105200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>83900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>64300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>60900</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>245800</v>
+        <v>279600</v>
       </c>
       <c r="E9" s="3">
-        <v>221200</v>
+        <v>246900</v>
       </c>
       <c r="F9" s="3">
-        <v>200800</v>
+        <v>222100</v>
       </c>
       <c r="G9" s="3">
-        <v>170300</v>
+        <v>201700</v>
       </c>
       <c r="H9" s="3">
-        <v>149500</v>
+        <v>171000</v>
       </c>
       <c r="I9" s="3">
-        <v>145300</v>
+        <v>150200</v>
       </c>
       <c r="J9" s="3">
+        <v>146000</v>
+      </c>
+      <c r="K9" s="3">
         <v>135500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>114200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>92300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>68900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>67200</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>14100</v>
+      </c>
+      <c r="E10" s="3">
         <v>17200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>12300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>10800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>8300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>2900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>-3100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>-6900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>-9000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>-8400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>-4600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>-6300</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -854,46 +866,50 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>25500</v>
+        <v>27700</v>
       </c>
       <c r="E12" s="3">
-        <v>35100</v>
+        <v>25600</v>
       </c>
       <c r="F12" s="3">
-        <v>29800</v>
+        <v>35300</v>
       </c>
       <c r="G12" s="3">
-        <v>26100</v>
+        <v>29900</v>
       </c>
       <c r="H12" s="3">
-        <v>23700</v>
+        <v>26200</v>
       </c>
       <c r="I12" s="3">
-        <v>21800</v>
+        <v>23800</v>
       </c>
       <c r="J12" s="3">
+        <v>21900</v>
+      </c>
+      <c r="K12" s="3">
         <v>18900</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>17300</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>17200</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>13300</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>14600</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -930,8 +946,11 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -968,8 +987,11 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1006,8 +1028,11 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1019,84 +1044,91 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>299900</v>
+        <v>331200</v>
       </c>
       <c r="E17" s="3">
-        <v>298900</v>
+        <v>301200</v>
       </c>
       <c r="F17" s="3">
-        <v>255500</v>
+        <v>300200</v>
       </c>
       <c r="G17" s="3">
-        <v>224600</v>
+        <v>256600</v>
       </c>
       <c r="H17" s="3">
-        <v>195000</v>
+        <v>225600</v>
       </c>
       <c r="I17" s="3">
-        <v>188400</v>
+        <v>195800</v>
       </c>
       <c r="J17" s="3">
+        <v>189200</v>
+      </c>
+      <c r="K17" s="3">
         <v>167800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>149900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>121600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>91700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>89800</v>
       </c>
     </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-36900</v>
+        <v>-37500</v>
       </c>
       <c r="E18" s="3">
-        <v>-65400</v>
+        <v>-37100</v>
       </c>
       <c r="F18" s="3">
-        <v>-43900</v>
+        <v>-65700</v>
       </c>
       <c r="G18" s="3">
-        <v>-46100</v>
+        <v>-44100</v>
       </c>
       <c r="H18" s="3">
-        <v>-42600</v>
+        <v>-46300</v>
       </c>
       <c r="I18" s="3">
-        <v>-46200</v>
+        <v>-42800</v>
       </c>
       <c r="J18" s="3">
+        <v>-46400</v>
+      </c>
+      <c r="K18" s="3">
         <v>-39200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-44700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-37700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-27400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-28900</v>
       </c>
     </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1111,63 +1143,67 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>22100</v>
+        <v>22200</v>
       </c>
       <c r="E20" s="3">
+        <v>22200</v>
+      </c>
+      <c r="F20" s="3">
         <v>2100</v>
       </c>
-      <c r="F20" s="3">
-        <v>-5300</v>
-      </c>
       <c r="G20" s="3">
-        <v>9900</v>
+        <v>-5400</v>
       </c>
       <c r="H20" s="3">
+        <v>10000</v>
+      </c>
+      <c r="I20" s="3">
         <v>-10400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-1900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>9400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>4000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-3900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-4200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D21" s="3">
-        <v>-23900</v>
+      <c r="D21" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="E21" s="3">
-        <v>-61400</v>
+        <v>-24000</v>
       </c>
       <c r="F21" s="3">
-        <v>-17900</v>
+        <v>-61700</v>
       </c>
       <c r="G21" s="3">
-        <v>-9500</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>16</v>
+        <v>-18000</v>
+      </c>
+      <c r="H21" s="3">
+        <v>-9600</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>16</v>
@@ -1175,119 +1211,128 @@
       <c r="J21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L21" s="3">
         <v>-21600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-2300</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="N21" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>300</v>
+      </c>
+      <c r="E22" s="3">
         <v>600</v>
-      </c>
-      <c r="E22" s="3">
-        <v>300</v>
       </c>
       <c r="F22" s="3">
         <v>300</v>
       </c>
       <c r="G22" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="H22" s="3">
         <v>0</v>
       </c>
       <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
         <v>300</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>1200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>1300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>1500</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-15400</v>
+        <v>-15600</v>
       </c>
       <c r="E23" s="3">
-        <v>-63600</v>
+        <v>-15500</v>
       </c>
       <c r="F23" s="3">
-        <v>-49600</v>
+        <v>-63900</v>
       </c>
       <c r="G23" s="3">
-        <v>-36100</v>
+        <v>-49800</v>
       </c>
       <c r="H23" s="3">
-        <v>-53000</v>
+        <v>-36300</v>
       </c>
       <c r="I23" s="3">
-        <v>-48400</v>
+        <v>-53200</v>
       </c>
       <c r="J23" s="3">
+        <v>-48600</v>
+      </c>
+      <c r="K23" s="3">
         <v>-30200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-41900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-42900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-33100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-23200</v>
       </c>
     </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>500</v>
+      </c>
+      <c r="E24" s="3">
         <v>600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>900</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>300</v>
-      </c>
-      <c r="J24" s="3">
-        <v>400</v>
       </c>
       <c r="K24" s="3">
         <v>400</v>
@@ -1296,13 +1341,16 @@
         <v>400</v>
       </c>
       <c r="M24" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N24" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1339,46 +1387,52 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-16000</v>
+        <v>-16100</v>
       </c>
       <c r="E26" s="3">
-        <v>-63900</v>
+        <v>-16100</v>
       </c>
       <c r="F26" s="3">
-        <v>-50500</v>
+        <v>-64200</v>
       </c>
       <c r="G26" s="3">
-        <v>-36400</v>
+        <v>-50700</v>
       </c>
       <c r="H26" s="3">
-        <v>-53300</v>
+        <v>-36600</v>
       </c>
       <c r="I26" s="3">
-        <v>-48600</v>
+        <v>-53600</v>
       </c>
       <c r="J26" s="3">
+        <v>-48800</v>
+      </c>
+      <c r="K26" s="3">
         <v>-30600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-42300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-43200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-33400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-23500</v>
       </c>
     </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1386,37 +1440,40 @@
         <v>-16100</v>
       </c>
       <c r="E27" s="3">
-        <v>-63900</v>
+        <v>-16100</v>
       </c>
       <c r="F27" s="3">
-        <v>-53400</v>
+        <v>-64200</v>
       </c>
       <c r="G27" s="3">
-        <v>-44000</v>
+        <v>-53600</v>
       </c>
       <c r="H27" s="3">
-        <v>-53300</v>
+        <v>-44200</v>
       </c>
       <c r="I27" s="3">
-        <v>-48600</v>
+        <v>-53600</v>
       </c>
       <c r="J27" s="3">
+        <v>-48800</v>
+      </c>
+      <c r="K27" s="3">
         <v>-30600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-42300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-147200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-33400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-23500</v>
       </c>
     </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1453,8 +1510,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1491,8 +1551,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1529,8 +1592,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1567,46 +1633,52 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-22100</v>
+        <v>-22200</v>
       </c>
       <c r="E32" s="3">
+        <v>-22200</v>
+      </c>
+      <c r="F32" s="3">
         <v>-2100</v>
       </c>
-      <c r="F32" s="3">
-        <v>5300</v>
-      </c>
       <c r="G32" s="3">
-        <v>-9900</v>
+        <v>5400</v>
       </c>
       <c r="H32" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="I32" s="3">
         <v>10400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>1900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-9400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-4000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>3900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>4200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-7200</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1614,37 +1686,40 @@
         <v>-16100</v>
       </c>
       <c r="E33" s="3">
-        <v>-63900</v>
+        <v>-16100</v>
       </c>
       <c r="F33" s="3">
-        <v>-53400</v>
+        <v>-64200</v>
       </c>
       <c r="G33" s="3">
-        <v>-44000</v>
+        <v>-53600</v>
       </c>
       <c r="H33" s="3">
-        <v>-53300</v>
+        <v>-44200</v>
       </c>
       <c r="I33" s="3">
-        <v>-48600</v>
+        <v>-53600</v>
       </c>
       <c r="J33" s="3">
+        <v>-48800</v>
+      </c>
+      <c r="K33" s="3">
         <v>-30600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-42300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-147200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-33400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-23500</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1681,8 +1756,11 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1690,80 +1768,86 @@
         <v>-16100</v>
       </c>
       <c r="E35" s="3">
-        <v>-63900</v>
+        <v>-16100</v>
       </c>
       <c r="F35" s="3">
-        <v>-53400</v>
+        <v>-64200</v>
       </c>
       <c r="G35" s="3">
-        <v>-44000</v>
+        <v>-53600</v>
       </c>
       <c r="H35" s="3">
-        <v>-53300</v>
+        <v>-44200</v>
       </c>
       <c r="I35" s="3">
-        <v>-48600</v>
+        <v>-53600</v>
       </c>
       <c r="J35" s="3">
+        <v>-48800</v>
+      </c>
+      <c r="K35" s="3">
         <v>-30600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-42300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-147200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-33400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-23500</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1778,8 +1862,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1794,28 +1879,29 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>588200</v>
+        <v>523200</v>
       </c>
       <c r="E41" s="3">
-        <v>503600</v>
+        <v>590700</v>
       </c>
       <c r="F41" s="3">
-        <v>299700</v>
+        <v>505800</v>
       </c>
       <c r="G41" s="3">
-        <v>307800</v>
+        <v>301000</v>
       </c>
       <c r="H41" s="3">
-        <v>264900</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>16</v>
+        <v>309100</v>
+      </c>
+      <c r="I41" s="3">
+        <v>266100</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>16</v>
@@ -1832,28 +1918,31 @@
       <c r="N41" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>445800</v>
+        <v>411400</v>
       </c>
       <c r="E42" s="3">
-        <v>373200</v>
+        <v>447700</v>
       </c>
       <c r="F42" s="3">
-        <v>34800</v>
+        <v>374800</v>
       </c>
       <c r="G42" s="3">
-        <v>34300</v>
+        <v>34900</v>
       </c>
       <c r="H42" s="3">
-        <v>117100</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>16</v>
+        <v>34400</v>
+      </c>
+      <c r="I42" s="3">
+        <v>117600</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>16</v>
@@ -1870,28 +1959,31 @@
       <c r="N42" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>327800</v>
+        <v>388100</v>
       </c>
       <c r="E43" s="3">
-        <v>266900</v>
+        <v>329200</v>
       </c>
       <c r="F43" s="3">
-        <v>284400</v>
+        <v>268000</v>
       </c>
       <c r="G43" s="3">
-        <v>225000</v>
+        <v>285600</v>
       </c>
       <c r="H43" s="3">
-        <v>207800</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>16</v>
+        <v>226000</v>
+      </c>
+      <c r="I43" s="3">
+        <v>208700</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>16</v>
@@ -1908,8 +2000,11 @@
       <c r="N43" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1946,28 +2041,31 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>84200</v>
+        <v>135500</v>
       </c>
       <c r="E45" s="3">
-        <v>81200</v>
+        <v>84500</v>
       </c>
       <c r="F45" s="3">
-        <v>75700</v>
+        <v>81600</v>
       </c>
       <c r="G45" s="3">
-        <v>64200</v>
+        <v>76100</v>
       </c>
       <c r="H45" s="3">
-        <v>58400</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>16</v>
+        <v>64500</v>
+      </c>
+      <c r="I45" s="3">
+        <v>58600</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>16</v>
@@ -1984,28 +2082,31 @@
       <c r="N45" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1445900</v>
+        <v>1458200</v>
       </c>
       <c r="E46" s="3">
-        <v>1224900</v>
+        <v>1452200</v>
       </c>
       <c r="F46" s="3">
-        <v>694500</v>
+        <v>1230200</v>
       </c>
       <c r="G46" s="3">
-        <v>631300</v>
+        <v>697500</v>
       </c>
       <c r="H46" s="3">
-        <v>648200</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>16</v>
+        <v>634000</v>
+      </c>
+      <c r="I46" s="3">
+        <v>651000</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>16</v>
@@ -2022,29 +2123,32 @@
       <c r="N46" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>18700</v>
+        <v>20200</v>
       </c>
       <c r="E47" s="3">
-        <v>18500</v>
+        <v>18800</v>
       </c>
       <c r="F47" s="3">
-        <v>18500</v>
+        <v>18600</v>
       </c>
       <c r="G47" s="3">
-        <v>17800</v>
+        <v>18600</v>
       </c>
       <c r="H47" s="3">
+        <v>17900</v>
+      </c>
+      <c r="I47" s="3">
         <v>10300</v>
       </c>
-      <c r="I47" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="J47" s="3" t="s">
         <v>16</v>
       </c>
@@ -2060,28 +2164,31 @@
       <c r="N47" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>336500</v>
+        <v>344400</v>
       </c>
       <c r="E48" s="3">
-        <v>320200</v>
+        <v>337900</v>
       </c>
       <c r="F48" s="3">
-        <v>306000</v>
+        <v>321600</v>
       </c>
       <c r="G48" s="3">
-        <v>261800</v>
+        <v>307300</v>
       </c>
       <c r="H48" s="3">
-        <v>198600</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>16</v>
+        <v>262900</v>
+      </c>
+      <c r="I48" s="3">
+        <v>199500</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>16</v>
@@ -2098,29 +2205,32 @@
       <c r="N48" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E49" s="3">
         <v>3000</v>
-      </c>
-      <c r="E49" s="3">
-        <v>1200</v>
       </c>
       <c r="F49" s="3">
         <v>1200</v>
       </c>
       <c r="G49" s="3">
+        <v>1200</v>
+      </c>
+      <c r="H49" s="3">
         <v>1100</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1200</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="J49" s="3" t="s">
         <v>16</v>
       </c>
@@ -2136,8 +2246,11 @@
       <c r="N49" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2174,8 +2287,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2212,29 +2328,32 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E52" s="3">
         <v>9100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>4800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>4400</v>
       </c>
-      <c r="G52" s="3">
-        <v>5500</v>
-      </c>
       <c r="H52" s="3">
+        <v>5600</v>
+      </c>
+      <c r="I52" s="3">
         <v>10300</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="J52" s="3" t="s">
         <v>16</v>
       </c>
@@ -2250,8 +2369,11 @@
       <c r="N52" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2288,28 +2410,31 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1813100</v>
+        <v>1827200</v>
       </c>
       <c r="E54" s="3">
-        <v>1569600</v>
+        <v>1821000</v>
       </c>
       <c r="F54" s="3">
-        <v>1024600</v>
+        <v>1576400</v>
       </c>
       <c r="G54" s="3">
-        <v>917600</v>
+        <v>1029100</v>
       </c>
       <c r="H54" s="3">
-        <v>868600</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>16</v>
+        <v>921500</v>
+      </c>
+      <c r="I54" s="3">
+        <v>872400</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>16</v>
@@ -2326,8 +2451,11 @@
       <c r="N54" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2342,8 +2470,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2358,28 +2487,29 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>303000</v>
+        <v>314300</v>
       </c>
       <c r="E57" s="3">
-        <v>264000</v>
+        <v>304300</v>
       </c>
       <c r="F57" s="3">
-        <v>281300</v>
+        <v>265200</v>
       </c>
       <c r="G57" s="3">
-        <v>190800</v>
+        <v>282500</v>
       </c>
       <c r="H57" s="3">
-        <v>189000</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>16</v>
+        <v>191700</v>
+      </c>
+      <c r="I57" s="3">
+        <v>189800</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>16</v>
@@ -2396,28 +2526,31 @@
       <c r="N57" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>79600</v>
+        <v>71200</v>
       </c>
       <c r="E58" s="3">
-        <v>52000</v>
+        <v>61500</v>
       </c>
       <c r="F58" s="3">
-        <v>31300</v>
+        <v>34900</v>
       </c>
       <c r="G58" s="3">
-        <v>31100</v>
+        <v>15300</v>
       </c>
       <c r="H58" s="3">
-        <v>28800</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>16</v>
+        <v>31200</v>
+      </c>
+      <c r="I58" s="3">
+        <v>29000</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>16</v>
@@ -2434,28 +2567,31 @@
       <c r="N58" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>122300</v>
+        <v>148600</v>
       </c>
       <c r="E59" s="3">
-        <v>139500</v>
+        <v>141200</v>
       </c>
       <c r="F59" s="3">
-        <v>148700</v>
+        <v>157400</v>
       </c>
       <c r="G59" s="3">
-        <v>146200</v>
+        <v>165400</v>
       </c>
       <c r="H59" s="3">
-        <v>105700</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>16</v>
+        <v>146800</v>
+      </c>
+      <c r="I59" s="3">
+        <v>106100</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>16</v>
@@ -2472,28 +2608,31 @@
       <c r="N59" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>504900</v>
+        <v>534100</v>
       </c>
       <c r="E60" s="3">
-        <v>455500</v>
+        <v>507100</v>
       </c>
       <c r="F60" s="3">
-        <v>461200</v>
+        <v>457500</v>
       </c>
       <c r="G60" s="3">
-        <v>368100</v>
+        <v>463200</v>
       </c>
       <c r="H60" s="3">
-        <v>323400</v>
-      </c>
-      <c r="I60" s="3" t="s">
-        <v>16</v>
+        <v>369700</v>
+      </c>
+      <c r="I60" s="3">
+        <v>324800</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>16</v>
@@ -2510,8 +2649,11 @@
       <c r="N60" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2519,19 +2661,19 @@
         <v>0</v>
       </c>
       <c r="E61" s="3">
-        <v>11300</v>
+        <v>0</v>
       </c>
       <c r="F61" s="3">
-        <v>11300</v>
+        <v>11400</v>
       </c>
       <c r="G61" s="3">
-        <v>11300</v>
+        <v>11400</v>
       </c>
       <c r="H61" s="3">
-        <v>18900</v>
+        <v>11400</v>
       </c>
       <c r="I61" s="3">
-        <v>0</v>
+        <v>19000</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -2548,29 +2690,32 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>38200</v>
+        <v>34200</v>
       </c>
       <c r="E62" s="3">
-        <v>31300</v>
+        <v>38400</v>
       </c>
       <c r="F62" s="3">
-        <v>33600</v>
+        <v>31400</v>
       </c>
       <c r="G62" s="3">
-        <v>0</v>
+        <v>33800</v>
       </c>
       <c r="H62" s="3">
+        <v>0</v>
+      </c>
+      <c r="I62" s="3">
         <v>800</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="J62" s="3" t="s">
         <v>16</v>
       </c>
@@ -2586,8 +2731,11 @@
       <c r="N62" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2624,8 +2772,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2662,8 +2813,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2700,28 +2854,31 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>543100</v>
+        <v>568300</v>
       </c>
       <c r="E66" s="3">
-        <v>498100</v>
+        <v>545500</v>
       </c>
       <c r="F66" s="3">
-        <v>506100</v>
+        <v>500200</v>
       </c>
       <c r="G66" s="3">
-        <v>379500</v>
+        <v>508300</v>
       </c>
       <c r="H66" s="3">
-        <v>343200</v>
-      </c>
-      <c r="I66" s="3" t="s">
-        <v>16</v>
+        <v>381100</v>
+      </c>
+      <c r="I66" s="3">
+        <v>344600</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>16</v>
@@ -2738,8 +2895,11 @@
       <c r="N66" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2754,8 +2914,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2792,8 +2953,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2830,8 +2994,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2842,16 +3009,16 @@
         <v>0</v>
       </c>
       <c r="F70" s="3">
-        <v>1218800</v>
+        <v>0</v>
       </c>
       <c r="G70" s="3">
-        <v>1195300</v>
+        <v>1224100</v>
       </c>
       <c r="H70" s="3">
-        <v>1136200</v>
+        <v>1200500</v>
       </c>
       <c r="I70" s="3">
-        <v>0</v>
+        <v>1141100</v>
       </c>
       <c r="J70" s="3">
         <v>0</v>
@@ -2868,8 +3035,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2906,28 +3076,31 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-876100</v>
+        <v>-896000</v>
       </c>
       <c r="E72" s="3">
-        <v>-860000</v>
+        <v>-879900</v>
       </c>
       <c r="F72" s="3">
-        <v>-796100</v>
+        <v>-863800</v>
       </c>
       <c r="G72" s="3">
-        <v>-745700</v>
+        <v>-799600</v>
       </c>
       <c r="H72" s="3">
-        <v>-709300</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>16</v>
+        <v>-748900</v>
+      </c>
+      <c r="I72" s="3">
+        <v>-712400</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>16</v>
@@ -2944,8 +3117,11 @@
       <c r="N72" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2982,8 +3158,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3020,8 +3199,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3058,28 +3240,31 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1270000</v>
+        <v>1258900</v>
       </c>
       <c r="E76" s="3">
-        <v>1071500</v>
+        <v>1275500</v>
       </c>
       <c r="F76" s="3">
-        <v>-700300</v>
+        <v>1076200</v>
       </c>
       <c r="G76" s="3">
-        <v>-657200</v>
+        <v>-703400</v>
       </c>
       <c r="H76" s="3">
-        <v>-610700</v>
-      </c>
-      <c r="I76" s="3" t="s">
-        <v>16</v>
+        <v>-660100</v>
+      </c>
+      <c r="I76" s="3">
+        <v>-613300</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>16</v>
@@ -3096,8 +3281,11 @@
       <c r="N76" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3134,51 +3322,57 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -3186,37 +3380,40 @@
         <v>-16100</v>
       </c>
       <c r="E81" s="3">
-        <v>-63900</v>
+        <v>-16100</v>
       </c>
       <c r="F81" s="3">
-        <v>-53400</v>
+        <v>-64200</v>
       </c>
       <c r="G81" s="3">
-        <v>-44000</v>
+        <v>-53600</v>
       </c>
       <c r="H81" s="3">
-        <v>-53300</v>
+        <v>-44200</v>
       </c>
       <c r="I81" s="3">
-        <v>-48600</v>
+        <v>-53600</v>
       </c>
       <c r="J81" s="3">
+        <v>-48800</v>
+      </c>
+      <c r="K81" s="3">
         <v>-30600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-42300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-147200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-33400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-23500</v>
       </c>
     </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3231,8 +3428,9 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3245,11 +3443,11 @@
       <c r="F83" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G83" s="3">
-        <v>26600</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>16</v>
+      <c r="G83" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H83" s="3">
+        <v>26700</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>16</v>
@@ -3257,20 +3455,23 @@
       <c r="J83" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K83" s="3">
+      <c r="K83" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L83" s="3">
         <v>19100</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="M83" s="3" t="s">
         <v>16</v>
       </c>
       <c r="N83" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3307,8 +3508,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3345,8 +3549,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3383,8 +3590,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3421,8 +3631,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3459,46 +3672,52 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3">
-        <v>-15700</v>
+      <c r="D89" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="E89" s="3">
+        <v>-15800</v>
+      </c>
+      <c r="F89" s="3">
         <v>-400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>14300</v>
       </c>
-      <c r="G89" s="3">
-        <v>-23600</v>
-      </c>
       <c r="H89" s="3">
-        <v>-19400</v>
+        <v>-23700</v>
       </c>
       <c r="I89" s="3">
+        <v>-19500</v>
+      </c>
+      <c r="J89" s="3">
         <v>-300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-23400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>7600</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="M89" s="3" t="s">
         <v>16</v>
       </c>
       <c r="N89" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3513,8 +3732,9 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3527,11 +3747,11 @@
       <c r="F91" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G91" s="3">
-        <v>-47400</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>16</v>
+      <c r="G91" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-47700</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>16</v>
@@ -3539,20 +3759,23 @@
       <c r="J91" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K91" s="3">
+      <c r="K91" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L91" s="3">
         <v>-46800</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="M91" s="3" t="s">
         <v>16</v>
       </c>
       <c r="N91" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3589,8 +3812,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3627,46 +3853,52 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>-157800</v>
+      <c r="D94" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="E94" s="3">
-        <v>-406600</v>
+        <v>-158400</v>
       </c>
       <c r="F94" s="3">
-        <v>-44900</v>
+        <v>-408400</v>
       </c>
       <c r="G94" s="3">
+        <v>-45100</v>
+      </c>
+      <c r="H94" s="3">
         <v>11900</v>
       </c>
-      <c r="H94" s="3">
-        <v>22700</v>
-      </c>
       <c r="I94" s="3">
-        <v>57300</v>
+        <v>22800</v>
       </c>
       <c r="J94" s="3">
+        <v>57500</v>
+      </c>
+      <c r="K94" s="3">
         <v>42500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>69000</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="M94" s="3" t="s">
         <v>16</v>
       </c>
       <c r="N94" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3681,8 +3913,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3719,8 +3952,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3757,8 +3993,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3795,8 +4034,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3833,118 +4075,130 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
-        <v>269300</v>
+      <c r="D100" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="E100" s="3">
-        <v>609500</v>
+        <v>270400</v>
       </c>
       <c r="F100" s="3">
-        <v>21100</v>
+        <v>612200</v>
       </c>
       <c r="G100" s="3">
-        <v>47000</v>
+        <v>21200</v>
       </c>
       <c r="H100" s="3">
+        <v>47300</v>
+      </c>
+      <c r="I100" s="3">
         <v>100</v>
       </c>
-      <c r="I100" s="3">
-        <v>-40500</v>
-      </c>
       <c r="J100" s="3">
+        <v>-40700</v>
+      </c>
+      <c r="K100" s="3">
         <v>3200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-32400</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="M100" s="3" t="s">
         <v>16</v>
       </c>
       <c r="N100" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3">
+      <c r="D101" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E101" s="3">
         <v>-11200</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>1400</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>1300</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>7600</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-4000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>700</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-3100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-200</v>
       </c>
-      <c r="L101" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="M101" s="3" t="s">
         <v>16</v>
       </c>
       <c r="N101" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
-        <v>84600</v>
+      <c r="D102" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="E102" s="3">
-        <v>203900</v>
+        <v>84900</v>
       </c>
       <c r="F102" s="3">
-        <v>-8100</v>
+        <v>204800</v>
       </c>
       <c r="G102" s="3">
-        <v>42900</v>
+        <v>-8200</v>
       </c>
       <c r="H102" s="3">
+        <v>43000</v>
+      </c>
+      <c r="I102" s="3">
         <v>-700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>17200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>19200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>44000</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="M102" s="3" t="s">
         <v>16</v>
       </c>
       <c r="N102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O102" s="3" t="s">
         <v>16</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="92">
   <si>
     <t>KC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,193 +665,206 @@
     <col min="1" max="1" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>293800</v>
+        <v>282900</v>
       </c>
       <c r="E8" s="3">
-        <v>264100</v>
+        <v>300000</v>
       </c>
       <c r="F8" s="3">
-        <v>234500</v>
+        <v>269700</v>
       </c>
       <c r="G8" s="3">
-        <v>212500</v>
+        <v>239400</v>
       </c>
       <c r="H8" s="3">
-        <v>179300</v>
+        <v>217000</v>
       </c>
       <c r="I8" s="3">
-        <v>153100</v>
+        <v>183100</v>
       </c>
       <c r="J8" s="3">
+        <v>156300</v>
+      </c>
+      <c r="K8" s="3">
         <v>142900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>128700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>105200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>83900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>64300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>60900</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>279600</v>
+        <v>264800</v>
       </c>
       <c r="E9" s="3">
-        <v>246900</v>
+        <v>285500</v>
       </c>
       <c r="F9" s="3">
-        <v>222100</v>
+        <v>252100</v>
       </c>
       <c r="G9" s="3">
-        <v>201700</v>
+        <v>226800</v>
       </c>
       <c r="H9" s="3">
-        <v>171000</v>
+        <v>206000</v>
       </c>
       <c r="I9" s="3">
-        <v>150200</v>
+        <v>174600</v>
       </c>
       <c r="J9" s="3">
+        <v>153400</v>
+      </c>
+      <c r="K9" s="3">
         <v>146000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>135500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>114200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>92300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>68900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>67200</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>14100</v>
+        <v>18200</v>
       </c>
       <c r="E10" s="3">
-        <v>17200</v>
+        <v>14400</v>
       </c>
       <c r="F10" s="3">
-        <v>12300</v>
+        <v>17600</v>
       </c>
       <c r="G10" s="3">
-        <v>10800</v>
+        <v>12600</v>
       </c>
       <c r="H10" s="3">
-        <v>8300</v>
+        <v>11000</v>
       </c>
       <c r="I10" s="3">
+        <v>8500</v>
+      </c>
+      <c r="J10" s="3">
         <v>2900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>-3100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>-6900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>-9000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>-8400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>-4600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>-6300</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -867,49 +880,53 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>27700</v>
+        <v>41300</v>
       </c>
       <c r="E12" s="3">
-        <v>25600</v>
+        <v>28200</v>
       </c>
       <c r="F12" s="3">
-        <v>35300</v>
+        <v>26100</v>
       </c>
       <c r="G12" s="3">
-        <v>29900</v>
+        <v>36000</v>
       </c>
       <c r="H12" s="3">
-        <v>26200</v>
+        <v>30500</v>
       </c>
       <c r="I12" s="3">
-        <v>23800</v>
+        <v>26800</v>
       </c>
       <c r="J12" s="3">
+        <v>24300</v>
+      </c>
+      <c r="K12" s="3">
         <v>21900</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>18900</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>17300</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>17200</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>13300</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>14600</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -949,8 +966,11 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -990,8 +1010,11 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1031,8 +1054,11 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1045,90 +1071,97 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>331200</v>
+        <v>337900</v>
       </c>
       <c r="E17" s="3">
-        <v>301200</v>
+        <v>338200</v>
       </c>
       <c r="F17" s="3">
-        <v>300200</v>
+        <v>307600</v>
       </c>
       <c r="G17" s="3">
-        <v>256600</v>
+        <v>306600</v>
       </c>
       <c r="H17" s="3">
-        <v>225600</v>
+        <v>262100</v>
       </c>
       <c r="I17" s="3">
-        <v>195800</v>
+        <v>230300</v>
       </c>
       <c r="J17" s="3">
+        <v>200000</v>
+      </c>
+      <c r="K17" s="3">
         <v>189200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>167800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>149900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>121600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>91700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>89800</v>
       </c>
     </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-37500</v>
+        <v>-54900</v>
       </c>
       <c r="E18" s="3">
-        <v>-37100</v>
+        <v>-38300</v>
       </c>
       <c r="F18" s="3">
-        <v>-65700</v>
+        <v>-37900</v>
       </c>
       <c r="G18" s="3">
-        <v>-44100</v>
+        <v>-67100</v>
       </c>
       <c r="H18" s="3">
-        <v>-46300</v>
+        <v>-45100</v>
       </c>
       <c r="I18" s="3">
-        <v>-42800</v>
+        <v>-47200</v>
       </c>
       <c r="J18" s="3">
+        <v>-43700</v>
+      </c>
+      <c r="K18" s="3">
         <v>-46400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-39200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-44700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-37700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-27400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-28900</v>
       </c>
     </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1144,69 +1177,73 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>22200</v>
+        <v>-3600</v>
       </c>
       <c r="E20" s="3">
-        <v>22200</v>
+        <v>22700</v>
       </c>
       <c r="F20" s="3">
+        <v>22700</v>
+      </c>
+      <c r="G20" s="3">
         <v>2100</v>
       </c>
-      <c r="G20" s="3">
-        <v>-5400</v>
-      </c>
       <c r="H20" s="3">
-        <v>10000</v>
+        <v>-5500</v>
       </c>
       <c r="I20" s="3">
-        <v>-10400</v>
+        <v>10200</v>
       </c>
       <c r="J20" s="3">
+        <v>-10700</v>
+      </c>
+      <c r="K20" s="3">
         <v>-1900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>9400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>4000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-3900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-4200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>16</v>
+      <c r="D21" s="3">
+        <v>-30400</v>
       </c>
       <c r="E21" s="3">
-        <v>-24000</v>
+        <v>-13400</v>
       </c>
       <c r="F21" s="3">
-        <v>-61700</v>
+        <v>-24600</v>
       </c>
       <c r="G21" s="3">
-        <v>-18000</v>
+        <v>-63000</v>
       </c>
       <c r="H21" s="3">
-        <v>-9600</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>16</v>
+        <v>-18300</v>
+      </c>
+      <c r="I21" s="3">
+        <v>-9800</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>16</v>
@@ -1214,102 +1251,111 @@
       <c r="K21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M21" s="3">
         <v>-21600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-2300</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O21" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>600</v>
+      </c>
+      <c r="E22" s="3">
         <v>300</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>600</v>
-      </c>
-      <c r="F22" s="3">
-        <v>300</v>
       </c>
       <c r="G22" s="3">
         <v>300</v>
       </c>
       <c r="H22" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="I22" s="3">
         <v>0</v>
       </c>
       <c r="J22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3">
         <v>300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>1200</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>1300</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>1500</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-15600</v>
+        <v>-59100</v>
       </c>
       <c r="E23" s="3">
-        <v>-15500</v>
+        <v>-15900</v>
       </c>
       <c r="F23" s="3">
-        <v>-63900</v>
+        <v>-15800</v>
       </c>
       <c r="G23" s="3">
-        <v>-49800</v>
+        <v>-65300</v>
       </c>
       <c r="H23" s="3">
-        <v>-36300</v>
+        <v>-50800</v>
       </c>
       <c r="I23" s="3">
-        <v>-53200</v>
+        <v>-37100</v>
       </c>
       <c r="J23" s="3">
+        <v>-54300</v>
+      </c>
+      <c r="K23" s="3">
         <v>-48600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-30200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-41900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-42900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-33100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-23200</v>
       </c>
     </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1317,25 +1363,25 @@
         <v>500</v>
       </c>
       <c r="E24" s="3">
+        <v>500</v>
+      </c>
+      <c r="F24" s="3">
         <v>600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>900</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>300</v>
-      </c>
-      <c r="K24" s="3">
-        <v>400</v>
       </c>
       <c r="L24" s="3">
         <v>400</v>
@@ -1344,13 +1390,16 @@
         <v>400</v>
       </c>
       <c r="N24" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="O24" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1390,90 +1439,99 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-16100</v>
+        <v>-59600</v>
       </c>
       <c r="E26" s="3">
-        <v>-16100</v>
+        <v>-16400</v>
       </c>
       <c r="F26" s="3">
-        <v>-64200</v>
+        <v>-16400</v>
       </c>
       <c r="G26" s="3">
-        <v>-50700</v>
+        <v>-65500</v>
       </c>
       <c r="H26" s="3">
-        <v>-36600</v>
+        <v>-51700</v>
       </c>
       <c r="I26" s="3">
-        <v>-53600</v>
+        <v>-37400</v>
       </c>
       <c r="J26" s="3">
+        <v>-54700</v>
+      </c>
+      <c r="K26" s="3">
         <v>-48800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-30600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-42300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-43200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-33400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-23500</v>
       </c>
     </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-16100</v>
+        <v>-59700</v>
       </c>
       <c r="E27" s="3">
-        <v>-16100</v>
+        <v>-16400</v>
       </c>
       <c r="F27" s="3">
-        <v>-64200</v>
+        <v>-16500</v>
       </c>
       <c r="G27" s="3">
-        <v>-53600</v>
+        <v>-65600</v>
       </c>
       <c r="H27" s="3">
-        <v>-44200</v>
+        <v>-54800</v>
       </c>
       <c r="I27" s="3">
-        <v>-53600</v>
+        <v>-45100</v>
       </c>
       <c r="J27" s="3">
+        <v>-54700</v>
+      </c>
+      <c r="K27" s="3">
         <v>-48800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-30600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-42300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-147200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-33400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-23500</v>
       </c>
     </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1513,8 +1571,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1554,8 +1615,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1595,8 +1659,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1636,90 +1703,99 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-22200</v>
+        <v>3600</v>
       </c>
       <c r="E32" s="3">
-        <v>-22200</v>
+        <v>-22700</v>
       </c>
       <c r="F32" s="3">
+        <v>-22700</v>
+      </c>
+      <c r="G32" s="3">
         <v>-2100</v>
       </c>
-      <c r="G32" s="3">
-        <v>5400</v>
-      </c>
       <c r="H32" s="3">
-        <v>-10000</v>
+        <v>5500</v>
       </c>
       <c r="I32" s="3">
-        <v>10400</v>
+        <v>-10200</v>
       </c>
       <c r="J32" s="3">
+        <v>10700</v>
+      </c>
+      <c r="K32" s="3">
         <v>1900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-9400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-4000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>3900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>4200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-7200</v>
       </c>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-16100</v>
+        <v>-59700</v>
       </c>
       <c r="E33" s="3">
-        <v>-16100</v>
+        <v>-16400</v>
       </c>
       <c r="F33" s="3">
-        <v>-64200</v>
+        <v>-16500</v>
       </c>
       <c r="G33" s="3">
-        <v>-53600</v>
+        <v>-65600</v>
       </c>
       <c r="H33" s="3">
-        <v>-44200</v>
+        <v>-54800</v>
       </c>
       <c r="I33" s="3">
-        <v>-53600</v>
+        <v>-45100</v>
       </c>
       <c r="J33" s="3">
+        <v>-54700</v>
+      </c>
+      <c r="K33" s="3">
         <v>-48800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-30600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-42300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-147200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-33400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-23500</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1759,95 +1835,104 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-16100</v>
+        <v>-59700</v>
       </c>
       <c r="E35" s="3">
-        <v>-16100</v>
+        <v>-16400</v>
       </c>
       <c r="F35" s="3">
-        <v>-64200</v>
+        <v>-16500</v>
       </c>
       <c r="G35" s="3">
-        <v>-53600</v>
+        <v>-65600</v>
       </c>
       <c r="H35" s="3">
-        <v>-44200</v>
+        <v>-54800</v>
       </c>
       <c r="I35" s="3">
-        <v>-53600</v>
+        <v>-45100</v>
       </c>
       <c r="J35" s="3">
+        <v>-54700</v>
+      </c>
+      <c r="K35" s="3">
         <v>-48800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-30600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-42300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-147200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-33400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-23500</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1863,8 +1948,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1880,31 +1966,32 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>523200</v>
+        <v>435800</v>
       </c>
       <c r="E41" s="3">
-        <v>590700</v>
+        <v>534300</v>
       </c>
       <c r="F41" s="3">
-        <v>505800</v>
+        <v>603200</v>
       </c>
       <c r="G41" s="3">
-        <v>301000</v>
+        <v>516500</v>
       </c>
       <c r="H41" s="3">
-        <v>309100</v>
+        <v>307300</v>
       </c>
       <c r="I41" s="3">
-        <v>266100</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>16</v>
+        <v>315600</v>
+      </c>
+      <c r="J41" s="3">
+        <v>271700</v>
       </c>
       <c r="K41" s="3" t="s">
         <v>16</v>
@@ -1921,31 +2008,34 @@
       <c r="O41" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>411400</v>
+        <v>415300</v>
       </c>
       <c r="E42" s="3">
-        <v>447700</v>
+        <v>420100</v>
       </c>
       <c r="F42" s="3">
-        <v>374800</v>
+        <v>457200</v>
       </c>
       <c r="G42" s="3">
-        <v>34900</v>
+        <v>382700</v>
       </c>
       <c r="H42" s="3">
-        <v>34400</v>
+        <v>35700</v>
       </c>
       <c r="I42" s="3">
-        <v>117600</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>16</v>
+        <v>35200</v>
+      </c>
+      <c r="J42" s="3">
+        <v>120100</v>
       </c>
       <c r="K42" s="3" t="s">
         <v>16</v>
@@ -1962,31 +2052,34 @@
       <c r="O42" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>388100</v>
+        <v>460800</v>
       </c>
       <c r="E43" s="3">
-        <v>329200</v>
+        <v>396300</v>
       </c>
       <c r="F43" s="3">
-        <v>268000</v>
+        <v>336200</v>
       </c>
       <c r="G43" s="3">
-        <v>285600</v>
+        <v>273700</v>
       </c>
       <c r="H43" s="3">
-        <v>226000</v>
+        <v>291600</v>
       </c>
       <c r="I43" s="3">
-        <v>208700</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>16</v>
+        <v>230800</v>
+      </c>
+      <c r="J43" s="3">
+        <v>213100</v>
       </c>
       <c r="K43" s="3" t="s">
         <v>16</v>
@@ -2003,8 +2096,11 @@
       <c r="O43" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2044,31 +2140,34 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>135500</v>
+        <v>153300</v>
       </c>
       <c r="E45" s="3">
-        <v>84500</v>
+        <v>138400</v>
       </c>
       <c r="F45" s="3">
-        <v>81600</v>
+        <v>86300</v>
       </c>
       <c r="G45" s="3">
-        <v>76100</v>
+        <v>83300</v>
       </c>
       <c r="H45" s="3">
-        <v>64500</v>
+        <v>77700</v>
       </c>
       <c r="I45" s="3">
-        <v>58600</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>16</v>
+        <v>65800</v>
+      </c>
+      <c r="J45" s="3">
+        <v>59800</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>16</v>
@@ -2085,31 +2184,34 @@
       <c r="O45" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1458200</v>
+        <v>1465200</v>
       </c>
       <c r="E46" s="3">
-        <v>1452200</v>
+        <v>1489100</v>
       </c>
       <c r="F46" s="3">
-        <v>1230200</v>
+        <v>1482900</v>
       </c>
       <c r="G46" s="3">
-        <v>697500</v>
+        <v>1256200</v>
       </c>
       <c r="H46" s="3">
-        <v>634000</v>
+        <v>712300</v>
       </c>
       <c r="I46" s="3">
-        <v>651000</v>
-      </c>
-      <c r="J46" s="3" t="s">
-        <v>16</v>
+        <v>647400</v>
+      </c>
+      <c r="J46" s="3">
+        <v>664800</v>
       </c>
       <c r="K46" s="3" t="s">
         <v>16</v>
@@ -2126,31 +2228,34 @@
       <c r="O46" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>20200</v>
+        <v>21600</v>
       </c>
       <c r="E47" s="3">
-        <v>18800</v>
+        <v>20600</v>
       </c>
       <c r="F47" s="3">
-        <v>18600</v>
+        <v>19200</v>
       </c>
       <c r="G47" s="3">
-        <v>18600</v>
+        <v>19000</v>
       </c>
       <c r="H47" s="3">
-        <v>17900</v>
+        <v>19000</v>
       </c>
       <c r="I47" s="3">
-        <v>10300</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>16</v>
+        <v>18300</v>
+      </c>
+      <c r="J47" s="3">
+        <v>10600</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>16</v>
@@ -2167,31 +2272,34 @@
       <c r="O47" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>344400</v>
+        <v>347000</v>
       </c>
       <c r="E48" s="3">
-        <v>337900</v>
+        <v>346900</v>
       </c>
       <c r="F48" s="3">
-        <v>321600</v>
+        <v>345100</v>
       </c>
       <c r="G48" s="3">
-        <v>307300</v>
+        <v>328400</v>
       </c>
       <c r="H48" s="3">
-        <v>262900</v>
+        <v>313800</v>
       </c>
       <c r="I48" s="3">
-        <v>199500</v>
-      </c>
-      <c r="J48" s="3" t="s">
-        <v>16</v>
+        <v>268500</v>
+      </c>
+      <c r="J48" s="3">
+        <v>203700</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>16</v>
@@ -2208,31 +2316,34 @@
       <c r="O48" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2500</v>
+        <v>13800</v>
       </c>
       <c r="E49" s="3">
-        <v>3000</v>
+        <v>2600</v>
       </c>
       <c r="F49" s="3">
-        <v>1200</v>
+        <v>3100</v>
       </c>
       <c r="G49" s="3">
         <v>1200</v>
       </c>
       <c r="H49" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="I49" s="3">
         <v>1200</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>16</v>
+      <c r="J49" s="3">
+        <v>1300</v>
       </c>
       <c r="K49" s="3" t="s">
         <v>16</v>
@@ -2249,8 +2360,11 @@
       <c r="O49" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2290,8 +2404,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2331,31 +2448,34 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E52" s="3">
         <v>1800</v>
       </c>
-      <c r="E52" s="3">
-        <v>9100</v>
-      </c>
       <c r="F52" s="3">
-        <v>4800</v>
+        <v>9300</v>
       </c>
       <c r="G52" s="3">
-        <v>4400</v>
+        <v>4900</v>
       </c>
       <c r="H52" s="3">
-        <v>5600</v>
+        <v>4500</v>
       </c>
       <c r="I52" s="3">
-        <v>10300</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>16</v>
+        <v>5700</v>
+      </c>
+      <c r="J52" s="3">
+        <v>10500</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>16</v>
@@ -2372,8 +2492,11 @@
       <c r="O52" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2413,31 +2536,34 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1827200</v>
+        <v>1850300</v>
       </c>
       <c r="E54" s="3">
-        <v>1821000</v>
+        <v>1861100</v>
       </c>
       <c r="F54" s="3">
-        <v>1576400</v>
+        <v>1859400</v>
       </c>
       <c r="G54" s="3">
-        <v>1029100</v>
+        <v>1609800</v>
       </c>
       <c r="H54" s="3">
-        <v>921500</v>
+        <v>1050800</v>
       </c>
       <c r="I54" s="3">
-        <v>872400</v>
-      </c>
-      <c r="J54" s="3" t="s">
-        <v>16</v>
+        <v>941000</v>
+      </c>
+      <c r="J54" s="3">
+        <v>890800</v>
       </c>
       <c r="K54" s="3" t="s">
         <v>16</v>
@@ -2454,8 +2580,11 @@
       <c r="O54" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2471,8 +2600,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2488,31 +2618,32 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>314300</v>
+        <v>359200</v>
       </c>
       <c r="E57" s="3">
-        <v>304300</v>
+        <v>321000</v>
       </c>
       <c r="F57" s="3">
-        <v>265200</v>
+        <v>310800</v>
       </c>
       <c r="G57" s="3">
-        <v>282500</v>
+        <v>270800</v>
       </c>
       <c r="H57" s="3">
-        <v>191700</v>
+        <v>288500</v>
       </c>
       <c r="I57" s="3">
-        <v>189800</v>
-      </c>
-      <c r="J57" s="3" t="s">
-        <v>16</v>
+        <v>195700</v>
+      </c>
+      <c r="J57" s="3">
+        <v>193800</v>
       </c>
       <c r="K57" s="3" t="s">
         <v>16</v>
@@ -2529,31 +2660,34 @@
       <c r="O57" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>71200</v>
+        <v>70500</v>
       </c>
       <c r="E58" s="3">
-        <v>61500</v>
+        <v>55000</v>
       </c>
       <c r="F58" s="3">
-        <v>34900</v>
+        <v>62800</v>
       </c>
       <c r="G58" s="3">
-        <v>15300</v>
+        <v>35600</v>
       </c>
       <c r="H58" s="3">
-        <v>31200</v>
+        <v>15600</v>
       </c>
       <c r="I58" s="3">
-        <v>29000</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>16</v>
+        <v>31900</v>
+      </c>
+      <c r="J58" s="3">
+        <v>29600</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>16</v>
@@ -2570,31 +2704,34 @@
       <c r="O58" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>148600</v>
+        <v>127400</v>
       </c>
       <c r="E59" s="3">
-        <v>141200</v>
+        <v>164700</v>
       </c>
       <c r="F59" s="3">
-        <v>157400</v>
+        <v>144200</v>
       </c>
       <c r="G59" s="3">
-        <v>165400</v>
+        <v>160700</v>
       </c>
       <c r="H59" s="3">
-        <v>146800</v>
+        <v>168900</v>
       </c>
       <c r="I59" s="3">
-        <v>106100</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>16</v>
+        <v>149900</v>
+      </c>
+      <c r="J59" s="3">
+        <v>108400</v>
       </c>
       <c r="K59" s="3" t="s">
         <v>16</v>
@@ -2611,31 +2748,34 @@
       <c r="O59" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>534100</v>
+        <v>557100</v>
       </c>
       <c r="E60" s="3">
-        <v>507100</v>
+        <v>540700</v>
       </c>
       <c r="F60" s="3">
-        <v>457500</v>
+        <v>517800</v>
       </c>
       <c r="G60" s="3">
-        <v>463200</v>
+        <v>467100</v>
       </c>
       <c r="H60" s="3">
-        <v>369700</v>
+        <v>473000</v>
       </c>
       <c r="I60" s="3">
-        <v>324800</v>
-      </c>
-      <c r="J60" s="3" t="s">
-        <v>16</v>
+        <v>377500</v>
+      </c>
+      <c r="J60" s="3">
+        <v>331700</v>
       </c>
       <c r="K60" s="3" t="s">
         <v>16</v>
@@ -2652,8 +2792,11 @@
       <c r="O60" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2664,19 +2807,19 @@
         <v>0</v>
       </c>
       <c r="F61" s="3">
-        <v>11400</v>
+        <v>0</v>
       </c>
       <c r="G61" s="3">
-        <v>11400</v>
+        <v>11600</v>
       </c>
       <c r="H61" s="3">
-        <v>11400</v>
+        <v>11600</v>
       </c>
       <c r="I61" s="3">
-        <v>19000</v>
+        <v>11600</v>
       </c>
       <c r="J61" s="3">
-        <v>0</v>
+        <v>19400</v>
       </c>
       <c r="K61" s="3">
         <v>0</v>
@@ -2693,32 +2836,35 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>34200</v>
+        <v>37100</v>
       </c>
       <c r="E62" s="3">
-        <v>38400</v>
+        <v>34900</v>
       </c>
       <c r="F62" s="3">
-        <v>31400</v>
+        <v>39200</v>
       </c>
       <c r="G62" s="3">
-        <v>33800</v>
+        <v>32100</v>
       </c>
       <c r="H62" s="3">
-        <v>0</v>
+        <v>34500</v>
       </c>
       <c r="I62" s="3">
+        <v>0</v>
+      </c>
+      <c r="J62" s="3">
         <v>800</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="K62" s="3" t="s">
         <v>16</v>
       </c>
@@ -2734,8 +2880,11 @@
       <c r="O62" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2775,8 +2924,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2816,8 +2968,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2857,31 +3012,34 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>568300</v>
+        <v>594400</v>
       </c>
       <c r="E66" s="3">
-        <v>545500</v>
+        <v>575600</v>
       </c>
       <c r="F66" s="3">
-        <v>500200</v>
+        <v>557000</v>
       </c>
       <c r="G66" s="3">
-        <v>508300</v>
+        <v>510800</v>
       </c>
       <c r="H66" s="3">
-        <v>381100</v>
+        <v>519100</v>
       </c>
       <c r="I66" s="3">
-        <v>344600</v>
-      </c>
-      <c r="J66" s="3" t="s">
-        <v>16</v>
+        <v>389200</v>
+      </c>
+      <c r="J66" s="3">
+        <v>351900</v>
       </c>
       <c r="K66" s="3" t="s">
         <v>16</v>
@@ -2898,8 +3056,11 @@
       <c r="O66" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2915,8 +3076,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2956,8 +3118,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2997,8 +3162,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3012,16 +3180,16 @@
         <v>0</v>
       </c>
       <c r="G70" s="3">
-        <v>1224100</v>
+        <v>0</v>
       </c>
       <c r="H70" s="3">
-        <v>1200500</v>
+        <v>1250000</v>
       </c>
       <c r="I70" s="3">
-        <v>1141100</v>
+        <v>1225900</v>
       </c>
       <c r="J70" s="3">
-        <v>0</v>
+        <v>1165200</v>
       </c>
       <c r="K70" s="3">
         <v>0</v>
@@ -3038,8 +3206,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3079,31 +3250,34 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-896000</v>
+        <v>-975500</v>
       </c>
       <c r="E72" s="3">
-        <v>-879900</v>
+        <v>-914900</v>
       </c>
       <c r="F72" s="3">
-        <v>-863800</v>
+        <v>-898500</v>
       </c>
       <c r="G72" s="3">
-        <v>-799600</v>
+        <v>-882000</v>
       </c>
       <c r="H72" s="3">
-        <v>-748900</v>
+        <v>-816500</v>
       </c>
       <c r="I72" s="3">
-        <v>-712400</v>
-      </c>
-      <c r="J72" s="3" t="s">
-        <v>16</v>
+        <v>-764800</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-727400</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>16</v>
@@ -3120,8 +3294,11 @@
       <c r="O72" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3161,8 +3338,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3202,8 +3382,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3243,31 +3426,34 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1258900</v>
+        <v>1255900</v>
       </c>
       <c r="E76" s="3">
-        <v>1275500</v>
+        <v>1285500</v>
       </c>
       <c r="F76" s="3">
-        <v>1076200</v>
+        <v>1302400</v>
       </c>
       <c r="G76" s="3">
-        <v>-703400</v>
+        <v>1098900</v>
       </c>
       <c r="H76" s="3">
-        <v>-660100</v>
+        <v>-718200</v>
       </c>
       <c r="I76" s="3">
-        <v>-613300</v>
-      </c>
-      <c r="J76" s="3" t="s">
-        <v>16</v>
+        <v>-674000</v>
+      </c>
+      <c r="J76" s="3">
+        <v>-626300</v>
       </c>
       <c r="K76" s="3" t="s">
         <v>16</v>
@@ -3284,8 +3470,11 @@
       <c r="O76" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3325,95 +3514,104 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-16100</v>
+        <v>-59700</v>
       </c>
       <c r="E81" s="3">
-        <v>-16100</v>
+        <v>-16400</v>
       </c>
       <c r="F81" s="3">
-        <v>-64200</v>
+        <v>-16500</v>
       </c>
       <c r="G81" s="3">
-        <v>-53600</v>
+        <v>-65600</v>
       </c>
       <c r="H81" s="3">
-        <v>-44200</v>
+        <v>-54800</v>
       </c>
       <c r="I81" s="3">
-        <v>-53600</v>
+        <v>-45100</v>
       </c>
       <c r="J81" s="3">
+        <v>-54700</v>
+      </c>
+      <c r="K81" s="3">
         <v>-48800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-30600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-42300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-147200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-33400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-23500</v>
       </c>
     </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3429,8 +3627,9 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3446,11 +3645,11 @@
       <c r="G83" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H83" s="3">
-        <v>26700</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>16</v>
+      <c r="H83" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I83" s="3">
+        <v>27300</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>16</v>
@@ -3458,20 +3657,23 @@
       <c r="K83" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L83" s="3">
+      <c r="L83" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M83" s="3">
         <v>19100</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="N83" s="3" t="s">
         <v>16</v>
       </c>
       <c r="O83" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3511,8 +3713,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3552,8 +3757,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3593,8 +3801,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3634,8 +3845,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3675,49 +3889,55 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>16</v>
+      <c r="D89" s="3">
+        <v>-77600</v>
       </c>
       <c r="E89" s="3">
-        <v>-15800</v>
+        <v>-43400</v>
       </c>
       <c r="F89" s="3">
+        <v>-16100</v>
+      </c>
+      <c r="G89" s="3">
         <v>-400</v>
       </c>
-      <c r="G89" s="3">
-        <v>14300</v>
-      </c>
       <c r="H89" s="3">
-        <v>-23700</v>
+        <v>14600</v>
       </c>
       <c r="I89" s="3">
-        <v>-19500</v>
+        <v>-24200</v>
       </c>
       <c r="J89" s="3">
+        <v>-19900</v>
+      </c>
+      <c r="K89" s="3">
         <v>-300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-23400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>7600</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="N89" s="3" t="s">
         <v>16</v>
       </c>
       <c r="O89" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3733,8 +3953,9 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3750,11 +3971,11 @@
       <c r="G91" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H91" s="3">
-        <v>-47700</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>16</v>
+      <c r="H91" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-48700</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>16</v>
@@ -3762,20 +3983,23 @@
       <c r="K91" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L91" s="3">
+      <c r="L91" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M91" s="3">
         <v>-46800</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="N91" s="3" t="s">
         <v>16</v>
       </c>
       <c r="O91" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3815,8 +4039,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3856,49 +4083,55 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>16</v>
+      <c r="D94" s="3">
+        <v>-37200</v>
       </c>
       <c r="E94" s="3">
-        <v>-158400</v>
+        <v>-48200</v>
       </c>
       <c r="F94" s="3">
-        <v>-408400</v>
+        <v>-161800</v>
       </c>
       <c r="G94" s="3">
-        <v>-45100</v>
+        <v>-417000</v>
       </c>
       <c r="H94" s="3">
-        <v>11900</v>
+        <v>-46000</v>
       </c>
       <c r="I94" s="3">
-        <v>22800</v>
+        <v>12200</v>
       </c>
       <c r="J94" s="3">
+        <v>23200</v>
+      </c>
+      <c r="K94" s="3">
         <v>57500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>42500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>69000</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="N94" s="3" t="s">
         <v>16</v>
       </c>
       <c r="O94" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3914,8 +4147,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3955,8 +4189,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3996,8 +4233,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4037,8 +4277,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4078,127 +4321,139 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>16</v>
+      <c r="D100" s="3">
+        <v>15400</v>
       </c>
       <c r="E100" s="3">
-        <v>270400</v>
+        <v>32500</v>
       </c>
       <c r="F100" s="3">
-        <v>612200</v>
+        <v>276200</v>
       </c>
       <c r="G100" s="3">
-        <v>21200</v>
+        <v>625100</v>
       </c>
       <c r="H100" s="3">
-        <v>47300</v>
+        <v>21700</v>
       </c>
       <c r="I100" s="3">
+        <v>48300</v>
+      </c>
+      <c r="J100" s="3">
         <v>100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-40700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>3200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-32400</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="N100" s="3" t="s">
         <v>16</v>
       </c>
       <c r="O100" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3" t="s">
-        <v>16</v>
+      <c r="D101" s="3">
+        <v>800</v>
       </c>
       <c r="E101" s="3">
-        <v>-11200</v>
+        <v>-9800</v>
       </c>
       <c r="F101" s="3">
+        <v>-11500</v>
+      </c>
+      <c r="G101" s="3">
+        <v>1500</v>
+      </c>
+      <c r="H101" s="3">
         <v>1400</v>
       </c>
-      <c r="G101" s="3">
-        <v>1300</v>
-      </c>
-      <c r="H101" s="3">
-        <v>7600</v>
-      </c>
       <c r="I101" s="3">
-        <v>-4000</v>
+        <v>7800</v>
       </c>
       <c r="J101" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="K101" s="3">
         <v>700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-3100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-200</v>
       </c>
-      <c r="M101" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="N101" s="3" t="s">
         <v>16</v>
       </c>
       <c r="O101" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>16</v>
+      <c r="D102" s="3">
+        <v>-98500</v>
       </c>
       <c r="E102" s="3">
-        <v>84900</v>
+        <v>-68900</v>
       </c>
       <c r="F102" s="3">
-        <v>204800</v>
+        <v>86700</v>
       </c>
       <c r="G102" s="3">
-        <v>-8200</v>
+        <v>209100</v>
       </c>
       <c r="H102" s="3">
-        <v>43000</v>
+        <v>-8300</v>
       </c>
       <c r="I102" s="3">
+        <v>44000</v>
+      </c>
+      <c r="J102" s="3">
         <v>-700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>17200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>19200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>44000</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="N102" s="3" t="s">
         <v>16</v>
       </c>
       <c r="O102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="P102" s="3" t="s">
         <v>16</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KC_QTR_FIN.xlsx
@@ -737,25 +737,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>282900</v>
+        <v>279200</v>
       </c>
       <c r="E8" s="3">
-        <v>300000</v>
+        <v>296100</v>
       </c>
       <c r="F8" s="3">
-        <v>269700</v>
+        <v>266200</v>
       </c>
       <c r="G8" s="3">
-        <v>239400</v>
+        <v>236300</v>
       </c>
       <c r="H8" s="3">
-        <v>217000</v>
+        <v>214200</v>
       </c>
       <c r="I8" s="3">
-        <v>183100</v>
+        <v>180700</v>
       </c>
       <c r="J8" s="3">
-        <v>156300</v>
+        <v>154300</v>
       </c>
       <c r="K8" s="3">
         <v>142900</v>
@@ -781,25 +781,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>264800</v>
+        <v>261300</v>
       </c>
       <c r="E9" s="3">
-        <v>285500</v>
+        <v>281800</v>
       </c>
       <c r="F9" s="3">
-        <v>252100</v>
+        <v>248800</v>
       </c>
       <c r="G9" s="3">
-        <v>226800</v>
+        <v>223900</v>
       </c>
       <c r="H9" s="3">
-        <v>206000</v>
+        <v>203300</v>
       </c>
       <c r="I9" s="3">
-        <v>174600</v>
+        <v>172400</v>
       </c>
       <c r="J9" s="3">
-        <v>153400</v>
+        <v>151400</v>
       </c>
       <c r="K9" s="3">
         <v>146000</v>
@@ -825,22 +825,22 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>18200</v>
+        <v>17900</v>
       </c>
       <c r="E10" s="3">
-        <v>14400</v>
+        <v>14200</v>
       </c>
       <c r="F10" s="3">
-        <v>17600</v>
+        <v>17400</v>
       </c>
       <c r="G10" s="3">
-        <v>12600</v>
+        <v>12400</v>
       </c>
       <c r="H10" s="3">
-        <v>11000</v>
+        <v>10900</v>
       </c>
       <c r="I10" s="3">
-        <v>8500</v>
+        <v>8400</v>
       </c>
       <c r="J10" s="3">
         <v>2900</v>
@@ -887,25 +887,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>41300</v>
+        <v>40700</v>
       </c>
       <c r="E12" s="3">
-        <v>28200</v>
+        <v>27900</v>
       </c>
       <c r="F12" s="3">
-        <v>26100</v>
+        <v>25800</v>
       </c>
       <c r="G12" s="3">
-        <v>36000</v>
+        <v>35500</v>
       </c>
       <c r="H12" s="3">
-        <v>30500</v>
+        <v>30100</v>
       </c>
       <c r="I12" s="3">
-        <v>26800</v>
+        <v>26400</v>
       </c>
       <c r="J12" s="3">
-        <v>24300</v>
+        <v>24000</v>
       </c>
       <c r="K12" s="3">
         <v>21900</v>
@@ -1078,25 +1078,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>337900</v>
+        <v>333500</v>
       </c>
       <c r="E17" s="3">
-        <v>338200</v>
+        <v>333800</v>
       </c>
       <c r="F17" s="3">
-        <v>307600</v>
+        <v>303600</v>
       </c>
       <c r="G17" s="3">
-        <v>306600</v>
+        <v>302600</v>
       </c>
       <c r="H17" s="3">
-        <v>262100</v>
+        <v>258700</v>
       </c>
       <c r="I17" s="3">
-        <v>230300</v>
+        <v>227300</v>
       </c>
       <c r="J17" s="3">
-        <v>200000</v>
+        <v>197400</v>
       </c>
       <c r="K17" s="3">
         <v>189200</v>
@@ -1122,25 +1122,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-54900</v>
+        <v>-54200</v>
       </c>
       <c r="E18" s="3">
-        <v>-38300</v>
+        <v>-37800</v>
       </c>
       <c r="F18" s="3">
-        <v>-37900</v>
+        <v>-37400</v>
       </c>
       <c r="G18" s="3">
-        <v>-67100</v>
+        <v>-66200</v>
       </c>
       <c r="H18" s="3">
-        <v>-45100</v>
+        <v>-44500</v>
       </c>
       <c r="I18" s="3">
-        <v>-47200</v>
+        <v>-46600</v>
       </c>
       <c r="J18" s="3">
-        <v>-43700</v>
+        <v>-43100</v>
       </c>
       <c r="K18" s="3">
         <v>-46400</v>
@@ -1184,25 +1184,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>-3600</v>
+        <v>-3500</v>
       </c>
       <c r="E20" s="3">
-        <v>22700</v>
+        <v>22400</v>
       </c>
       <c r="F20" s="3">
-        <v>22700</v>
+        <v>22400</v>
       </c>
       <c r="G20" s="3">
         <v>2100</v>
       </c>
       <c r="H20" s="3">
-        <v>-5500</v>
+        <v>-5400</v>
       </c>
       <c r="I20" s="3">
-        <v>10200</v>
+        <v>10000</v>
       </c>
       <c r="J20" s="3">
-        <v>-10700</v>
+        <v>-10500</v>
       </c>
       <c r="K20" s="3">
         <v>-1900</v>
@@ -1228,22 +1228,22 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>-30400</v>
+        <v>-30000</v>
       </c>
       <c r="E21" s="3">
-        <v>-13400</v>
+        <v>-13200</v>
       </c>
       <c r="F21" s="3">
-        <v>-24600</v>
+        <v>-24200</v>
       </c>
       <c r="G21" s="3">
-        <v>-63000</v>
+        <v>-62200</v>
       </c>
       <c r="H21" s="3">
-        <v>-18300</v>
+        <v>-18100</v>
       </c>
       <c r="I21" s="3">
-        <v>-9800</v>
+        <v>-9600</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>16</v>
@@ -1316,25 +1316,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-59100</v>
+        <v>-58300</v>
       </c>
       <c r="E23" s="3">
-        <v>-15900</v>
+        <v>-15700</v>
       </c>
       <c r="F23" s="3">
-        <v>-15800</v>
+        <v>-15600</v>
       </c>
       <c r="G23" s="3">
-        <v>-65300</v>
+        <v>-64400</v>
       </c>
       <c r="H23" s="3">
-        <v>-50800</v>
+        <v>-50200</v>
       </c>
       <c r="I23" s="3">
-        <v>-37100</v>
+        <v>-36600</v>
       </c>
       <c r="J23" s="3">
-        <v>-54300</v>
+        <v>-53600</v>
       </c>
       <c r="K23" s="3">
         <v>-48600</v>
@@ -1448,25 +1448,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-59600</v>
+        <v>-58900</v>
       </c>
       <c r="E26" s="3">
-        <v>-16400</v>
+        <v>-16200</v>
       </c>
       <c r="F26" s="3">
-        <v>-16400</v>
+        <v>-16200</v>
       </c>
       <c r="G26" s="3">
-        <v>-65500</v>
+        <v>-64700</v>
       </c>
       <c r="H26" s="3">
-        <v>-51700</v>
+        <v>-51100</v>
       </c>
       <c r="I26" s="3">
-        <v>-37400</v>
+        <v>-36900</v>
       </c>
       <c r="J26" s="3">
-        <v>-54700</v>
+        <v>-54000</v>
       </c>
       <c r="K26" s="3">
         <v>-48800</v>
@@ -1492,25 +1492,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-59700</v>
+        <v>-58900</v>
       </c>
       <c r="E27" s="3">
-        <v>-16400</v>
+        <v>-16200</v>
       </c>
       <c r="F27" s="3">
-        <v>-16500</v>
+        <v>-16200</v>
       </c>
       <c r="G27" s="3">
-        <v>-65600</v>
+        <v>-64700</v>
       </c>
       <c r="H27" s="3">
-        <v>-54800</v>
+        <v>-54100</v>
       </c>
       <c r="I27" s="3">
-        <v>-45100</v>
+        <v>-44500</v>
       </c>
       <c r="J27" s="3">
-        <v>-54700</v>
+        <v>-54000</v>
       </c>
       <c r="K27" s="3">
         <v>-48800</v>
@@ -1712,25 +1712,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>3600</v>
+        <v>3500</v>
       </c>
       <c r="E32" s="3">
-        <v>-22700</v>
+        <v>-22400</v>
       </c>
       <c r="F32" s="3">
-        <v>-22700</v>
+        <v>-22400</v>
       </c>
       <c r="G32" s="3">
         <v>-2100</v>
       </c>
       <c r="H32" s="3">
-        <v>5500</v>
+        <v>5400</v>
       </c>
       <c r="I32" s="3">
-        <v>-10200</v>
+        <v>-10000</v>
       </c>
       <c r="J32" s="3">
-        <v>10700</v>
+        <v>10500</v>
       </c>
       <c r="K32" s="3">
         <v>1900</v>
@@ -1756,25 +1756,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-59700</v>
+        <v>-58900</v>
       </c>
       <c r="E33" s="3">
-        <v>-16400</v>
+        <v>-16200</v>
       </c>
       <c r="F33" s="3">
-        <v>-16500</v>
+        <v>-16200</v>
       </c>
       <c r="G33" s="3">
-        <v>-65600</v>
+        <v>-64700</v>
       </c>
       <c r="H33" s="3">
-        <v>-54800</v>
+        <v>-54100</v>
       </c>
       <c r="I33" s="3">
-        <v>-45100</v>
+        <v>-44500</v>
       </c>
       <c r="J33" s="3">
-        <v>-54700</v>
+        <v>-54000</v>
       </c>
       <c r="K33" s="3">
         <v>-48800</v>
@@ -1844,25 +1844,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-59700</v>
+        <v>-58900</v>
       </c>
       <c r="E35" s="3">
-        <v>-16400</v>
+        <v>-16200</v>
       </c>
       <c r="F35" s="3">
-        <v>-16500</v>
+        <v>-16200</v>
       </c>
       <c r="G35" s="3">
-        <v>-65600</v>
+        <v>-64700</v>
       </c>
       <c r="H35" s="3">
-        <v>-54800</v>
+        <v>-54100</v>
       </c>
       <c r="I35" s="3">
-        <v>-45100</v>
+        <v>-44500</v>
       </c>
       <c r="J35" s="3">
-        <v>-54700</v>
+        <v>-54000</v>
       </c>
       <c r="K35" s="3">
         <v>-48800</v>
@@ -1973,25 +1973,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>435800</v>
+        <v>430100</v>
       </c>
       <c r="E41" s="3">
-        <v>534300</v>
+        <v>527300</v>
       </c>
       <c r="F41" s="3">
-        <v>603200</v>
+        <v>595400</v>
       </c>
       <c r="G41" s="3">
-        <v>516500</v>
+        <v>509700</v>
       </c>
       <c r="H41" s="3">
-        <v>307300</v>
+        <v>303300</v>
       </c>
       <c r="I41" s="3">
-        <v>315600</v>
+        <v>311500</v>
       </c>
       <c r="J41" s="3">
-        <v>271700</v>
+        <v>268200</v>
       </c>
       <c r="K41" s="3" t="s">
         <v>16</v>
@@ -2017,25 +2017,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>415300</v>
+        <v>409900</v>
       </c>
       <c r="E42" s="3">
-        <v>420100</v>
+        <v>414700</v>
       </c>
       <c r="F42" s="3">
-        <v>457200</v>
+        <v>451200</v>
       </c>
       <c r="G42" s="3">
-        <v>382700</v>
+        <v>377800</v>
       </c>
       <c r="H42" s="3">
-        <v>35700</v>
+        <v>35200</v>
       </c>
       <c r="I42" s="3">
-        <v>35200</v>
+        <v>34700</v>
       </c>
       <c r="J42" s="3">
-        <v>120100</v>
+        <v>118500</v>
       </c>
       <c r="K42" s="3" t="s">
         <v>16</v>
@@ -2061,25 +2061,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>460800</v>
+        <v>454800</v>
       </c>
       <c r="E43" s="3">
-        <v>396300</v>
+        <v>391100</v>
       </c>
       <c r="F43" s="3">
-        <v>336200</v>
+        <v>331800</v>
       </c>
       <c r="G43" s="3">
-        <v>273700</v>
+        <v>270100</v>
       </c>
       <c r="H43" s="3">
-        <v>291600</v>
+        <v>287800</v>
       </c>
       <c r="I43" s="3">
-        <v>230800</v>
+        <v>227800</v>
       </c>
       <c r="J43" s="3">
-        <v>213100</v>
+        <v>210400</v>
       </c>
       <c r="K43" s="3" t="s">
         <v>16</v>
@@ -2149,25 +2149,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>153300</v>
+        <v>151300</v>
       </c>
       <c r="E45" s="3">
-        <v>138400</v>
+        <v>136600</v>
       </c>
       <c r="F45" s="3">
-        <v>86300</v>
+        <v>85200</v>
       </c>
       <c r="G45" s="3">
-        <v>83300</v>
+        <v>82200</v>
       </c>
       <c r="H45" s="3">
-        <v>77700</v>
+        <v>76700</v>
       </c>
       <c r="I45" s="3">
-        <v>65800</v>
+        <v>65000</v>
       </c>
       <c r="J45" s="3">
-        <v>59800</v>
+        <v>59100</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>16</v>
@@ -2193,25 +2193,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1465200</v>
+        <v>1446100</v>
       </c>
       <c r="E46" s="3">
-        <v>1489100</v>
+        <v>1469700</v>
       </c>
       <c r="F46" s="3">
-        <v>1482900</v>
+        <v>1463600</v>
       </c>
       <c r="G46" s="3">
-        <v>1256200</v>
+        <v>1239900</v>
       </c>
       <c r="H46" s="3">
-        <v>712300</v>
+        <v>703000</v>
       </c>
       <c r="I46" s="3">
-        <v>647400</v>
+        <v>639000</v>
       </c>
       <c r="J46" s="3">
-        <v>664800</v>
+        <v>656100</v>
       </c>
       <c r="K46" s="3" t="s">
         <v>16</v>
@@ -2237,25 +2237,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>21600</v>
+        <v>21300</v>
       </c>
       <c r="E47" s="3">
-        <v>20600</v>
+        <v>20400</v>
       </c>
       <c r="F47" s="3">
-        <v>19200</v>
+        <v>18900</v>
       </c>
       <c r="G47" s="3">
-        <v>19000</v>
+        <v>18700</v>
       </c>
       <c r="H47" s="3">
-        <v>19000</v>
+        <v>18700</v>
       </c>
       <c r="I47" s="3">
-        <v>18300</v>
+        <v>18000</v>
       </c>
       <c r="J47" s="3">
-        <v>10600</v>
+        <v>10400</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>16</v>
@@ -2281,25 +2281,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>347000</v>
+        <v>342500</v>
       </c>
       <c r="E48" s="3">
-        <v>346900</v>
+        <v>342400</v>
       </c>
       <c r="F48" s="3">
-        <v>345100</v>
+        <v>340600</v>
       </c>
       <c r="G48" s="3">
-        <v>328400</v>
+        <v>324100</v>
       </c>
       <c r="H48" s="3">
-        <v>313800</v>
+        <v>309700</v>
       </c>
       <c r="I48" s="3">
-        <v>268500</v>
+        <v>265000</v>
       </c>
       <c r="J48" s="3">
-        <v>203700</v>
+        <v>201000</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>16</v>
@@ -2325,13 +2325,13 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>13800</v>
+        <v>13700</v>
       </c>
       <c r="E49" s="3">
         <v>2600</v>
       </c>
       <c r="F49" s="3">
-        <v>3100</v>
+        <v>3000</v>
       </c>
       <c r="G49" s="3">
         <v>1200</v>
@@ -2340,7 +2340,7 @@
         <v>1200</v>
       </c>
       <c r="I49" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="J49" s="3">
         <v>1300</v>
@@ -2457,13 +2457,13 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="E52" s="3">
         <v>1800</v>
       </c>
       <c r="F52" s="3">
-        <v>9300</v>
+        <v>9200</v>
       </c>
       <c r="G52" s="3">
         <v>4900</v>
@@ -2472,10 +2472,10 @@
         <v>4500</v>
       </c>
       <c r="I52" s="3">
-        <v>5700</v>
+        <v>5600</v>
       </c>
       <c r="J52" s="3">
-        <v>10500</v>
+        <v>10400</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>16</v>
@@ -2545,25 +2545,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1850300</v>
+        <v>1826200</v>
       </c>
       <c r="E54" s="3">
-        <v>1861100</v>
+        <v>1836900</v>
       </c>
       <c r="F54" s="3">
-        <v>1859400</v>
+        <v>1835300</v>
       </c>
       <c r="G54" s="3">
-        <v>1609800</v>
+        <v>1588800</v>
       </c>
       <c r="H54" s="3">
-        <v>1050800</v>
+        <v>1037100</v>
       </c>
       <c r="I54" s="3">
-        <v>941000</v>
+        <v>928800</v>
       </c>
       <c r="J54" s="3">
-        <v>890800</v>
+        <v>879300</v>
       </c>
       <c r="K54" s="3" t="s">
         <v>16</v>
@@ -2625,25 +2625,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>359200</v>
+        <v>354500</v>
       </c>
       <c r="E57" s="3">
-        <v>321000</v>
+        <v>316800</v>
       </c>
       <c r="F57" s="3">
-        <v>310800</v>
+        <v>306700</v>
       </c>
       <c r="G57" s="3">
-        <v>270800</v>
+        <v>267300</v>
       </c>
       <c r="H57" s="3">
-        <v>288500</v>
+        <v>284700</v>
       </c>
       <c r="I57" s="3">
-        <v>195700</v>
+        <v>193200</v>
       </c>
       <c r="J57" s="3">
-        <v>193800</v>
+        <v>191300</v>
       </c>
       <c r="K57" s="3" t="s">
         <v>16</v>
@@ -2669,25 +2669,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>70500</v>
+        <v>69600</v>
       </c>
       <c r="E58" s="3">
-        <v>55000</v>
+        <v>54300</v>
       </c>
       <c r="F58" s="3">
-        <v>62800</v>
+        <v>62000</v>
       </c>
       <c r="G58" s="3">
-        <v>35600</v>
+        <v>35200</v>
       </c>
       <c r="H58" s="3">
-        <v>15600</v>
+        <v>15400</v>
       </c>
       <c r="I58" s="3">
-        <v>31900</v>
+        <v>31500</v>
       </c>
       <c r="J58" s="3">
-        <v>29600</v>
+        <v>29200</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>16</v>
@@ -2713,25 +2713,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>127400</v>
+        <v>125700</v>
       </c>
       <c r="E59" s="3">
-        <v>164700</v>
+        <v>162500</v>
       </c>
       <c r="F59" s="3">
-        <v>144200</v>
+        <v>142300</v>
       </c>
       <c r="G59" s="3">
-        <v>160700</v>
+        <v>158600</v>
       </c>
       <c r="H59" s="3">
-        <v>168900</v>
+        <v>166700</v>
       </c>
       <c r="I59" s="3">
-        <v>149900</v>
+        <v>148000</v>
       </c>
       <c r="J59" s="3">
-        <v>108400</v>
+        <v>106900</v>
       </c>
       <c r="K59" s="3" t="s">
         <v>16</v>
@@ -2757,25 +2757,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>557100</v>
+        <v>549900</v>
       </c>
       <c r="E60" s="3">
-        <v>540700</v>
+        <v>533600</v>
       </c>
       <c r="F60" s="3">
-        <v>517800</v>
+        <v>511100</v>
       </c>
       <c r="G60" s="3">
-        <v>467100</v>
+        <v>461100</v>
       </c>
       <c r="H60" s="3">
-        <v>473000</v>
+        <v>466900</v>
       </c>
       <c r="I60" s="3">
-        <v>377500</v>
+        <v>372600</v>
       </c>
       <c r="J60" s="3">
-        <v>331700</v>
+        <v>327400</v>
       </c>
       <c r="K60" s="3" t="s">
         <v>16</v>
@@ -2810,16 +2810,16 @@
         <v>0</v>
       </c>
       <c r="G61" s="3">
-        <v>11600</v>
+        <v>11400</v>
       </c>
       <c r="H61" s="3">
-        <v>11600</v>
+        <v>11400</v>
       </c>
       <c r="I61" s="3">
-        <v>11600</v>
+        <v>11400</v>
       </c>
       <c r="J61" s="3">
-        <v>19400</v>
+        <v>19100</v>
       </c>
       <c r="K61" s="3">
         <v>0</v>
@@ -2845,19 +2845,19 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>37100</v>
+        <v>36600</v>
       </c>
       <c r="E62" s="3">
-        <v>34900</v>
+        <v>34400</v>
       </c>
       <c r="F62" s="3">
-        <v>39200</v>
+        <v>38700</v>
       </c>
       <c r="G62" s="3">
-        <v>32100</v>
+        <v>31700</v>
       </c>
       <c r="H62" s="3">
-        <v>34500</v>
+        <v>34000</v>
       </c>
       <c r="I62" s="3">
         <v>0</v>
@@ -3021,25 +3021,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>594400</v>
+        <v>586700</v>
       </c>
       <c r="E66" s="3">
-        <v>575600</v>
+        <v>568100</v>
       </c>
       <c r="F66" s="3">
-        <v>557000</v>
+        <v>549800</v>
       </c>
       <c r="G66" s="3">
-        <v>510800</v>
+        <v>504200</v>
       </c>
       <c r="H66" s="3">
-        <v>519100</v>
+        <v>512300</v>
       </c>
       <c r="I66" s="3">
-        <v>389200</v>
+        <v>384100</v>
       </c>
       <c r="J66" s="3">
-        <v>351900</v>
+        <v>347400</v>
       </c>
       <c r="K66" s="3" t="s">
         <v>16</v>
@@ -3183,13 +3183,13 @@
         <v>0</v>
       </c>
       <c r="H70" s="3">
-        <v>1250000</v>
+        <v>1233700</v>
       </c>
       <c r="I70" s="3">
-        <v>1225900</v>
+        <v>1209900</v>
       </c>
       <c r="J70" s="3">
-        <v>1165200</v>
+        <v>1150100</v>
       </c>
       <c r="K70" s="3">
         <v>0</v>
@@ -3259,25 +3259,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-975500</v>
+        <v>-962800</v>
       </c>
       <c r="E72" s="3">
-        <v>-914900</v>
+        <v>-903000</v>
       </c>
       <c r="F72" s="3">
-        <v>-898500</v>
+        <v>-886800</v>
       </c>
       <c r="G72" s="3">
-        <v>-882000</v>
+        <v>-870500</v>
       </c>
       <c r="H72" s="3">
-        <v>-816500</v>
+        <v>-805800</v>
       </c>
       <c r="I72" s="3">
-        <v>-764800</v>
+        <v>-754800</v>
       </c>
       <c r="J72" s="3">
-        <v>-727400</v>
+        <v>-717900</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>16</v>
@@ -3435,25 +3435,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1255900</v>
+        <v>1239500</v>
       </c>
       <c r="E76" s="3">
+        <v>1268800</v>
+      </c>
+      <c r="F76" s="3">
         <v>1285500</v>
       </c>
-      <c r="F76" s="3">
-        <v>1302400</v>
-      </c>
       <c r="G76" s="3">
-        <v>1098900</v>
+        <v>1084600</v>
       </c>
       <c r="H76" s="3">
-        <v>-718200</v>
+        <v>-708900</v>
       </c>
       <c r="I76" s="3">
-        <v>-674000</v>
+        <v>-665300</v>
       </c>
       <c r="J76" s="3">
-        <v>-626300</v>
+        <v>-618200</v>
       </c>
       <c r="K76" s="3" t="s">
         <v>16</v>
@@ -3572,25 +3572,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-59700</v>
+        <v>-58900</v>
       </c>
       <c r="E81" s="3">
-        <v>-16400</v>
+        <v>-16200</v>
       </c>
       <c r="F81" s="3">
-        <v>-16500</v>
+        <v>-16200</v>
       </c>
       <c r="G81" s="3">
-        <v>-65600</v>
+        <v>-64700</v>
       </c>
       <c r="H81" s="3">
-        <v>-54800</v>
+        <v>-54100</v>
       </c>
       <c r="I81" s="3">
-        <v>-45100</v>
+        <v>-44500</v>
       </c>
       <c r="J81" s="3">
-        <v>-54700</v>
+        <v>-54000</v>
       </c>
       <c r="K81" s="3">
         <v>-48800</v>
@@ -3649,7 +3649,7 @@
         <v>16</v>
       </c>
       <c r="I83" s="3">
-        <v>27300</v>
+        <v>26900</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>16</v>
@@ -3898,25 +3898,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-77600</v>
+        <v>-76600</v>
       </c>
       <c r="E89" s="3">
-        <v>-43400</v>
+        <v>-42800</v>
       </c>
       <c r="F89" s="3">
-        <v>-16100</v>
+        <v>-15900</v>
       </c>
       <c r="G89" s="3">
         <v>-400</v>
       </c>
       <c r="H89" s="3">
-        <v>14600</v>
+        <v>14500</v>
       </c>
       <c r="I89" s="3">
-        <v>-24200</v>
+        <v>-23900</v>
       </c>
       <c r="J89" s="3">
-        <v>-19900</v>
+        <v>-19600</v>
       </c>
       <c r="K89" s="3">
         <v>-300</v>
@@ -3975,7 +3975,7 @@
         <v>16</v>
       </c>
       <c r="I91" s="3">
-        <v>-48700</v>
+        <v>-48000</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>16</v>
@@ -4092,25 +4092,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-37200</v>
+        <v>-36700</v>
       </c>
       <c r="E94" s="3">
-        <v>-48200</v>
+        <v>-47500</v>
       </c>
       <c r="F94" s="3">
-        <v>-161800</v>
+        <v>-159700</v>
       </c>
       <c r="G94" s="3">
-        <v>-417000</v>
+        <v>-411600</v>
       </c>
       <c r="H94" s="3">
-        <v>-46000</v>
+        <v>-45400</v>
       </c>
       <c r="I94" s="3">
-        <v>12200</v>
+        <v>12000</v>
       </c>
       <c r="J94" s="3">
-        <v>23200</v>
+        <v>22900</v>
       </c>
       <c r="K94" s="3">
         <v>57500</v>
@@ -4330,22 +4330,22 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>15400</v>
+        <v>15200</v>
       </c>
       <c r="E100" s="3">
-        <v>32500</v>
+        <v>32100</v>
       </c>
       <c r="F100" s="3">
-        <v>276200</v>
+        <v>272600</v>
       </c>
       <c r="G100" s="3">
-        <v>625100</v>
+        <v>617000</v>
       </c>
       <c r="H100" s="3">
-        <v>21700</v>
+        <v>21400</v>
       </c>
       <c r="I100" s="3">
-        <v>48300</v>
+        <v>47600</v>
       </c>
       <c r="J100" s="3">
         <v>100</v>
@@ -4377,10 +4377,10 @@
         <v>800</v>
       </c>
       <c r="E101" s="3">
-        <v>-9800</v>
+        <v>-9700</v>
       </c>
       <c r="F101" s="3">
-        <v>-11500</v>
+        <v>-11300</v>
       </c>
       <c r="G101" s="3">
         <v>1500</v>
@@ -4389,7 +4389,7 @@
         <v>1400</v>
       </c>
       <c r="I101" s="3">
-        <v>7800</v>
+        <v>7700</v>
       </c>
       <c r="J101" s="3">
         <v>-4100</v>
@@ -4418,22 +4418,22 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-98500</v>
+        <v>-97200</v>
       </c>
       <c r="E102" s="3">
-        <v>-68900</v>
+        <v>-68000</v>
       </c>
       <c r="F102" s="3">
-        <v>86700</v>
+        <v>85600</v>
       </c>
       <c r="G102" s="3">
-        <v>209100</v>
+        <v>206400</v>
       </c>
       <c r="H102" s="3">
-        <v>-8300</v>
+        <v>-8200</v>
       </c>
       <c r="I102" s="3">
-        <v>44000</v>
+        <v>43400</v>
       </c>
       <c r="J102" s="3">
         <v>-700</v>

--- a/AAII_Financials/Quarterly/KC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="92">
   <si>
     <t>KC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,206 +665,232 @@
     <col min="1" max="1" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>279200</v>
+        <v>377900</v>
       </c>
       <c r="E8" s="3">
-        <v>296100</v>
+        <v>340300</v>
       </c>
       <c r="F8" s="3">
-        <v>266200</v>
+        <v>283900</v>
       </c>
       <c r="G8" s="3">
-        <v>236300</v>
+        <v>301000</v>
       </c>
       <c r="H8" s="3">
-        <v>214200</v>
+        <v>270700</v>
       </c>
       <c r="I8" s="3">
+        <v>240300</v>
+      </c>
+      <c r="J8" s="3">
+        <v>217800</v>
+      </c>
+      <c r="K8" s="3">
         <v>180700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>154300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>142900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>128700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>105200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>83900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>64300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>60900</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>261300</v>
+        <v>364100</v>
       </c>
       <c r="E9" s="3">
-        <v>281800</v>
+        <v>321800</v>
       </c>
       <c r="F9" s="3">
-        <v>248800</v>
+        <v>265700</v>
       </c>
       <c r="G9" s="3">
-        <v>223900</v>
+        <v>286500</v>
       </c>
       <c r="H9" s="3">
-        <v>203300</v>
+        <v>253000</v>
       </c>
       <c r="I9" s="3">
+        <v>227600</v>
+      </c>
+      <c r="J9" s="3">
+        <v>206700</v>
+      </c>
+      <c r="K9" s="3">
         <v>172400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>151400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>146000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>135500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>114200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>92300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>68900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>67200</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>17900</v>
+        <v>13800</v>
       </c>
       <c r="E10" s="3">
-        <v>14200</v>
+        <v>18600</v>
       </c>
       <c r="F10" s="3">
-        <v>17400</v>
+        <v>18200</v>
       </c>
       <c r="G10" s="3">
-        <v>12400</v>
+        <v>14500</v>
       </c>
       <c r="H10" s="3">
-        <v>10900</v>
+        <v>17700</v>
       </c>
       <c r="I10" s="3">
+        <v>12600</v>
+      </c>
+      <c r="J10" s="3">
+        <v>11100</v>
+      </c>
+      <c r="K10" s="3">
         <v>8400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>2900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>-3100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>-6900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>-9000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>-8400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>-4600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>-6300</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -881,52 +907,60 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>40700</v>
+        <v>42100</v>
       </c>
       <c r="E12" s="3">
-        <v>27900</v>
+        <v>36400</v>
       </c>
       <c r="F12" s="3">
-        <v>25800</v>
+        <v>41400</v>
       </c>
       <c r="G12" s="3">
-        <v>35500</v>
+        <v>28300</v>
       </c>
       <c r="H12" s="3">
-        <v>30100</v>
+        <v>26200</v>
       </c>
       <c r="I12" s="3">
+        <v>36100</v>
+      </c>
+      <c r="J12" s="3">
+        <v>30600</v>
+      </c>
+      <c r="K12" s="3">
         <v>26400</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>24000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>21900</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>18900</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>17300</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>17200</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>13300</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>14600</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -969,8 +1003,14 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1013,8 +1053,14 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1057,8 +1103,14 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1124,110 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>333500</v>
+        <v>451300</v>
       </c>
       <c r="E17" s="3">
-        <v>333800</v>
+        <v>390500</v>
       </c>
       <c r="F17" s="3">
-        <v>303600</v>
+        <v>339100</v>
       </c>
       <c r="G17" s="3">
-        <v>302600</v>
+        <v>339400</v>
       </c>
       <c r="H17" s="3">
-        <v>258700</v>
+        <v>308700</v>
       </c>
       <c r="I17" s="3">
+        <v>307600</v>
+      </c>
+      <c r="J17" s="3">
+        <v>263000</v>
+      </c>
+      <c r="K17" s="3">
         <v>227300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>197400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>189200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>167800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>149900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>121600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>91700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>89800</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-54200</v>
+        <v>-73400</v>
       </c>
       <c r="E18" s="3">
-        <v>-37800</v>
+        <v>-50200</v>
       </c>
       <c r="F18" s="3">
-        <v>-37400</v>
+        <v>-55100</v>
       </c>
       <c r="G18" s="3">
-        <v>-66200</v>
+        <v>-38400</v>
       </c>
       <c r="H18" s="3">
-        <v>-44500</v>
+        <v>-38000</v>
       </c>
       <c r="I18" s="3">
+        <v>-67400</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-45200</v>
+      </c>
+      <c r="K18" s="3">
         <v>-46600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-43100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-46400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-39200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-44700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-37700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-27400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-28900</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1178,104 +1244,118 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>-3500</v>
+        <v>-2900</v>
       </c>
       <c r="E20" s="3">
-        <v>22400</v>
+        <v>17200</v>
       </c>
       <c r="F20" s="3">
-        <v>22400</v>
+        <v>-3600</v>
       </c>
       <c r="G20" s="3">
+        <v>22800</v>
+      </c>
+      <c r="H20" s="3">
+        <v>22800</v>
+      </c>
+      <c r="I20" s="3">
         <v>2100</v>
       </c>
-      <c r="H20" s="3">
-        <v>-5400</v>
-      </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="K20" s="3">
         <v>10000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-10500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-1900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>9400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>4000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-3900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-4200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>-30000</v>
+        <v>-71700</v>
       </c>
       <c r="E21" s="3">
-        <v>-13200</v>
+        <v>-31600</v>
       </c>
       <c r="F21" s="3">
-        <v>-24200</v>
+        <v>-30500</v>
       </c>
       <c r="G21" s="3">
-        <v>-62200</v>
+        <v>-13500</v>
       </c>
       <c r="H21" s="3">
-        <v>-18100</v>
+        <v>-24600</v>
       </c>
       <c r="I21" s="3">
+        <v>-63200</v>
+      </c>
+      <c r="J21" s="3">
+        <v>-18400</v>
+      </c>
+      <c r="K21" s="3">
         <v>-9600</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O21" s="3">
         <v>-21600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-2300</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="P21" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R21" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>600</v>
+        <v>2200</v>
       </c>
       <c r="E22" s="3">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="F22" s="3">
         <v>600</v>
@@ -1284,101 +1364,113 @@
         <v>300</v>
       </c>
       <c r="H22" s="3">
+        <v>600</v>
+      </c>
+      <c r="I22" s="3">
         <v>300</v>
       </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
       <c r="J22" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
         <v>300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>400</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>1200</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>1300</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>1500</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-58300</v>
+        <v>-78600</v>
       </c>
       <c r="E23" s="3">
-        <v>-15700</v>
+        <v>-34000</v>
       </c>
       <c r="F23" s="3">
-        <v>-15600</v>
+        <v>-59300</v>
       </c>
       <c r="G23" s="3">
-        <v>-64400</v>
+        <v>-15900</v>
       </c>
       <c r="H23" s="3">
-        <v>-50200</v>
+        <v>-15900</v>
       </c>
       <c r="I23" s="3">
+        <v>-65500</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-51000</v>
+      </c>
+      <c r="K23" s="3">
         <v>-36600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-53600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-48600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-30200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-41900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-42900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-33100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-23200</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="E24" s="3">
         <v>500</v>
       </c>
       <c r="F24" s="3">
+        <v>500</v>
+      </c>
+      <c r="G24" s="3">
+        <v>500</v>
+      </c>
+      <c r="H24" s="3">
         <v>600</v>
-      </c>
-      <c r="G24" s="3">
-        <v>300</v>
-      </c>
-      <c r="H24" s="3">
-        <v>900</v>
       </c>
       <c r="I24" s="3">
         <v>300</v>
       </c>
       <c r="J24" s="3">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="K24" s="3">
         <v>300</v>
@@ -1387,19 +1479,25 @@
         <v>400</v>
       </c>
       <c r="M24" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="N24" s="3">
         <v>400</v>
       </c>
       <c r="O24" s="3">
+        <v>400</v>
+      </c>
+      <c r="P24" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q24" s="3">
         <v>300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1540,114 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-58900</v>
+        <v>-79300</v>
       </c>
       <c r="E26" s="3">
-        <v>-16200</v>
+        <v>-34500</v>
       </c>
       <c r="F26" s="3">
-        <v>-16200</v>
+        <v>-59800</v>
       </c>
       <c r="G26" s="3">
-        <v>-64700</v>
+        <v>-16500</v>
       </c>
       <c r="H26" s="3">
-        <v>-51100</v>
+        <v>-16500</v>
       </c>
       <c r="I26" s="3">
+        <v>-65800</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-51900</v>
+      </c>
+      <c r="K26" s="3">
         <v>-36900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-54000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-48800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-30600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-42300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-43200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-33400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-23500</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-58900</v>
+        <v>-79500</v>
       </c>
       <c r="E27" s="3">
-        <v>-16200</v>
+        <v>-34500</v>
       </c>
       <c r="F27" s="3">
-        <v>-16200</v>
+        <v>-59900</v>
       </c>
       <c r="G27" s="3">
-        <v>-64700</v>
+        <v>-16500</v>
       </c>
       <c r="H27" s="3">
-        <v>-54100</v>
+        <v>-16500</v>
       </c>
       <c r="I27" s="3">
+        <v>-65800</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-55000</v>
+      </c>
+      <c r="K27" s="3">
         <v>-44500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-54000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-48800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-30600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-42300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-147200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-33400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-23500</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1690,14 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1740,14 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1790,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,96 +1840,114 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>3500</v>
+        <v>2900</v>
       </c>
       <c r="E32" s="3">
-        <v>-22400</v>
+        <v>-17200</v>
       </c>
       <c r="F32" s="3">
-        <v>-22400</v>
+        <v>3600</v>
       </c>
       <c r="G32" s="3">
+        <v>-22800</v>
+      </c>
+      <c r="H32" s="3">
+        <v>-22800</v>
+      </c>
+      <c r="I32" s="3">
         <v>-2100</v>
       </c>
-      <c r="H32" s="3">
-        <v>5400</v>
-      </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
+        <v>5500</v>
+      </c>
+      <c r="K32" s="3">
         <v>-10000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>10500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>1900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-9400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-4000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>3900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>4200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-7200</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-58900</v>
+        <v>-79500</v>
       </c>
       <c r="E33" s="3">
-        <v>-16200</v>
+        <v>-34500</v>
       </c>
       <c r="F33" s="3">
-        <v>-16200</v>
+        <v>-59900</v>
       </c>
       <c r="G33" s="3">
-        <v>-64700</v>
+        <v>-16500</v>
       </c>
       <c r="H33" s="3">
-        <v>-54100</v>
+        <v>-16500</v>
       </c>
       <c r="I33" s="3">
+        <v>-65800</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-55000</v>
+      </c>
+      <c r="K33" s="3">
         <v>-44500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-54000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-48800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-30600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-42300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-147200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-33400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-23500</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1990,119 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-58900</v>
+        <v>-79500</v>
       </c>
       <c r="E35" s="3">
-        <v>-16200</v>
+        <v>-34500</v>
       </c>
       <c r="F35" s="3">
-        <v>-16200</v>
+        <v>-59900</v>
       </c>
       <c r="G35" s="3">
-        <v>-64700</v>
+        <v>-16500</v>
       </c>
       <c r="H35" s="3">
-        <v>-54100</v>
+        <v>-16500</v>
       </c>
       <c r="I35" s="3">
+        <v>-65800</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-55000</v>
+      </c>
+      <c r="K35" s="3">
         <v>-44500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-54000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-48800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-30600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-42300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-147200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-33400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-23500</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2119,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,38 +2139,40 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>430100</v>
+        <v>539200</v>
       </c>
       <c r="E41" s="3">
-        <v>527300</v>
+        <v>462600</v>
       </c>
       <c r="F41" s="3">
-        <v>595400</v>
+        <v>437300</v>
       </c>
       <c r="G41" s="3">
-        <v>509700</v>
+        <v>536200</v>
       </c>
       <c r="H41" s="3">
-        <v>303300</v>
+        <v>605300</v>
       </c>
       <c r="I41" s="3">
+        <v>518300</v>
+      </c>
+      <c r="J41" s="3">
+        <v>308400</v>
+      </c>
+      <c r="K41" s="3">
         <v>311500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>268200</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L41" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="M41" s="3" t="s">
         <v>16</v>
       </c>
@@ -2011,38 +2185,44 @@
       <c r="P41" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R41" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>409900</v>
+        <v>399300</v>
       </c>
       <c r="E42" s="3">
-        <v>414700</v>
+        <v>394600</v>
       </c>
       <c r="F42" s="3">
-        <v>451200</v>
+        <v>416800</v>
       </c>
       <c r="G42" s="3">
-        <v>377800</v>
+        <v>421600</v>
       </c>
       <c r="H42" s="3">
-        <v>35200</v>
+        <v>458800</v>
       </c>
       <c r="I42" s="3">
+        <v>384100</v>
+      </c>
+      <c r="J42" s="3">
+        <v>35800</v>
+      </c>
+      <c r="K42" s="3">
         <v>34700</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>118500</v>
       </c>
-      <c r="K42" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L42" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="M42" s="3" t="s">
         <v>16</v>
       </c>
@@ -2055,38 +2235,44 @@
       <c r="P42" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R42" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>454800</v>
+        <v>736100</v>
       </c>
       <c r="E43" s="3">
-        <v>391100</v>
+        <v>575000</v>
       </c>
       <c r="F43" s="3">
-        <v>331800</v>
+        <v>462400</v>
       </c>
       <c r="G43" s="3">
-        <v>270100</v>
+        <v>397700</v>
       </c>
       <c r="H43" s="3">
-        <v>287800</v>
+        <v>337300</v>
       </c>
       <c r="I43" s="3">
+        <v>274700</v>
+      </c>
+      <c r="J43" s="3">
+        <v>292700</v>
+      </c>
+      <c r="K43" s="3">
         <v>227800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>210400</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L43" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="M43" s="3" t="s">
         <v>16</v>
       </c>
@@ -2099,8 +2285,14 @@
       <c r="P43" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R43" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2143,38 +2335,44 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>151300</v>
+        <v>200100</v>
       </c>
       <c r="E45" s="3">
-        <v>136600</v>
+        <v>129400</v>
       </c>
       <c r="F45" s="3">
-        <v>85200</v>
+        <v>153800</v>
       </c>
       <c r="G45" s="3">
-        <v>82200</v>
+        <v>138900</v>
       </c>
       <c r="H45" s="3">
-        <v>76700</v>
+        <v>86600</v>
       </c>
       <c r="I45" s="3">
+        <v>83600</v>
+      </c>
+      <c r="J45" s="3">
+        <v>78000</v>
+      </c>
+      <c r="K45" s="3">
         <v>65000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>59100</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L45" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="M45" s="3" t="s">
         <v>16</v>
       </c>
@@ -2187,38 +2385,44 @@
       <c r="P45" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R45" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1446100</v>
+        <v>1874700</v>
       </c>
       <c r="E46" s="3">
-        <v>1469700</v>
+        <v>1561500</v>
       </c>
       <c r="F46" s="3">
-        <v>1463600</v>
+        <v>1470400</v>
       </c>
       <c r="G46" s="3">
-        <v>1239900</v>
+        <v>1494300</v>
       </c>
       <c r="H46" s="3">
-        <v>703000</v>
+        <v>1488100</v>
       </c>
       <c r="I46" s="3">
+        <v>1260700</v>
+      </c>
+      <c r="J46" s="3">
+        <v>714800</v>
+      </c>
+      <c r="K46" s="3">
         <v>639000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>656100</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L46" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="M46" s="3" t="s">
         <v>16</v>
       </c>
@@ -2231,38 +2435,44 @@
       <c r="P46" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R46" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>21300</v>
+        <v>14800</v>
       </c>
       <c r="E47" s="3">
-        <v>20400</v>
+        <v>14800</v>
       </c>
       <c r="F47" s="3">
-        <v>18900</v>
+        <v>21700</v>
       </c>
       <c r="G47" s="3">
-        <v>18700</v>
+        <v>20700</v>
       </c>
       <c r="H47" s="3">
-        <v>18700</v>
+        <v>19200</v>
       </c>
       <c r="I47" s="3">
+        <v>19000</v>
+      </c>
+      <c r="J47" s="3">
+        <v>19100</v>
+      </c>
+      <c r="K47" s="3">
         <v>18000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>10400</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L47" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="M47" s="3" t="s">
         <v>16</v>
       </c>
@@ -2275,38 +2485,44 @@
       <c r="P47" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R47" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>342500</v>
+        <v>362600</v>
       </c>
       <c r="E48" s="3">
-        <v>342400</v>
+        <v>329500</v>
       </c>
       <c r="F48" s="3">
-        <v>340600</v>
+        <v>348200</v>
       </c>
       <c r="G48" s="3">
-        <v>324100</v>
+        <v>348200</v>
       </c>
       <c r="H48" s="3">
-        <v>309700</v>
+        <v>346300</v>
       </c>
       <c r="I48" s="3">
+        <v>329500</v>
+      </c>
+      <c r="J48" s="3">
+        <v>314900</v>
+      </c>
+      <c r="K48" s="3">
         <v>265000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>201000</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L48" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="M48" s="3" t="s">
         <v>16</v>
       </c>
@@ -2319,38 +2535,44 @@
       <c r="P48" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R48" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>13700</v>
+        <v>885300</v>
       </c>
       <c r="E49" s="3">
+        <v>19700</v>
+      </c>
+      <c r="F49" s="3">
+        <v>13900</v>
+      </c>
+      <c r="G49" s="3">
         <v>2600</v>
       </c>
-      <c r="F49" s="3">
-        <v>3000</v>
-      </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
+        <v>3100</v>
+      </c>
+      <c r="I49" s="3">
         <v>1200</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>1200</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>1100</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>1300</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L49" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="M49" s="3" t="s">
         <v>16</v>
       </c>
@@ -2363,8 +2585,14 @@
       <c r="P49" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R49" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2635,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,38 +2685,44 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2600</v>
+        <v>10300</v>
       </c>
       <c r="E52" s="3">
-        <v>1800</v>
+        <v>4800</v>
       </c>
       <c r="F52" s="3">
-        <v>9200</v>
+        <v>2700</v>
       </c>
       <c r="G52" s="3">
-        <v>4900</v>
+        <v>1900</v>
       </c>
       <c r="H52" s="3">
-        <v>4500</v>
+        <v>9300</v>
       </c>
       <c r="I52" s="3">
+        <v>5000</v>
+      </c>
+      <c r="J52" s="3">
+        <v>4600</v>
+      </c>
+      <c r="K52" s="3">
         <v>5600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>10400</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L52" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="M52" s="3" t="s">
         <v>16</v>
       </c>
@@ -2495,8 +2735,14 @@
       <c r="P52" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R52" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,38 +2785,44 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1826200</v>
+        <v>3147700</v>
       </c>
       <c r="E54" s="3">
-        <v>1836900</v>
+        <v>1930300</v>
       </c>
       <c r="F54" s="3">
-        <v>1835300</v>
+        <v>1856800</v>
       </c>
       <c r="G54" s="3">
-        <v>1588800</v>
+        <v>1867600</v>
       </c>
       <c r="H54" s="3">
-        <v>1037100</v>
+        <v>1866000</v>
       </c>
       <c r="I54" s="3">
+        <v>1615400</v>
+      </c>
+      <c r="J54" s="3">
+        <v>1054500</v>
+      </c>
+      <c r="K54" s="3">
         <v>928800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>879300</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L54" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="M54" s="3" t="s">
         <v>16</v>
       </c>
@@ -2583,8 +2835,14 @@
       <c r="P54" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R54" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2859,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,38 +2879,40 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>354500</v>
+        <v>493400</v>
       </c>
       <c r="E57" s="3">
-        <v>316800</v>
+        <v>415200</v>
       </c>
       <c r="F57" s="3">
-        <v>306700</v>
+        <v>360500</v>
       </c>
       <c r="G57" s="3">
-        <v>267300</v>
+        <v>322100</v>
       </c>
       <c r="H57" s="3">
-        <v>284700</v>
+        <v>311900</v>
       </c>
       <c r="I57" s="3">
+        <v>271700</v>
+      </c>
+      <c r="J57" s="3">
+        <v>289500</v>
+      </c>
+      <c r="K57" s="3">
         <v>193200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>191300</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L57" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="M57" s="3" t="s">
         <v>16</v>
       </c>
@@ -2663,38 +2925,44 @@
       <c r="P57" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R57" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>69600</v>
+        <v>141100</v>
       </c>
       <c r="E58" s="3">
-        <v>54300</v>
+        <v>104000</v>
       </c>
       <c r="F58" s="3">
-        <v>62000</v>
+        <v>70800</v>
       </c>
       <c r="G58" s="3">
-        <v>35200</v>
+        <v>55200</v>
       </c>
       <c r="H58" s="3">
-        <v>15400</v>
+        <v>63100</v>
       </c>
       <c r="I58" s="3">
+        <v>35800</v>
+      </c>
+      <c r="J58" s="3">
+        <v>15700</v>
+      </c>
+      <c r="K58" s="3">
         <v>31500</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>29200</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L58" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="M58" s="3" t="s">
         <v>16</v>
       </c>
@@ -2707,38 +2975,44 @@
       <c r="P58" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R58" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>125700</v>
+        <v>293800</v>
       </c>
       <c r="E59" s="3">
-        <v>162500</v>
+        <v>123100</v>
       </c>
       <c r="F59" s="3">
-        <v>142300</v>
+        <v>127800</v>
       </c>
       <c r="G59" s="3">
-        <v>158600</v>
+        <v>165200</v>
       </c>
       <c r="H59" s="3">
-        <v>166700</v>
+        <v>144700</v>
       </c>
       <c r="I59" s="3">
+        <v>161300</v>
+      </c>
+      <c r="J59" s="3">
+        <v>169500</v>
+      </c>
+      <c r="K59" s="3">
         <v>148000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>106900</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L59" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="M59" s="3" t="s">
         <v>16</v>
       </c>
@@ -2751,38 +3025,44 @@
       <c r="P59" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R59" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>549900</v>
+        <v>928400</v>
       </c>
       <c r="E60" s="3">
-        <v>533600</v>
+        <v>642300</v>
       </c>
       <c r="F60" s="3">
-        <v>511100</v>
+        <v>559100</v>
       </c>
       <c r="G60" s="3">
-        <v>461100</v>
+        <v>542600</v>
       </c>
       <c r="H60" s="3">
-        <v>466900</v>
+        <v>519700</v>
       </c>
       <c r="I60" s="3">
+        <v>468800</v>
+      </c>
+      <c r="J60" s="3">
+        <v>474700</v>
+      </c>
+      <c r="K60" s="3">
         <v>372600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>327400</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L60" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="M60" s="3" t="s">
         <v>16</v>
       </c>
@@ -2795,8 +3075,14 @@
       <c r="P60" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R60" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2810,23 +3096,23 @@
         <v>0</v>
       </c>
       <c r="G61" s="3">
+        <v>0</v>
+      </c>
+      <c r="H61" s="3">
+        <v>0</v>
+      </c>
+      <c r="I61" s="3">
+        <v>11600</v>
+      </c>
+      <c r="J61" s="3">
+        <v>11600</v>
+      </c>
+      <c r="K61" s="3">
         <v>11400</v>
       </c>
-      <c r="H61" s="3">
-        <v>11400</v>
-      </c>
-      <c r="I61" s="3">
-        <v>11400</v>
-      </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>19100</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
@@ -2839,38 +3125,44 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>36600</v>
+        <v>331100</v>
       </c>
       <c r="E62" s="3">
-        <v>34400</v>
+        <v>66300</v>
       </c>
       <c r="F62" s="3">
-        <v>38700</v>
+        <v>37200</v>
       </c>
       <c r="G62" s="3">
-        <v>31700</v>
+        <v>35000</v>
       </c>
       <c r="H62" s="3">
-        <v>34000</v>
+        <v>39300</v>
       </c>
       <c r="I62" s="3">
-        <v>0</v>
+        <v>32200</v>
       </c>
       <c r="J62" s="3">
+        <v>34600</v>
+      </c>
+      <c r="K62" s="3">
+        <v>0</v>
+      </c>
+      <c r="L62" s="3">
         <v>800</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L62" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="M62" s="3" t="s">
         <v>16</v>
       </c>
@@ -2883,8 +3175,14 @@
       <c r="P62" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R62" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3225,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3275,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,38 +3325,44 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>586700</v>
+        <v>1415100</v>
       </c>
       <c r="E66" s="3">
-        <v>568100</v>
+        <v>712900</v>
       </c>
       <c r="F66" s="3">
-        <v>549800</v>
+        <v>596500</v>
       </c>
       <c r="G66" s="3">
-        <v>504200</v>
+        <v>577600</v>
       </c>
       <c r="H66" s="3">
-        <v>512300</v>
+        <v>559000</v>
       </c>
       <c r="I66" s="3">
+        <v>512600</v>
+      </c>
+      <c r="J66" s="3">
+        <v>520900</v>
+      </c>
+      <c r="K66" s="3">
         <v>384100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>347400</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L66" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="M66" s="3" t="s">
         <v>16</v>
       </c>
@@ -3059,8 +3375,14 @@
       <c r="P66" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R66" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3399,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3445,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3495,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3183,20 +3519,20 @@
         <v>0</v>
       </c>
       <c r="H70" s="3">
-        <v>1233700</v>
+        <v>0</v>
       </c>
       <c r="I70" s="3">
+        <v>0</v>
+      </c>
+      <c r="J70" s="3">
+        <v>1254400</v>
+      </c>
+      <c r="K70" s="3">
         <v>1209900</v>
       </c>
-      <c r="J70" s="3">
+      <c r="L70" s="3">
         <v>1150100</v>
       </c>
-      <c r="K70" s="3">
-        <v>0</v>
-      </c>
-      <c r="L70" s="3">
-        <v>0</v>
-      </c>
       <c r="M70" s="3">
         <v>0</v>
       </c>
@@ -3209,8 +3545,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,38 +3595,44 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-962800</v>
+        <v>-1092900</v>
       </c>
       <c r="E72" s="3">
-        <v>-903000</v>
+        <v>-1013400</v>
       </c>
       <c r="F72" s="3">
-        <v>-886800</v>
+        <v>-978900</v>
       </c>
       <c r="G72" s="3">
-        <v>-870500</v>
+        <v>-918100</v>
       </c>
       <c r="H72" s="3">
-        <v>-805800</v>
+        <v>-901700</v>
       </c>
       <c r="I72" s="3">
+        <v>-885100</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-819300</v>
+      </c>
+      <c r="K72" s="3">
         <v>-754800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-717900</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L72" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="M72" s="3" t="s">
         <v>16</v>
       </c>
@@ -3297,8 +3645,14 @@
       <c r="P72" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R72" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3695,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3745,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,38 +3795,44 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1239500</v>
+        <v>1732700</v>
       </c>
       <c r="E76" s="3">
-        <v>1268800</v>
+        <v>1217300</v>
       </c>
       <c r="F76" s="3">
-        <v>1285500</v>
+        <v>1260300</v>
       </c>
       <c r="G76" s="3">
-        <v>1084600</v>
+        <v>1290100</v>
       </c>
       <c r="H76" s="3">
-        <v>-708900</v>
+        <v>1307000</v>
       </c>
       <c r="I76" s="3">
+        <v>1102800</v>
+      </c>
+      <c r="J76" s="3">
+        <v>-720800</v>
+      </c>
+      <c r="K76" s="3">
         <v>-665300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-618200</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L76" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="M76" s="3" t="s">
         <v>16</v>
       </c>
@@ -3473,8 +3845,14 @@
       <c r="P76" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R76" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3895,119 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-58900</v>
+        <v>-79500</v>
       </c>
       <c r="E81" s="3">
-        <v>-16200</v>
+        <v>-34500</v>
       </c>
       <c r="F81" s="3">
-        <v>-16200</v>
+        <v>-59900</v>
       </c>
       <c r="G81" s="3">
-        <v>-64700</v>
+        <v>-16500</v>
       </c>
       <c r="H81" s="3">
-        <v>-54100</v>
+        <v>-16500</v>
       </c>
       <c r="I81" s="3">
+        <v>-65800</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-55000</v>
+      </c>
+      <c r="K81" s="3">
         <v>-44500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-54000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-48800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-30600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-42300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-147200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-33400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-23500</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,8 +4024,10 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3648,32 +4046,38 @@
       <c r="H83" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I83" s="3">
+      <c r="I83" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K83" s="3">
         <v>26900</v>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K83" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="L83" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M83" s="3">
+      <c r="M83" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N83" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O83" s="3">
         <v>19100</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="O83" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="P83" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R83" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +4120,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +4170,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4220,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4270,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4320,64 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-76600</v>
+        <v>2200</v>
       </c>
       <c r="E89" s="3">
-        <v>-42800</v>
+        <v>-41300</v>
       </c>
       <c r="F89" s="3">
-        <v>-15900</v>
+        <v>-77800</v>
       </c>
       <c r="G89" s="3">
+        <v>-43600</v>
+      </c>
+      <c r="H89" s="3">
+        <v>-16200</v>
+      </c>
+      <c r="I89" s="3">
         <v>-400</v>
       </c>
-      <c r="H89" s="3">
-        <v>14500</v>
-      </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
+        <v>14700</v>
+      </c>
+      <c r="K89" s="3">
         <v>-23900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-19600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-23400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>7600</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="O89" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="P89" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R89" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,8 +4394,10 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3974,32 +4416,38 @@
       <c r="H91" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I91" s="3">
+      <c r="I91" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K91" s="3">
         <v>-48000</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K91" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="L91" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M91" s="3">
+      <c r="M91" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N91" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O91" s="3">
         <v>-46800</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="O91" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="P91" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R91" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4490,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,52 +4540,64 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-36700</v>
+        <v>15600</v>
       </c>
       <c r="E94" s="3">
-        <v>-47500</v>
+        <v>-8800</v>
       </c>
       <c r="F94" s="3">
-        <v>-159700</v>
+        <v>-37300</v>
       </c>
       <c r="G94" s="3">
-        <v>-411600</v>
+        <v>-48300</v>
       </c>
       <c r="H94" s="3">
-        <v>-45400</v>
+        <v>-162400</v>
       </c>
       <c r="I94" s="3">
+        <v>-418500</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-46200</v>
+      </c>
+      <c r="K94" s="3">
         <v>12000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>22900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>57500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>42500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>69000</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="O94" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="P94" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R94" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4614,10 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4660,14 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4710,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4760,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,136 +4810,160 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>15200</v>
+        <v>82400</v>
       </c>
       <c r="E100" s="3">
-        <v>32100</v>
+        <v>78700</v>
       </c>
       <c r="F100" s="3">
-        <v>272600</v>
+        <v>15500</v>
       </c>
       <c r="G100" s="3">
-        <v>617000</v>
+        <v>32600</v>
       </c>
       <c r="H100" s="3">
-        <v>21400</v>
+        <v>277100</v>
       </c>
       <c r="I100" s="3">
+        <v>627300</v>
+      </c>
+      <c r="J100" s="3">
+        <v>21700</v>
+      </c>
+      <c r="K100" s="3">
         <v>47600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-40700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>3200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-32400</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="O100" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="P100" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R100" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>100</v>
+      </c>
+      <c r="E101" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="F101" s="3">
         <v>800</v>
       </c>
-      <c r="E101" s="3">
-        <v>-9700</v>
-      </c>
-      <c r="F101" s="3">
-        <v>-11300</v>
-      </c>
       <c r="G101" s="3">
+        <v>-9900</v>
+      </c>
+      <c r="H101" s="3">
+        <v>-11500</v>
+      </c>
+      <c r="I101" s="3">
         <v>1500</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>1400</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>7700</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>-4100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>700</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>-3100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>-200</v>
       </c>
-      <c r="N101" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="O101" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="P101" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R101" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-97200</v>
+        <v>100200</v>
       </c>
       <c r="E102" s="3">
-        <v>-68000</v>
+        <v>25200</v>
       </c>
       <c r="F102" s="3">
-        <v>85600</v>
+        <v>-98800</v>
       </c>
       <c r="G102" s="3">
-        <v>206400</v>
+        <v>-69200</v>
       </c>
       <c r="H102" s="3">
-        <v>-8200</v>
+        <v>87000</v>
       </c>
       <c r="I102" s="3">
+        <v>209900</v>
+      </c>
+      <c r="J102" s="3">
+        <v>-8400</v>
+      </c>
+      <c r="K102" s="3">
         <v>43400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>17200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>19200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>44000</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="O102" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="P102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R102" s="3" t="s">
         <v>16</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KC_QTR_FIN.xlsx
@@ -745,25 +745,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>377900</v>
+        <v>380800</v>
       </c>
       <c r="E8" s="3">
-        <v>340300</v>
+        <v>342900</v>
       </c>
       <c r="F8" s="3">
-        <v>283900</v>
+        <v>286100</v>
       </c>
       <c r="G8" s="3">
-        <v>301000</v>
+        <v>303300</v>
       </c>
       <c r="H8" s="3">
-        <v>270700</v>
+        <v>272700</v>
       </c>
       <c r="I8" s="3">
-        <v>240300</v>
+        <v>242100</v>
       </c>
       <c r="J8" s="3">
-        <v>217800</v>
+        <v>219400</v>
       </c>
       <c r="K8" s="3">
         <v>180700</v>
@@ -795,25 +795,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>364100</v>
+        <v>366900</v>
       </c>
       <c r="E9" s="3">
-        <v>321800</v>
+        <v>324200</v>
       </c>
       <c r="F9" s="3">
-        <v>265700</v>
+        <v>267700</v>
       </c>
       <c r="G9" s="3">
-        <v>286500</v>
+        <v>288700</v>
       </c>
       <c r="H9" s="3">
-        <v>253000</v>
+        <v>254900</v>
       </c>
       <c r="I9" s="3">
-        <v>227600</v>
+        <v>229400</v>
       </c>
       <c r="J9" s="3">
-        <v>206700</v>
+        <v>208300</v>
       </c>
       <c r="K9" s="3">
         <v>172400</v>
@@ -845,25 +845,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>13800</v>
+        <v>13900</v>
       </c>
       <c r="E10" s="3">
-        <v>18600</v>
+        <v>18700</v>
       </c>
       <c r="F10" s="3">
-        <v>18200</v>
+        <v>18400</v>
       </c>
       <c r="G10" s="3">
-        <v>14500</v>
+        <v>14600</v>
       </c>
       <c r="H10" s="3">
-        <v>17700</v>
+        <v>17800</v>
       </c>
       <c r="I10" s="3">
-        <v>12600</v>
+        <v>12700</v>
       </c>
       <c r="J10" s="3">
-        <v>11100</v>
+        <v>11200</v>
       </c>
       <c r="K10" s="3">
         <v>8400</v>
@@ -915,25 +915,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>42100</v>
+        <v>42400</v>
       </c>
       <c r="E12" s="3">
+        <v>36600</v>
+      </c>
+      <c r="F12" s="3">
+        <v>41700</v>
+      </c>
+      <c r="G12" s="3">
+        <v>28600</v>
+      </c>
+      <c r="H12" s="3">
+        <v>26400</v>
+      </c>
+      <c r="I12" s="3">
         <v>36400</v>
       </c>
-      <c r="F12" s="3">
-        <v>41400</v>
-      </c>
-      <c r="G12" s="3">
-        <v>28300</v>
-      </c>
-      <c r="H12" s="3">
-        <v>26200</v>
-      </c>
-      <c r="I12" s="3">
-        <v>36100</v>
-      </c>
       <c r="J12" s="3">
-        <v>30600</v>
+        <v>30900</v>
       </c>
       <c r="K12" s="3">
         <v>26400</v>
@@ -1132,25 +1132,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>451300</v>
+        <v>454800</v>
       </c>
       <c r="E17" s="3">
-        <v>390500</v>
+        <v>393500</v>
       </c>
       <c r="F17" s="3">
-        <v>339100</v>
+        <v>341700</v>
       </c>
       <c r="G17" s="3">
-        <v>339400</v>
+        <v>342000</v>
       </c>
       <c r="H17" s="3">
-        <v>308700</v>
+        <v>311100</v>
       </c>
       <c r="I17" s="3">
-        <v>307600</v>
+        <v>310000</v>
       </c>
       <c r="J17" s="3">
-        <v>263000</v>
+        <v>265000</v>
       </c>
       <c r="K17" s="3">
         <v>227300</v>
@@ -1182,25 +1182,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-73400</v>
+        <v>-74000</v>
       </c>
       <c r="E18" s="3">
-        <v>-50200</v>
+        <v>-50600</v>
       </c>
       <c r="F18" s="3">
-        <v>-55100</v>
+        <v>-55600</v>
       </c>
       <c r="G18" s="3">
-        <v>-38400</v>
+        <v>-38700</v>
       </c>
       <c r="H18" s="3">
-        <v>-38000</v>
+        <v>-38300</v>
       </c>
       <c r="I18" s="3">
-        <v>-67400</v>
+        <v>-67900</v>
       </c>
       <c r="J18" s="3">
-        <v>-45200</v>
+        <v>-45600</v>
       </c>
       <c r="K18" s="3">
         <v>-46600</v>
@@ -1255,19 +1255,19 @@
         <v>-2900</v>
       </c>
       <c r="E20" s="3">
-        <v>17200</v>
+        <v>17400</v>
       </c>
       <c r="F20" s="3">
         <v>-3600</v>
       </c>
       <c r="G20" s="3">
-        <v>22800</v>
+        <v>22900</v>
       </c>
       <c r="H20" s="3">
-        <v>22800</v>
+        <v>23000</v>
       </c>
       <c r="I20" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="J20" s="3">
         <v>-5500</v>
@@ -1302,25 +1302,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>-71700</v>
+        <v>-72300</v>
       </c>
       <c r="E21" s="3">
-        <v>-31600</v>
+        <v>-31800</v>
       </c>
       <c r="F21" s="3">
-        <v>-30500</v>
+        <v>-30700</v>
       </c>
       <c r="G21" s="3">
-        <v>-13500</v>
+        <v>-13600</v>
       </c>
       <c r="H21" s="3">
-        <v>-24600</v>
+        <v>-24800</v>
       </c>
       <c r="I21" s="3">
-        <v>-63200</v>
+        <v>-63700</v>
       </c>
       <c r="J21" s="3">
-        <v>-18400</v>
+        <v>-18500</v>
       </c>
       <c r="K21" s="3">
         <v>-9600</v>
@@ -1352,10 +1352,10 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>2200</v>
+        <v>2300</v>
       </c>
       <c r="E22" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="F22" s="3">
         <v>600</v>
@@ -1402,25 +1402,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-78600</v>
+        <v>-79200</v>
       </c>
       <c r="E23" s="3">
-        <v>-34000</v>
+        <v>-34300</v>
       </c>
       <c r="F23" s="3">
-        <v>-59300</v>
+        <v>-59800</v>
       </c>
       <c r="G23" s="3">
-        <v>-15900</v>
+        <v>-16100</v>
       </c>
       <c r="H23" s="3">
-        <v>-15900</v>
+        <v>-16000</v>
       </c>
       <c r="I23" s="3">
-        <v>-65500</v>
+        <v>-66000</v>
       </c>
       <c r="J23" s="3">
-        <v>-51000</v>
+        <v>-51400</v>
       </c>
       <c r="K23" s="3">
         <v>-36600</v>
@@ -1552,25 +1552,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-79300</v>
+        <v>-79900</v>
       </c>
       <c r="E26" s="3">
-        <v>-34500</v>
+        <v>-34800</v>
       </c>
       <c r="F26" s="3">
-        <v>-59800</v>
+        <v>-60300</v>
       </c>
       <c r="G26" s="3">
-        <v>-16500</v>
+        <v>-16600</v>
       </c>
       <c r="H26" s="3">
-        <v>-16500</v>
+        <v>-16600</v>
       </c>
       <c r="I26" s="3">
-        <v>-65800</v>
+        <v>-66300</v>
       </c>
       <c r="J26" s="3">
-        <v>-51900</v>
+        <v>-52300</v>
       </c>
       <c r="K26" s="3">
         <v>-36900</v>
@@ -1602,25 +1602,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-79500</v>
+        <v>-80100</v>
       </c>
       <c r="E27" s="3">
-        <v>-34500</v>
+        <v>-34800</v>
       </c>
       <c r="F27" s="3">
-        <v>-59900</v>
+        <v>-60300</v>
       </c>
       <c r="G27" s="3">
-        <v>-16500</v>
+        <v>-16600</v>
       </c>
       <c r="H27" s="3">
-        <v>-16500</v>
+        <v>-16600</v>
       </c>
       <c r="I27" s="3">
-        <v>-65800</v>
+        <v>-66300</v>
       </c>
       <c r="J27" s="3">
-        <v>-55000</v>
+        <v>-55400</v>
       </c>
       <c r="K27" s="3">
         <v>-44500</v>
@@ -1855,19 +1855,19 @@
         <v>2900</v>
       </c>
       <c r="E32" s="3">
-        <v>-17200</v>
+        <v>-17400</v>
       </c>
       <c r="F32" s="3">
         <v>3600</v>
       </c>
       <c r="G32" s="3">
-        <v>-22800</v>
+        <v>-22900</v>
       </c>
       <c r="H32" s="3">
-        <v>-22800</v>
+        <v>-23000</v>
       </c>
       <c r="I32" s="3">
-        <v>-2100</v>
+        <v>-2200</v>
       </c>
       <c r="J32" s="3">
         <v>5500</v>
@@ -1902,25 +1902,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-79500</v>
+        <v>-80100</v>
       </c>
       <c r="E33" s="3">
-        <v>-34500</v>
+        <v>-34800</v>
       </c>
       <c r="F33" s="3">
-        <v>-59900</v>
+        <v>-60300</v>
       </c>
       <c r="G33" s="3">
-        <v>-16500</v>
+        <v>-16600</v>
       </c>
       <c r="H33" s="3">
-        <v>-16500</v>
+        <v>-16600</v>
       </c>
       <c r="I33" s="3">
-        <v>-65800</v>
+        <v>-66300</v>
       </c>
       <c r="J33" s="3">
-        <v>-55000</v>
+        <v>-55400</v>
       </c>
       <c r="K33" s="3">
         <v>-44500</v>
@@ -2002,25 +2002,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-79500</v>
+        <v>-80100</v>
       </c>
       <c r="E35" s="3">
-        <v>-34500</v>
+        <v>-34800</v>
       </c>
       <c r="F35" s="3">
-        <v>-59900</v>
+        <v>-60300</v>
       </c>
       <c r="G35" s="3">
-        <v>-16500</v>
+        <v>-16600</v>
       </c>
       <c r="H35" s="3">
-        <v>-16500</v>
+        <v>-16600</v>
       </c>
       <c r="I35" s="3">
-        <v>-65800</v>
+        <v>-66300</v>
       </c>
       <c r="J35" s="3">
-        <v>-55000</v>
+        <v>-55400</v>
       </c>
       <c r="K35" s="3">
         <v>-44500</v>
@@ -2147,25 +2147,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>539200</v>
+        <v>543400</v>
       </c>
       <c r="E41" s="3">
-        <v>462600</v>
+        <v>466100</v>
       </c>
       <c r="F41" s="3">
-        <v>437300</v>
+        <v>440700</v>
       </c>
       <c r="G41" s="3">
-        <v>536200</v>
+        <v>540300</v>
       </c>
       <c r="H41" s="3">
-        <v>605300</v>
+        <v>610000</v>
       </c>
       <c r="I41" s="3">
-        <v>518300</v>
+        <v>522300</v>
       </c>
       <c r="J41" s="3">
-        <v>308400</v>
+        <v>310800</v>
       </c>
       <c r="K41" s="3">
         <v>311500</v>
@@ -2197,25 +2197,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>399300</v>
+        <v>402400</v>
       </c>
       <c r="E42" s="3">
-        <v>394600</v>
+        <v>397600</v>
       </c>
       <c r="F42" s="3">
-        <v>416800</v>
+        <v>420000</v>
       </c>
       <c r="G42" s="3">
-        <v>421600</v>
+        <v>424900</v>
       </c>
       <c r="H42" s="3">
-        <v>458800</v>
+        <v>462300</v>
       </c>
       <c r="I42" s="3">
-        <v>384100</v>
+        <v>387000</v>
       </c>
       <c r="J42" s="3">
-        <v>35800</v>
+        <v>36100</v>
       </c>
       <c r="K42" s="3">
         <v>34700</v>
@@ -2247,25 +2247,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>736100</v>
+        <v>741700</v>
       </c>
       <c r="E43" s="3">
-        <v>575000</v>
+        <v>579400</v>
       </c>
       <c r="F43" s="3">
-        <v>462400</v>
+        <v>465900</v>
       </c>
       <c r="G43" s="3">
-        <v>397700</v>
+        <v>400700</v>
       </c>
       <c r="H43" s="3">
-        <v>337300</v>
+        <v>339900</v>
       </c>
       <c r="I43" s="3">
-        <v>274700</v>
+        <v>276800</v>
       </c>
       <c r="J43" s="3">
-        <v>292700</v>
+        <v>294900</v>
       </c>
       <c r="K43" s="3">
         <v>227800</v>
@@ -2347,25 +2347,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>200100</v>
+        <v>201700</v>
       </c>
       <c r="E45" s="3">
-        <v>129400</v>
+        <v>130400</v>
       </c>
       <c r="F45" s="3">
-        <v>153800</v>
+        <v>155000</v>
       </c>
       <c r="G45" s="3">
-        <v>138900</v>
+        <v>139900</v>
       </c>
       <c r="H45" s="3">
-        <v>86600</v>
+        <v>87300</v>
       </c>
       <c r="I45" s="3">
-        <v>83600</v>
+        <v>84200</v>
       </c>
       <c r="J45" s="3">
-        <v>78000</v>
+        <v>78500</v>
       </c>
       <c r="K45" s="3">
         <v>65000</v>
@@ -2397,25 +2397,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1874700</v>
+        <v>1889100</v>
       </c>
       <c r="E46" s="3">
-        <v>1561500</v>
+        <v>1573500</v>
       </c>
       <c r="F46" s="3">
-        <v>1470400</v>
+        <v>1481700</v>
       </c>
       <c r="G46" s="3">
-        <v>1494300</v>
+        <v>1505800</v>
       </c>
       <c r="H46" s="3">
-        <v>1488100</v>
+        <v>1499500</v>
       </c>
       <c r="I46" s="3">
-        <v>1260700</v>
+        <v>1270300</v>
       </c>
       <c r="J46" s="3">
-        <v>714800</v>
+        <v>720300</v>
       </c>
       <c r="K46" s="3">
         <v>639000</v>
@@ -2447,25 +2447,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>14800</v>
+        <v>14900</v>
       </c>
       <c r="E47" s="3">
-        <v>14800</v>
+        <v>14900</v>
       </c>
       <c r="F47" s="3">
-        <v>21700</v>
+        <v>21800</v>
       </c>
       <c r="G47" s="3">
-        <v>20700</v>
+        <v>20900</v>
       </c>
       <c r="H47" s="3">
+        <v>19400</v>
+      </c>
+      <c r="I47" s="3">
         <v>19200</v>
       </c>
-      <c r="I47" s="3">
-        <v>19000</v>
-      </c>
       <c r="J47" s="3">
-        <v>19100</v>
+        <v>19200</v>
       </c>
       <c r="K47" s="3">
         <v>18000</v>
@@ -2497,25 +2497,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>362600</v>
+        <v>365400</v>
       </c>
       <c r="E48" s="3">
-        <v>329500</v>
+        <v>332000</v>
       </c>
       <c r="F48" s="3">
-        <v>348200</v>
+        <v>350900</v>
       </c>
       <c r="G48" s="3">
-        <v>348200</v>
+        <v>350800</v>
       </c>
       <c r="H48" s="3">
-        <v>346300</v>
+        <v>348900</v>
       </c>
       <c r="I48" s="3">
-        <v>329500</v>
+        <v>332100</v>
       </c>
       <c r="J48" s="3">
-        <v>314900</v>
+        <v>317300</v>
       </c>
       <c r="K48" s="3">
         <v>265000</v>
@@ -2547,13 +2547,13 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>885300</v>
+        <v>892100</v>
       </c>
       <c r="E49" s="3">
-        <v>19700</v>
+        <v>19900</v>
       </c>
       <c r="F49" s="3">
-        <v>13900</v>
+        <v>14000</v>
       </c>
       <c r="G49" s="3">
         <v>2600</v>
@@ -2697,7 +2697,7 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>10300</v>
+        <v>10400</v>
       </c>
       <c r="E52" s="3">
         <v>4800</v>
@@ -2709,7 +2709,7 @@
         <v>1900</v>
       </c>
       <c r="H52" s="3">
-        <v>9300</v>
+        <v>9400</v>
       </c>
       <c r="I52" s="3">
         <v>5000</v>
@@ -2797,25 +2797,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3147700</v>
+        <v>3171900</v>
       </c>
       <c r="E54" s="3">
-        <v>1930300</v>
+        <v>1945100</v>
       </c>
       <c r="F54" s="3">
-        <v>1856800</v>
+        <v>1871000</v>
       </c>
       <c r="G54" s="3">
-        <v>1867600</v>
+        <v>1882000</v>
       </c>
       <c r="H54" s="3">
-        <v>1866000</v>
+        <v>1880300</v>
       </c>
       <c r="I54" s="3">
-        <v>1615400</v>
+        <v>1627800</v>
       </c>
       <c r="J54" s="3">
-        <v>1054500</v>
+        <v>1062600</v>
       </c>
       <c r="K54" s="3">
         <v>928800</v>
@@ -2887,25 +2887,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>493400</v>
+        <v>497200</v>
       </c>
       <c r="E57" s="3">
-        <v>415200</v>
+        <v>418300</v>
       </c>
       <c r="F57" s="3">
-        <v>360500</v>
+        <v>363200</v>
       </c>
       <c r="G57" s="3">
-        <v>322100</v>
+        <v>324600</v>
       </c>
       <c r="H57" s="3">
-        <v>311900</v>
+        <v>314300</v>
       </c>
       <c r="I57" s="3">
-        <v>271700</v>
+        <v>273800</v>
       </c>
       <c r="J57" s="3">
-        <v>289500</v>
+        <v>291700</v>
       </c>
       <c r="K57" s="3">
         <v>193200</v>
@@ -2937,25 +2937,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>141100</v>
+        <v>142200</v>
       </c>
       <c r="E58" s="3">
-        <v>104000</v>
+        <v>104800</v>
       </c>
       <c r="F58" s="3">
-        <v>70800</v>
+        <v>71300</v>
       </c>
       <c r="G58" s="3">
-        <v>55200</v>
+        <v>55700</v>
       </c>
       <c r="H58" s="3">
-        <v>63100</v>
+        <v>63600</v>
       </c>
       <c r="I58" s="3">
-        <v>35800</v>
+        <v>36000</v>
       </c>
       <c r="J58" s="3">
-        <v>15700</v>
+        <v>15800</v>
       </c>
       <c r="K58" s="3">
         <v>31500</v>
@@ -2987,25 +2987,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>293800</v>
+        <v>296100</v>
       </c>
       <c r="E59" s="3">
-        <v>123100</v>
+        <v>124100</v>
       </c>
       <c r="F59" s="3">
-        <v>127800</v>
+        <v>128800</v>
       </c>
       <c r="G59" s="3">
-        <v>165200</v>
+        <v>166500</v>
       </c>
       <c r="H59" s="3">
-        <v>144700</v>
+        <v>145800</v>
       </c>
       <c r="I59" s="3">
-        <v>161300</v>
+        <v>162500</v>
       </c>
       <c r="J59" s="3">
-        <v>169500</v>
+        <v>170800</v>
       </c>
       <c r="K59" s="3">
         <v>148000</v>
@@ -3037,25 +3037,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>928400</v>
+        <v>935500</v>
       </c>
       <c r="E60" s="3">
-        <v>642300</v>
+        <v>647300</v>
       </c>
       <c r="F60" s="3">
-        <v>559100</v>
+        <v>563400</v>
       </c>
       <c r="G60" s="3">
-        <v>542600</v>
+        <v>546700</v>
       </c>
       <c r="H60" s="3">
-        <v>519700</v>
+        <v>523600</v>
       </c>
       <c r="I60" s="3">
-        <v>468800</v>
+        <v>472400</v>
       </c>
       <c r="J60" s="3">
-        <v>474700</v>
+        <v>478300</v>
       </c>
       <c r="K60" s="3">
         <v>372600</v>
@@ -3102,10 +3102,10 @@
         <v>0</v>
       </c>
       <c r="I61" s="3">
-        <v>11600</v>
+        <v>11700</v>
       </c>
       <c r="J61" s="3">
-        <v>11600</v>
+        <v>11700</v>
       </c>
       <c r="K61" s="3">
         <v>11400</v>
@@ -3137,25 +3137,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>331100</v>
+        <v>333600</v>
       </c>
       <c r="E62" s="3">
-        <v>66300</v>
+        <v>66800</v>
       </c>
       <c r="F62" s="3">
-        <v>37200</v>
+        <v>37500</v>
       </c>
       <c r="G62" s="3">
-        <v>35000</v>
+        <v>35300</v>
       </c>
       <c r="H62" s="3">
-        <v>39300</v>
+        <v>39600</v>
       </c>
       <c r="I62" s="3">
-        <v>32200</v>
+        <v>32500</v>
       </c>
       <c r="J62" s="3">
-        <v>34600</v>
+        <v>34900</v>
       </c>
       <c r="K62" s="3">
         <v>0</v>
@@ -3337,25 +3337,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1415100</v>
+        <v>1425900</v>
       </c>
       <c r="E66" s="3">
-        <v>712900</v>
+        <v>718400</v>
       </c>
       <c r="F66" s="3">
-        <v>596500</v>
+        <v>601100</v>
       </c>
       <c r="G66" s="3">
-        <v>577600</v>
+        <v>582000</v>
       </c>
       <c r="H66" s="3">
-        <v>559000</v>
+        <v>563300</v>
       </c>
       <c r="I66" s="3">
-        <v>512600</v>
+        <v>516600</v>
       </c>
       <c r="J66" s="3">
-        <v>520900</v>
+        <v>524900</v>
       </c>
       <c r="K66" s="3">
         <v>384100</v>
@@ -3525,7 +3525,7 @@
         <v>0</v>
       </c>
       <c r="J70" s="3">
-        <v>1254400</v>
+        <v>1264000</v>
       </c>
       <c r="K70" s="3">
         <v>1209900</v>
@@ -3607,25 +3607,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-1092900</v>
+        <v>-1101300</v>
       </c>
       <c r="E72" s="3">
-        <v>-1013400</v>
+        <v>-1021200</v>
       </c>
       <c r="F72" s="3">
-        <v>-978900</v>
+        <v>-986400</v>
       </c>
       <c r="G72" s="3">
-        <v>-918100</v>
+        <v>-925200</v>
       </c>
       <c r="H72" s="3">
-        <v>-901700</v>
+        <v>-908600</v>
       </c>
       <c r="I72" s="3">
-        <v>-885100</v>
+        <v>-891900</v>
       </c>
       <c r="J72" s="3">
-        <v>-819300</v>
+        <v>-825600</v>
       </c>
       <c r="K72" s="3">
         <v>-754800</v>
@@ -3807,25 +3807,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1732700</v>
+        <v>1745900</v>
       </c>
       <c r="E76" s="3">
-        <v>1217300</v>
+        <v>1226700</v>
       </c>
       <c r="F76" s="3">
-        <v>1260300</v>
+        <v>1270000</v>
       </c>
       <c r="G76" s="3">
-        <v>1290100</v>
+        <v>1299900</v>
       </c>
       <c r="H76" s="3">
-        <v>1307000</v>
+        <v>1317100</v>
       </c>
       <c r="I76" s="3">
-        <v>1102800</v>
+        <v>1111300</v>
       </c>
       <c r="J76" s="3">
-        <v>-720800</v>
+        <v>-726300</v>
       </c>
       <c r="K76" s="3">
         <v>-665300</v>
@@ -3962,25 +3962,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-79500</v>
+        <v>-80100</v>
       </c>
       <c r="E81" s="3">
-        <v>-34500</v>
+        <v>-34800</v>
       </c>
       <c r="F81" s="3">
-        <v>-59900</v>
+        <v>-60300</v>
       </c>
       <c r="G81" s="3">
-        <v>-16500</v>
+        <v>-16600</v>
       </c>
       <c r="H81" s="3">
-        <v>-16500</v>
+        <v>-16600</v>
       </c>
       <c r="I81" s="3">
-        <v>-65800</v>
+        <v>-66300</v>
       </c>
       <c r="J81" s="3">
-        <v>-55000</v>
+        <v>-55400</v>
       </c>
       <c r="K81" s="3">
         <v>-44500</v>
@@ -4335,22 +4335,22 @@
         <v>2200</v>
       </c>
       <c r="E89" s="3">
-        <v>-41300</v>
+        <v>-41600</v>
       </c>
       <c r="F89" s="3">
-        <v>-77800</v>
+        <v>-78400</v>
       </c>
       <c r="G89" s="3">
-        <v>-43600</v>
+        <v>-43900</v>
       </c>
       <c r="H89" s="3">
-        <v>-16200</v>
+        <v>-16300</v>
       </c>
       <c r="I89" s="3">
         <v>-400</v>
       </c>
       <c r="J89" s="3">
-        <v>14700</v>
+        <v>14800</v>
       </c>
       <c r="K89" s="3">
         <v>-23900</v>
@@ -4552,25 +4552,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>15600</v>
+        <v>15700</v>
       </c>
       <c r="E94" s="3">
-        <v>-8800</v>
+        <v>-8900</v>
       </c>
       <c r="F94" s="3">
-        <v>-37300</v>
+        <v>-37600</v>
       </c>
       <c r="G94" s="3">
-        <v>-48300</v>
+        <v>-48700</v>
       </c>
       <c r="H94" s="3">
-        <v>-162400</v>
+        <v>-163600</v>
       </c>
       <c r="I94" s="3">
-        <v>-418500</v>
+        <v>-421700</v>
       </c>
       <c r="J94" s="3">
-        <v>-46200</v>
+        <v>-46500</v>
       </c>
       <c r="K94" s="3">
         <v>12000</v>
@@ -4822,25 +4822,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>82400</v>
+        <v>83000</v>
       </c>
       <c r="E100" s="3">
-        <v>78700</v>
+        <v>79300</v>
       </c>
       <c r="F100" s="3">
-        <v>15500</v>
+        <v>15600</v>
       </c>
       <c r="G100" s="3">
-        <v>32600</v>
+        <v>32800</v>
       </c>
       <c r="H100" s="3">
-        <v>277100</v>
+        <v>279300</v>
       </c>
       <c r="I100" s="3">
-        <v>627300</v>
+        <v>632100</v>
       </c>
       <c r="J100" s="3">
-        <v>21700</v>
+        <v>21900</v>
       </c>
       <c r="K100" s="3">
         <v>47600</v>
@@ -4875,7 +4875,7 @@
         <v>100</v>
       </c>
       <c r="E101" s="3">
-        <v>-3300</v>
+        <v>-3400</v>
       </c>
       <c r="F101" s="3">
         <v>800</v>
@@ -4884,7 +4884,7 @@
         <v>-9900</v>
       </c>
       <c r="H101" s="3">
-        <v>-11500</v>
+        <v>-11600</v>
       </c>
       <c r="I101" s="3">
         <v>1500</v>
@@ -4922,22 +4922,22 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>100200</v>
+        <v>101000</v>
       </c>
       <c r="E102" s="3">
-        <v>25200</v>
+        <v>25400</v>
       </c>
       <c r="F102" s="3">
-        <v>-98800</v>
+        <v>-99600</v>
       </c>
       <c r="G102" s="3">
-        <v>-69200</v>
+        <v>-69700</v>
       </c>
       <c r="H102" s="3">
-        <v>87000</v>
+        <v>87700</v>
       </c>
       <c r="I102" s="3">
-        <v>209900</v>
+        <v>211500</v>
       </c>
       <c r="J102" s="3">
         <v>-8400</v>

--- a/AAII_Financials/Quarterly/KC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="92">
   <si>
     <t>KC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,232 +665,244 @@
     <col min="1" max="1" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>380800</v>
+        <v>391900</v>
       </c>
       <c r="E8" s="3">
-        <v>342900</v>
+        <v>355700</v>
       </c>
       <c r="F8" s="3">
-        <v>286100</v>
+        <v>320300</v>
       </c>
       <c r="G8" s="3">
-        <v>303300</v>
+        <v>267200</v>
       </c>
       <c r="H8" s="3">
-        <v>272700</v>
+        <v>283300</v>
       </c>
       <c r="I8" s="3">
-        <v>242100</v>
+        <v>254800</v>
       </c>
       <c r="J8" s="3">
+        <v>226200</v>
+      </c>
+      <c r="K8" s="3">
         <v>219400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>180700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>154300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>142900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>128700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>105200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>83900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>64300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>60900</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>366900</v>
+        <v>387800</v>
       </c>
       <c r="E9" s="3">
-        <v>324200</v>
+        <v>342700</v>
       </c>
       <c r="F9" s="3">
-        <v>267700</v>
+        <v>302900</v>
       </c>
       <c r="G9" s="3">
-        <v>288700</v>
+        <v>250100</v>
       </c>
       <c r="H9" s="3">
-        <v>254900</v>
+        <v>269700</v>
       </c>
       <c r="I9" s="3">
-        <v>229400</v>
+        <v>238100</v>
       </c>
       <c r="J9" s="3">
+        <v>214300</v>
+      </c>
+      <c r="K9" s="3">
         <v>208300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>172400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>151400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>146000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>135500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>114200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>92300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>68900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>67200</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>13900</v>
+        <v>4100</v>
       </c>
       <c r="E10" s="3">
-        <v>18700</v>
+        <v>13000</v>
       </c>
       <c r="F10" s="3">
-        <v>18400</v>
+        <v>17500</v>
       </c>
       <c r="G10" s="3">
-        <v>14600</v>
+        <v>17200</v>
       </c>
       <c r="H10" s="3">
-        <v>17800</v>
+        <v>13600</v>
       </c>
       <c r="I10" s="3">
-        <v>12700</v>
+        <v>16600</v>
       </c>
       <c r="J10" s="3">
+        <v>11900</v>
+      </c>
+      <c r="K10" s="3">
         <v>11200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>8400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>-3100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>-6900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>-9000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>-8400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>-4600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>-6300</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -909,58 +921,62 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>42400</v>
+        <v>41000</v>
       </c>
       <c r="E12" s="3">
-        <v>36600</v>
+        <v>39600</v>
       </c>
       <c r="F12" s="3">
-        <v>41700</v>
+        <v>34200</v>
       </c>
       <c r="G12" s="3">
-        <v>28600</v>
+        <v>39000</v>
       </c>
       <c r="H12" s="3">
+        <v>26700</v>
+      </c>
+      <c r="I12" s="3">
+        <v>24700</v>
+      </c>
+      <c r="J12" s="3">
+        <v>34000</v>
+      </c>
+      <c r="K12" s="3">
+        <v>30900</v>
+      </c>
+      <c r="L12" s="3">
         <v>26400</v>
       </c>
-      <c r="I12" s="3">
-        <v>36400</v>
-      </c>
-      <c r="J12" s="3">
-        <v>30900</v>
-      </c>
-      <c r="K12" s="3">
-        <v>26400</v>
-      </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>24000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>21900</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>18900</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>17300</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>17200</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>13300</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>14600</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1009,8 +1025,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1059,8 +1078,11 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1109,8 +1131,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1126,108 +1151,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>454800</v>
+        <v>490800</v>
       </c>
       <c r="E17" s="3">
-        <v>393500</v>
+        <v>424800</v>
       </c>
       <c r="F17" s="3">
-        <v>341700</v>
+        <v>367500</v>
       </c>
       <c r="G17" s="3">
-        <v>342000</v>
+        <v>319100</v>
       </c>
       <c r="H17" s="3">
-        <v>311100</v>
+        <v>319500</v>
       </c>
       <c r="I17" s="3">
-        <v>310000</v>
+        <v>290500</v>
       </c>
       <c r="J17" s="3">
+        <v>289600</v>
+      </c>
+      <c r="K17" s="3">
         <v>265000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>227300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>197400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>189200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>167800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>149900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>121600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>91700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>89800</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-74000</v>
+        <v>-98800</v>
       </c>
       <c r="E18" s="3">
-        <v>-50600</v>
+        <v>-69100</v>
       </c>
       <c r="F18" s="3">
-        <v>-55600</v>
+        <v>-47200</v>
       </c>
       <c r="G18" s="3">
-        <v>-38700</v>
+        <v>-51900</v>
       </c>
       <c r="H18" s="3">
-        <v>-38300</v>
+        <v>-36200</v>
       </c>
       <c r="I18" s="3">
-        <v>-67900</v>
+        <v>-35800</v>
       </c>
       <c r="J18" s="3">
+        <v>-63400</v>
+      </c>
+      <c r="K18" s="3">
         <v>-45600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-46600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-43100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-46400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-39200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-44700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-37700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-27400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-28900</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1246,216 +1278,229 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>-2900</v>
+        <v>32400</v>
       </c>
       <c r="E20" s="3">
-        <v>17400</v>
+        <v>-2700</v>
       </c>
       <c r="F20" s="3">
-        <v>-3600</v>
+        <v>16200</v>
       </c>
       <c r="G20" s="3">
-        <v>22900</v>
+        <v>-3400</v>
       </c>
       <c r="H20" s="3">
-        <v>23000</v>
+        <v>21400</v>
       </c>
       <c r="I20" s="3">
-        <v>2200</v>
+        <v>21400</v>
       </c>
       <c r="J20" s="3">
+        <v>2000</v>
+      </c>
+      <c r="K20" s="3">
         <v>-5500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>10000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-10500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-1900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>9400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>4000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-3900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-4200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>-72300</v>
+        <v>-59200</v>
       </c>
       <c r="E21" s="3">
-        <v>-31800</v>
+        <v>-67500</v>
       </c>
       <c r="F21" s="3">
-        <v>-30700</v>
+        <v>-29700</v>
       </c>
       <c r="G21" s="3">
-        <v>-13600</v>
+        <v>-28700</v>
       </c>
       <c r="H21" s="3">
-        <v>-24800</v>
+        <v>-12700</v>
       </c>
       <c r="I21" s="3">
-        <v>-63700</v>
+        <v>-23200</v>
       </c>
       <c r="J21" s="3">
+        <v>-59500</v>
+      </c>
+      <c r="K21" s="3">
         <v>-18500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-9600</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>16</v>
       </c>
       <c r="N21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O21" s="3">
+      <c r="O21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="P21" s="3">
         <v>-21600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-2300</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="R21" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>2300</v>
+        <v>4000</v>
       </c>
       <c r="E22" s="3">
-        <v>1100</v>
+        <v>2100</v>
       </c>
       <c r="F22" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G22" s="3">
         <v>600</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>300</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>600</v>
-      </c>
-      <c r="I22" s="3">
-        <v>300</v>
       </c>
       <c r="J22" s="3">
         <v>300</v>
       </c>
       <c r="K22" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="L22" s="3">
         <v>0</v>
       </c>
       <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
         <v>300</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>400</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>1200</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>1300</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>1500</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-79200</v>
+        <v>-70500</v>
       </c>
       <c r="E23" s="3">
-        <v>-34300</v>
+        <v>-73900</v>
       </c>
       <c r="F23" s="3">
-        <v>-59800</v>
+        <v>-32000</v>
       </c>
       <c r="G23" s="3">
-        <v>-16100</v>
+        <v>-55800</v>
       </c>
       <c r="H23" s="3">
-        <v>-16000</v>
+        <v>-15000</v>
       </c>
       <c r="I23" s="3">
-        <v>-66000</v>
+        <v>-14900</v>
       </c>
       <c r="J23" s="3">
+        <v>-61600</v>
+      </c>
+      <c r="K23" s="3">
         <v>-51400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-36600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-53600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-48600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-30200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-41900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-42900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-33100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-23200</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="E24" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="F24" s="3">
         <v>500</v>
@@ -1464,25 +1509,25 @@
         <v>500</v>
       </c>
       <c r="H24" s="3">
+        <v>500</v>
+      </c>
+      <c r="I24" s="3">
         <v>600</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>300</v>
-      </c>
-      <c r="N24" s="3">
-        <v>400</v>
       </c>
       <c r="O24" s="3">
         <v>400</v>
@@ -1491,13 +1536,16 @@
         <v>400</v>
       </c>
       <c r="Q24" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="R24" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1546,108 +1594,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-79900</v>
+        <v>-71100</v>
       </c>
       <c r="E26" s="3">
-        <v>-34800</v>
+        <v>-74700</v>
       </c>
       <c r="F26" s="3">
-        <v>-60300</v>
+        <v>-32500</v>
       </c>
       <c r="G26" s="3">
-        <v>-16600</v>
+        <v>-56300</v>
       </c>
       <c r="H26" s="3">
-        <v>-16600</v>
+        <v>-15500</v>
       </c>
       <c r="I26" s="3">
-        <v>-66300</v>
+        <v>-15500</v>
       </c>
       <c r="J26" s="3">
+        <v>-61900</v>
+      </c>
+      <c r="K26" s="3">
         <v>-52300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-36900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-54000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-48800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-30600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-42300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-43200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-33400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-23500</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-80100</v>
+        <v>-70400</v>
       </c>
       <c r="E27" s="3">
-        <v>-34800</v>
+        <v>-74900</v>
       </c>
       <c r="F27" s="3">
-        <v>-60300</v>
+        <v>-32500</v>
       </c>
       <c r="G27" s="3">
-        <v>-16600</v>
+        <v>-56400</v>
       </c>
       <c r="H27" s="3">
-        <v>-16600</v>
+        <v>-15500</v>
       </c>
       <c r="I27" s="3">
-        <v>-66300</v>
+        <v>-15600</v>
       </c>
       <c r="J27" s="3">
+        <v>-61900</v>
+      </c>
+      <c r="K27" s="3">
         <v>-55400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-44500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-54000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-48800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-30600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-42300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-147200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-33400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-23500</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1696,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1746,8 +1806,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1796,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1846,108 +1912,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>2900</v>
+        <v>-32400</v>
       </c>
       <c r="E32" s="3">
-        <v>-17400</v>
+        <v>2700</v>
       </c>
       <c r="F32" s="3">
-        <v>3600</v>
+        <v>-16200</v>
       </c>
       <c r="G32" s="3">
-        <v>-22900</v>
+        <v>3400</v>
       </c>
       <c r="H32" s="3">
-        <v>-23000</v>
+        <v>-21400</v>
       </c>
       <c r="I32" s="3">
-        <v>-2200</v>
+        <v>-21400</v>
       </c>
       <c r="J32" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="K32" s="3">
         <v>5500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-10000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>10500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>1900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-9400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-4000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>3900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>4200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-7200</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-80100</v>
+        <v>-70400</v>
       </c>
       <c r="E33" s="3">
-        <v>-34800</v>
+        <v>-74900</v>
       </c>
       <c r="F33" s="3">
-        <v>-60300</v>
+        <v>-32500</v>
       </c>
       <c r="G33" s="3">
-        <v>-16600</v>
+        <v>-56400</v>
       </c>
       <c r="H33" s="3">
-        <v>-16600</v>
+        <v>-15500</v>
       </c>
       <c r="I33" s="3">
-        <v>-66300</v>
+        <v>-15600</v>
       </c>
       <c r="J33" s="3">
+        <v>-61900</v>
+      </c>
+      <c r="K33" s="3">
         <v>-55400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-44500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-54000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-48800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-30600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-42300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-147200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-33400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-23500</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1996,113 +2071,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-80100</v>
+        <v>-70400</v>
       </c>
       <c r="E35" s="3">
-        <v>-34800</v>
+        <v>-74900</v>
       </c>
       <c r="F35" s="3">
-        <v>-60300</v>
+        <v>-32500</v>
       </c>
       <c r="G35" s="3">
-        <v>-16600</v>
+        <v>-56400</v>
       </c>
       <c r="H35" s="3">
-        <v>-16600</v>
+        <v>-15500</v>
       </c>
       <c r="I35" s="3">
-        <v>-66300</v>
+        <v>-15600</v>
       </c>
       <c r="J35" s="3">
+        <v>-61900</v>
+      </c>
+      <c r="K35" s="3">
         <v>-55400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-44500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-54000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-48800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-30600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-42300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-147200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-33400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-23500</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2121,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2141,41 +2226,42 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>543400</v>
+        <v>621500</v>
       </c>
       <c r="E41" s="3">
-        <v>466100</v>
+        <v>507500</v>
       </c>
       <c r="F41" s="3">
-        <v>440700</v>
+        <v>435400</v>
       </c>
       <c r="G41" s="3">
-        <v>540300</v>
+        <v>411600</v>
       </c>
       <c r="H41" s="3">
-        <v>610000</v>
+        <v>504700</v>
       </c>
       <c r="I41" s="3">
-        <v>522300</v>
+        <v>569800</v>
       </c>
       <c r="J41" s="3">
+        <v>487800</v>
+      </c>
+      <c r="K41" s="3">
         <v>310800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>311500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>268200</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="N41" s="3" t="s">
         <v>16</v>
       </c>
@@ -2191,41 +2277,44 @@
       <c r="R41" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>402400</v>
+        <v>367100</v>
       </c>
       <c r="E42" s="3">
-        <v>397600</v>
+        <v>375800</v>
       </c>
       <c r="F42" s="3">
-        <v>420000</v>
+        <v>371400</v>
       </c>
       <c r="G42" s="3">
-        <v>424900</v>
+        <v>392300</v>
       </c>
       <c r="H42" s="3">
-        <v>462300</v>
+        <v>396800</v>
       </c>
       <c r="I42" s="3">
-        <v>387000</v>
+        <v>431800</v>
       </c>
       <c r="J42" s="3">
+        <v>361500</v>
+      </c>
+      <c r="K42" s="3">
         <v>36100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>34700</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>118500</v>
       </c>
-      <c r="M42" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="N42" s="3" t="s">
         <v>16</v>
       </c>
@@ -2241,41 +2330,44 @@
       <c r="R42" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>741700</v>
+        <v>556700</v>
       </c>
       <c r="E43" s="3">
-        <v>579400</v>
+        <v>692800</v>
       </c>
       <c r="F43" s="3">
-        <v>465900</v>
+        <v>541200</v>
       </c>
       <c r="G43" s="3">
-        <v>400700</v>
+        <v>435200</v>
       </c>
       <c r="H43" s="3">
-        <v>339900</v>
+        <v>374300</v>
       </c>
       <c r="I43" s="3">
-        <v>276800</v>
+        <v>317500</v>
       </c>
       <c r="J43" s="3">
+        <v>258500</v>
+      </c>
+      <c r="K43" s="3">
         <v>294900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>227800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>210400</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="N43" s="3" t="s">
         <v>16</v>
       </c>
@@ -2291,8 +2383,11 @@
       <c r="R43" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2341,41 +2436,44 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>201700</v>
+        <v>283800</v>
       </c>
       <c r="E45" s="3">
-        <v>130400</v>
+        <v>188400</v>
       </c>
       <c r="F45" s="3">
-        <v>155000</v>
+        <v>121800</v>
       </c>
       <c r="G45" s="3">
-        <v>139900</v>
+        <v>144800</v>
       </c>
       <c r="H45" s="3">
-        <v>87300</v>
+        <v>130700</v>
       </c>
       <c r="I45" s="3">
-        <v>84200</v>
+        <v>81500</v>
       </c>
       <c r="J45" s="3">
+        <v>78700</v>
+      </c>
+      <c r="K45" s="3">
         <v>78500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>65000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>59100</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="N45" s="3" t="s">
         <v>16</v>
       </c>
@@ -2391,41 +2489,44 @@
       <c r="R45" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1889100</v>
+        <v>1829200</v>
       </c>
       <c r="E46" s="3">
-        <v>1573500</v>
+        <v>1764600</v>
       </c>
       <c r="F46" s="3">
-        <v>1481700</v>
+        <v>1469700</v>
       </c>
       <c r="G46" s="3">
-        <v>1505800</v>
+        <v>1384000</v>
       </c>
       <c r="H46" s="3">
-        <v>1499500</v>
+        <v>1406500</v>
       </c>
       <c r="I46" s="3">
-        <v>1270300</v>
+        <v>1400600</v>
       </c>
       <c r="J46" s="3">
+        <v>1186600</v>
+      </c>
+      <c r="K46" s="3">
         <v>720300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>639000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>656100</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="N46" s="3" t="s">
         <v>16</v>
       </c>
@@ -2441,41 +2542,44 @@
       <c r="R46" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>14900</v>
+        <v>31400</v>
       </c>
       <c r="E47" s="3">
-        <v>14900</v>
+        <v>13900</v>
       </c>
       <c r="F47" s="3">
-        <v>21800</v>
+        <v>13900</v>
       </c>
       <c r="G47" s="3">
-        <v>20900</v>
+        <v>20400</v>
       </c>
       <c r="H47" s="3">
-        <v>19400</v>
+        <v>19500</v>
       </c>
       <c r="I47" s="3">
+        <v>18100</v>
+      </c>
+      <c r="J47" s="3">
+        <v>17900</v>
+      </c>
+      <c r="K47" s="3">
         <v>19200</v>
       </c>
-      <c r="J47" s="3">
-        <v>19200</v>
-      </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>18000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>10400</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="N47" s="3" t="s">
         <v>16</v>
       </c>
@@ -2491,41 +2595,44 @@
       <c r="R47" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>365400</v>
+        <v>386200</v>
       </c>
       <c r="E48" s="3">
-        <v>332000</v>
+        <v>341300</v>
       </c>
       <c r="F48" s="3">
-        <v>350900</v>
+        <v>310100</v>
       </c>
       <c r="G48" s="3">
-        <v>350800</v>
+        <v>327800</v>
       </c>
       <c r="H48" s="3">
-        <v>348900</v>
+        <v>327700</v>
       </c>
       <c r="I48" s="3">
-        <v>332100</v>
+        <v>325900</v>
       </c>
       <c r="J48" s="3">
+        <v>310200</v>
+      </c>
+      <c r="K48" s="3">
         <v>317300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>265000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>201000</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="N48" s="3" t="s">
         <v>16</v>
       </c>
@@ -2541,41 +2648,44 @@
       <c r="R48" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>892100</v>
+        <v>853900</v>
       </c>
       <c r="E49" s="3">
-        <v>19900</v>
+        <v>833300</v>
       </c>
       <c r="F49" s="3">
-        <v>14000</v>
+        <v>18600</v>
       </c>
       <c r="G49" s="3">
-        <v>2600</v>
+        <v>13100</v>
       </c>
       <c r="H49" s="3">
-        <v>3100</v>
+        <v>2400</v>
       </c>
       <c r="I49" s="3">
-        <v>1200</v>
+        <v>2900</v>
       </c>
       <c r="J49" s="3">
         <v>1200</v>
       </c>
       <c r="K49" s="3">
+        <v>1200</v>
+      </c>
+      <c r="L49" s="3">
         <v>1100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1300</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="N49" s="3" t="s">
         <v>16</v>
       </c>
@@ -2591,8 +2701,11 @@
       <c r="R49" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2641,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2691,41 +2807,44 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E52" s="3">
+        <v>9700</v>
+      </c>
+      <c r="F52" s="3">
+        <v>4500</v>
+      </c>
+      <c r="G52" s="3">
+        <v>2500</v>
+      </c>
+      <c r="H52" s="3">
+        <v>1700</v>
+      </c>
+      <c r="I52" s="3">
+        <v>8800</v>
+      </c>
+      <c r="J52" s="3">
+        <v>4700</v>
+      </c>
+      <c r="K52" s="3">
+        <v>4600</v>
+      </c>
+      <c r="L52" s="3">
+        <v>5600</v>
+      </c>
+      <c r="M52" s="3">
         <v>10400</v>
       </c>
-      <c r="E52" s="3">
-        <v>4800</v>
-      </c>
-      <c r="F52" s="3">
-        <v>2700</v>
-      </c>
-      <c r="G52" s="3">
-        <v>1900</v>
-      </c>
-      <c r="H52" s="3">
-        <v>9400</v>
-      </c>
-      <c r="I52" s="3">
-        <v>5000</v>
-      </c>
-      <c r="J52" s="3">
-        <v>4600</v>
-      </c>
-      <c r="K52" s="3">
-        <v>5600</v>
-      </c>
-      <c r="L52" s="3">
-        <v>10400</v>
-      </c>
-      <c r="M52" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="N52" s="3" t="s">
         <v>16</v>
       </c>
@@ -2741,8 +2860,11 @@
       <c r="R52" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2791,41 +2913,44 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3171900</v>
+        <v>3106100</v>
       </c>
       <c r="E54" s="3">
-        <v>1945100</v>
+        <v>2962800</v>
       </c>
       <c r="F54" s="3">
-        <v>1871000</v>
+        <v>1816800</v>
       </c>
       <c r="G54" s="3">
-        <v>1882000</v>
+        <v>1747700</v>
       </c>
       <c r="H54" s="3">
-        <v>1880300</v>
+        <v>1757900</v>
       </c>
       <c r="I54" s="3">
-        <v>1627800</v>
+        <v>1756400</v>
       </c>
       <c r="J54" s="3">
+        <v>1520500</v>
+      </c>
+      <c r="K54" s="3">
         <v>1062600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>928800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>879300</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="N54" s="3" t="s">
         <v>16</v>
       </c>
@@ -2841,8 +2966,11 @@
       <c r="R54" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2861,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2881,41 +3010,42 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>497200</v>
+        <v>433000</v>
       </c>
       <c r="E57" s="3">
-        <v>418300</v>
+        <v>464500</v>
       </c>
       <c r="F57" s="3">
-        <v>363200</v>
+        <v>390800</v>
       </c>
       <c r="G57" s="3">
-        <v>324600</v>
+        <v>339300</v>
       </c>
       <c r="H57" s="3">
-        <v>314300</v>
+        <v>303200</v>
       </c>
       <c r="I57" s="3">
-        <v>273800</v>
+        <v>293500</v>
       </c>
       <c r="J57" s="3">
+        <v>255800</v>
+      </c>
+      <c r="K57" s="3">
         <v>291700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>193200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>191300</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="N57" s="3" t="s">
         <v>16</v>
       </c>
@@ -2931,41 +3061,44 @@
       <c r="R57" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>142200</v>
+        <v>198700</v>
       </c>
       <c r="E58" s="3">
-        <v>104800</v>
+        <v>132800</v>
       </c>
       <c r="F58" s="3">
-        <v>71300</v>
+        <v>97900</v>
       </c>
       <c r="G58" s="3">
-        <v>55700</v>
+        <v>66600</v>
       </c>
       <c r="H58" s="3">
-        <v>63600</v>
+        <v>52000</v>
       </c>
       <c r="I58" s="3">
-        <v>36000</v>
+        <v>59400</v>
       </c>
       <c r="J58" s="3">
+        <v>33700</v>
+      </c>
+      <c r="K58" s="3">
         <v>15800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>31500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>29200</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="N58" s="3" t="s">
         <v>16</v>
       </c>
@@ -2981,41 +3114,44 @@
       <c r="R58" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>296100</v>
+        <v>475800</v>
       </c>
       <c r="E59" s="3">
-        <v>124100</v>
+        <v>276600</v>
       </c>
       <c r="F59" s="3">
-        <v>128800</v>
+        <v>115900</v>
       </c>
       <c r="G59" s="3">
-        <v>166500</v>
+        <v>120300</v>
       </c>
       <c r="H59" s="3">
-        <v>145800</v>
+        <v>155500</v>
       </c>
       <c r="I59" s="3">
-        <v>162500</v>
+        <v>136200</v>
       </c>
       <c r="J59" s="3">
+        <v>151800</v>
+      </c>
+      <c r="K59" s="3">
         <v>170800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>148000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>106900</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="N59" s="3" t="s">
         <v>16</v>
       </c>
@@ -3031,41 +3167,44 @@
       <c r="R59" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>935500</v>
+        <v>1107500</v>
       </c>
       <c r="E60" s="3">
-        <v>647300</v>
+        <v>873900</v>
       </c>
       <c r="F60" s="3">
-        <v>563400</v>
+        <v>604600</v>
       </c>
       <c r="G60" s="3">
-        <v>546700</v>
+        <v>526200</v>
       </c>
       <c r="H60" s="3">
-        <v>523600</v>
+        <v>510700</v>
       </c>
       <c r="I60" s="3">
-        <v>472400</v>
+        <v>489100</v>
       </c>
       <c r="J60" s="3">
+        <v>441200</v>
+      </c>
+      <c r="K60" s="3">
         <v>478300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>372600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>327400</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="N60" s="3" t="s">
         <v>16</v>
       </c>
@@ -3081,19 +3220,22 @@
       <c r="R60" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>69700</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>62700</v>
       </c>
       <c r="F61" s="3">
-        <v>0</v>
+        <v>32600</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -3102,20 +3244,20 @@
         <v>0</v>
       </c>
       <c r="I61" s="3">
+        <v>0</v>
+      </c>
+      <c r="J61" s="3">
+        <v>11000</v>
+      </c>
+      <c r="K61" s="3">
         <v>11700</v>
       </c>
-      <c r="J61" s="3">
-        <v>11700</v>
-      </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>11400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>19100</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
@@ -3131,41 +3273,44 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>333600</v>
+        <v>235300</v>
       </c>
       <c r="E62" s="3">
-        <v>66800</v>
+        <v>248900</v>
       </c>
       <c r="F62" s="3">
-        <v>37500</v>
+        <v>29800</v>
       </c>
       <c r="G62" s="3">
-        <v>35300</v>
+        <v>35000</v>
       </c>
       <c r="H62" s="3">
-        <v>39600</v>
+        <v>32900</v>
       </c>
       <c r="I62" s="3">
-        <v>32500</v>
+        <v>37000</v>
       </c>
       <c r="J62" s="3">
+        <v>30300</v>
+      </c>
+      <c r="K62" s="3">
         <v>34900</v>
       </c>
-      <c r="K62" s="3">
-        <v>0</v>
-      </c>
       <c r="L62" s="3">
+        <v>0</v>
+      </c>
+      <c r="M62" s="3">
         <v>800</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="N62" s="3" t="s">
         <v>16</v>
       </c>
@@ -3181,8 +3326,11 @@
       <c r="R62" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3231,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3281,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3331,41 +3485,44 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1425900</v>
+        <v>1543500</v>
       </c>
       <c r="E66" s="3">
-        <v>718400</v>
+        <v>1331900</v>
       </c>
       <c r="F66" s="3">
-        <v>601100</v>
+        <v>671000</v>
       </c>
       <c r="G66" s="3">
-        <v>582000</v>
+        <v>561500</v>
       </c>
       <c r="H66" s="3">
-        <v>563300</v>
+        <v>543600</v>
       </c>
       <c r="I66" s="3">
-        <v>516600</v>
+        <v>526100</v>
       </c>
       <c r="J66" s="3">
+        <v>482500</v>
+      </c>
+      <c r="K66" s="3">
         <v>524900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>384100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>347400</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="N66" s="3" t="s">
         <v>16</v>
       </c>
@@ -3381,8 +3538,11 @@
       <c r="R66" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3401,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3451,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3501,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3525,17 +3692,17 @@
         <v>0</v>
       </c>
       <c r="J70" s="3">
+        <v>0</v>
+      </c>
+      <c r="K70" s="3">
         <v>1264000</v>
       </c>
-      <c r="K70" s="3">
+      <c r="L70" s="3">
         <v>1209900</v>
       </c>
-      <c r="L70" s="3">
+      <c r="M70" s="3">
         <v>1150100</v>
       </c>
-      <c r="M70" s="3">
-        <v>0</v>
-      </c>
       <c r="N70" s="3">
         <v>0</v>
       </c>
@@ -3551,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3601,41 +3771,44 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-1101300</v>
+        <v>-1099100</v>
       </c>
       <c r="E72" s="3">
-        <v>-1021200</v>
+        <v>-1028700</v>
       </c>
       <c r="F72" s="3">
-        <v>-986400</v>
+        <v>-953800</v>
       </c>
       <c r="G72" s="3">
-        <v>-925200</v>
+        <v>-921400</v>
       </c>
       <c r="H72" s="3">
-        <v>-908600</v>
+        <v>-864200</v>
       </c>
       <c r="I72" s="3">
-        <v>-891900</v>
+        <v>-848700</v>
       </c>
       <c r="J72" s="3">
+        <v>-833100</v>
+      </c>
+      <c r="K72" s="3">
         <v>-825600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-754800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-717900</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="N72" s="3" t="s">
         <v>16</v>
       </c>
@@ -3651,8 +3824,11 @@
       <c r="R72" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3701,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3751,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3801,41 +3983,44 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1745900</v>
+        <v>1562600</v>
       </c>
       <c r="E76" s="3">
-        <v>1226700</v>
+        <v>1630900</v>
       </c>
       <c r="F76" s="3">
-        <v>1270000</v>
+        <v>1145800</v>
       </c>
       <c r="G76" s="3">
-        <v>1299900</v>
+        <v>1186200</v>
       </c>
       <c r="H76" s="3">
-        <v>1317100</v>
+        <v>1214200</v>
       </c>
       <c r="I76" s="3">
-        <v>1111300</v>
+        <v>1230200</v>
       </c>
       <c r="J76" s="3">
+        <v>1038000</v>
+      </c>
+      <c r="K76" s="3">
         <v>-726300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-665300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-618200</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="N76" s="3" t="s">
         <v>16</v>
       </c>
@@ -3851,8 +4036,11 @@
       <c r="R76" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3901,113 +4089,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-80100</v>
+        <v>-70400</v>
       </c>
       <c r="E81" s="3">
-        <v>-34800</v>
+        <v>-74900</v>
       </c>
       <c r="F81" s="3">
-        <v>-60300</v>
+        <v>-32500</v>
       </c>
       <c r="G81" s="3">
-        <v>-16600</v>
+        <v>-56400</v>
       </c>
       <c r="H81" s="3">
-        <v>-16600</v>
+        <v>-15500</v>
       </c>
       <c r="I81" s="3">
-        <v>-66300</v>
+        <v>-15600</v>
       </c>
       <c r="J81" s="3">
+        <v>-61900</v>
+      </c>
+      <c r="K81" s="3">
         <v>-55400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-44500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-54000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-48800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-30600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-42300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-147200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-33400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-23500</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4026,58 +4223,62 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K83" s="3">
+      <c r="D83" s="3">
+        <v>0</v>
+      </c>
+      <c r="E83" s="3">
+        <v>0</v>
+      </c>
+      <c r="F83" s="3">
+        <v>0</v>
+      </c>
+      <c r="G83" s="3">
+        <v>0</v>
+      </c>
+      <c r="H83" s="3">
+        <v>0</v>
+      </c>
+      <c r="I83" s="3">
+        <v>0</v>
+      </c>
+      <c r="J83" s="3">
+        <v>0</v>
+      </c>
+      <c r="K83" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L83" s="3">
         <v>26900</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="M83" s="3" t="s">
         <v>16</v>
       </c>
       <c r="N83" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O83" s="3">
+      <c r="O83" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="P83" s="3">
         <v>19100</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Q83" s="3" t="s">
         <v>16</v>
       </c>
       <c r="R83" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4126,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4176,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4226,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4276,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4326,58 +4539,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2200</v>
+        <v>5600</v>
       </c>
       <c r="E89" s="3">
-        <v>-41600</v>
+        <v>2100</v>
       </c>
       <c r="F89" s="3">
-        <v>-78400</v>
+        <v>-38900</v>
       </c>
       <c r="G89" s="3">
-        <v>-43900</v>
+        <v>-73300</v>
       </c>
       <c r="H89" s="3">
-        <v>-16300</v>
+        <v>-41000</v>
       </c>
       <c r="I89" s="3">
+        <v>-15300</v>
+      </c>
+      <c r="J89" s="3">
         <v>-400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>14800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-23900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-19600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-23400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>7600</v>
       </c>
-      <c r="P89" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Q89" s="3" t="s">
         <v>16</v>
       </c>
       <c r="R89" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4396,58 +4615,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K91" s="3">
+      <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L91" s="3">
         <v>-48000</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="M91" s="3" t="s">
         <v>16</v>
       </c>
       <c r="N91" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O91" s="3">
+      <c r="O91" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="P91" s="3">
         <v>-46800</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Q91" s="3" t="s">
         <v>16</v>
       </c>
       <c r="R91" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4496,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4546,58 +4772,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>15700</v>
+        <v>-33400</v>
       </c>
       <c r="E94" s="3">
-        <v>-8900</v>
+        <v>14700</v>
       </c>
       <c r="F94" s="3">
-        <v>-37600</v>
+        <v>-8300</v>
       </c>
       <c r="G94" s="3">
-        <v>-48700</v>
+        <v>-35100</v>
       </c>
       <c r="H94" s="3">
-        <v>-163600</v>
+        <v>-45500</v>
       </c>
       <c r="I94" s="3">
-        <v>-421700</v>
+        <v>-152800</v>
       </c>
       <c r="J94" s="3">
+        <v>-393900</v>
+      </c>
+      <c r="K94" s="3">
         <v>-46500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>12000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>22900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>57500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>42500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>69000</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Q94" s="3" t="s">
         <v>16</v>
       </c>
       <c r="R94" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4616,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4666,8 +4899,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4716,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4766,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4816,154 +5058,166 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>83000</v>
+        <v>159900</v>
       </c>
       <c r="E100" s="3">
-        <v>79300</v>
+        <v>77500</v>
       </c>
       <c r="F100" s="3">
-        <v>15600</v>
+        <v>74000</v>
       </c>
       <c r="G100" s="3">
-        <v>32800</v>
+        <v>14600</v>
       </c>
       <c r="H100" s="3">
-        <v>279300</v>
+        <v>30700</v>
       </c>
       <c r="I100" s="3">
-        <v>632100</v>
+        <v>260800</v>
       </c>
       <c r="J100" s="3">
+        <v>590500</v>
+      </c>
+      <c r="K100" s="3">
         <v>21900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>47600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-40700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>3200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-32400</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Q100" s="3" t="s">
         <v>16</v>
       </c>
       <c r="R100" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="E101" s="3">
         <v>100</v>
       </c>
-      <c r="E101" s="3">
-        <v>-3400</v>
-      </c>
       <c r="F101" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="G101" s="3">
         <v>800</v>
       </c>
-      <c r="G101" s="3">
-        <v>-9900</v>
-      </c>
       <c r="H101" s="3">
-        <v>-11600</v>
+        <v>-9300</v>
       </c>
       <c r="I101" s="3">
-        <v>1500</v>
+        <v>-10800</v>
       </c>
       <c r="J101" s="3">
         <v>1400</v>
       </c>
       <c r="K101" s="3">
+        <v>1400</v>
+      </c>
+      <c r="L101" s="3">
         <v>7700</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-4100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>700</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-3100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-200</v>
       </c>
-      <c r="P101" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Q101" s="3" t="s">
         <v>16</v>
       </c>
       <c r="R101" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>101000</v>
+        <v>127000</v>
       </c>
       <c r="E102" s="3">
-        <v>25400</v>
+        <v>94300</v>
       </c>
       <c r="F102" s="3">
-        <v>-99600</v>
+        <v>23800</v>
       </c>
       <c r="G102" s="3">
-        <v>-69700</v>
+        <v>-93000</v>
       </c>
       <c r="H102" s="3">
-        <v>87700</v>
+        <v>-65100</v>
       </c>
       <c r="I102" s="3">
-        <v>211500</v>
+        <v>81900</v>
       </c>
       <c r="J102" s="3">
+        <v>197600</v>
+      </c>
+      <c r="K102" s="3">
         <v>-8400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>43400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>17200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>19200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>44000</v>
       </c>
-      <c r="P102" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Q102" s="3" t="s">
         <v>16</v>
       </c>
       <c r="R102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S102" s="3" t="s">
         <v>16</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KC_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,244 +665,257 @@
     <col min="1" max="1" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>391900</v>
+        <v>317400</v>
       </c>
       <c r="E8" s="3">
-        <v>355700</v>
+        <v>388400</v>
       </c>
       <c r="F8" s="3">
-        <v>320300</v>
+        <v>352500</v>
       </c>
       <c r="G8" s="3">
-        <v>267200</v>
+        <v>317400</v>
       </c>
       <c r="H8" s="3">
-        <v>283300</v>
+        <v>264800</v>
       </c>
       <c r="I8" s="3">
-        <v>254800</v>
+        <v>280800</v>
       </c>
       <c r="J8" s="3">
+        <v>252500</v>
+      </c>
+      <c r="K8" s="3">
         <v>226200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>219400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>180700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>154300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>142900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>128700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>105200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>83900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>64300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>60900</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>387800</v>
+        <v>305800</v>
       </c>
       <c r="E9" s="3">
-        <v>342700</v>
+        <v>384300</v>
       </c>
       <c r="F9" s="3">
-        <v>302900</v>
+        <v>339600</v>
       </c>
       <c r="G9" s="3">
-        <v>250100</v>
+        <v>300100</v>
       </c>
       <c r="H9" s="3">
-        <v>269700</v>
+        <v>247800</v>
       </c>
       <c r="I9" s="3">
-        <v>238100</v>
+        <v>267300</v>
       </c>
       <c r="J9" s="3">
+        <v>236000</v>
+      </c>
+      <c r="K9" s="3">
         <v>214300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>208300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>172400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>151400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>146000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>135500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>114200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>92300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>68900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>67200</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>11700</v>
+      </c>
+      <c r="E10" s="3">
         <v>4100</v>
       </c>
-      <c r="E10" s="3">
-        <v>13000</v>
-      </c>
       <c r="F10" s="3">
-        <v>17500</v>
+        <v>12900</v>
       </c>
       <c r="G10" s="3">
-        <v>17200</v>
+        <v>17300</v>
       </c>
       <c r="H10" s="3">
-        <v>13600</v>
+        <v>17000</v>
       </c>
       <c r="I10" s="3">
-        <v>16600</v>
+        <v>13500</v>
       </c>
       <c r="J10" s="3">
+        <v>16500</v>
+      </c>
+      <c r="K10" s="3">
         <v>11900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>11200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>8400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>-3100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>-6900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>-9000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>-8400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>-4600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>-6300</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -922,61 +935,65 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>41000</v>
+        <v>36000</v>
       </c>
       <c r="E12" s="3">
-        <v>39600</v>
+        <v>40600</v>
       </c>
       <c r="F12" s="3">
-        <v>34200</v>
+        <v>39200</v>
       </c>
       <c r="G12" s="3">
-        <v>39000</v>
+        <v>33900</v>
       </c>
       <c r="H12" s="3">
-        <v>26700</v>
+        <v>38600</v>
       </c>
       <c r="I12" s="3">
-        <v>24700</v>
+        <v>26400</v>
       </c>
       <c r="J12" s="3">
+        <v>24500</v>
+      </c>
+      <c r="K12" s="3">
         <v>34000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>30900</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>26400</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>24000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>21900</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>18900</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>17300</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>17200</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>13300</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>14600</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1028,8 +1045,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1081,8 +1101,11 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1134,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,114 +1178,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>490800</v>
+        <v>395300</v>
       </c>
       <c r="E17" s="3">
-        <v>424800</v>
+        <v>486300</v>
       </c>
       <c r="F17" s="3">
-        <v>367500</v>
+        <v>421000</v>
       </c>
       <c r="G17" s="3">
-        <v>319100</v>
+        <v>364200</v>
       </c>
       <c r="H17" s="3">
-        <v>319500</v>
+        <v>316300</v>
       </c>
       <c r="I17" s="3">
-        <v>290500</v>
+        <v>316600</v>
       </c>
       <c r="J17" s="3">
+        <v>287900</v>
+      </c>
+      <c r="K17" s="3">
         <v>289600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>265000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>227300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>197400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>189200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>167800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>149900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>121600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>91700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>89800</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-98800</v>
+        <v>-77800</v>
       </c>
       <c r="E18" s="3">
-        <v>-69100</v>
+        <v>-97900</v>
       </c>
       <c r="F18" s="3">
-        <v>-47200</v>
+        <v>-68500</v>
       </c>
       <c r="G18" s="3">
-        <v>-51900</v>
+        <v>-46800</v>
       </c>
       <c r="H18" s="3">
-        <v>-36200</v>
+        <v>-51400</v>
       </c>
       <c r="I18" s="3">
         <v>-35800</v>
       </c>
       <c r="J18" s="3">
+        <v>-35500</v>
+      </c>
+      <c r="K18" s="3">
         <v>-63400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-45600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-46600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-43100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-46400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-39200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-44700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-37700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-27400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-28900</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1279,231 +1312,244 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>32400</v>
+        <v>1500</v>
       </c>
       <c r="E20" s="3">
+        <v>32100</v>
+      </c>
+      <c r="F20" s="3">
         <v>-2700</v>
       </c>
-      <c r="F20" s="3">
-        <v>16200</v>
-      </c>
       <c r="G20" s="3">
-        <v>-3400</v>
+        <v>16100</v>
       </c>
       <c r="H20" s="3">
-        <v>21400</v>
+        <v>-3300</v>
       </c>
       <c r="I20" s="3">
-        <v>21400</v>
+        <v>21200</v>
       </c>
       <c r="J20" s="3">
+        <v>21200</v>
+      </c>
+      <c r="K20" s="3">
         <v>2000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-5500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>10000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-10500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-1900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>9400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>4000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-3900</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-4200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>-59200</v>
+        <v>-34300</v>
       </c>
       <c r="E21" s="3">
-        <v>-67500</v>
+        <v>-58700</v>
       </c>
       <c r="F21" s="3">
-        <v>-29700</v>
+        <v>-66900</v>
       </c>
       <c r="G21" s="3">
-        <v>-28700</v>
+        <v>-29500</v>
       </c>
       <c r="H21" s="3">
-        <v>-12700</v>
+        <v>-28400</v>
       </c>
       <c r="I21" s="3">
-        <v>-23200</v>
+        <v>-12500</v>
       </c>
       <c r="J21" s="3">
+        <v>-23000</v>
+      </c>
+      <c r="K21" s="3">
         <v>-59500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-18500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-9600</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="N21" s="3" t="s">
         <v>16</v>
       </c>
       <c r="O21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="P21" s="3">
+      <c r="P21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q21" s="3">
         <v>-21600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-2300</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="S21" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E22" s="3">
         <v>4000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>2100</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>1000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>600</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>300</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>600</v>
-      </c>
-      <c r="J22" s="3">
-        <v>300</v>
       </c>
       <c r="K22" s="3">
         <v>300</v>
       </c>
       <c r="L22" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="M22" s="3">
         <v>0</v>
       </c>
       <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3">
         <v>300</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>400</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>1200</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>1300</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>1500</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-70500</v>
+        <v>-81300</v>
       </c>
       <c r="E23" s="3">
-        <v>-73900</v>
+        <v>-69800</v>
       </c>
       <c r="F23" s="3">
-        <v>-32000</v>
+        <v>-73300</v>
       </c>
       <c r="G23" s="3">
-        <v>-55800</v>
+        <v>-31700</v>
       </c>
       <c r="H23" s="3">
-        <v>-15000</v>
+        <v>-55300</v>
       </c>
       <c r="I23" s="3">
         <v>-14900</v>
       </c>
       <c r="J23" s="3">
+        <v>-14800</v>
+      </c>
+      <c r="K23" s="3">
         <v>-61600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-51400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-36600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-53600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-48600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-30200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-41900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-42900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-33100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-23200</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E24" s="3">
         <v>600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>700</v>
-      </c>
-      <c r="F24" s="3">
-        <v>500</v>
       </c>
       <c r="G24" s="3">
         <v>500</v>
@@ -1512,25 +1558,25 @@
         <v>500</v>
       </c>
       <c r="I24" s="3">
+        <v>500</v>
+      </c>
+      <c r="J24" s="3">
         <v>600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>300</v>
-      </c>
-      <c r="O24" s="3">
-        <v>400</v>
       </c>
       <c r="P24" s="3">
         <v>400</v>
@@ -1539,13 +1585,16 @@
         <v>400</v>
       </c>
       <c r="R24" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="S24" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-71100</v>
+        <v>-81000</v>
       </c>
       <c r="E26" s="3">
-        <v>-74700</v>
+        <v>-70400</v>
       </c>
       <c r="F26" s="3">
-        <v>-32500</v>
+        <v>-74000</v>
       </c>
       <c r="G26" s="3">
-        <v>-56300</v>
+        <v>-32200</v>
       </c>
       <c r="H26" s="3">
-        <v>-15500</v>
+        <v>-55800</v>
       </c>
       <c r="I26" s="3">
-        <v>-15500</v>
+        <v>-15400</v>
       </c>
       <c r="J26" s="3">
+        <v>-15400</v>
+      </c>
+      <c r="K26" s="3">
         <v>-61900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-52300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-36900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-54000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-48800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-30600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-42300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-43200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-33400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-23500</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-70400</v>
+        <v>-80800</v>
       </c>
       <c r="E27" s="3">
-        <v>-74900</v>
+        <v>-69800</v>
       </c>
       <c r="F27" s="3">
-        <v>-32500</v>
+        <v>-74200</v>
       </c>
       <c r="G27" s="3">
-        <v>-56400</v>
+        <v>-32200</v>
       </c>
       <c r="H27" s="3">
-        <v>-15500</v>
+        <v>-55900</v>
       </c>
       <c r="I27" s="3">
-        <v>-15600</v>
+        <v>-15400</v>
       </c>
       <c r="J27" s="3">
+        <v>-15400</v>
+      </c>
+      <c r="K27" s="3">
         <v>-61900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-55400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-44500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-54000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-48800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-30600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-42300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-147200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-33400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-23500</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,114 +1982,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-32400</v>
+        <v>-1500</v>
       </c>
       <c r="E32" s="3">
+        <v>-32100</v>
+      </c>
+      <c r="F32" s="3">
         <v>2700</v>
       </c>
-      <c r="F32" s="3">
-        <v>-16200</v>
-      </c>
       <c r="G32" s="3">
-        <v>3400</v>
+        <v>-16100</v>
       </c>
       <c r="H32" s="3">
-        <v>-21400</v>
+        <v>3300</v>
       </c>
       <c r="I32" s="3">
-        <v>-21400</v>
+        <v>-21200</v>
       </c>
       <c r="J32" s="3">
+        <v>-21200</v>
+      </c>
+      <c r="K32" s="3">
         <v>-2000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>5500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-10000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>10500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>1900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-9400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-4000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>3900</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>4200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-7200</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-70400</v>
+        <v>-80800</v>
       </c>
       <c r="E33" s="3">
-        <v>-74900</v>
+        <v>-69800</v>
       </c>
       <c r="F33" s="3">
-        <v>-32500</v>
+        <v>-74200</v>
       </c>
       <c r="G33" s="3">
-        <v>-56400</v>
+        <v>-32200</v>
       </c>
       <c r="H33" s="3">
-        <v>-15500</v>
+        <v>-55900</v>
       </c>
       <c r="I33" s="3">
-        <v>-15600</v>
+        <v>-15400</v>
       </c>
       <c r="J33" s="3">
+        <v>-15400</v>
+      </c>
+      <c r="K33" s="3">
         <v>-61900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-55400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-44500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-54000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-48800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-30600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-42300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-147200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-33400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-23500</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-70400</v>
+        <v>-80800</v>
       </c>
       <c r="E35" s="3">
-        <v>-74900</v>
+        <v>-69800</v>
       </c>
       <c r="F35" s="3">
-        <v>-32500</v>
+        <v>-74200</v>
       </c>
       <c r="G35" s="3">
-        <v>-56400</v>
+        <v>-32200</v>
       </c>
       <c r="H35" s="3">
-        <v>-15500</v>
+        <v>-55900</v>
       </c>
       <c r="I35" s="3">
-        <v>-15600</v>
+        <v>-15400</v>
       </c>
       <c r="J35" s="3">
+        <v>-15400</v>
+      </c>
+      <c r="K35" s="3">
         <v>-61900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-55400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-44500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-54000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-48800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-30600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-42300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-147200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-33400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-23500</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,44 +2313,45 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>621500</v>
+        <v>470100</v>
       </c>
       <c r="E41" s="3">
-        <v>507500</v>
+        <v>615900</v>
       </c>
       <c r="F41" s="3">
-        <v>435400</v>
+        <v>503000</v>
       </c>
       <c r="G41" s="3">
-        <v>411600</v>
+        <v>431500</v>
       </c>
       <c r="H41" s="3">
-        <v>504700</v>
+        <v>407900</v>
       </c>
       <c r="I41" s="3">
-        <v>569800</v>
+        <v>500100</v>
       </c>
       <c r="J41" s="3">
+        <v>564600</v>
+      </c>
+      <c r="K41" s="3">
         <v>487800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>310800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>311500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>268200</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O41" s="3" t="s">
         <v>16</v>
       </c>
@@ -2280,44 +2367,47 @@
       <c r="S41" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>367100</v>
+        <v>348200</v>
       </c>
       <c r="E42" s="3">
-        <v>375800</v>
+        <v>363800</v>
       </c>
       <c r="F42" s="3">
-        <v>371400</v>
+        <v>372400</v>
       </c>
       <c r="G42" s="3">
-        <v>392300</v>
+        <v>368000</v>
       </c>
       <c r="H42" s="3">
-        <v>396800</v>
+        <v>388800</v>
       </c>
       <c r="I42" s="3">
-        <v>431800</v>
+        <v>393300</v>
       </c>
       <c r="J42" s="3">
+        <v>427900</v>
+      </c>
+      <c r="K42" s="3">
         <v>361500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>36100</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>34700</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>118500</v>
       </c>
-      <c r="N42" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O42" s="3" t="s">
         <v>16</v>
       </c>
@@ -2333,44 +2423,47 @@
       <c r="S42" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>556700</v>
+        <v>560300</v>
       </c>
       <c r="E43" s="3">
-        <v>692800</v>
+        <v>551700</v>
       </c>
       <c r="F43" s="3">
-        <v>541200</v>
+        <v>686600</v>
       </c>
       <c r="G43" s="3">
-        <v>435200</v>
+        <v>536300</v>
       </c>
       <c r="H43" s="3">
-        <v>374300</v>
+        <v>431300</v>
       </c>
       <c r="I43" s="3">
-        <v>317500</v>
+        <v>370900</v>
       </c>
       <c r="J43" s="3">
+        <v>314600</v>
+      </c>
+      <c r="K43" s="3">
         <v>258500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>294900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>227800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>210400</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O43" s="3" t="s">
         <v>16</v>
       </c>
@@ -2386,8 +2479,11 @@
       <c r="S43" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2439,44 +2535,47 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>283800</v>
+        <v>267600</v>
       </c>
       <c r="E45" s="3">
-        <v>188400</v>
+        <v>281300</v>
       </c>
       <c r="F45" s="3">
-        <v>121800</v>
+        <v>186700</v>
       </c>
       <c r="G45" s="3">
-        <v>144800</v>
+        <v>120700</v>
       </c>
       <c r="H45" s="3">
-        <v>130700</v>
+        <v>143500</v>
       </c>
       <c r="I45" s="3">
-        <v>81500</v>
+        <v>129500</v>
       </c>
       <c r="J45" s="3">
+        <v>80800</v>
+      </c>
+      <c r="K45" s="3">
         <v>78700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>78500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>65000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>59100</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O45" s="3" t="s">
         <v>16</v>
       </c>
@@ -2492,44 +2591,47 @@
       <c r="S45" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1829200</v>
+        <v>1646200</v>
       </c>
       <c r="E46" s="3">
-        <v>1764600</v>
+        <v>1812600</v>
       </c>
       <c r="F46" s="3">
-        <v>1469700</v>
+        <v>1748600</v>
       </c>
       <c r="G46" s="3">
-        <v>1384000</v>
+        <v>1456500</v>
       </c>
       <c r="H46" s="3">
-        <v>1406500</v>
+        <v>1371500</v>
       </c>
       <c r="I46" s="3">
-        <v>1400600</v>
+        <v>1393800</v>
       </c>
       <c r="J46" s="3">
+        <v>1388000</v>
+      </c>
+      <c r="K46" s="3">
         <v>1186600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>720300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>639000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>656100</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O46" s="3" t="s">
         <v>16</v>
       </c>
@@ -2545,44 +2647,47 @@
       <c r="S46" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>31400</v>
+        <v>31800</v>
       </c>
       <c r="E47" s="3">
-        <v>13900</v>
+        <v>31100</v>
       </c>
       <c r="F47" s="3">
-        <v>13900</v>
+        <v>13800</v>
       </c>
       <c r="G47" s="3">
-        <v>20400</v>
+        <v>13800</v>
       </c>
       <c r="H47" s="3">
-        <v>19500</v>
+        <v>20200</v>
       </c>
       <c r="I47" s="3">
-        <v>18100</v>
+        <v>19300</v>
       </c>
       <c r="J47" s="3">
         <v>17900</v>
       </c>
       <c r="K47" s="3">
+        <v>17900</v>
+      </c>
+      <c r="L47" s="3">
         <v>19200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>18000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>10400</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O47" s="3" t="s">
         <v>16</v>
       </c>
@@ -2598,44 +2703,47 @@
       <c r="S47" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>386200</v>
+        <v>392300</v>
       </c>
       <c r="E48" s="3">
-        <v>341300</v>
+        <v>382700</v>
       </c>
       <c r="F48" s="3">
-        <v>310100</v>
+        <v>338200</v>
       </c>
       <c r="G48" s="3">
-        <v>327800</v>
+        <v>307300</v>
       </c>
       <c r="H48" s="3">
-        <v>327700</v>
+        <v>324800</v>
       </c>
       <c r="I48" s="3">
-        <v>325900</v>
+        <v>324700</v>
       </c>
       <c r="J48" s="3">
+        <v>323000</v>
+      </c>
+      <c r="K48" s="3">
         <v>310200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>317300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>265000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>201000</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O48" s="3" t="s">
         <v>16</v>
       </c>
@@ -2651,44 +2759,47 @@
       <c r="S48" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>853900</v>
+        <v>837000</v>
       </c>
       <c r="E49" s="3">
-        <v>833300</v>
+        <v>846200</v>
       </c>
       <c r="F49" s="3">
-        <v>18600</v>
+        <v>825800</v>
       </c>
       <c r="G49" s="3">
-        <v>13100</v>
+        <v>18400</v>
       </c>
       <c r="H49" s="3">
+        <v>12900</v>
+      </c>
+      <c r="I49" s="3">
         <v>2400</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>2900</v>
-      </c>
-      <c r="J49" s="3">
-        <v>1200</v>
       </c>
       <c r="K49" s="3">
         <v>1200</v>
       </c>
       <c r="L49" s="3">
+        <v>1200</v>
+      </c>
+      <c r="M49" s="3">
         <v>1100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1300</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O49" s="3" t="s">
         <v>16</v>
       </c>
@@ -2704,8 +2815,11 @@
       <c r="S49" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,44 +2927,47 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E52" s="3">
         <v>5400</v>
       </c>
-      <c r="E52" s="3">
-        <v>9700</v>
-      </c>
       <c r="F52" s="3">
+        <v>9600</v>
+      </c>
+      <c r="G52" s="3">
         <v>4500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>2500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1700</v>
       </c>
-      <c r="I52" s="3">
-        <v>8800</v>
-      </c>
       <c r="J52" s="3">
+        <v>8700</v>
+      </c>
+      <c r="K52" s="3">
         <v>4700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>4600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>5600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>10400</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O52" s="3" t="s">
         <v>16</v>
       </c>
@@ -2863,8 +2983,11 @@
       <c r="S52" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,44 +3039,47 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3106100</v>
+        <v>2911200</v>
       </c>
       <c r="E54" s="3">
-        <v>2962800</v>
+        <v>3078000</v>
       </c>
       <c r="F54" s="3">
-        <v>1816800</v>
+        <v>2936000</v>
       </c>
       <c r="G54" s="3">
-        <v>1747700</v>
+        <v>1800400</v>
       </c>
       <c r="H54" s="3">
-        <v>1757900</v>
+        <v>1731900</v>
       </c>
       <c r="I54" s="3">
-        <v>1756400</v>
+        <v>1742000</v>
       </c>
       <c r="J54" s="3">
+        <v>1740500</v>
+      </c>
+      <c r="K54" s="3">
         <v>1520500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1062600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>928800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>879300</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O54" s="3" t="s">
         <v>16</v>
       </c>
@@ -2969,8 +3095,11 @@
       <c r="S54" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,44 +3141,45 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>433000</v>
+        <v>376900</v>
       </c>
       <c r="E57" s="3">
-        <v>464500</v>
+        <v>429100</v>
       </c>
       <c r="F57" s="3">
-        <v>390800</v>
+        <v>460300</v>
       </c>
       <c r="G57" s="3">
-        <v>339300</v>
+        <v>387200</v>
       </c>
       <c r="H57" s="3">
-        <v>303200</v>
+        <v>336200</v>
       </c>
       <c r="I57" s="3">
-        <v>293500</v>
+        <v>300400</v>
       </c>
       <c r="J57" s="3">
+        <v>290900</v>
+      </c>
+      <c r="K57" s="3">
         <v>255800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>291700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>193200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>191300</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O57" s="3" t="s">
         <v>16</v>
       </c>
@@ -3064,44 +3195,47 @@
       <c r="S57" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>198700</v>
+        <v>217800</v>
       </c>
       <c r="E58" s="3">
-        <v>132800</v>
+        <v>196900</v>
       </c>
       <c r="F58" s="3">
-        <v>97900</v>
+        <v>131600</v>
       </c>
       <c r="G58" s="3">
-        <v>66600</v>
+        <v>97000</v>
       </c>
       <c r="H58" s="3">
-        <v>52000</v>
+        <v>66000</v>
       </c>
       <c r="I58" s="3">
-        <v>59400</v>
+        <v>51500</v>
       </c>
       <c r="J58" s="3">
+        <v>58800</v>
+      </c>
+      <c r="K58" s="3">
         <v>33700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>15800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>31500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>29200</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O58" s="3" t="s">
         <v>16</v>
       </c>
@@ -3117,44 +3251,47 @@
       <c r="S58" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>475800</v>
+        <v>412000</v>
       </c>
       <c r="E59" s="3">
-        <v>276600</v>
+        <v>471500</v>
       </c>
       <c r="F59" s="3">
-        <v>115900</v>
+        <v>274100</v>
       </c>
       <c r="G59" s="3">
-        <v>120300</v>
+        <v>114900</v>
       </c>
       <c r="H59" s="3">
-        <v>155500</v>
+        <v>119200</v>
       </c>
       <c r="I59" s="3">
-        <v>136200</v>
+        <v>154100</v>
       </c>
       <c r="J59" s="3">
+        <v>135000</v>
+      </c>
+      <c r="K59" s="3">
         <v>151800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>170800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>148000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>106900</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O59" s="3" t="s">
         <v>16</v>
       </c>
@@ -3170,44 +3307,47 @@
       <c r="S59" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1107500</v>
+        <v>1006600</v>
       </c>
       <c r="E60" s="3">
-        <v>873900</v>
+        <v>1097500</v>
       </c>
       <c r="F60" s="3">
-        <v>604600</v>
+        <v>866000</v>
       </c>
       <c r="G60" s="3">
-        <v>526200</v>
+        <v>599100</v>
       </c>
       <c r="H60" s="3">
-        <v>510700</v>
+        <v>521500</v>
       </c>
       <c r="I60" s="3">
-        <v>489100</v>
+        <v>506100</v>
       </c>
       <c r="J60" s="3">
+        <v>484700</v>
+      </c>
+      <c r="K60" s="3">
         <v>441200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>478300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>372600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>327400</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O60" s="3" t="s">
         <v>16</v>
       </c>
@@ -3223,22 +3363,25 @@
       <c r="S60" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>69700</v>
+        <v>60500</v>
       </c>
       <c r="E61" s="3">
-        <v>62700</v>
+        <v>69100</v>
       </c>
       <c r="F61" s="3">
-        <v>32600</v>
+        <v>62200</v>
       </c>
       <c r="G61" s="3">
-        <v>0</v>
+        <v>32300</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -3247,20 +3390,20 @@
         <v>0</v>
       </c>
       <c r="J61" s="3">
+        <v>0</v>
+      </c>
+      <c r="K61" s="3">
         <v>11000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>11700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>11400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>19100</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
         <v>0</v>
       </c>
@@ -3276,44 +3419,47 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>235300</v>
+        <v>235400</v>
       </c>
       <c r="E62" s="3">
-        <v>248900</v>
+        <v>233200</v>
       </c>
       <c r="F62" s="3">
-        <v>29800</v>
+        <v>246600</v>
       </c>
       <c r="G62" s="3">
-        <v>35000</v>
+        <v>29500</v>
       </c>
       <c r="H62" s="3">
-        <v>32900</v>
+        <v>34700</v>
       </c>
       <c r="I62" s="3">
-        <v>37000</v>
+        <v>32600</v>
       </c>
       <c r="J62" s="3">
+        <v>36700</v>
+      </c>
+      <c r="K62" s="3">
         <v>30300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>34900</v>
       </c>
-      <c r="L62" s="3">
-        <v>0</v>
-      </c>
       <c r="M62" s="3">
+        <v>0</v>
+      </c>
+      <c r="N62" s="3">
         <v>800</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O62" s="3" t="s">
         <v>16</v>
       </c>
@@ -3329,8 +3475,11 @@
       <c r="S62" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,44 +3643,47 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1543500</v>
+        <v>1431300</v>
       </c>
       <c r="E66" s="3">
-        <v>1331900</v>
+        <v>1529500</v>
       </c>
       <c r="F66" s="3">
-        <v>671000</v>
+        <v>1319900</v>
       </c>
       <c r="G66" s="3">
-        <v>561500</v>
+        <v>665000</v>
       </c>
       <c r="H66" s="3">
-        <v>543600</v>
+        <v>556400</v>
       </c>
       <c r="I66" s="3">
-        <v>526100</v>
+        <v>538700</v>
       </c>
       <c r="J66" s="3">
+        <v>521400</v>
+      </c>
+      <c r="K66" s="3">
         <v>482500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>524900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>384100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>347400</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O66" s="3" t="s">
         <v>16</v>
       </c>
@@ -3541,8 +3699,11 @@
       <c r="S66" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3695,17 +3863,17 @@
         <v>0</v>
       </c>
       <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3">
         <v>1264000</v>
       </c>
-      <c r="L70" s="3">
+      <c r="M70" s="3">
         <v>1209900</v>
       </c>
-      <c r="M70" s="3">
+      <c r="N70" s="3">
         <v>1150100</v>
       </c>
-      <c r="N70" s="3">
-        <v>0</v>
-      </c>
       <c r="O70" s="3">
         <v>0</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,44 +3945,47 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-1099100</v>
+        <v>-1170000</v>
       </c>
       <c r="E72" s="3">
-        <v>-1028700</v>
+        <v>-1089200</v>
       </c>
       <c r="F72" s="3">
-        <v>-953800</v>
+        <v>-1019400</v>
       </c>
       <c r="G72" s="3">
-        <v>-921400</v>
+        <v>-945200</v>
       </c>
       <c r="H72" s="3">
-        <v>-864200</v>
+        <v>-913100</v>
       </c>
       <c r="I72" s="3">
-        <v>-848700</v>
+        <v>-856400</v>
       </c>
       <c r="J72" s="3">
+        <v>-841000</v>
+      </c>
+      <c r="K72" s="3">
         <v>-833100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-825600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-754800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-717900</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O72" s="3" t="s">
         <v>16</v>
       </c>
@@ -3827,8 +4001,11 @@
       <c r="S72" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,44 +4169,47 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1562600</v>
+        <v>1479900</v>
       </c>
       <c r="E76" s="3">
-        <v>1630900</v>
+        <v>1548500</v>
       </c>
       <c r="F76" s="3">
-        <v>1145800</v>
+        <v>1616100</v>
       </c>
       <c r="G76" s="3">
-        <v>1186200</v>
+        <v>1135500</v>
       </c>
       <c r="H76" s="3">
-        <v>1214200</v>
+        <v>1175500</v>
       </c>
       <c r="I76" s="3">
-        <v>1230200</v>
+        <v>1203300</v>
       </c>
       <c r="J76" s="3">
+        <v>1219100</v>
+      </c>
+      <c r="K76" s="3">
         <v>1038000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-726300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-665300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-618200</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O76" s="3" t="s">
         <v>16</v>
       </c>
@@ -4039,8 +4225,11 @@
       <c r="S76" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-70400</v>
+        <v>-80800</v>
       </c>
       <c r="E81" s="3">
-        <v>-74900</v>
+        <v>-69800</v>
       </c>
       <c r="F81" s="3">
-        <v>-32500</v>
+        <v>-74200</v>
       </c>
       <c r="G81" s="3">
-        <v>-56400</v>
+        <v>-32200</v>
       </c>
       <c r="H81" s="3">
-        <v>-15500</v>
+        <v>-55900</v>
       </c>
       <c r="I81" s="3">
-        <v>-15600</v>
+        <v>-15400</v>
       </c>
       <c r="J81" s="3">
+        <v>-15400</v>
+      </c>
+      <c r="K81" s="3">
         <v>-61900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-55400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-44500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-54000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-48800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-30600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-42300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-147200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-33400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-23500</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,8 +4422,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4250,35 +4449,38 @@
       <c r="J83" s="3">
         <v>0</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L83" s="3">
+      <c r="K83" s="3">
+        <v>0</v>
+      </c>
+      <c r="L83" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M83" s="3">
         <v>26900</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="N83" s="3" t="s">
         <v>16</v>
       </c>
       <c r="O83" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="P83" s="3">
+      <c r="P83" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q83" s="3">
         <v>19100</v>
       </c>
-      <c r="Q83" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="R83" s="3" t="s">
         <v>16</v>
       </c>
       <c r="S83" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +4756,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-91400</v>
+      </c>
+      <c r="E89" s="3">
         <v>5600</v>
       </c>
-      <c r="E89" s="3">
-        <v>2100</v>
-      </c>
       <c r="F89" s="3">
-        <v>-38900</v>
+        <v>2000</v>
       </c>
       <c r="G89" s="3">
-        <v>-73300</v>
+        <v>-38500</v>
       </c>
       <c r="H89" s="3">
-        <v>-41000</v>
+        <v>-72600</v>
       </c>
       <c r="I89" s="3">
-        <v>-15300</v>
+        <v>-40600</v>
       </c>
       <c r="J89" s="3">
+        <v>-15100</v>
+      </c>
+      <c r="K89" s="3">
         <v>-400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>14800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-23900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-19600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-23400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>7600</v>
       </c>
-      <c r="Q89" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="R89" s="3" t="s">
         <v>16</v>
       </c>
       <c r="S89" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,8 +4836,9 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4642,35 +4863,38 @@
       <c r="J91" s="3">
         <v>0</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L91" s="3">
+      <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M91" s="3">
         <v>-48000</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="N91" s="3" t="s">
         <v>16</v>
       </c>
       <c r="O91" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="P91" s="3">
+      <c r="P91" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-46800</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="R91" s="3" t="s">
         <v>16</v>
       </c>
       <c r="S91" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,61 +5002,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-33400</v>
+        <v>-76600</v>
       </c>
       <c r="E94" s="3">
-        <v>14700</v>
+        <v>-33100</v>
       </c>
       <c r="F94" s="3">
-        <v>-8300</v>
+        <v>14500</v>
       </c>
       <c r="G94" s="3">
-        <v>-35100</v>
+        <v>-8200</v>
       </c>
       <c r="H94" s="3">
-        <v>-45500</v>
+        <v>-34800</v>
       </c>
       <c r="I94" s="3">
-        <v>-152800</v>
+        <v>-45100</v>
       </c>
       <c r="J94" s="3">
+        <v>-151400</v>
+      </c>
+      <c r="K94" s="3">
         <v>-393900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-46500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>12000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>22900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>57500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>42500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>69000</v>
       </c>
-      <c r="Q94" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="R94" s="3" t="s">
         <v>16</v>
       </c>
       <c r="S94" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,163 +5304,175 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>159900</v>
+        <v>14300</v>
       </c>
       <c r="E100" s="3">
-        <v>77500</v>
+        <v>158400</v>
       </c>
       <c r="F100" s="3">
-        <v>74000</v>
+        <v>76800</v>
       </c>
       <c r="G100" s="3">
-        <v>14600</v>
+        <v>73400</v>
       </c>
       <c r="H100" s="3">
-        <v>30700</v>
+        <v>14400</v>
       </c>
       <c r="I100" s="3">
-        <v>260800</v>
+        <v>30400</v>
       </c>
       <c r="J100" s="3">
+        <v>258500</v>
+      </c>
+      <c r="K100" s="3">
         <v>590500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>21900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>47600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-40700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>3200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-32400</v>
       </c>
-      <c r="Q100" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="R100" s="3" t="s">
         <v>16</v>
       </c>
       <c r="S100" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E101" s="3">
         <v>-5100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-3100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>800</v>
       </c>
-      <c r="H101" s="3">
-        <v>-9300</v>
-      </c>
       <c r="I101" s="3">
-        <v>-10800</v>
+        <v>-9200</v>
       </c>
       <c r="J101" s="3">
-        <v>1400</v>
+        <v>-10700</v>
       </c>
       <c r="K101" s="3">
         <v>1400</v>
       </c>
       <c r="L101" s="3">
+        <v>1400</v>
+      </c>
+      <c r="M101" s="3">
         <v>7700</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-4100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>700</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-3100</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-200</v>
       </c>
-      <c r="Q101" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="R101" s="3" t="s">
         <v>16</v>
       </c>
       <c r="S101" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>127000</v>
+        <v>-156900</v>
       </c>
       <c r="E102" s="3">
-        <v>94300</v>
+        <v>125900</v>
       </c>
       <c r="F102" s="3">
-        <v>23800</v>
+        <v>93500</v>
       </c>
       <c r="G102" s="3">
-        <v>-93000</v>
+        <v>23500</v>
       </c>
       <c r="H102" s="3">
-        <v>-65100</v>
+        <v>-92200</v>
       </c>
       <c r="I102" s="3">
-        <v>81900</v>
+        <v>-64500</v>
       </c>
       <c r="J102" s="3">
+        <v>81200</v>
+      </c>
+      <c r="K102" s="3">
         <v>197600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-8400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>43400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>17200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>19200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>44000</v>
       </c>
-      <c r="Q102" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="R102" s="3" t="s">
         <v>16</v>
       </c>
       <c r="S102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="T102" s="3" t="s">
         <v>16</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KC_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,257 +665,270 @@
     <col min="1" max="1" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>317400</v>
+        <v>265400</v>
       </c>
       <c r="E8" s="3">
-        <v>388400</v>
+        <v>302600</v>
       </c>
       <c r="F8" s="3">
-        <v>352500</v>
+        <v>370200</v>
       </c>
       <c r="G8" s="3">
-        <v>317400</v>
+        <v>336000</v>
       </c>
       <c r="H8" s="3">
-        <v>264800</v>
+        <v>302600</v>
       </c>
       <c r="I8" s="3">
-        <v>280800</v>
+        <v>252400</v>
       </c>
       <c r="J8" s="3">
+        <v>267600</v>
+      </c>
+      <c r="K8" s="3">
         <v>252500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>226200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>219400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>180700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>154300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>142900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>128700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>105200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>83900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>64300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>60900</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>305800</v>
+        <v>256300</v>
       </c>
       <c r="E9" s="3">
-        <v>384300</v>
+        <v>291500</v>
       </c>
       <c r="F9" s="3">
-        <v>339600</v>
+        <v>366400</v>
       </c>
       <c r="G9" s="3">
-        <v>300100</v>
+        <v>323700</v>
       </c>
       <c r="H9" s="3">
-        <v>247800</v>
+        <v>286100</v>
       </c>
       <c r="I9" s="3">
-        <v>267300</v>
+        <v>236200</v>
       </c>
       <c r="J9" s="3">
+        <v>254800</v>
+      </c>
+      <c r="K9" s="3">
         <v>236000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>214300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>208300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>172400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>151400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>146000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>135500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>114200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>92300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>68900</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>67200</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>11700</v>
+        <v>9100</v>
       </c>
       <c r="E10" s="3">
-        <v>4100</v>
+        <v>11100</v>
       </c>
       <c r="F10" s="3">
+        <v>3900</v>
+      </c>
+      <c r="G10" s="3">
+        <v>12300</v>
+      </c>
+      <c r="H10" s="3">
+        <v>16500</v>
+      </c>
+      <c r="I10" s="3">
+        <v>16200</v>
+      </c>
+      <c r="J10" s="3">
         <v>12900</v>
       </c>
-      <c r="G10" s="3">
-        <v>17300</v>
-      </c>
-      <c r="H10" s="3">
-        <v>17000</v>
-      </c>
-      <c r="I10" s="3">
-        <v>13500</v>
-      </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>16500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>11900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>11200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>8400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>2900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>-3100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>-6900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>-9000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>-8400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>-4600</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>-6300</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -936,64 +949,68 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>36000</v>
+        <v>30800</v>
       </c>
       <c r="E12" s="3">
-        <v>40600</v>
+        <v>34300</v>
       </c>
       <c r="F12" s="3">
-        <v>39200</v>
+        <v>38700</v>
       </c>
       <c r="G12" s="3">
-        <v>33900</v>
+        <v>37400</v>
       </c>
       <c r="H12" s="3">
-        <v>38600</v>
+        <v>32300</v>
       </c>
       <c r="I12" s="3">
+        <v>36800</v>
+      </c>
+      <c r="J12" s="3">
+        <v>25200</v>
+      </c>
+      <c r="K12" s="3">
+        <v>24500</v>
+      </c>
+      <c r="L12" s="3">
+        <v>34000</v>
+      </c>
+      <c r="M12" s="3">
+        <v>30900</v>
+      </c>
+      <c r="N12" s="3">
         <v>26400</v>
       </c>
-      <c r="J12" s="3">
-        <v>24500</v>
-      </c>
-      <c r="K12" s="3">
-        <v>34000</v>
-      </c>
-      <c r="L12" s="3">
-        <v>30900</v>
-      </c>
-      <c r="M12" s="3">
-        <v>26400</v>
-      </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>24000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>21900</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>18900</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>17300</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>17200</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>13300</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>14600</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1048,8 +1065,11 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1104,8 +1124,11 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1160,8 +1183,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,120 +1205,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>395300</v>
+        <v>342200</v>
       </c>
       <c r="E17" s="3">
-        <v>486300</v>
+        <v>376800</v>
       </c>
       <c r="F17" s="3">
-        <v>421000</v>
+        <v>463600</v>
       </c>
       <c r="G17" s="3">
-        <v>364200</v>
+        <v>401300</v>
       </c>
       <c r="H17" s="3">
-        <v>316300</v>
+        <v>347200</v>
       </c>
       <c r="I17" s="3">
-        <v>316600</v>
+        <v>301500</v>
       </c>
       <c r="J17" s="3">
+        <v>301800</v>
+      </c>
+      <c r="K17" s="3">
         <v>287900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>289600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>265000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>227300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>197400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>189200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>167800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>149900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>121600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>91700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>89800</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-77800</v>
+        <v>-76800</v>
       </c>
       <c r="E18" s="3">
-        <v>-97900</v>
+        <v>-74200</v>
       </c>
       <c r="F18" s="3">
-        <v>-68500</v>
+        <v>-93400</v>
       </c>
       <c r="G18" s="3">
-        <v>-46800</v>
+        <v>-65300</v>
       </c>
       <c r="H18" s="3">
-        <v>-51400</v>
+        <v>-44600</v>
       </c>
       <c r="I18" s="3">
-        <v>-35800</v>
+        <v>-49000</v>
       </c>
       <c r="J18" s="3">
+        <v>-34200</v>
+      </c>
+      <c r="K18" s="3">
         <v>-35500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-63400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-45600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-46600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-43100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-46400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-39200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-44700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-37700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-27400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-28900</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1313,246 +1346,259 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>-31700</v>
+      </c>
+      <c r="E20" s="3">
         <v>1500</v>
       </c>
-      <c r="E20" s="3">
-        <v>32100</v>
-      </c>
       <c r="F20" s="3">
-        <v>-2700</v>
+        <v>30600</v>
       </c>
       <c r="G20" s="3">
-        <v>16100</v>
+        <v>-2600</v>
       </c>
       <c r="H20" s="3">
-        <v>-3300</v>
+        <v>15300</v>
       </c>
       <c r="I20" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="J20" s="3">
+        <v>20200</v>
+      </c>
+      <c r="K20" s="3">
         <v>21200</v>
       </c>
-      <c r="J20" s="3">
-        <v>21200</v>
-      </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>2000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-5500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>10000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-10500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-1900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>9400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>4000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-3900</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-4200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>-34300</v>
+        <v>-108100</v>
       </c>
       <c r="E21" s="3">
-        <v>-58700</v>
+        <v>-32700</v>
       </c>
       <c r="F21" s="3">
-        <v>-66900</v>
+        <v>-55900</v>
       </c>
       <c r="G21" s="3">
-        <v>-29500</v>
+        <v>-63800</v>
       </c>
       <c r="H21" s="3">
-        <v>-28400</v>
+        <v>-28100</v>
       </c>
       <c r="I21" s="3">
-        <v>-12500</v>
+        <v>-27100</v>
       </c>
       <c r="J21" s="3">
+        <v>-12000</v>
+      </c>
+      <c r="K21" s="3">
         <v>-23000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-59500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-18500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-9600</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O21" s="3" t="s">
         <v>16</v>
       </c>
       <c r="P21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="Q21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R21" s="3">
         <v>-21600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-2300</v>
       </c>
-      <c r="S21" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="T21" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>5000</v>
+        <v>4800</v>
       </c>
       <c r="E22" s="3">
-        <v>4000</v>
+        <v>4700</v>
       </c>
       <c r="F22" s="3">
-        <v>2100</v>
+        <v>3800</v>
       </c>
       <c r="G22" s="3">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="H22" s="3">
+        <v>900</v>
+      </c>
+      <c r="I22" s="3">
+        <v>500</v>
+      </c>
+      <c r="J22" s="3">
+        <v>300</v>
+      </c>
+      <c r="K22" s="3">
         <v>600</v>
-      </c>
-      <c r="I22" s="3">
-        <v>300</v>
-      </c>
-      <c r="J22" s="3">
-        <v>600</v>
-      </c>
-      <c r="K22" s="3">
-        <v>300</v>
       </c>
       <c r="L22" s="3">
         <v>300</v>
       </c>
       <c r="M22" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="N22" s="3">
         <v>0</v>
       </c>
       <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3">
         <v>300</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>400</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>1200</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>1300</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>1500</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-81300</v>
+        <v>-113300</v>
       </c>
       <c r="E23" s="3">
+        <v>-77500</v>
+      </c>
+      <c r="F23" s="3">
+        <v>-66600</v>
+      </c>
+      <c r="G23" s="3">
         <v>-69800</v>
       </c>
-      <c r="F23" s="3">
-        <v>-73300</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-31700</v>
-      </c>
       <c r="H23" s="3">
-        <v>-55300</v>
+        <v>-30200</v>
       </c>
       <c r="I23" s="3">
-        <v>-14900</v>
+        <v>-52700</v>
       </c>
       <c r="J23" s="3">
+        <v>-14200</v>
+      </c>
+      <c r="K23" s="3">
         <v>-14800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-61600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-51400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-36600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-53600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-48600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-30200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-41900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-42900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-33100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-23200</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E24" s="3">
         <v>-200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>700</v>
-      </c>
-      <c r="G24" s="3">
-        <v>500</v>
       </c>
       <c r="H24" s="3">
         <v>500</v>
@@ -1561,25 +1607,25 @@
         <v>500</v>
       </c>
       <c r="J24" s="3">
+        <v>500</v>
+      </c>
+      <c r="K24" s="3">
         <v>600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>300</v>
-      </c>
-      <c r="P24" s="3">
-        <v>400</v>
       </c>
       <c r="Q24" s="3">
         <v>400</v>
@@ -1588,13 +1634,16 @@
         <v>400</v>
       </c>
       <c r="S24" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="T24" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1698,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-81000</v>
+        <v>-112800</v>
       </c>
       <c r="E26" s="3">
-        <v>-70400</v>
+        <v>-77200</v>
       </c>
       <c r="F26" s="3">
-        <v>-74000</v>
+        <v>-67100</v>
       </c>
       <c r="G26" s="3">
-        <v>-32200</v>
+        <v>-70500</v>
       </c>
       <c r="H26" s="3">
-        <v>-55800</v>
+        <v>-30700</v>
       </c>
       <c r="I26" s="3">
+        <v>-53200</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-14600</v>
+      </c>
+      <c r="K26" s="3">
         <v>-15400</v>
       </c>
-      <c r="J26" s="3">
-        <v>-15400</v>
-      </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-61900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-52300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-36900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-54000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-48800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-30600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-42300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-43200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-33400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-23500</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-80800</v>
+        <v>-111800</v>
       </c>
       <c r="E27" s="3">
-        <v>-69800</v>
+        <v>-77000</v>
       </c>
       <c r="F27" s="3">
-        <v>-74200</v>
+        <v>-66500</v>
       </c>
       <c r="G27" s="3">
-        <v>-32200</v>
+        <v>-70700</v>
       </c>
       <c r="H27" s="3">
-        <v>-55900</v>
+        <v>-30700</v>
       </c>
       <c r="I27" s="3">
+        <v>-53200</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-14600</v>
+      </c>
+      <c r="K27" s="3">
         <v>-15400</v>
       </c>
-      <c r="J27" s="3">
-        <v>-15400</v>
-      </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-61900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-55400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-44500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-54000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-48800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-30600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-42300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-147200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-33400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-23500</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1875,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +1934,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1993,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,120 +2052,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>31700</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1500</v>
       </c>
-      <c r="E32" s="3">
-        <v>-32100</v>
-      </c>
       <c r="F32" s="3">
-        <v>2700</v>
+        <v>-30600</v>
       </c>
       <c r="G32" s="3">
-        <v>-16100</v>
+        <v>2600</v>
       </c>
       <c r="H32" s="3">
-        <v>3300</v>
+        <v>-15300</v>
       </c>
       <c r="I32" s="3">
+        <v>3200</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-20200</v>
+      </c>
+      <c r="K32" s="3">
         <v>-21200</v>
       </c>
-      <c r="J32" s="3">
-        <v>-21200</v>
-      </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-2000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>5500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-10000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>10500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>1900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-9400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-4000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>3900</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>4200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-7200</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-80800</v>
+        <v>-111800</v>
       </c>
       <c r="E33" s="3">
-        <v>-69800</v>
+        <v>-77000</v>
       </c>
       <c r="F33" s="3">
-        <v>-74200</v>
+        <v>-66500</v>
       </c>
       <c r="G33" s="3">
-        <v>-32200</v>
+        <v>-70700</v>
       </c>
       <c r="H33" s="3">
-        <v>-55900</v>
+        <v>-30700</v>
       </c>
       <c r="I33" s="3">
+        <v>-53200</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-14600</v>
+      </c>
+      <c r="K33" s="3">
         <v>-15400</v>
       </c>
-      <c r="J33" s="3">
-        <v>-15400</v>
-      </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-61900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-55400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-44500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-54000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-48800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-30600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-42300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-147200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-33400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-23500</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2229,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-80800</v>
+        <v>-111800</v>
       </c>
       <c r="E35" s="3">
-        <v>-69800</v>
+        <v>-77000</v>
       </c>
       <c r="F35" s="3">
-        <v>-74200</v>
+        <v>-66500</v>
       </c>
       <c r="G35" s="3">
-        <v>-32200</v>
+        <v>-70700</v>
       </c>
       <c r="H35" s="3">
-        <v>-55900</v>
+        <v>-30700</v>
       </c>
       <c r="I35" s="3">
+        <v>-53200</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-14600</v>
+      </c>
+      <c r="K35" s="3">
         <v>-15400</v>
       </c>
-      <c r="J35" s="3">
-        <v>-15400</v>
-      </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-61900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-55400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-44500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-54000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-48800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-30600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-42300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-147200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-33400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-23500</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2377,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,47 +2400,48 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>470100</v>
+        <v>380300</v>
       </c>
       <c r="E41" s="3">
-        <v>615900</v>
+        <v>448100</v>
       </c>
       <c r="F41" s="3">
-        <v>503000</v>
+        <v>587100</v>
       </c>
       <c r="G41" s="3">
-        <v>431500</v>
+        <v>479400</v>
       </c>
       <c r="H41" s="3">
-        <v>407900</v>
+        <v>411300</v>
       </c>
       <c r="I41" s="3">
-        <v>500100</v>
+        <v>388800</v>
       </c>
       <c r="J41" s="3">
+        <v>476700</v>
+      </c>
+      <c r="K41" s="3">
         <v>564600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>487800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>310800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>311500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>268200</v>
       </c>
-      <c r="O41" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="P41" s="3" t="s">
         <v>16</v>
       </c>
@@ -2370,47 +2457,50 @@
       <c r="T41" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>348200</v>
+        <v>364700</v>
       </c>
       <c r="E42" s="3">
-        <v>363800</v>
+        <v>331900</v>
       </c>
       <c r="F42" s="3">
-        <v>372400</v>
+        <v>346800</v>
       </c>
       <c r="G42" s="3">
-        <v>368000</v>
+        <v>355000</v>
       </c>
       <c r="H42" s="3">
-        <v>388800</v>
+        <v>350800</v>
       </c>
       <c r="I42" s="3">
-        <v>393300</v>
+        <v>370600</v>
       </c>
       <c r="J42" s="3">
+        <v>374900</v>
+      </c>
+      <c r="K42" s="3">
         <v>427900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>361500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>36100</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>34700</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>118500</v>
       </c>
-      <c r="O42" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="P42" s="3" t="s">
         <v>16</v>
       </c>
@@ -2426,47 +2516,50 @@
       <c r="T42" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>560300</v>
+        <v>449700</v>
       </c>
       <c r="E43" s="3">
-        <v>551700</v>
+        <v>534100</v>
       </c>
       <c r="F43" s="3">
-        <v>686600</v>
+        <v>525900</v>
       </c>
       <c r="G43" s="3">
-        <v>536300</v>
+        <v>654500</v>
       </c>
       <c r="H43" s="3">
-        <v>431300</v>
+        <v>511200</v>
       </c>
       <c r="I43" s="3">
-        <v>370900</v>
+        <v>411100</v>
       </c>
       <c r="J43" s="3">
+        <v>353600</v>
+      </c>
+      <c r="K43" s="3">
         <v>314600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>258500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>294900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>227800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>210400</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="P43" s="3" t="s">
         <v>16</v>
       </c>
@@ -2482,8 +2575,11 @@
       <c r="T43" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2538,47 +2634,50 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>267600</v>
+        <v>242000</v>
       </c>
       <c r="E45" s="3">
-        <v>281300</v>
+        <v>255000</v>
       </c>
       <c r="F45" s="3">
-        <v>186700</v>
+        <v>268100</v>
       </c>
       <c r="G45" s="3">
-        <v>120700</v>
+        <v>177900</v>
       </c>
       <c r="H45" s="3">
-        <v>143500</v>
+        <v>115000</v>
       </c>
       <c r="I45" s="3">
-        <v>129500</v>
+        <v>136800</v>
       </c>
       <c r="J45" s="3">
+        <v>123500</v>
+      </c>
+      <c r="K45" s="3">
         <v>80800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>78700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>78500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>65000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>59100</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="P45" s="3" t="s">
         <v>16</v>
       </c>
@@ -2594,47 +2693,50 @@
       <c r="T45" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1646200</v>
+        <v>1436700</v>
       </c>
       <c r="E46" s="3">
-        <v>1812600</v>
+        <v>1569200</v>
       </c>
       <c r="F46" s="3">
-        <v>1748600</v>
+        <v>1727900</v>
       </c>
       <c r="G46" s="3">
-        <v>1456500</v>
+        <v>1666900</v>
       </c>
       <c r="H46" s="3">
-        <v>1371500</v>
+        <v>1388300</v>
       </c>
       <c r="I46" s="3">
-        <v>1393800</v>
+        <v>1307300</v>
       </c>
       <c r="J46" s="3">
+        <v>1328600</v>
+      </c>
+      <c r="K46" s="3">
         <v>1388000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1186600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>720300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>639000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>656100</v>
       </c>
-      <c r="O46" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="P46" s="3" t="s">
         <v>16</v>
       </c>
@@ -2650,47 +2752,50 @@
       <c r="T46" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>31800</v>
+        <v>38400</v>
       </c>
       <c r="E47" s="3">
-        <v>31100</v>
+        <v>30300</v>
       </c>
       <c r="F47" s="3">
-        <v>13800</v>
+        <v>29600</v>
       </c>
       <c r="G47" s="3">
-        <v>13800</v>
+        <v>13200</v>
       </c>
       <c r="H47" s="3">
-        <v>20200</v>
+        <v>13100</v>
       </c>
       <c r="I47" s="3">
         <v>19300</v>
       </c>
       <c r="J47" s="3">
-        <v>17900</v>
+        <v>18400</v>
       </c>
       <c r="K47" s="3">
         <v>17900</v>
       </c>
       <c r="L47" s="3">
+        <v>17900</v>
+      </c>
+      <c r="M47" s="3">
         <v>19200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>18000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>10400</v>
       </c>
-      <c r="O47" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="P47" s="3" t="s">
         <v>16</v>
       </c>
@@ -2706,47 +2811,50 @@
       <c r="T47" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>392300</v>
+        <v>372300</v>
       </c>
       <c r="E48" s="3">
-        <v>382700</v>
+        <v>374000</v>
       </c>
       <c r="F48" s="3">
-        <v>338200</v>
+        <v>364800</v>
       </c>
       <c r="G48" s="3">
-        <v>307300</v>
+        <v>322400</v>
       </c>
       <c r="H48" s="3">
-        <v>324800</v>
+        <v>292900</v>
       </c>
       <c r="I48" s="3">
-        <v>324700</v>
+        <v>309600</v>
       </c>
       <c r="J48" s="3">
+        <v>309500</v>
+      </c>
+      <c r="K48" s="3">
         <v>323000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>310200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>317300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>265000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>201000</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="P48" s="3" t="s">
         <v>16</v>
       </c>
@@ -2762,47 +2870,50 @@
       <c r="T48" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>837000</v>
+        <v>792400</v>
       </c>
       <c r="E49" s="3">
-        <v>846200</v>
+        <v>797800</v>
       </c>
       <c r="F49" s="3">
-        <v>825800</v>
+        <v>806600</v>
       </c>
       <c r="G49" s="3">
-        <v>18400</v>
+        <v>787100</v>
       </c>
       <c r="H49" s="3">
-        <v>12900</v>
+        <v>17600</v>
       </c>
       <c r="I49" s="3">
-        <v>2400</v>
+        <v>12300</v>
       </c>
       <c r="J49" s="3">
+        <v>2300</v>
+      </c>
+      <c r="K49" s="3">
         <v>2900</v>
-      </c>
-      <c r="K49" s="3">
-        <v>1200</v>
       </c>
       <c r="L49" s="3">
         <v>1200</v>
       </c>
       <c r="M49" s="3">
+        <v>1200</v>
+      </c>
+      <c r="N49" s="3">
         <v>1100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1300</v>
       </c>
-      <c r="O49" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="P49" s="3" t="s">
         <v>16</v>
       </c>
@@ -2818,8 +2929,11 @@
       <c r="T49" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2988,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,47 +3047,50 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="E52" s="3">
-        <v>5400</v>
+        <v>3800</v>
       </c>
       <c r="F52" s="3">
-        <v>9600</v>
+        <v>5100</v>
       </c>
       <c r="G52" s="3">
-        <v>4500</v>
+        <v>9200</v>
       </c>
       <c r="H52" s="3">
-        <v>2500</v>
+        <v>4300</v>
       </c>
       <c r="I52" s="3">
-        <v>1700</v>
+        <v>2400</v>
       </c>
       <c r="J52" s="3">
+        <v>1600</v>
+      </c>
+      <c r="K52" s="3">
         <v>8700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>4700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>4600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>5600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>10400</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="P52" s="3" t="s">
         <v>16</v>
       </c>
@@ -2986,8 +3106,11 @@
       <c r="T52" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,47 +3165,50 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2911200</v>
+        <v>2644800</v>
       </c>
       <c r="E54" s="3">
-        <v>3078000</v>
+        <v>2775100</v>
       </c>
       <c r="F54" s="3">
-        <v>2936000</v>
+        <v>2934100</v>
       </c>
       <c r="G54" s="3">
-        <v>1800400</v>
+        <v>2798700</v>
       </c>
       <c r="H54" s="3">
-        <v>1731900</v>
+        <v>1716200</v>
       </c>
       <c r="I54" s="3">
-        <v>1742000</v>
+        <v>1650900</v>
       </c>
       <c r="J54" s="3">
+        <v>1660500</v>
+      </c>
+      <c r="K54" s="3">
         <v>1740500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1520500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1062600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>928800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>879300</v>
       </c>
-      <c r="O54" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="P54" s="3" t="s">
         <v>16</v>
       </c>
@@ -3098,8 +3224,11 @@
       <c r="T54" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U54" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3249,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,47 +3272,48 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>376900</v>
+        <v>335400</v>
       </c>
       <c r="E57" s="3">
-        <v>429100</v>
+        <v>359200</v>
       </c>
       <c r="F57" s="3">
-        <v>460300</v>
+        <v>409100</v>
       </c>
       <c r="G57" s="3">
-        <v>387200</v>
+        <v>438700</v>
       </c>
       <c r="H57" s="3">
-        <v>336200</v>
+        <v>369100</v>
       </c>
       <c r="I57" s="3">
-        <v>300400</v>
+        <v>320500</v>
       </c>
       <c r="J57" s="3">
+        <v>286400</v>
+      </c>
+      <c r="K57" s="3">
         <v>290900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>255800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>291700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>193200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>191300</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="P57" s="3" t="s">
         <v>16</v>
       </c>
@@ -3198,47 +3329,50 @@
       <c r="T57" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>217800</v>
+        <v>176300</v>
       </c>
       <c r="E58" s="3">
-        <v>196900</v>
+        <v>207600</v>
       </c>
       <c r="F58" s="3">
-        <v>131600</v>
+        <v>187700</v>
       </c>
       <c r="G58" s="3">
-        <v>97000</v>
+        <v>125500</v>
       </c>
       <c r="H58" s="3">
-        <v>66000</v>
+        <v>92500</v>
       </c>
       <c r="I58" s="3">
-        <v>51500</v>
+        <v>62900</v>
       </c>
       <c r="J58" s="3">
+        <v>49100</v>
+      </c>
+      <c r="K58" s="3">
         <v>58800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>33700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>15800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>31500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>29200</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="P58" s="3" t="s">
         <v>16</v>
       </c>
@@ -3254,47 +3388,50 @@
       <c r="T58" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>412000</v>
+        <v>517600</v>
       </c>
       <c r="E59" s="3">
-        <v>471500</v>
+        <v>392700</v>
       </c>
       <c r="F59" s="3">
-        <v>274100</v>
+        <v>449500</v>
       </c>
       <c r="G59" s="3">
-        <v>114900</v>
+        <v>261200</v>
       </c>
       <c r="H59" s="3">
-        <v>119200</v>
+        <v>109500</v>
       </c>
       <c r="I59" s="3">
-        <v>154100</v>
+        <v>113700</v>
       </c>
       <c r="J59" s="3">
+        <v>146900</v>
+      </c>
+      <c r="K59" s="3">
         <v>135000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>151800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>170800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>148000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>106900</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="P59" s="3" t="s">
         <v>16</v>
       </c>
@@ -3310,47 +3447,50 @@
       <c r="T59" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1006600</v>
+        <v>1029200</v>
       </c>
       <c r="E60" s="3">
-        <v>1097500</v>
+        <v>959500</v>
       </c>
       <c r="F60" s="3">
-        <v>866000</v>
+        <v>1046200</v>
       </c>
       <c r="G60" s="3">
-        <v>599100</v>
+        <v>825500</v>
       </c>
       <c r="H60" s="3">
-        <v>521500</v>
+        <v>571100</v>
       </c>
       <c r="I60" s="3">
-        <v>506100</v>
+        <v>497100</v>
       </c>
       <c r="J60" s="3">
+        <v>482400</v>
+      </c>
+      <c r="K60" s="3">
         <v>484700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>441200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>478300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>372600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>327400</v>
       </c>
-      <c r="O60" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="P60" s="3" t="s">
         <v>16</v>
       </c>
@@ -3366,25 +3506,28 @@
       <c r="T60" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>60500</v>
+        <v>49300</v>
       </c>
       <c r="E61" s="3">
-        <v>69100</v>
+        <v>57600</v>
       </c>
       <c r="F61" s="3">
-        <v>62200</v>
+        <v>65800</v>
       </c>
       <c r="G61" s="3">
-        <v>32300</v>
+        <v>59300</v>
       </c>
       <c r="H61" s="3">
-        <v>0</v>
+        <v>30800</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
@@ -3393,20 +3536,20 @@
         <v>0</v>
       </c>
       <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3">
         <v>11000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>11700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>11400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>19100</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
         <v>0</v>
       </c>
@@ -3422,47 +3565,50 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>235400</v>
+        <v>74800</v>
       </c>
       <c r="E62" s="3">
-        <v>233200</v>
+        <v>224400</v>
       </c>
       <c r="F62" s="3">
-        <v>246600</v>
+        <v>222300</v>
       </c>
       <c r="G62" s="3">
-        <v>29500</v>
+        <v>235100</v>
       </c>
       <c r="H62" s="3">
-        <v>34700</v>
+        <v>28100</v>
       </c>
       <c r="I62" s="3">
-        <v>32600</v>
+        <v>33100</v>
       </c>
       <c r="J62" s="3">
+        <v>31100</v>
+      </c>
+      <c r="K62" s="3">
         <v>36700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>30300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>34900</v>
       </c>
-      <c r="M62" s="3">
-        <v>0</v>
-      </c>
       <c r="N62" s="3">
+        <v>0</v>
+      </c>
+      <c r="O62" s="3">
         <v>800</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="P62" s="3" t="s">
         <v>16</v>
       </c>
@@ -3478,8 +3624,11 @@
       <c r="T62" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3683,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3742,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,47 +3801,50 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1431300</v>
+        <v>1274700</v>
       </c>
       <c r="E66" s="3">
-        <v>1529500</v>
+        <v>1364300</v>
       </c>
       <c r="F66" s="3">
-        <v>1319900</v>
+        <v>1458000</v>
       </c>
       <c r="G66" s="3">
-        <v>665000</v>
+        <v>1258200</v>
       </c>
       <c r="H66" s="3">
-        <v>556400</v>
+        <v>633900</v>
       </c>
       <c r="I66" s="3">
-        <v>538700</v>
+        <v>530400</v>
       </c>
       <c r="J66" s="3">
+        <v>513500</v>
+      </c>
+      <c r="K66" s="3">
         <v>521400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>482500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>524900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>384100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>347400</v>
       </c>
-      <c r="O66" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="P66" s="3" t="s">
         <v>16</v>
       </c>
@@ -3702,8 +3860,11 @@
       <c r="T66" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U66" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3885,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3942,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4001,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3866,17 +4034,17 @@
         <v>0</v>
       </c>
       <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
         <v>1264000</v>
       </c>
-      <c r="M70" s="3">
+      <c r="N70" s="3">
         <v>1209900</v>
       </c>
-      <c r="N70" s="3">
+      <c r="O70" s="3">
         <v>1150100</v>
       </c>
-      <c r="O70" s="3">
-        <v>0</v>
-      </c>
       <c r="P70" s="3">
         <v>0</v>
       </c>
@@ -3892,8 +4060,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,47 +4119,50 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-1170000</v>
+        <v>-1227000</v>
       </c>
       <c r="E72" s="3">
-        <v>-1089200</v>
+        <v>-1115300</v>
       </c>
       <c r="F72" s="3">
-        <v>-1019400</v>
+        <v>-1038300</v>
       </c>
       <c r="G72" s="3">
-        <v>-945200</v>
+        <v>-971700</v>
       </c>
       <c r="H72" s="3">
-        <v>-913100</v>
+        <v>-901000</v>
       </c>
       <c r="I72" s="3">
-        <v>-856400</v>
+        <v>-870300</v>
       </c>
       <c r="J72" s="3">
+        <v>-816300</v>
+      </c>
+      <c r="K72" s="3">
         <v>-841000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-833100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-825600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-754800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-717900</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="P72" s="3" t="s">
         <v>16</v>
       </c>
@@ -4004,8 +4178,11 @@
       <c r="T72" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U72" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4237,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4296,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,47 +4355,50 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1479900</v>
+        <v>1370200</v>
       </c>
       <c r="E76" s="3">
-        <v>1548500</v>
+        <v>1410700</v>
       </c>
       <c r="F76" s="3">
-        <v>1616100</v>
+        <v>1476100</v>
       </c>
       <c r="G76" s="3">
-        <v>1135500</v>
+        <v>1540500</v>
       </c>
       <c r="H76" s="3">
-        <v>1175500</v>
+        <v>1082400</v>
       </c>
       <c r="I76" s="3">
-        <v>1203300</v>
+        <v>1120500</v>
       </c>
       <c r="J76" s="3">
+        <v>1147000</v>
+      </c>
+      <c r="K76" s="3">
         <v>1219100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1038000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-726300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-665300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-618200</v>
       </c>
-      <c r="O76" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="P76" s="3" t="s">
         <v>16</v>
       </c>
@@ -4228,8 +4414,11 @@
       <c r="T76" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U76" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4473,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-80800</v>
+        <v>-111800</v>
       </c>
       <c r="E81" s="3">
-        <v>-69800</v>
+        <v>-77000</v>
       </c>
       <c r="F81" s="3">
-        <v>-74200</v>
+        <v>-66500</v>
       </c>
       <c r="G81" s="3">
-        <v>-32200</v>
+        <v>-70700</v>
       </c>
       <c r="H81" s="3">
-        <v>-55900</v>
+        <v>-30700</v>
       </c>
       <c r="I81" s="3">
+        <v>-53200</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-14600</v>
+      </c>
+      <c r="K81" s="3">
         <v>-15400</v>
       </c>
-      <c r="J81" s="3">
-        <v>-15400</v>
-      </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-61900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-55400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-44500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-54000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-48800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-30600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-42300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-147200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-33400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-23500</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,8 +4621,9 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4452,35 +4651,38 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M83" s="3">
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+      <c r="M83" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N83" s="3">
         <v>26900</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O83" s="3" t="s">
         <v>16</v>
       </c>
       <c r="P83" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="Q83" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R83" s="3">
         <v>19100</v>
       </c>
-      <c r="R83" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="S83" s="3" t="s">
         <v>16</v>
       </c>
       <c r="T83" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4737,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4796,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4855,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4914,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,64 +4973,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-91400</v>
+        <v>135000</v>
       </c>
       <c r="E89" s="3">
-        <v>5600</v>
+        <v>-87100</v>
       </c>
       <c r="F89" s="3">
-        <v>2000</v>
+        <v>5300</v>
       </c>
       <c r="G89" s="3">
-        <v>-38500</v>
+        <v>1900</v>
       </c>
       <c r="H89" s="3">
-        <v>-72600</v>
+        <v>-36700</v>
       </c>
       <c r="I89" s="3">
-        <v>-40600</v>
+        <v>-69200</v>
       </c>
       <c r="J89" s="3">
+        <v>-38700</v>
+      </c>
+      <c r="K89" s="3">
         <v>-15100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>14800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-23900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-19600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-23400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>7600</v>
       </c>
-      <c r="R89" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="S89" s="3" t="s">
         <v>16</v>
       </c>
       <c r="T89" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,8 +5057,9 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4866,35 +5087,38 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M91" s="3">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N91" s="3">
         <v>-48000</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O91" s="3" t="s">
         <v>16</v>
       </c>
       <c r="P91" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="Q91" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R91" s="3">
         <v>-46800</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="S91" s="3" t="s">
         <v>16</v>
       </c>
       <c r="T91" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5173,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,64 +5232,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-76600</v>
+        <v>-29000</v>
       </c>
       <c r="E94" s="3">
-        <v>-33100</v>
+        <v>-73000</v>
       </c>
       <c r="F94" s="3">
-        <v>14500</v>
+        <v>-31500</v>
       </c>
       <c r="G94" s="3">
-        <v>-8200</v>
+        <v>13800</v>
       </c>
       <c r="H94" s="3">
-        <v>-34800</v>
+        <v>-7800</v>
       </c>
       <c r="I94" s="3">
-        <v>-45100</v>
+        <v>-33200</v>
       </c>
       <c r="J94" s="3">
+        <v>-43000</v>
+      </c>
+      <c r="K94" s="3">
         <v>-151400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-393900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-46500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>12000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>22900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>57500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>42500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>69000</v>
       </c>
-      <c r="R94" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="S94" s="3" t="s">
         <v>16</v>
       </c>
       <c r="T94" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5316,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5373,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5432,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5491,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,172 +5550,184 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>14300</v>
+        <v>-57100</v>
       </c>
       <c r="E100" s="3">
-        <v>158400</v>
+        <v>13600</v>
       </c>
       <c r="F100" s="3">
-        <v>76800</v>
+        <v>151000</v>
       </c>
       <c r="G100" s="3">
-        <v>73400</v>
+        <v>73200</v>
       </c>
       <c r="H100" s="3">
-        <v>14400</v>
+        <v>69900</v>
       </c>
       <c r="I100" s="3">
-        <v>30400</v>
+        <v>13800</v>
       </c>
       <c r="J100" s="3">
+        <v>29000</v>
+      </c>
+      <c r="K100" s="3">
         <v>258500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>590500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>21900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>47600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-40700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>3200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-32400</v>
       </c>
-      <c r="R100" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="S100" s="3" t="s">
         <v>16</v>
       </c>
       <c r="T100" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-3100</v>
+        <v>16300</v>
       </c>
       <c r="E101" s="3">
-        <v>-5100</v>
+        <v>-2900</v>
       </c>
       <c r="F101" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="G101" s="3">
         <v>100</v>
       </c>
-      <c r="G101" s="3">
-        <v>-3100</v>
-      </c>
       <c r="H101" s="3">
-        <v>800</v>
+        <v>-3000</v>
       </c>
       <c r="I101" s="3">
-        <v>-9200</v>
+        <v>700</v>
       </c>
       <c r="J101" s="3">
+        <v>-8800</v>
+      </c>
+      <c r="K101" s="3">
         <v>-10700</v>
-      </c>
-      <c r="K101" s="3">
-        <v>1400</v>
       </c>
       <c r="L101" s="3">
         <v>1400</v>
       </c>
       <c r="M101" s="3">
+        <v>1400</v>
+      </c>
+      <c r="N101" s="3">
         <v>7700</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-4100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>700</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-3100</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-200</v>
       </c>
-      <c r="R101" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="S101" s="3" t="s">
         <v>16</v>
       </c>
       <c r="T101" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-156900</v>
+        <v>65200</v>
       </c>
       <c r="E102" s="3">
-        <v>125900</v>
+        <v>-149500</v>
       </c>
       <c r="F102" s="3">
-        <v>93500</v>
+        <v>120000</v>
       </c>
       <c r="G102" s="3">
-        <v>23500</v>
+        <v>89100</v>
       </c>
       <c r="H102" s="3">
-        <v>-92200</v>
+        <v>22400</v>
       </c>
       <c r="I102" s="3">
-        <v>-64500</v>
+        <v>-87900</v>
       </c>
       <c r="J102" s="3">
+        <v>-61500</v>
+      </c>
+      <c r="K102" s="3">
         <v>81200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>197600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-8400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>43400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>17200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>19200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>44000</v>
       </c>
-      <c r="R102" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="S102" s="3" t="s">
         <v>16</v>
       </c>
       <c r="T102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="U102" s="3" t="s">
         <v>16</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KC_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,270 +665,283 @@
     <col min="1" max="1" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>265400</v>
+        <v>282800</v>
       </c>
       <c r="E8" s="3">
-        <v>302600</v>
+        <v>273800</v>
       </c>
       <c r="F8" s="3">
-        <v>370200</v>
+        <v>312200</v>
       </c>
       <c r="G8" s="3">
-        <v>336000</v>
+        <v>382000</v>
       </c>
       <c r="H8" s="3">
-        <v>302600</v>
+        <v>346700</v>
       </c>
       <c r="I8" s="3">
-        <v>252400</v>
+        <v>312200</v>
       </c>
       <c r="J8" s="3">
+        <v>260500</v>
+      </c>
+      <c r="K8" s="3">
         <v>267600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>252500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>226200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>219400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>180700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>154300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>142900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>128700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>105200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>83900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>64300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>60900</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>256300</v>
+        <v>265200</v>
       </c>
       <c r="E9" s="3">
-        <v>291500</v>
+        <v>264400</v>
       </c>
       <c r="F9" s="3">
-        <v>366400</v>
+        <v>300700</v>
       </c>
       <c r="G9" s="3">
-        <v>323700</v>
+        <v>378000</v>
       </c>
       <c r="H9" s="3">
-        <v>286100</v>
+        <v>334000</v>
       </c>
       <c r="I9" s="3">
-        <v>236200</v>
+        <v>295200</v>
       </c>
       <c r="J9" s="3">
+        <v>243700</v>
+      </c>
+      <c r="K9" s="3">
         <v>254800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>236000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>214300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>208300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>172400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>151400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>146000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>135500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>114200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>92300</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>68900</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>67200</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>9100</v>
+        <v>17600</v>
       </c>
       <c r="E10" s="3">
-        <v>11100</v>
+        <v>9400</v>
       </c>
       <c r="F10" s="3">
-        <v>3900</v>
+        <v>11500</v>
       </c>
       <c r="G10" s="3">
-        <v>12300</v>
+        <v>4000</v>
       </c>
       <c r="H10" s="3">
+        <v>12700</v>
+      </c>
+      <c r="I10" s="3">
+        <v>17000</v>
+      </c>
+      <c r="J10" s="3">
+        <v>16700</v>
+      </c>
+      <c r="K10" s="3">
+        <v>12900</v>
+      </c>
+      <c r="L10" s="3">
         <v>16500</v>
       </c>
-      <c r="I10" s="3">
-        <v>16200</v>
-      </c>
-      <c r="J10" s="3">
-        <v>12900</v>
-      </c>
-      <c r="K10" s="3">
-        <v>16500</v>
-      </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>11900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>11200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>8400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>2900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>-3100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>-6900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>-9000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>-8400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>-4600</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>-6300</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -950,67 +963,71 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>30800</v>
+        <v>35600</v>
       </c>
       <c r="E12" s="3">
-        <v>34300</v>
+        <v>31700</v>
       </c>
       <c r="F12" s="3">
-        <v>38700</v>
+        <v>35400</v>
       </c>
       <c r="G12" s="3">
-        <v>37400</v>
+        <v>40000</v>
       </c>
       <c r="H12" s="3">
-        <v>32300</v>
+        <v>38600</v>
       </c>
       <c r="I12" s="3">
-        <v>36800</v>
+        <v>33400</v>
       </c>
       <c r="J12" s="3">
+        <v>38000</v>
+      </c>
+      <c r="K12" s="3">
         <v>25200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>24500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>34000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>30900</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>26400</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>24000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>21900</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>18900</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>17300</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>17200</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>13300</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>14600</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1068,8 +1085,11 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,8 +1147,11 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1186,8 +1209,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1206,126 +1232,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>342200</v>
+        <v>355200</v>
       </c>
       <c r="E17" s="3">
-        <v>376800</v>
+        <v>353100</v>
       </c>
       <c r="F17" s="3">
-        <v>463600</v>
+        <v>388700</v>
       </c>
       <c r="G17" s="3">
-        <v>401300</v>
+        <v>478300</v>
       </c>
       <c r="H17" s="3">
-        <v>347200</v>
+        <v>414000</v>
       </c>
       <c r="I17" s="3">
-        <v>301500</v>
+        <v>358200</v>
       </c>
       <c r="J17" s="3">
+        <v>311000</v>
+      </c>
+      <c r="K17" s="3">
         <v>301800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>287900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>289600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>265000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>227300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>197400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>189200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>167800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>149900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>121600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>91700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>89800</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-76800</v>
+        <v>-72400</v>
       </c>
       <c r="E18" s="3">
-        <v>-74200</v>
+        <v>-79300</v>
       </c>
       <c r="F18" s="3">
-        <v>-93400</v>
+        <v>-76500</v>
       </c>
       <c r="G18" s="3">
-        <v>-65300</v>
+        <v>-96300</v>
       </c>
       <c r="H18" s="3">
-        <v>-44600</v>
+        <v>-67400</v>
       </c>
       <c r="I18" s="3">
-        <v>-49000</v>
+        <v>-46000</v>
       </c>
       <c r="J18" s="3">
+        <v>-50600</v>
+      </c>
+      <c r="K18" s="3">
         <v>-34200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-35500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-63400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-45600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-46600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-43100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-46400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-39200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-44700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-37700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-27400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-28900</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1347,261 +1380,274 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>-31700</v>
+        <v>-34700</v>
       </c>
       <c r="E20" s="3">
+        <v>-32700</v>
+      </c>
+      <c r="F20" s="3">
         <v>1500</v>
       </c>
-      <c r="F20" s="3">
-        <v>30600</v>
-      </c>
       <c r="G20" s="3">
+        <v>31600</v>
+      </c>
+      <c r="H20" s="3">
         <v>-2600</v>
       </c>
-      <c r="H20" s="3">
-        <v>15300</v>
-      </c>
       <c r="I20" s="3">
-        <v>-3200</v>
+        <v>15800</v>
       </c>
       <c r="J20" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="K20" s="3">
         <v>20200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>21200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>2000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-5500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>10000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-10500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>9400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>4000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-3900</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-4200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>-108100</v>
+        <v>-106700</v>
       </c>
       <c r="E21" s="3">
-        <v>-32700</v>
+        <v>-111500</v>
       </c>
       <c r="F21" s="3">
-        <v>-55900</v>
+        <v>-33700</v>
       </c>
       <c r="G21" s="3">
-        <v>-63800</v>
+        <v>-57700</v>
       </c>
       <c r="H21" s="3">
-        <v>-28100</v>
+        <v>-65800</v>
       </c>
       <c r="I21" s="3">
-        <v>-27100</v>
+        <v>-29000</v>
       </c>
       <c r="J21" s="3">
+        <v>-27900</v>
+      </c>
+      <c r="K21" s="3">
         <v>-12000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-23000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-59500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-18500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-9600</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="P21" s="3" t="s">
         <v>16</v>
       </c>
       <c r="Q21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R21" s="3">
+      <c r="R21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S21" s="3">
         <v>-21600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-2300</v>
       </c>
-      <c r="T21" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="U21" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V21" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>4800</v>
+        <v>5400</v>
       </c>
       <c r="E22" s="3">
-        <v>4700</v>
+        <v>4900</v>
       </c>
       <c r="F22" s="3">
-        <v>3800</v>
+        <v>4900</v>
       </c>
       <c r="G22" s="3">
-        <v>2000</v>
+        <v>3900</v>
       </c>
       <c r="H22" s="3">
-        <v>900</v>
+        <v>2100</v>
       </c>
       <c r="I22" s="3">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="J22" s="3">
+        <v>600</v>
+      </c>
+      <c r="K22" s="3">
         <v>300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>600</v>
-      </c>
-      <c r="L22" s="3">
-        <v>300</v>
       </c>
       <c r="M22" s="3">
         <v>300</v>
       </c>
       <c r="N22" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="O22" s="3">
         <v>0</v>
       </c>
       <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3">
         <v>300</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>400</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>1200</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>1300</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>1500</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-113300</v>
+        <v>-112600</v>
       </c>
       <c r="E23" s="3">
-        <v>-77500</v>
+        <v>-116900</v>
       </c>
       <c r="F23" s="3">
-        <v>-66600</v>
+        <v>-79900</v>
       </c>
       <c r="G23" s="3">
-        <v>-69800</v>
+        <v>-68700</v>
       </c>
       <c r="H23" s="3">
+        <v>-72100</v>
+      </c>
+      <c r="I23" s="3">
+        <v>-31200</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-54400</v>
+      </c>
+      <c r="K23" s="3">
+        <v>-14200</v>
+      </c>
+      <c r="L23" s="3">
+        <v>-14800</v>
+      </c>
+      <c r="M23" s="3">
+        <v>-61600</v>
+      </c>
+      <c r="N23" s="3">
+        <v>-51400</v>
+      </c>
+      <c r="O23" s="3">
+        <v>-36600</v>
+      </c>
+      <c r="P23" s="3">
+        <v>-53600</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>-48600</v>
+      </c>
+      <c r="R23" s="3">
         <v>-30200</v>
       </c>
-      <c r="I23" s="3">
-        <v>-52700</v>
-      </c>
-      <c r="J23" s="3">
-        <v>-14200</v>
-      </c>
-      <c r="K23" s="3">
-        <v>-14800</v>
-      </c>
-      <c r="L23" s="3">
-        <v>-61600</v>
-      </c>
-      <c r="M23" s="3">
-        <v>-51400</v>
-      </c>
-      <c r="N23" s="3">
-        <v>-36600</v>
-      </c>
-      <c r="O23" s="3">
-        <v>-53600</v>
-      </c>
-      <c r="P23" s="3">
-        <v>-48600</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>-30200</v>
-      </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-41900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-42900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-33100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-23200</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E24" s="3">
         <v>-500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>700</v>
-      </c>
-      <c r="H24" s="3">
-        <v>500</v>
       </c>
       <c r="I24" s="3">
         <v>500</v>
@@ -1610,25 +1656,25 @@
         <v>500</v>
       </c>
       <c r="K24" s="3">
+        <v>500</v>
+      </c>
+      <c r="L24" s="3">
         <v>600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>300</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>400</v>
       </c>
       <c r="R24" s="3">
         <v>400</v>
@@ -1637,13 +1683,16 @@
         <v>400</v>
       </c>
       <c r="T24" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="U24" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1701,126 +1750,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-112800</v>
+        <v>-115100</v>
       </c>
       <c r="E26" s="3">
-        <v>-77200</v>
+        <v>-116400</v>
       </c>
       <c r="F26" s="3">
-        <v>-67100</v>
+        <v>-79700</v>
       </c>
       <c r="G26" s="3">
-        <v>-70500</v>
+        <v>-69300</v>
       </c>
       <c r="H26" s="3">
-        <v>-30700</v>
+        <v>-72800</v>
       </c>
       <c r="I26" s="3">
-        <v>-53200</v>
+        <v>-31700</v>
       </c>
       <c r="J26" s="3">
+        <v>-54900</v>
+      </c>
+      <c r="K26" s="3">
         <v>-14600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-15400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-61900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-52300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-36900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-54000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-48800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-30600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-42300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-43200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-33400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-23500</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-111800</v>
+        <v>-113900</v>
       </c>
       <c r="E27" s="3">
-        <v>-77000</v>
+        <v>-115300</v>
       </c>
       <c r="F27" s="3">
-        <v>-66500</v>
+        <v>-79500</v>
       </c>
       <c r="G27" s="3">
-        <v>-70700</v>
+        <v>-68600</v>
       </c>
       <c r="H27" s="3">
-        <v>-30700</v>
+        <v>-73000</v>
       </c>
       <c r="I27" s="3">
-        <v>-53200</v>
+        <v>-31600</v>
       </c>
       <c r="J27" s="3">
+        <v>-54900</v>
+      </c>
+      <c r="K27" s="3">
         <v>-14600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-15400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-61900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-55400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-44500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-54000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-48800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-30600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-42300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-147200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-33400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-23500</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1878,8 +1936,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1937,8 +1998,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1996,8 +2060,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2055,126 +2122,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>31700</v>
+        <v>34700</v>
       </c>
       <c r="E32" s="3">
+        <v>32700</v>
+      </c>
+      <c r="F32" s="3">
         <v>-1500</v>
       </c>
-      <c r="F32" s="3">
-        <v>-30600</v>
-      </c>
       <c r="G32" s="3">
+        <v>-31600</v>
+      </c>
+      <c r="H32" s="3">
         <v>2600</v>
       </c>
-      <c r="H32" s="3">
-        <v>-15300</v>
-      </c>
       <c r="I32" s="3">
-        <v>3200</v>
+        <v>-15800</v>
       </c>
       <c r="J32" s="3">
+        <v>3300</v>
+      </c>
+      <c r="K32" s="3">
         <v>-20200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-21200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-2000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>5500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-10000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>10500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>1900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-9400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-4000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>3900</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>4200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-7200</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-111800</v>
+        <v>-113900</v>
       </c>
       <c r="E33" s="3">
-        <v>-77000</v>
+        <v>-115300</v>
       </c>
       <c r="F33" s="3">
-        <v>-66500</v>
+        <v>-79500</v>
       </c>
       <c r="G33" s="3">
-        <v>-70700</v>
+        <v>-68600</v>
       </c>
       <c r="H33" s="3">
-        <v>-30700</v>
+        <v>-73000</v>
       </c>
       <c r="I33" s="3">
-        <v>-53200</v>
+        <v>-31600</v>
       </c>
       <c r="J33" s="3">
+        <v>-54900</v>
+      </c>
+      <c r="K33" s="3">
         <v>-14600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-15400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-61900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-55400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-44500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-54000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-48800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-30600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-42300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-147200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-33400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-23500</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2232,131 +2308,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-111800</v>
+        <v>-113900</v>
       </c>
       <c r="E35" s="3">
-        <v>-77000</v>
+        <v>-115300</v>
       </c>
       <c r="F35" s="3">
-        <v>-66500</v>
+        <v>-79500</v>
       </c>
       <c r="G35" s="3">
-        <v>-70700</v>
+        <v>-68600</v>
       </c>
       <c r="H35" s="3">
-        <v>-30700</v>
+        <v>-73000</v>
       </c>
       <c r="I35" s="3">
-        <v>-53200</v>
+        <v>-31600</v>
       </c>
       <c r="J35" s="3">
+        <v>-54900</v>
+      </c>
+      <c r="K35" s="3">
         <v>-14600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-15400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-61900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-55400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-44500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-54000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-48800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-30600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-42300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-147200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-33400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-23500</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2378,8 +2463,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2401,50 +2487,51 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>380300</v>
+        <v>454300</v>
       </c>
       <c r="E41" s="3">
-        <v>448100</v>
+        <v>392400</v>
       </c>
       <c r="F41" s="3">
-        <v>587100</v>
+        <v>462400</v>
       </c>
       <c r="G41" s="3">
-        <v>479400</v>
+        <v>605700</v>
       </c>
       <c r="H41" s="3">
-        <v>411300</v>
+        <v>494700</v>
       </c>
       <c r="I41" s="3">
-        <v>388800</v>
+        <v>424300</v>
       </c>
       <c r="J41" s="3">
+        <v>401200</v>
+      </c>
+      <c r="K41" s="3">
         <v>476700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>564600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>487800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>310800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>311500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>268200</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Q41" s="3" t="s">
         <v>16</v>
       </c>
@@ -2460,50 +2547,53 @@
       <c r="U41" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V41" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>364700</v>
+        <v>311000</v>
       </c>
       <c r="E42" s="3">
-        <v>331900</v>
+        <v>376200</v>
       </c>
       <c r="F42" s="3">
-        <v>346800</v>
+        <v>342500</v>
       </c>
       <c r="G42" s="3">
-        <v>355000</v>
+        <v>357800</v>
       </c>
       <c r="H42" s="3">
-        <v>350800</v>
+        <v>366300</v>
       </c>
       <c r="I42" s="3">
-        <v>370600</v>
+        <v>362000</v>
       </c>
       <c r="J42" s="3">
+        <v>382400</v>
+      </c>
+      <c r="K42" s="3">
         <v>374900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>427900</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>361500</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>36100</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>34700</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>118500</v>
       </c>
-      <c r="P42" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Q42" s="3" t="s">
         <v>16</v>
       </c>
@@ -2519,50 +2609,53 @@
       <c r="U42" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>449700</v>
+        <v>421200</v>
       </c>
       <c r="E43" s="3">
-        <v>534100</v>
+        <v>464000</v>
       </c>
       <c r="F43" s="3">
-        <v>525900</v>
+        <v>551000</v>
       </c>
       <c r="G43" s="3">
-        <v>654500</v>
+        <v>542600</v>
       </c>
       <c r="H43" s="3">
-        <v>511200</v>
+        <v>675200</v>
       </c>
       <c r="I43" s="3">
-        <v>411100</v>
+        <v>527400</v>
       </c>
       <c r="J43" s="3">
+        <v>424200</v>
+      </c>
+      <c r="K43" s="3">
         <v>353600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>314600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>258500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>294900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>227800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>210400</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Q43" s="3" t="s">
         <v>16</v>
       </c>
@@ -2578,8 +2671,11 @@
       <c r="U43" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2637,50 +2733,53 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>242000</v>
+        <v>255200</v>
       </c>
       <c r="E45" s="3">
-        <v>255000</v>
+        <v>249700</v>
       </c>
       <c r="F45" s="3">
-        <v>268100</v>
+        <v>263100</v>
       </c>
       <c r="G45" s="3">
-        <v>177900</v>
+        <v>276600</v>
       </c>
       <c r="H45" s="3">
-        <v>115000</v>
+        <v>183600</v>
       </c>
       <c r="I45" s="3">
-        <v>136800</v>
+        <v>118700</v>
       </c>
       <c r="J45" s="3">
+        <v>141100</v>
+      </c>
+      <c r="K45" s="3">
         <v>123500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>80800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>78700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>78500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>65000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>59100</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Q45" s="3" t="s">
         <v>16</v>
       </c>
@@ -2696,50 +2795,53 @@
       <c r="U45" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1436700</v>
+        <v>1441800</v>
       </c>
       <c r="E46" s="3">
-        <v>1569200</v>
+        <v>1482300</v>
       </c>
       <c r="F46" s="3">
-        <v>1727900</v>
+        <v>1619000</v>
       </c>
       <c r="G46" s="3">
-        <v>1666900</v>
+        <v>1782700</v>
       </c>
       <c r="H46" s="3">
-        <v>1388300</v>
+        <v>1719800</v>
       </c>
       <c r="I46" s="3">
-        <v>1307300</v>
+        <v>1432400</v>
       </c>
       <c r="J46" s="3">
+        <v>1348900</v>
+      </c>
+      <c r="K46" s="3">
         <v>1328600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1388000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1186600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>720300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>639000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>656100</v>
       </c>
-      <c r="P46" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Q46" s="3" t="s">
         <v>16</v>
       </c>
@@ -2755,50 +2857,53 @@
       <c r="U46" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>38400</v>
+        <v>35300</v>
       </c>
       <c r="E47" s="3">
-        <v>30300</v>
+        <v>39600</v>
       </c>
       <c r="F47" s="3">
-        <v>29600</v>
+        <v>31200</v>
       </c>
       <c r="G47" s="3">
-        <v>13200</v>
+        <v>30600</v>
       </c>
       <c r="H47" s="3">
-        <v>13100</v>
+        <v>13600</v>
       </c>
       <c r="I47" s="3">
-        <v>19300</v>
+        <v>13600</v>
       </c>
       <c r="J47" s="3">
+        <v>19900</v>
+      </c>
+      <c r="K47" s="3">
         <v>18400</v>
-      </c>
-      <c r="K47" s="3">
-        <v>17900</v>
       </c>
       <c r="L47" s="3">
         <v>17900</v>
       </c>
       <c r="M47" s="3">
+        <v>17900</v>
+      </c>
+      <c r="N47" s="3">
         <v>19200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>18000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>10400</v>
       </c>
-      <c r="P47" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Q47" s="3" t="s">
         <v>16</v>
       </c>
@@ -2814,50 +2919,53 @@
       <c r="U47" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>372300</v>
+        <v>369000</v>
       </c>
       <c r="E48" s="3">
-        <v>374000</v>
+        <v>384200</v>
       </c>
       <c r="F48" s="3">
-        <v>364800</v>
+        <v>385800</v>
       </c>
       <c r="G48" s="3">
-        <v>322400</v>
+        <v>376400</v>
       </c>
       <c r="H48" s="3">
-        <v>292900</v>
+        <v>332600</v>
       </c>
       <c r="I48" s="3">
-        <v>309600</v>
+        <v>302200</v>
       </c>
       <c r="J48" s="3">
+        <v>319400</v>
+      </c>
+      <c r="K48" s="3">
         <v>309500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>323000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>310200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>317300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>265000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>201000</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Q48" s="3" t="s">
         <v>16</v>
       </c>
@@ -2873,50 +2981,53 @@
       <c r="U48" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>792400</v>
+        <v>811600</v>
       </c>
       <c r="E49" s="3">
-        <v>797800</v>
+        <v>817500</v>
       </c>
       <c r="F49" s="3">
-        <v>806600</v>
+        <v>823200</v>
       </c>
       <c r="G49" s="3">
-        <v>787100</v>
+        <v>832300</v>
       </c>
       <c r="H49" s="3">
-        <v>17600</v>
+        <v>812100</v>
       </c>
       <c r="I49" s="3">
-        <v>12300</v>
+        <v>18100</v>
       </c>
       <c r="J49" s="3">
+        <v>12700</v>
+      </c>
+      <c r="K49" s="3">
         <v>2300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2900</v>
-      </c>
-      <c r="L49" s="3">
-        <v>1200</v>
       </c>
       <c r="M49" s="3">
         <v>1200</v>
       </c>
       <c r="N49" s="3">
+        <v>1200</v>
+      </c>
+      <c r="O49" s="3">
         <v>1100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1300</v>
       </c>
-      <c r="P49" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Q49" s="3" t="s">
         <v>16</v>
       </c>
@@ -2932,8 +3043,11 @@
       <c r="U49" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2991,8 +3105,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3050,50 +3167,53 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>5000</v>
+        <v>5700</v>
       </c>
       <c r="E52" s="3">
-        <v>3800</v>
+        <v>5200</v>
       </c>
       <c r="F52" s="3">
-        <v>5100</v>
+        <v>3900</v>
       </c>
       <c r="G52" s="3">
-        <v>9200</v>
+        <v>5300</v>
       </c>
       <c r="H52" s="3">
-        <v>4300</v>
+        <v>9500</v>
       </c>
       <c r="I52" s="3">
-        <v>2400</v>
+        <v>4400</v>
       </c>
       <c r="J52" s="3">
+        <v>2500</v>
+      </c>
+      <c r="K52" s="3">
         <v>1600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>8700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>4700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>4600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>5600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>10400</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Q52" s="3" t="s">
         <v>16</v>
       </c>
@@ -3109,8 +3229,11 @@
       <c r="U52" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3168,50 +3291,53 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2644800</v>
+        <v>2663500</v>
       </c>
       <c r="E54" s="3">
-        <v>2775100</v>
+        <v>2728800</v>
       </c>
       <c r="F54" s="3">
-        <v>2934100</v>
+        <v>2863200</v>
       </c>
       <c r="G54" s="3">
-        <v>2798700</v>
+        <v>3027200</v>
       </c>
       <c r="H54" s="3">
-        <v>1716200</v>
+        <v>2887600</v>
       </c>
       <c r="I54" s="3">
-        <v>1650900</v>
+        <v>1770700</v>
       </c>
       <c r="J54" s="3">
+        <v>1703300</v>
+      </c>
+      <c r="K54" s="3">
         <v>1660500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1740500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1520500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1062600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>928800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>879300</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Q54" s="3" t="s">
         <v>16</v>
       </c>
@@ -3227,8 +3353,11 @@
       <c r="U54" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V54" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3250,8 +3379,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3273,50 +3403,51 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>335400</v>
+        <v>352500</v>
       </c>
       <c r="E57" s="3">
-        <v>359200</v>
+        <v>346000</v>
       </c>
       <c r="F57" s="3">
-        <v>409100</v>
+        <v>370600</v>
       </c>
       <c r="G57" s="3">
-        <v>438700</v>
+        <v>422000</v>
       </c>
       <c r="H57" s="3">
-        <v>369100</v>
+        <v>452700</v>
       </c>
       <c r="I57" s="3">
-        <v>320500</v>
+        <v>380900</v>
       </c>
       <c r="J57" s="3">
+        <v>330700</v>
+      </c>
+      <c r="K57" s="3">
         <v>286400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>290900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>255800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>291700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>193200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>191300</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Q57" s="3" t="s">
         <v>16</v>
       </c>
@@ -3332,50 +3463,53 @@
       <c r="U57" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>176300</v>
+        <v>149500</v>
       </c>
       <c r="E58" s="3">
-        <v>207600</v>
+        <v>181900</v>
       </c>
       <c r="F58" s="3">
-        <v>187700</v>
+        <v>214200</v>
       </c>
       <c r="G58" s="3">
-        <v>125500</v>
+        <v>193600</v>
       </c>
       <c r="H58" s="3">
-        <v>92500</v>
+        <v>129500</v>
       </c>
       <c r="I58" s="3">
-        <v>62900</v>
+        <v>95400</v>
       </c>
       <c r="J58" s="3">
+        <v>64900</v>
+      </c>
+      <c r="K58" s="3">
         <v>49100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>58800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>33700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>15800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>31500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>29200</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Q58" s="3" t="s">
         <v>16</v>
       </c>
@@ -3391,50 +3525,53 @@
       <c r="U58" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>517600</v>
+        <v>532200</v>
       </c>
       <c r="E59" s="3">
-        <v>392700</v>
+        <v>534000</v>
       </c>
       <c r="F59" s="3">
-        <v>449500</v>
+        <v>405200</v>
       </c>
       <c r="G59" s="3">
-        <v>261200</v>
+        <v>463800</v>
       </c>
       <c r="H59" s="3">
-        <v>109500</v>
+        <v>269500</v>
       </c>
       <c r="I59" s="3">
-        <v>113700</v>
+        <v>113000</v>
       </c>
       <c r="J59" s="3">
+        <v>117300</v>
+      </c>
+      <c r="K59" s="3">
         <v>146900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>135000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>151800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>170800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>148000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>106900</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Q59" s="3" t="s">
         <v>16</v>
       </c>
@@ -3450,50 +3587,53 @@
       <c r="U59" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1029200</v>
+        <v>1034300</v>
       </c>
       <c r="E60" s="3">
-        <v>959500</v>
+        <v>1061900</v>
       </c>
       <c r="F60" s="3">
-        <v>1046200</v>
+        <v>990000</v>
       </c>
       <c r="G60" s="3">
-        <v>825500</v>
+        <v>1079400</v>
       </c>
       <c r="H60" s="3">
-        <v>571100</v>
+        <v>851700</v>
       </c>
       <c r="I60" s="3">
-        <v>497100</v>
+        <v>589200</v>
       </c>
       <c r="J60" s="3">
+        <v>512900</v>
+      </c>
+      <c r="K60" s="3">
         <v>482400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>484700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>441200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>478300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>372600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>327400</v>
       </c>
-      <c r="P60" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Q60" s="3" t="s">
         <v>16</v>
       </c>
@@ -3509,28 +3649,31 @@
       <c r="U60" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>49300</v>
+        <v>70100</v>
       </c>
       <c r="E61" s="3">
-        <v>57600</v>
+        <v>50900</v>
       </c>
       <c r="F61" s="3">
-        <v>65800</v>
+        <v>59500</v>
       </c>
       <c r="G61" s="3">
-        <v>59300</v>
+        <v>67900</v>
       </c>
       <c r="H61" s="3">
-        <v>30800</v>
+        <v>61100</v>
       </c>
       <c r="I61" s="3">
-        <v>0</v>
+        <v>31800</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -3539,20 +3682,20 @@
         <v>0</v>
       </c>
       <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
         <v>11000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>11700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>11400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>19100</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
       <c r="Q61" s="3">
         <v>0</v>
       </c>
@@ -3568,50 +3711,53 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>74800</v>
+        <v>78200</v>
       </c>
       <c r="E62" s="3">
-        <v>224400</v>
+        <v>77100</v>
       </c>
       <c r="F62" s="3">
-        <v>222300</v>
+        <v>231600</v>
       </c>
       <c r="G62" s="3">
-        <v>235100</v>
+        <v>229300</v>
       </c>
       <c r="H62" s="3">
-        <v>28100</v>
+        <v>242500</v>
       </c>
       <c r="I62" s="3">
-        <v>33100</v>
+        <v>29000</v>
       </c>
       <c r="J62" s="3">
+        <v>34100</v>
+      </c>
+      <c r="K62" s="3">
         <v>31100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>36700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>30300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>34900</v>
       </c>
-      <c r="N62" s="3">
-        <v>0</v>
-      </c>
       <c r="O62" s="3">
+        <v>0</v>
+      </c>
+      <c r="P62" s="3">
         <v>800</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Q62" s="3" t="s">
         <v>16</v>
       </c>
@@ -3627,8 +3773,11 @@
       <c r="U62" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3686,8 +3835,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3745,8 +3897,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3804,50 +3959,53 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1274700</v>
+        <v>1306600</v>
       </c>
       <c r="E66" s="3">
-        <v>1364300</v>
+        <v>1315200</v>
       </c>
       <c r="F66" s="3">
-        <v>1458000</v>
+        <v>1407700</v>
       </c>
       <c r="G66" s="3">
-        <v>1258200</v>
+        <v>1504300</v>
       </c>
       <c r="H66" s="3">
-        <v>633900</v>
+        <v>1298100</v>
       </c>
       <c r="I66" s="3">
-        <v>530400</v>
+        <v>654000</v>
       </c>
       <c r="J66" s="3">
+        <v>547200</v>
+      </c>
+      <c r="K66" s="3">
         <v>513500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>521400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>482500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>524900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>384100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>347400</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Q66" s="3" t="s">
         <v>16</v>
       </c>
@@ -3863,8 +4021,11 @@
       <c r="U66" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V66" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3886,8 +4047,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3945,8 +4107,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4004,8 +4169,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4037,17 +4205,17 @@
         <v>0</v>
       </c>
       <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3">
         <v>1264000</v>
       </c>
-      <c r="N70" s="3">
+      <c r="O70" s="3">
         <v>1209900</v>
       </c>
-      <c r="O70" s="3">
+      <c r="P70" s="3">
         <v>1150100</v>
       </c>
-      <c r="P70" s="3">
-        <v>0</v>
-      </c>
       <c r="Q70" s="3">
         <v>0</v>
       </c>
@@ -4063,8 +4231,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4122,50 +4293,53 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-1227000</v>
+        <v>-1379900</v>
       </c>
       <c r="E72" s="3">
-        <v>-1115300</v>
+        <v>-1266000</v>
       </c>
       <c r="F72" s="3">
-        <v>-1038300</v>
+        <v>-1150700</v>
       </c>
       <c r="G72" s="3">
-        <v>-971700</v>
+        <v>-1071200</v>
       </c>
       <c r="H72" s="3">
-        <v>-901000</v>
+        <v>-1002600</v>
       </c>
       <c r="I72" s="3">
-        <v>-870300</v>
+        <v>-929600</v>
       </c>
       <c r="J72" s="3">
+        <v>-898000</v>
+      </c>
+      <c r="K72" s="3">
         <v>-816300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-841000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-833100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-825600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-754800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-717900</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Q72" s="3" t="s">
         <v>16</v>
       </c>
@@ -4181,8 +4355,11 @@
       <c r="U72" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V72" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4240,8 +4417,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4299,8 +4479,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4358,50 +4541,53 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1370200</v>
+        <v>1356800</v>
       </c>
       <c r="E76" s="3">
-        <v>1410700</v>
+        <v>1413700</v>
       </c>
       <c r="F76" s="3">
-        <v>1476100</v>
+        <v>1455500</v>
       </c>
       <c r="G76" s="3">
-        <v>1540500</v>
+        <v>1522900</v>
       </c>
       <c r="H76" s="3">
-        <v>1082400</v>
+        <v>1589500</v>
       </c>
       <c r="I76" s="3">
-        <v>1120500</v>
+        <v>1116700</v>
       </c>
       <c r="J76" s="3">
+        <v>1156100</v>
+      </c>
+      <c r="K76" s="3">
         <v>1147000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1219100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1038000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-726300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-665300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-618200</v>
       </c>
-      <c r="P76" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Q76" s="3" t="s">
         <v>16</v>
       </c>
@@ -4417,8 +4603,11 @@
       <c r="U76" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V76" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4476,131 +4665,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-111800</v>
+        <v>-113900</v>
       </c>
       <c r="E81" s="3">
-        <v>-77000</v>
+        <v>-115300</v>
       </c>
       <c r="F81" s="3">
-        <v>-66500</v>
+        <v>-79500</v>
       </c>
       <c r="G81" s="3">
-        <v>-70700</v>
+        <v>-68600</v>
       </c>
       <c r="H81" s="3">
-        <v>-30700</v>
+        <v>-73000</v>
       </c>
       <c r="I81" s="3">
-        <v>-53200</v>
+        <v>-31600</v>
       </c>
       <c r="J81" s="3">
+        <v>-54900</v>
+      </c>
+      <c r="K81" s="3">
         <v>-14600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-15400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-61900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-55400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-44500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-54000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-48800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-30600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-42300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-147200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-33400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-23500</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4622,8 +4820,9 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4654,35 +4853,38 @@
       <c r="L83" s="3">
         <v>0</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N83" s="3">
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+      <c r="N83" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O83" s="3">
         <v>26900</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="P83" s="3" t="s">
         <v>16</v>
       </c>
       <c r="Q83" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R83" s="3">
+      <c r="R83" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S83" s="3">
         <v>19100</v>
       </c>
-      <c r="S83" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="T83" s="3" t="s">
         <v>16</v>
       </c>
       <c r="U83" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4740,8 +4942,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4799,8 +5004,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4858,8 +5066,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4917,8 +5128,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4976,67 +5190,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>135000</v>
+        <v>14500</v>
       </c>
       <c r="E89" s="3">
-        <v>-87100</v>
+        <v>49300</v>
       </c>
       <c r="F89" s="3">
-        <v>5300</v>
+        <v>-89900</v>
       </c>
       <c r="G89" s="3">
-        <v>1900</v>
+        <v>5500</v>
       </c>
       <c r="H89" s="3">
-        <v>-36700</v>
+        <v>2000</v>
       </c>
       <c r="I89" s="3">
-        <v>-69200</v>
+        <v>-37900</v>
       </c>
       <c r="J89" s="3">
+        <v>-71400</v>
+      </c>
+      <c r="K89" s="3">
         <v>-38700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-15100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>14800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-23900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-19600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-23400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>7600</v>
       </c>
-      <c r="S89" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="T89" s="3" t="s">
         <v>16</v>
       </c>
       <c r="U89" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V89" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5058,8 +5278,9 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5090,35 +5311,38 @@
       <c r="L91" s="3">
         <v>0</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N91" s="3">
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O91" s="3">
         <v>-48000</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="P91" s="3" t="s">
         <v>16</v>
       </c>
       <c r="Q91" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R91" s="3">
+      <c r="R91" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S91" s="3">
         <v>-46800</v>
       </c>
-      <c r="S91" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="T91" s="3" t="s">
         <v>16</v>
       </c>
       <c r="U91" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5176,8 +5400,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5235,67 +5462,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-29000</v>
+        <v>46500</v>
       </c>
       <c r="E94" s="3">
-        <v>-73000</v>
+        <v>-105200</v>
       </c>
       <c r="F94" s="3">
-        <v>-31500</v>
+        <v>-75400</v>
       </c>
       <c r="G94" s="3">
-        <v>13800</v>
+        <v>-32500</v>
       </c>
       <c r="H94" s="3">
-        <v>-7800</v>
+        <v>14300</v>
       </c>
       <c r="I94" s="3">
-        <v>-33200</v>
+        <v>-8100</v>
       </c>
       <c r="J94" s="3">
+        <v>-34200</v>
+      </c>
+      <c r="K94" s="3">
         <v>-43000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-151400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-393900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-46500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>12000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>22900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>57500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>42500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>69000</v>
       </c>
-      <c r="S94" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="T94" s="3" t="s">
         <v>16</v>
       </c>
       <c r="U94" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5317,8 +5550,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5376,8 +5610,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5435,8 +5672,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5494,8 +5734,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5553,181 +5796,193 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-57100</v>
+        <v>-18800</v>
       </c>
       <c r="E100" s="3">
-        <v>13600</v>
+        <v>-44900</v>
       </c>
       <c r="F100" s="3">
-        <v>151000</v>
+        <v>14000</v>
       </c>
       <c r="G100" s="3">
-        <v>73200</v>
+        <v>155800</v>
       </c>
       <c r="H100" s="3">
-        <v>69900</v>
+        <v>75600</v>
       </c>
       <c r="I100" s="3">
-        <v>13800</v>
+        <v>72200</v>
       </c>
       <c r="J100" s="3">
+        <v>14200</v>
+      </c>
+      <c r="K100" s="3">
         <v>29000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>258500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>590500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>21900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>47600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-40700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>3200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-32400</v>
       </c>
-      <c r="S100" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="T100" s="3" t="s">
         <v>16</v>
       </c>
       <c r="U100" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V100" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>16300</v>
+        <v>19500</v>
       </c>
       <c r="E101" s="3">
-        <v>-2900</v>
+        <v>13800</v>
       </c>
       <c r="F101" s="3">
-        <v>-4800</v>
+        <v>-3000</v>
       </c>
       <c r="G101" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="H101" s="3">
         <v>100</v>
       </c>
-      <c r="H101" s="3">
-        <v>-3000</v>
-      </c>
       <c r="I101" s="3">
-        <v>700</v>
+        <v>-3100</v>
       </c>
       <c r="J101" s="3">
+        <v>800</v>
+      </c>
+      <c r="K101" s="3">
         <v>-8800</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-10700</v>
-      </c>
-      <c r="L101" s="3">
-        <v>1400</v>
       </c>
       <c r="M101" s="3">
         <v>1400</v>
       </c>
       <c r="N101" s="3">
+        <v>1400</v>
+      </c>
+      <c r="O101" s="3">
         <v>7700</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-4100</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>700</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-3100</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-200</v>
       </c>
-      <c r="S101" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="T101" s="3" t="s">
         <v>16</v>
       </c>
       <c r="U101" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>65200</v>
+        <v>61700</v>
       </c>
       <c r="E102" s="3">
-        <v>-149500</v>
+        <v>-87000</v>
       </c>
       <c r="F102" s="3">
-        <v>120000</v>
+        <v>-154300</v>
       </c>
       <c r="G102" s="3">
-        <v>89100</v>
+        <v>123800</v>
       </c>
       <c r="H102" s="3">
-        <v>22400</v>
+        <v>91900</v>
       </c>
       <c r="I102" s="3">
-        <v>-87900</v>
+        <v>23100</v>
       </c>
       <c r="J102" s="3">
+        <v>-90700</v>
+      </c>
+      <c r="K102" s="3">
         <v>-61500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>81200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>197600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-8400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>43400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>17200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>19200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>44000</v>
       </c>
-      <c r="S102" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="T102" s="3" t="s">
         <v>16</v>
       </c>
       <c r="U102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="V102" s="3" t="s">
         <v>16</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KC_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,283 +665,295 @@
     <col min="1" max="1" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>282800</v>
+        <v>302900</v>
       </c>
       <c r="E8" s="3">
-        <v>273800</v>
+        <v>279900</v>
       </c>
       <c r="F8" s="3">
-        <v>312200</v>
+        <v>271000</v>
       </c>
       <c r="G8" s="3">
-        <v>382000</v>
+        <v>309000</v>
       </c>
       <c r="H8" s="3">
-        <v>346700</v>
+        <v>378100</v>
       </c>
       <c r="I8" s="3">
-        <v>312200</v>
+        <v>343100</v>
       </c>
       <c r="J8" s="3">
+        <v>309000</v>
+      </c>
+      <c r="K8" s="3">
         <v>260500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>267600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>252500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>226200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>219400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>180700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>154300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>142900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>128700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>105200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>83900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>64300</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>60900</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>265200</v>
+        <v>279900</v>
       </c>
       <c r="E9" s="3">
-        <v>264400</v>
+        <v>262500</v>
       </c>
       <c r="F9" s="3">
-        <v>300700</v>
+        <v>261700</v>
       </c>
       <c r="G9" s="3">
-        <v>378000</v>
+        <v>297600</v>
       </c>
       <c r="H9" s="3">
-        <v>334000</v>
+        <v>374100</v>
       </c>
       <c r="I9" s="3">
-        <v>295200</v>
+        <v>330600</v>
       </c>
       <c r="J9" s="3">
+        <v>292100</v>
+      </c>
+      <c r="K9" s="3">
         <v>243700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>254800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>236000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>214300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>208300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>172400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>151400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>146000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>135500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>114200</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>92300</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>68900</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>67200</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>17600</v>
+        <v>23000</v>
       </c>
       <c r="E10" s="3">
-        <v>9400</v>
+        <v>17400</v>
       </c>
       <c r="F10" s="3">
-        <v>11500</v>
+        <v>9300</v>
       </c>
       <c r="G10" s="3">
+        <v>11400</v>
+      </c>
+      <c r="H10" s="3">
         <v>4000</v>
       </c>
-      <c r="H10" s="3">
-        <v>12700</v>
-      </c>
       <c r="I10" s="3">
-        <v>17000</v>
+        <v>12600</v>
       </c>
       <c r="J10" s="3">
+        <v>16800</v>
+      </c>
+      <c r="K10" s="3">
         <v>16700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>12900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>16500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>11900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>11200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>8400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>2900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>-3100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>-6900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>-9000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>-8400</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>-4600</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>-6300</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -964,70 +976,74 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>35600</v>
+        <v>36300</v>
       </c>
       <c r="E12" s="3">
-        <v>31700</v>
+        <v>35300</v>
       </c>
       <c r="F12" s="3">
-        <v>35400</v>
+        <v>31400</v>
       </c>
       <c r="G12" s="3">
-        <v>40000</v>
+        <v>35100</v>
       </c>
       <c r="H12" s="3">
-        <v>38600</v>
+        <v>39500</v>
       </c>
       <c r="I12" s="3">
-        <v>33400</v>
+        <v>38200</v>
       </c>
       <c r="J12" s="3">
+        <v>33000</v>
+      </c>
+      <c r="K12" s="3">
         <v>38000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>25200</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>24500</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>34000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>30900</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>26400</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>24000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>21900</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>18900</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>17300</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>17200</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>13300</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>14600</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1088,8 +1104,11 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1150,8 +1169,11 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1212,8 +1234,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1233,132 +1258,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>355200</v>
+        <v>397100</v>
       </c>
       <c r="E17" s="3">
-        <v>353100</v>
+        <v>351500</v>
       </c>
       <c r="F17" s="3">
-        <v>388700</v>
+        <v>349500</v>
       </c>
       <c r="G17" s="3">
-        <v>478300</v>
+        <v>384800</v>
       </c>
       <c r="H17" s="3">
-        <v>414000</v>
+        <v>473400</v>
       </c>
       <c r="I17" s="3">
-        <v>358200</v>
+        <v>409800</v>
       </c>
       <c r="J17" s="3">
+        <v>354500</v>
+      </c>
+      <c r="K17" s="3">
         <v>311000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>301800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>287900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>289600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>265000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>227300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>197400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>189200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>167800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>149900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>121600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>91700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>89800</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-72400</v>
+        <v>-94200</v>
       </c>
       <c r="E18" s="3">
-        <v>-79300</v>
+        <v>-71700</v>
       </c>
       <c r="F18" s="3">
-        <v>-76500</v>
+        <v>-78500</v>
       </c>
       <c r="G18" s="3">
-        <v>-96300</v>
+        <v>-75700</v>
       </c>
       <c r="H18" s="3">
-        <v>-67400</v>
+        <v>-95300</v>
       </c>
       <c r="I18" s="3">
-        <v>-46000</v>
+        <v>-66700</v>
       </c>
       <c r="J18" s="3">
+        <v>-45600</v>
+      </c>
+      <c r="K18" s="3">
         <v>-50600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-34200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-35500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-63400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-45600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-46600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-43100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-46400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-39200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-44700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-37700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-27400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-28900</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1381,276 +1413,289 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>-34700</v>
+        <v>26200</v>
       </c>
       <c r="E20" s="3">
-        <v>-32700</v>
+        <v>-34400</v>
       </c>
       <c r="F20" s="3">
+        <v>-32400</v>
+      </c>
+      <c r="G20" s="3">
         <v>1500</v>
       </c>
-      <c r="G20" s="3">
-        <v>31600</v>
-      </c>
       <c r="H20" s="3">
+        <v>31200</v>
+      </c>
+      <c r="I20" s="3">
         <v>-2600</v>
       </c>
-      <c r="I20" s="3">
-        <v>15800</v>
-      </c>
       <c r="J20" s="3">
+        <v>15600</v>
+      </c>
+      <c r="K20" s="3">
         <v>-3300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>20200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>21200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>2000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-5500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>10000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-10500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-1900</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>9400</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>4000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-3900</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-4200</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>-106700</v>
+        <v>-69100</v>
       </c>
       <c r="E21" s="3">
-        <v>-111500</v>
+        <v>-105600</v>
       </c>
       <c r="F21" s="3">
-        <v>-33700</v>
+        <v>-110400</v>
       </c>
       <c r="G21" s="3">
-        <v>-57700</v>
+        <v>-33400</v>
       </c>
       <c r="H21" s="3">
-        <v>-65800</v>
+        <v>-57100</v>
       </c>
       <c r="I21" s="3">
-        <v>-29000</v>
+        <v>-65100</v>
       </c>
       <c r="J21" s="3">
+        <v>-28700</v>
+      </c>
+      <c r="K21" s="3">
         <v>-27900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-12000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-23000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-59500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-18500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-9600</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Q21" s="3" t="s">
         <v>16</v>
       </c>
       <c r="R21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="S21" s="3">
+      <c r="S21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="T21" s="3">
         <v>-21600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-2300</v>
       </c>
-      <c r="U21" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="V21" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W21" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E22" s="3">
         <v>5400</v>
-      </c>
-      <c r="E22" s="3">
-        <v>4900</v>
       </c>
       <c r="F22" s="3">
         <v>4900</v>
       </c>
       <c r="G22" s="3">
+        <v>4800</v>
+      </c>
+      <c r="H22" s="3">
         <v>3900</v>
       </c>
-      <c r="H22" s="3">
-        <v>2100</v>
-      </c>
       <c r="I22" s="3">
+        <v>2000</v>
+      </c>
+      <c r="J22" s="3">
         <v>1000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>600</v>
-      </c>
-      <c r="M22" s="3">
-        <v>300</v>
       </c>
       <c r="N22" s="3">
         <v>300</v>
       </c>
       <c r="O22" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="P22" s="3">
         <v>0</v>
       </c>
       <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
         <v>300</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>400</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>1200</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>1300</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>1500</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-112600</v>
+        <v>-72400</v>
       </c>
       <c r="E23" s="3">
-        <v>-116900</v>
+        <v>-111400</v>
       </c>
       <c r="F23" s="3">
-        <v>-79900</v>
+        <v>-115700</v>
       </c>
       <c r="G23" s="3">
-        <v>-68700</v>
+        <v>-79100</v>
       </c>
       <c r="H23" s="3">
-        <v>-72100</v>
+        <v>-68000</v>
       </c>
       <c r="I23" s="3">
-        <v>-31200</v>
+        <v>-71300</v>
       </c>
       <c r="J23" s="3">
+        <v>-30900</v>
+      </c>
+      <c r="K23" s="3">
         <v>-54400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-14200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-14800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-61600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-51400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-36600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-53600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-48600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-30200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-41900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-42900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-33100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-23200</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E24" s="3">
         <v>2500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>700</v>
-      </c>
-      <c r="I24" s="3">
-        <v>500</v>
       </c>
       <c r="J24" s="3">
         <v>500</v>
@@ -1659,25 +1704,25 @@
         <v>500</v>
       </c>
       <c r="L24" s="3">
+        <v>500</v>
+      </c>
+      <c r="M24" s="3">
         <v>600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>300</v>
-      </c>
-      <c r="R24" s="3">
-        <v>400</v>
       </c>
       <c r="S24" s="3">
         <v>400</v>
@@ -1686,13 +1731,16 @@
         <v>400</v>
       </c>
       <c r="U24" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="V24" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1753,132 +1801,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-115100</v>
+        <v>-74200</v>
       </c>
       <c r="E26" s="3">
-        <v>-116400</v>
+        <v>-113900</v>
       </c>
       <c r="F26" s="3">
-        <v>-79700</v>
+        <v>-115200</v>
       </c>
       <c r="G26" s="3">
-        <v>-69300</v>
+        <v>-78900</v>
       </c>
       <c r="H26" s="3">
-        <v>-72800</v>
+        <v>-68500</v>
       </c>
       <c r="I26" s="3">
-        <v>-31700</v>
+        <v>-72000</v>
       </c>
       <c r="J26" s="3">
+        <v>-31400</v>
+      </c>
+      <c r="K26" s="3">
         <v>-54900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-14600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-15400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-61900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-52300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-36900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-54000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-48800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-30600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-42300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-43200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-33400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-23500</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-113900</v>
+        <v>-72300</v>
       </c>
       <c r="E27" s="3">
-        <v>-115300</v>
+        <v>-112700</v>
       </c>
       <c r="F27" s="3">
-        <v>-79500</v>
+        <v>-114100</v>
       </c>
       <c r="G27" s="3">
-        <v>-68600</v>
+        <v>-78600</v>
       </c>
       <c r="H27" s="3">
-        <v>-73000</v>
+        <v>-67900</v>
       </c>
       <c r="I27" s="3">
-        <v>-31600</v>
+        <v>-72200</v>
       </c>
       <c r="J27" s="3">
+        <v>-31300</v>
+      </c>
+      <c r="K27" s="3">
         <v>-54900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-14600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-15400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-61900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-55400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-44500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-54000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-48800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-30600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-42300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-147200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-33400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-23500</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1939,8 +1996,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2001,8 +2061,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2063,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2125,132 +2191,141 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>34700</v>
+        <v>-26200</v>
       </c>
       <c r="E32" s="3">
-        <v>32700</v>
+        <v>34400</v>
       </c>
       <c r="F32" s="3">
+        <v>32400</v>
+      </c>
+      <c r="G32" s="3">
         <v>-1500</v>
       </c>
-      <c r="G32" s="3">
-        <v>-31600</v>
-      </c>
       <c r="H32" s="3">
+        <v>-31200</v>
+      </c>
+      <c r="I32" s="3">
         <v>2600</v>
       </c>
-      <c r="I32" s="3">
-        <v>-15800</v>
-      </c>
       <c r="J32" s="3">
+        <v>-15600</v>
+      </c>
+      <c r="K32" s="3">
         <v>3300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-20200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-21200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-2000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>5500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-10000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>10500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>1900</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-9400</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-4000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>3900</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>4200</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-7200</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-113900</v>
+        <v>-72300</v>
       </c>
       <c r="E33" s="3">
-        <v>-115300</v>
+        <v>-112700</v>
       </c>
       <c r="F33" s="3">
-        <v>-79500</v>
+        <v>-114100</v>
       </c>
       <c r="G33" s="3">
-        <v>-68600</v>
+        <v>-78600</v>
       </c>
       <c r="H33" s="3">
-        <v>-73000</v>
+        <v>-67900</v>
       </c>
       <c r="I33" s="3">
-        <v>-31600</v>
+        <v>-72200</v>
       </c>
       <c r="J33" s="3">
+        <v>-31300</v>
+      </c>
+      <c r="K33" s="3">
         <v>-54900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-14600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-15400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-61900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-55400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-44500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-54000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-48800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-30600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-42300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-147200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-33400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-23500</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2311,137 +2386,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-113900</v>
+        <v>-72300</v>
       </c>
       <c r="E35" s="3">
-        <v>-115300</v>
+        <v>-112700</v>
       </c>
       <c r="F35" s="3">
-        <v>-79500</v>
+        <v>-114100</v>
       </c>
       <c r="G35" s="3">
-        <v>-68600</v>
+        <v>-78600</v>
       </c>
       <c r="H35" s="3">
-        <v>-73000</v>
+        <v>-67900</v>
       </c>
       <c r="I35" s="3">
-        <v>-31600</v>
+        <v>-72200</v>
       </c>
       <c r="J35" s="3">
+        <v>-31300</v>
+      </c>
+      <c r="K35" s="3">
         <v>-54900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-14600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-15400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-61900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-55400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-44500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-54000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-48800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-30600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-42300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-147200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-33400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-23500</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2464,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2488,53 +2573,54 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>454300</v>
+        <v>486000</v>
       </c>
       <c r="E41" s="3">
-        <v>392400</v>
+        <v>449700</v>
       </c>
       <c r="F41" s="3">
-        <v>462400</v>
+        <v>388400</v>
       </c>
       <c r="G41" s="3">
-        <v>605700</v>
+        <v>457600</v>
       </c>
       <c r="H41" s="3">
-        <v>494700</v>
+        <v>599500</v>
       </c>
       <c r="I41" s="3">
-        <v>424300</v>
+        <v>489600</v>
       </c>
       <c r="J41" s="3">
+        <v>420000</v>
+      </c>
+      <c r="K41" s="3">
         <v>401200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>476700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>564600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>487800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>310800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>311500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>268200</v>
       </c>
-      <c r="Q41" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="R41" s="3" t="s">
         <v>16</v>
       </c>
@@ -2550,53 +2636,56 @@
       <c r="V41" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W41" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>311000</v>
+        <v>178200</v>
       </c>
       <c r="E42" s="3">
-        <v>376200</v>
+        <v>307900</v>
       </c>
       <c r="F42" s="3">
-        <v>342500</v>
+        <v>372400</v>
       </c>
       <c r="G42" s="3">
-        <v>357800</v>
+        <v>339000</v>
       </c>
       <c r="H42" s="3">
-        <v>366300</v>
+        <v>354100</v>
       </c>
       <c r="I42" s="3">
-        <v>362000</v>
+        <v>362600</v>
       </c>
       <c r="J42" s="3">
+        <v>358300</v>
+      </c>
+      <c r="K42" s="3">
         <v>382400</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>374900</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>427900</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>361500</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>36100</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>34700</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>118500</v>
       </c>
-      <c r="Q42" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="R42" s="3" t="s">
         <v>16</v>
       </c>
@@ -2612,53 +2701,56 @@
       <c r="V42" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>421200</v>
+        <v>376500</v>
       </c>
       <c r="E43" s="3">
-        <v>464000</v>
+        <v>416900</v>
       </c>
       <c r="F43" s="3">
-        <v>551000</v>
+        <v>459300</v>
       </c>
       <c r="G43" s="3">
-        <v>542600</v>
+        <v>545400</v>
       </c>
       <c r="H43" s="3">
-        <v>675200</v>
+        <v>537100</v>
       </c>
       <c r="I43" s="3">
-        <v>527400</v>
+        <v>668300</v>
       </c>
       <c r="J43" s="3">
+        <v>522000</v>
+      </c>
+      <c r="K43" s="3">
         <v>424200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>353600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>314600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>258500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>294900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>227800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>210400</v>
       </c>
-      <c r="Q43" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="R43" s="3" t="s">
         <v>16</v>
       </c>
@@ -2674,8 +2766,11 @@
       <c r="V43" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2736,53 +2831,56 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>255200</v>
+        <v>245400</v>
       </c>
       <c r="E45" s="3">
-        <v>249700</v>
+        <v>252600</v>
       </c>
       <c r="F45" s="3">
-        <v>263100</v>
+        <v>247100</v>
       </c>
       <c r="G45" s="3">
-        <v>276600</v>
+        <v>260400</v>
       </c>
       <c r="H45" s="3">
-        <v>183600</v>
+        <v>273800</v>
       </c>
       <c r="I45" s="3">
-        <v>118700</v>
+        <v>181700</v>
       </c>
       <c r="J45" s="3">
+        <v>117500</v>
+      </c>
+      <c r="K45" s="3">
         <v>141100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>123500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>80800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>78700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>78500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>65000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>59100</v>
       </c>
-      <c r="Q45" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="R45" s="3" t="s">
         <v>16</v>
       </c>
@@ -2798,53 +2896,56 @@
       <c r="V45" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1441800</v>
+        <v>1286200</v>
       </c>
       <c r="E46" s="3">
-        <v>1482300</v>
+        <v>1427000</v>
       </c>
       <c r="F46" s="3">
-        <v>1619000</v>
+        <v>1467200</v>
       </c>
       <c r="G46" s="3">
-        <v>1782700</v>
+        <v>1602400</v>
       </c>
       <c r="H46" s="3">
-        <v>1719800</v>
+        <v>1764500</v>
       </c>
       <c r="I46" s="3">
-        <v>1432400</v>
+        <v>1702200</v>
       </c>
       <c r="J46" s="3">
+        <v>1417800</v>
+      </c>
+      <c r="K46" s="3">
         <v>1348900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1328600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1388000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1186600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>720300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>639000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>656100</v>
       </c>
-      <c r="Q46" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="R46" s="3" t="s">
         <v>16</v>
       </c>
@@ -2860,53 +2961,56 @@
       <c r="V46" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>35300</v>
+        <v>39700</v>
       </c>
       <c r="E47" s="3">
-        <v>39600</v>
+        <v>35000</v>
       </c>
       <c r="F47" s="3">
-        <v>31200</v>
+        <v>39200</v>
       </c>
       <c r="G47" s="3">
-        <v>30600</v>
+        <v>30900</v>
       </c>
       <c r="H47" s="3">
-        <v>13600</v>
+        <v>30300</v>
       </c>
       <c r="I47" s="3">
-        <v>13600</v>
+        <v>13400</v>
       </c>
       <c r="J47" s="3">
+        <v>13400</v>
+      </c>
+      <c r="K47" s="3">
         <v>19900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>18400</v>
-      </c>
-      <c r="L47" s="3">
-        <v>17900</v>
       </c>
       <c r="M47" s="3">
         <v>17900</v>
       </c>
       <c r="N47" s="3">
+        <v>17900</v>
+      </c>
+      <c r="O47" s="3">
         <v>19200</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>18000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>10400</v>
       </c>
-      <c r="Q47" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="R47" s="3" t="s">
         <v>16</v>
       </c>
@@ -2922,53 +3026,56 @@
       <c r="V47" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>369000</v>
+        <v>334600</v>
       </c>
       <c r="E48" s="3">
-        <v>384200</v>
+        <v>365200</v>
       </c>
       <c r="F48" s="3">
-        <v>385800</v>
+        <v>380200</v>
       </c>
       <c r="G48" s="3">
-        <v>376400</v>
+        <v>381900</v>
       </c>
       <c r="H48" s="3">
-        <v>332600</v>
+        <v>372500</v>
       </c>
       <c r="I48" s="3">
-        <v>302200</v>
+        <v>329200</v>
       </c>
       <c r="J48" s="3">
+        <v>299100</v>
+      </c>
+      <c r="K48" s="3">
         <v>319400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>309500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>323000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>310200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>317300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>265000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>201000</v>
       </c>
-      <c r="Q48" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="R48" s="3" t="s">
         <v>16</v>
       </c>
@@ -2984,53 +3091,56 @@
       <c r="V48" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>811600</v>
+        <v>798000</v>
       </c>
       <c r="E49" s="3">
-        <v>817500</v>
+        <v>803300</v>
       </c>
       <c r="F49" s="3">
-        <v>823200</v>
+        <v>809200</v>
       </c>
       <c r="G49" s="3">
-        <v>832300</v>
+        <v>814800</v>
       </c>
       <c r="H49" s="3">
-        <v>812100</v>
+        <v>823700</v>
       </c>
       <c r="I49" s="3">
-        <v>18100</v>
+        <v>803800</v>
       </c>
       <c r="J49" s="3">
+        <v>17900</v>
+      </c>
+      <c r="K49" s="3">
         <v>12700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2900</v>
-      </c>
-      <c r="M49" s="3">
-        <v>1200</v>
       </c>
       <c r="N49" s="3">
         <v>1200</v>
       </c>
       <c r="O49" s="3">
+        <v>1200</v>
+      </c>
+      <c r="P49" s="3">
         <v>1100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1300</v>
       </c>
-      <c r="Q49" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="R49" s="3" t="s">
         <v>16</v>
       </c>
@@ -3046,8 +3156,11 @@
       <c r="V49" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3108,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3170,53 +3286,56 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E52" s="3">
         <v>5700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
+        <v>5100</v>
+      </c>
+      <c r="G52" s="3">
+        <v>3900</v>
+      </c>
+      <c r="H52" s="3">
         <v>5200</v>
       </c>
-      <c r="F52" s="3">
-        <v>3900</v>
-      </c>
-      <c r="G52" s="3">
-        <v>5300</v>
-      </c>
-      <c r="H52" s="3">
-        <v>9500</v>
-      </c>
       <c r="I52" s="3">
+        <v>9400</v>
+      </c>
+      <c r="J52" s="3">
         <v>4400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>2500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>8700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>4700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>4600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>5600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>10400</v>
       </c>
-      <c r="Q52" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="R52" s="3" t="s">
         <v>16</v>
       </c>
@@ -3232,8 +3351,11 @@
       <c r="V52" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3294,53 +3416,56 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2663500</v>
+        <v>2461500</v>
       </c>
       <c r="E54" s="3">
-        <v>2728800</v>
+        <v>2636200</v>
       </c>
       <c r="F54" s="3">
-        <v>2863200</v>
+        <v>2700900</v>
       </c>
       <c r="G54" s="3">
-        <v>3027200</v>
+        <v>2833900</v>
       </c>
       <c r="H54" s="3">
-        <v>2887600</v>
+        <v>2996200</v>
       </c>
       <c r="I54" s="3">
-        <v>1770700</v>
+        <v>2858000</v>
       </c>
       <c r="J54" s="3">
+        <v>1752600</v>
+      </c>
+      <c r="K54" s="3">
         <v>1703300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1660500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1740500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1520500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1062600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>928800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>879300</v>
       </c>
-      <c r="Q54" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="R54" s="3" t="s">
         <v>16</v>
       </c>
@@ -3356,8 +3481,11 @@
       <c r="V54" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W54" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3380,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3404,53 +3533,54 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>352500</v>
+        <v>327200</v>
       </c>
       <c r="E57" s="3">
-        <v>346000</v>
+        <v>348900</v>
       </c>
       <c r="F57" s="3">
-        <v>370600</v>
+        <v>342500</v>
       </c>
       <c r="G57" s="3">
-        <v>422000</v>
+        <v>366800</v>
       </c>
       <c r="H57" s="3">
-        <v>452700</v>
+        <v>417700</v>
       </c>
       <c r="I57" s="3">
-        <v>380900</v>
+        <v>448000</v>
       </c>
       <c r="J57" s="3">
+        <v>377000</v>
+      </c>
+      <c r="K57" s="3">
         <v>330700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>286400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>290900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>255800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>291700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>193200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>191300</v>
       </c>
-      <c r="Q57" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="R57" s="3" t="s">
         <v>16</v>
       </c>
@@ -3466,53 +3596,56 @@
       <c r="V57" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>149500</v>
+        <v>129300</v>
       </c>
       <c r="E58" s="3">
-        <v>181900</v>
+        <v>148000</v>
       </c>
       <c r="F58" s="3">
-        <v>214200</v>
+        <v>180000</v>
       </c>
       <c r="G58" s="3">
-        <v>193600</v>
+        <v>212000</v>
       </c>
       <c r="H58" s="3">
-        <v>129500</v>
+        <v>191600</v>
       </c>
       <c r="I58" s="3">
-        <v>95400</v>
+        <v>128100</v>
       </c>
       <c r="J58" s="3">
+        <v>94400</v>
+      </c>
+      <c r="K58" s="3">
         <v>64900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>49100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>58800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>33700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>15800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>31500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>29200</v>
       </c>
-      <c r="Q58" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="R58" s="3" t="s">
         <v>16</v>
       </c>
@@ -3528,53 +3661,56 @@
       <c r="V58" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>532200</v>
+        <v>490000</v>
       </c>
       <c r="E59" s="3">
-        <v>534000</v>
+        <v>526800</v>
       </c>
       <c r="F59" s="3">
-        <v>405200</v>
+        <v>528500</v>
       </c>
       <c r="G59" s="3">
-        <v>463800</v>
+        <v>401000</v>
       </c>
       <c r="H59" s="3">
-        <v>269500</v>
+        <v>459000</v>
       </c>
       <c r="I59" s="3">
-        <v>113000</v>
+        <v>266800</v>
       </c>
       <c r="J59" s="3">
+        <v>111800</v>
+      </c>
+      <c r="K59" s="3">
         <v>117300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>146900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>135000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>151800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>170800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>148000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>106900</v>
       </c>
-      <c r="Q59" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="R59" s="3" t="s">
         <v>16</v>
       </c>
@@ -3590,53 +3726,56 @@
       <c r="V59" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1034300</v>
+        <v>946500</v>
       </c>
       <c r="E60" s="3">
-        <v>1061900</v>
+        <v>1023700</v>
       </c>
       <c r="F60" s="3">
-        <v>990000</v>
+        <v>1051000</v>
       </c>
       <c r="G60" s="3">
-        <v>1079400</v>
+        <v>979800</v>
       </c>
       <c r="H60" s="3">
-        <v>851700</v>
+        <v>1068400</v>
       </c>
       <c r="I60" s="3">
-        <v>589200</v>
+        <v>843000</v>
       </c>
       <c r="J60" s="3">
+        <v>583200</v>
+      </c>
+      <c r="K60" s="3">
         <v>512900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>482400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>484700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>441200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>478300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>372600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>327400</v>
       </c>
-      <c r="Q60" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="R60" s="3" t="s">
         <v>16</v>
       </c>
@@ -3652,31 +3791,34 @@
       <c r="V60" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>70100</v>
+        <v>58800</v>
       </c>
       <c r="E61" s="3">
-        <v>50900</v>
+        <v>69400</v>
       </c>
       <c r="F61" s="3">
-        <v>59500</v>
+        <v>50400</v>
       </c>
       <c r="G61" s="3">
-        <v>67900</v>
+        <v>58900</v>
       </c>
       <c r="H61" s="3">
-        <v>61100</v>
+        <v>67200</v>
       </c>
       <c r="I61" s="3">
-        <v>31800</v>
+        <v>60500</v>
       </c>
       <c r="J61" s="3">
-        <v>0</v>
+        <v>31500</v>
       </c>
       <c r="K61" s="3">
         <v>0</v>
@@ -3685,20 +3827,20 @@
         <v>0</v>
       </c>
       <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
         <v>11000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>11700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>11400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>19100</v>
       </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
       <c r="R61" s="3">
         <v>0</v>
       </c>
@@ -3714,53 +3856,56 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>78200</v>
+        <v>93900</v>
       </c>
       <c r="E62" s="3">
-        <v>77100</v>
+        <v>77400</v>
       </c>
       <c r="F62" s="3">
-        <v>231600</v>
+        <v>76300</v>
       </c>
       <c r="G62" s="3">
-        <v>229300</v>
+        <v>229200</v>
       </c>
       <c r="H62" s="3">
-        <v>242500</v>
+        <v>227000</v>
       </c>
       <c r="I62" s="3">
-        <v>29000</v>
+        <v>240100</v>
       </c>
       <c r="J62" s="3">
+        <v>28700</v>
+      </c>
+      <c r="K62" s="3">
         <v>34100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>31100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>36700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>30300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>34900</v>
       </c>
-      <c r="O62" s="3">
-        <v>0</v>
-      </c>
       <c r="P62" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="3">
         <v>800</v>
       </c>
-      <c r="Q62" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="R62" s="3" t="s">
         <v>16</v>
       </c>
@@ -3776,8 +3921,11 @@
       <c r="V62" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3838,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3900,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3962,53 +4116,56 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1306600</v>
+        <v>1210400</v>
       </c>
       <c r="E66" s="3">
-        <v>1315200</v>
+        <v>1293300</v>
       </c>
       <c r="F66" s="3">
-        <v>1407700</v>
+        <v>1301700</v>
       </c>
       <c r="G66" s="3">
-        <v>1504300</v>
+        <v>1393300</v>
       </c>
       <c r="H66" s="3">
-        <v>1298100</v>
+        <v>1488900</v>
       </c>
       <c r="I66" s="3">
-        <v>654000</v>
+        <v>1284800</v>
       </c>
       <c r="J66" s="3">
+        <v>647300</v>
+      </c>
+      <c r="K66" s="3">
         <v>547200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>513500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>521400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>482500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>524900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>384100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>347400</v>
       </c>
-      <c r="Q66" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="R66" s="3" t="s">
         <v>16</v>
       </c>
@@ -4024,8 +4181,11 @@
       <c r="V66" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W66" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4048,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4110,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4172,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4208,17 +4375,17 @@
         <v>0</v>
       </c>
       <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3">
         <v>1264000</v>
       </c>
-      <c r="O70" s="3">
+      <c r="P70" s="3">
         <v>1209900</v>
       </c>
-      <c r="P70" s="3">
+      <c r="Q70" s="3">
         <v>1150100</v>
       </c>
-      <c r="Q70" s="3">
-        <v>0</v>
-      </c>
       <c r="R70" s="3">
         <v>0</v>
       </c>
@@ -4234,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4296,53 +4466,56 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-1379900</v>
+        <v>-1438100</v>
       </c>
       <c r="E72" s="3">
-        <v>-1266000</v>
+        <v>-1365800</v>
       </c>
       <c r="F72" s="3">
-        <v>-1150700</v>
+        <v>-1253100</v>
       </c>
       <c r="G72" s="3">
-        <v>-1071200</v>
+        <v>-1138900</v>
       </c>
       <c r="H72" s="3">
-        <v>-1002600</v>
+        <v>-1060300</v>
       </c>
       <c r="I72" s="3">
-        <v>-929600</v>
+        <v>-992300</v>
       </c>
       <c r="J72" s="3">
+        <v>-920100</v>
+      </c>
+      <c r="K72" s="3">
         <v>-898000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-816300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-841000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-833100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-825600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-754800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-717900</v>
       </c>
-      <c r="Q72" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="R72" s="3" t="s">
         <v>16</v>
       </c>
@@ -4358,8 +4531,11 @@
       <c r="V72" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W72" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4420,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4482,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4544,53 +4726,56 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1356800</v>
+        <v>1251100</v>
       </c>
       <c r="E76" s="3">
-        <v>1413700</v>
+        <v>1343000</v>
       </c>
       <c r="F76" s="3">
-        <v>1455500</v>
+        <v>1399200</v>
       </c>
       <c r="G76" s="3">
-        <v>1522900</v>
+        <v>1440600</v>
       </c>
       <c r="H76" s="3">
-        <v>1589500</v>
+        <v>1507400</v>
       </c>
       <c r="I76" s="3">
-        <v>1116700</v>
+        <v>1573200</v>
       </c>
       <c r="J76" s="3">
+        <v>1105300</v>
+      </c>
+      <c r="K76" s="3">
         <v>1156100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1147000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1219100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1038000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-726300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-665300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-618200</v>
       </c>
-      <c r="Q76" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="R76" s="3" t="s">
         <v>16</v>
       </c>
@@ -4606,8 +4791,11 @@
       <c r="V76" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W76" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4668,137 +4856,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-113900</v>
+        <v>-72300</v>
       </c>
       <c r="E81" s="3">
-        <v>-115300</v>
+        <v>-112700</v>
       </c>
       <c r="F81" s="3">
-        <v>-79500</v>
+        <v>-114100</v>
       </c>
       <c r="G81" s="3">
-        <v>-68600</v>
+        <v>-78600</v>
       </c>
       <c r="H81" s="3">
-        <v>-73000</v>
+        <v>-67900</v>
       </c>
       <c r="I81" s="3">
-        <v>-31600</v>
+        <v>-72200</v>
       </c>
       <c r="J81" s="3">
+        <v>-31300</v>
+      </c>
+      <c r="K81" s="3">
         <v>-54900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-14600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-15400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-61900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-55400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-44500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-54000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-48800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-30600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-42300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-147200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-33400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-23500</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4821,8 +5018,9 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4856,35 +5054,38 @@
       <c r="M83" s="3">
         <v>0</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="O83" s="3">
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+      <c r="O83" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="P83" s="3">
         <v>26900</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Q83" s="3" t="s">
         <v>16</v>
       </c>
       <c r="R83" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="S83" s="3">
+      <c r="S83" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="T83" s="3">
         <v>19100</v>
       </c>
-      <c r="T83" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="U83" s="3" t="s">
         <v>16</v>
       </c>
       <c r="V83" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4945,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5007,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5069,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5131,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5193,70 +5406,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>14500</v>
+        <v>52700</v>
       </c>
       <c r="E89" s="3">
-        <v>49300</v>
+        <v>14300</v>
       </c>
       <c r="F89" s="3">
-        <v>-89900</v>
+        <v>48800</v>
       </c>
       <c r="G89" s="3">
-        <v>5500</v>
+        <v>-89000</v>
       </c>
       <c r="H89" s="3">
+        <v>5400</v>
+      </c>
+      <c r="I89" s="3">
         <v>2000</v>
       </c>
-      <c r="I89" s="3">
-        <v>-37900</v>
-      </c>
       <c r="J89" s="3">
+        <v>-37500</v>
+      </c>
+      <c r="K89" s="3">
         <v>-71400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-38700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-15100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>14800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-23900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-19600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-23400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>7600</v>
       </c>
-      <c r="T89" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="U89" s="3" t="s">
         <v>16</v>
       </c>
       <c r="V89" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W89" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5279,13 +5498,14 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-311900</v>
       </c>
       <c r="E91" s="3">
         <v>0</v>
@@ -5314,35 +5534,38 @@
       <c r="M91" s="3">
         <v>0</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="O91" s="3">
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="P91" s="3">
         <v>-48000</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Q91" s="3" t="s">
         <v>16</v>
       </c>
       <c r="R91" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="S91" s="3">
+      <c r="S91" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="T91" s="3">
         <v>-46800</v>
       </c>
-      <c r="T91" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="U91" s="3" t="s">
         <v>16</v>
       </c>
       <c r="V91" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5403,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5465,70 +5691,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>46500</v>
+        <v>128100</v>
       </c>
       <c r="E94" s="3">
-        <v>-105200</v>
+        <v>46000</v>
       </c>
       <c r="F94" s="3">
-        <v>-75400</v>
+        <v>-104200</v>
       </c>
       <c r="G94" s="3">
-        <v>-32500</v>
+        <v>-74600</v>
       </c>
       <c r="H94" s="3">
-        <v>14300</v>
+        <v>-32200</v>
       </c>
       <c r="I94" s="3">
-        <v>-8100</v>
+        <v>14100</v>
       </c>
       <c r="J94" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="K94" s="3">
         <v>-34200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-43000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-151400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-393900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-46500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>12000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>22900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>57500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>42500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>69000</v>
       </c>
-      <c r="T94" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="U94" s="3" t="s">
         <v>16</v>
       </c>
       <c r="V94" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5551,8 +5783,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5613,8 +5846,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5675,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5737,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5799,190 +6041,202 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-18800</v>
+        <v>-114700</v>
       </c>
       <c r="E100" s="3">
-        <v>-44900</v>
+        <v>-18600</v>
       </c>
       <c r="F100" s="3">
-        <v>14000</v>
+        <v>-44400</v>
       </c>
       <c r="G100" s="3">
-        <v>155800</v>
+        <v>13900</v>
       </c>
       <c r="H100" s="3">
-        <v>75600</v>
+        <v>154200</v>
       </c>
       <c r="I100" s="3">
-        <v>72200</v>
+        <v>74800</v>
       </c>
       <c r="J100" s="3">
+        <v>71400</v>
+      </c>
+      <c r="K100" s="3">
         <v>14200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>29000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>258500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>590500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>21900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>47600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-40700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>3200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-32400</v>
       </c>
-      <c r="T100" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="U100" s="3" t="s">
         <v>16</v>
       </c>
       <c r="V100" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W100" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>19500</v>
+        <v>-19500</v>
       </c>
       <c r="E101" s="3">
-        <v>13800</v>
+        <v>19300</v>
       </c>
       <c r="F101" s="3">
+        <v>13600</v>
+      </c>
+      <c r="G101" s="3">
         <v>-3000</v>
       </c>
-      <c r="G101" s="3">
-        <v>-5000</v>
-      </c>
       <c r="H101" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="I101" s="3">
         <v>100</v>
       </c>
-      <c r="I101" s="3">
-        <v>-3100</v>
-      </c>
       <c r="J101" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="K101" s="3">
         <v>800</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-8800</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-10700</v>
-      </c>
-      <c r="M101" s="3">
-        <v>1400</v>
       </c>
       <c r="N101" s="3">
         <v>1400</v>
       </c>
       <c r="O101" s="3">
+        <v>1400</v>
+      </c>
+      <c r="P101" s="3">
         <v>7700</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-4100</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>700</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-3100</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-200</v>
       </c>
-      <c r="T101" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="U101" s="3" t="s">
         <v>16</v>
       </c>
       <c r="V101" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>61700</v>
+        <v>46500</v>
       </c>
       <c r="E102" s="3">
-        <v>-87000</v>
+        <v>61100</v>
       </c>
       <c r="F102" s="3">
-        <v>-154300</v>
+        <v>-86100</v>
       </c>
       <c r="G102" s="3">
-        <v>123800</v>
+        <v>-152700</v>
       </c>
       <c r="H102" s="3">
-        <v>91900</v>
+        <v>122500</v>
       </c>
       <c r="I102" s="3">
-        <v>23100</v>
+        <v>91000</v>
       </c>
       <c r="J102" s="3">
+        <v>22900</v>
+      </c>
+      <c r="K102" s="3">
         <v>-90700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-61500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>81200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>197600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-8400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>43400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>17200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>19200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>44000</v>
       </c>
-      <c r="T102" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="U102" s="3" t="s">
         <v>16</v>
       </c>
       <c r="V102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="W102" s="3" t="s">
         <v>16</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KC_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,295 +665,321 @@
     <col min="1" max="1" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>302900</v>
+        <v>252900</v>
       </c>
       <c r="E8" s="3">
-        <v>279900</v>
+        <v>256900</v>
       </c>
       <c r="F8" s="3">
-        <v>271000</v>
+        <v>293600</v>
       </c>
       <c r="G8" s="3">
+        <v>271300</v>
+      </c>
+      <c r="H8" s="3">
+        <v>262700</v>
+      </c>
+      <c r="I8" s="3">
+        <v>299500</v>
+      </c>
+      <c r="J8" s="3">
+        <v>366500</v>
+      </c>
+      <c r="K8" s="3">
+        <v>343100</v>
+      </c>
+      <c r="L8" s="3">
         <v>309000</v>
       </c>
-      <c r="H8" s="3">
-        <v>378100</v>
-      </c>
-      <c r="I8" s="3">
-        <v>343100</v>
-      </c>
-      <c r="J8" s="3">
-        <v>309000</v>
-      </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>260500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>267600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>252500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>226200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>219400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>180700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>154300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>142900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>128700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>105200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>83900</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>64300</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>60900</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>279900</v>
+        <v>224400</v>
       </c>
       <c r="E9" s="3">
-        <v>262500</v>
+        <v>230100</v>
       </c>
       <c r="F9" s="3">
-        <v>261700</v>
+        <v>271300</v>
       </c>
       <c r="G9" s="3">
-        <v>297600</v>
+        <v>254400</v>
       </c>
       <c r="H9" s="3">
-        <v>374100</v>
+        <v>253700</v>
       </c>
       <c r="I9" s="3">
+        <v>288500</v>
+      </c>
+      <c r="J9" s="3">
+        <v>362600</v>
+      </c>
+      <c r="K9" s="3">
         <v>330600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>292100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>243700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>254800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>236000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>214300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>208300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>172400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>151400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>146000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>135500</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>114200</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>92300</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>68900</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>67200</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>23000</v>
+        <v>28500</v>
       </c>
       <c r="E10" s="3">
-        <v>17400</v>
+        <v>26800</v>
       </c>
       <c r="F10" s="3">
-        <v>9300</v>
+        <v>22300</v>
       </c>
       <c r="G10" s="3">
-        <v>11400</v>
+        <v>16900</v>
       </c>
       <c r="H10" s="3">
-        <v>4000</v>
+        <v>9000</v>
       </c>
       <c r="I10" s="3">
+        <v>11000</v>
+      </c>
+      <c r="J10" s="3">
+        <v>3800</v>
+      </c>
+      <c r="K10" s="3">
         <v>12600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>16800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>16700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>12900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>16500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>11900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>11200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>8400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>2900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>-3100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>-6900</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>-9000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>-8400</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>-4600</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>-6300</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -977,73 +1003,81 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>36300</v>
+        <v>26700</v>
       </c>
       <c r="E12" s="3">
-        <v>35300</v>
+        <v>29700</v>
       </c>
       <c r="F12" s="3">
-        <v>31400</v>
+        <v>35200</v>
       </c>
       <c r="G12" s="3">
-        <v>35100</v>
+        <v>34200</v>
       </c>
       <c r="H12" s="3">
-        <v>39500</v>
+        <v>30400</v>
       </c>
       <c r="I12" s="3">
+        <v>34000</v>
+      </c>
+      <c r="J12" s="3">
+        <v>38300</v>
+      </c>
+      <c r="K12" s="3">
         <v>38200</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>33000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>38000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>25200</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>24500</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>34000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>30900</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>26400</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>24000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="T12" s="3">
         <v>21900</v>
       </c>
-      <c r="S12" s="3">
+      <c r="U12" s="3">
         <v>18900</v>
       </c>
-      <c r="T12" s="3">
+      <c r="V12" s="3">
         <v>17300</v>
       </c>
-      <c r="U12" s="3">
+      <c r="W12" s="3">
         <v>17200</v>
       </c>
-      <c r="V12" s="3">
+      <c r="X12" s="3">
         <v>13300</v>
       </c>
-      <c r="W12" s="3">
+      <c r="Y12" s="3">
         <v>14600</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1107,8 +1141,14 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1172,8 +1212,14 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1237,8 +1283,14 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,138 +1311,152 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>397100</v>
+        <v>302900</v>
       </c>
       <c r="E17" s="3">
-        <v>351500</v>
+        <v>339300</v>
       </c>
       <c r="F17" s="3">
-        <v>349500</v>
+        <v>384900</v>
       </c>
       <c r="G17" s="3">
-        <v>384800</v>
+        <v>340700</v>
       </c>
       <c r="H17" s="3">
-        <v>473400</v>
+        <v>338700</v>
       </c>
       <c r="I17" s="3">
+        <v>372900</v>
+      </c>
+      <c r="J17" s="3">
+        <v>458900</v>
+      </c>
+      <c r="K17" s="3">
         <v>409800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>354500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>311000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>301800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>287900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>289600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>265000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>227300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>197400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>189200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>167800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>149900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>121600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>91700</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>89800</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-94200</v>
+        <v>-50000</v>
       </c>
       <c r="E18" s="3">
-        <v>-71700</v>
+        <v>-82400</v>
       </c>
       <c r="F18" s="3">
-        <v>-78500</v>
+        <v>-91300</v>
       </c>
       <c r="G18" s="3">
-        <v>-75700</v>
+        <v>-69500</v>
       </c>
       <c r="H18" s="3">
-        <v>-95300</v>
+        <v>-76100</v>
       </c>
       <c r="I18" s="3">
+        <v>-73400</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-92400</v>
+      </c>
+      <c r="K18" s="3">
         <v>-66700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-45600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-50600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-34200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-35500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-63400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-45600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-46600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-43100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-46400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-39200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>-44700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>-37700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>-27400</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>-28900</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1414,167 +1480,181 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>26200</v>
+        <v>-13800</v>
       </c>
       <c r="E20" s="3">
-        <v>-34400</v>
+        <v>2500</v>
       </c>
       <c r="F20" s="3">
-        <v>-32400</v>
+        <v>25400</v>
       </c>
       <c r="G20" s="3">
-        <v>1500</v>
+        <v>-33300</v>
       </c>
       <c r="H20" s="3">
-        <v>31200</v>
+        <v>-31400</v>
       </c>
       <c r="I20" s="3">
+        <v>1400</v>
+      </c>
+      <c r="J20" s="3">
+        <v>30300</v>
+      </c>
+      <c r="K20" s="3">
         <v>-2600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>15600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-3300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>20200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>21200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>2000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-5500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>10000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>-10500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>-1900</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>9400</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>4000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>-3900</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>-4200</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>-69100</v>
+        <v>-66900</v>
       </c>
       <c r="E21" s="3">
-        <v>-105600</v>
+        <v>-43100</v>
       </c>
       <c r="F21" s="3">
-        <v>-110400</v>
+        <v>-67000</v>
       </c>
       <c r="G21" s="3">
-        <v>-33400</v>
+        <v>-102400</v>
       </c>
       <c r="H21" s="3">
-        <v>-57100</v>
+        <v>-107000</v>
       </c>
       <c r="I21" s="3">
+        <v>-32400</v>
+      </c>
+      <c r="J21" s="3">
+        <v>-55400</v>
+      </c>
+      <c r="K21" s="3">
         <v>-65100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-28700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-27900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-12000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-23000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-59500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-18500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-9600</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="R21" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="S21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="T21" s="3">
+      <c r="T21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="U21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="V21" s="3">
         <v>-21600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>-2300</v>
       </c>
-      <c r="V21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="W21" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y21" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>4500</v>
+        <v>4200</v>
       </c>
       <c r="E22" s="3">
-        <v>5400</v>
+        <v>3800</v>
       </c>
       <c r="F22" s="3">
-        <v>4900</v>
+        <v>4400</v>
       </c>
       <c r="G22" s="3">
-        <v>4800</v>
+        <v>5200</v>
       </c>
       <c r="H22" s="3">
-        <v>3900</v>
+        <v>4700</v>
       </c>
       <c r="I22" s="3">
+        <v>4700</v>
+      </c>
+      <c r="J22" s="3">
+        <v>3700</v>
+      </c>
+      <c r="K22" s="3">
         <v>2000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>1000</v>
-      </c>
-      <c r="K22" s="3">
-        <v>600</v>
-      </c>
-      <c r="L22" s="3">
-        <v>300</v>
       </c>
       <c r="M22" s="3">
         <v>600</v>
@@ -1583,143 +1663,155 @@
         <v>300</v>
       </c>
       <c r="O22" s="3">
+        <v>600</v>
+      </c>
+      <c r="P22" s="3">
         <v>300</v>
       </c>
-      <c r="P22" s="3">
-        <v>0</v>
-      </c>
       <c r="Q22" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+      <c r="T22" s="3">
         <v>300</v>
       </c>
-      <c r="S22" s="3">
+      <c r="U22" s="3">
         <v>400</v>
       </c>
-      <c r="T22" s="3">
+      <c r="V22" s="3">
         <v>1200</v>
       </c>
-      <c r="U22" s="3">
+      <c r="W22" s="3">
         <v>1300</v>
       </c>
-      <c r="V22" s="3">
+      <c r="X22" s="3">
         <v>1500</v>
       </c>
-      <c r="W22" s="3">
+      <c r="Y22" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-72400</v>
+        <v>-68000</v>
       </c>
       <c r="E23" s="3">
-        <v>-111400</v>
+        <v>-83700</v>
       </c>
       <c r="F23" s="3">
-        <v>-115700</v>
+        <v>-70200</v>
       </c>
       <c r="G23" s="3">
-        <v>-79100</v>
+        <v>-108000</v>
       </c>
       <c r="H23" s="3">
-        <v>-68000</v>
+        <v>-112100</v>
       </c>
       <c r="I23" s="3">
+        <v>-76700</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-65900</v>
+      </c>
+      <c r="K23" s="3">
         <v>-71300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-30900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-54400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-14200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-14800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-61600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-51400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-36600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-53600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-48600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-30200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-41900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>-42900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>-33100</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>-23200</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>700</v>
+      </c>
+      <c r="E24" s="3">
+        <v>200</v>
+      </c>
+      <c r="F24" s="3">
         <v>1700</v>
       </c>
-      <c r="E24" s="3">
-        <v>2500</v>
-      </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
+        <v>2400</v>
+      </c>
+      <c r="H24" s="3">
         <v>-500</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>-200</v>
-      </c>
-      <c r="H24" s="3">
-        <v>600</v>
-      </c>
-      <c r="I24" s="3">
-        <v>700</v>
       </c>
       <c r="J24" s="3">
         <v>500</v>
       </c>
       <c r="K24" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L24" s="3">
         <v>500</v>
       </c>
       <c r="M24" s="3">
+        <v>500</v>
+      </c>
+      <c r="N24" s="3">
+        <v>500</v>
+      </c>
+      <c r="O24" s="3">
         <v>600</v>
-      </c>
-      <c r="N24" s="3">
-        <v>300</v>
-      </c>
-      <c r="O24" s="3">
-        <v>900</v>
       </c>
       <c r="P24" s="3">
         <v>300</v>
       </c>
       <c r="Q24" s="3">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="R24" s="3">
         <v>300</v>
@@ -1728,19 +1820,25 @@
         <v>400</v>
       </c>
       <c r="T24" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="U24" s="3">
         <v>400</v>
       </c>
       <c r="V24" s="3">
+        <v>400</v>
+      </c>
+      <c r="W24" s="3">
+        <v>400</v>
+      </c>
+      <c r="X24" s="3">
         <v>300</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,138 +1902,156 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-74200</v>
+        <v>-68700</v>
       </c>
       <c r="E26" s="3">
-        <v>-113900</v>
+        <v>-83900</v>
       </c>
       <c r="F26" s="3">
-        <v>-115200</v>
+        <v>-71900</v>
       </c>
       <c r="G26" s="3">
-        <v>-78900</v>
+        <v>-110400</v>
       </c>
       <c r="H26" s="3">
-        <v>-68500</v>
+        <v>-111700</v>
       </c>
       <c r="I26" s="3">
+        <v>-76400</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-66400</v>
+      </c>
+      <c r="K26" s="3">
         <v>-72000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-31400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-54900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-14600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-15400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-61900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-52300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-36900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-54000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-48800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-30600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-42300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>-43200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>-33400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>-23500</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-72300</v>
+        <v>-68800</v>
       </c>
       <c r="E27" s="3">
-        <v>-112700</v>
+        <v>-83600</v>
       </c>
       <c r="F27" s="3">
-        <v>-114100</v>
+        <v>-70100</v>
       </c>
       <c r="G27" s="3">
-        <v>-78600</v>
+        <v>-109300</v>
       </c>
       <c r="H27" s="3">
-        <v>-67900</v>
+        <v>-110600</v>
       </c>
       <c r="I27" s="3">
+        <v>-76200</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-65800</v>
+      </c>
+      <c r="K27" s="3">
         <v>-72200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-31300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-54900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-14600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-15400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-61900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-55400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-44500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-54000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-48800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-30600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-42300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-147200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>-33400</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>-23500</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2115,14 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2064,8 +2186,14 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2257,14 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,138 +2328,156 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-26200</v>
+        <v>13800</v>
       </c>
       <c r="E32" s="3">
-        <v>34400</v>
+        <v>-2500</v>
       </c>
       <c r="F32" s="3">
-        <v>32400</v>
+        <v>-25400</v>
       </c>
       <c r="G32" s="3">
-        <v>-1500</v>
+        <v>33300</v>
       </c>
       <c r="H32" s="3">
-        <v>-31200</v>
+        <v>31400</v>
       </c>
       <c r="I32" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-30300</v>
+      </c>
+      <c r="K32" s="3">
         <v>2600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-15600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>3300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-20200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-21200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-2000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>5500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-10000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>10500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>1900</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>-9400</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>-4000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>3900</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>4200</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>-7200</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-72300</v>
+        <v>-68800</v>
       </c>
       <c r="E33" s="3">
-        <v>-112700</v>
+        <v>-83600</v>
       </c>
       <c r="F33" s="3">
-        <v>-114100</v>
+        <v>-70100</v>
       </c>
       <c r="G33" s="3">
-        <v>-78600</v>
+        <v>-109300</v>
       </c>
       <c r="H33" s="3">
-        <v>-67900</v>
+        <v>-110600</v>
       </c>
       <c r="I33" s="3">
+        <v>-76200</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-65800</v>
+      </c>
+      <c r="K33" s="3">
         <v>-72200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-31300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-54900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-14600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-15400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-61900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-55400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-44500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-54000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-48800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-30600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-42300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-147200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>-33400</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>-23500</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,143 +2541,161 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-72300</v>
+        <v>-68800</v>
       </c>
       <c r="E35" s="3">
-        <v>-112700</v>
+        <v>-83600</v>
       </c>
       <c r="F35" s="3">
-        <v>-114100</v>
+        <v>-70100</v>
       </c>
       <c r="G35" s="3">
-        <v>-78600</v>
+        <v>-109300</v>
       </c>
       <c r="H35" s="3">
-        <v>-67900</v>
+        <v>-110600</v>
       </c>
       <c r="I35" s="3">
+        <v>-76200</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-65800</v>
+      </c>
+      <c r="K35" s="3">
         <v>-72200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-31300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-54900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-14600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-15400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-61900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-55400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-44500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-54000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-48800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-30600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-42300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-147200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>-33400</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>-23500</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2719,10 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,59 +2746,61 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>486000</v>
+        <v>511000</v>
       </c>
       <c r="E41" s="3">
-        <v>449700</v>
+        <v>491600</v>
       </c>
       <c r="F41" s="3">
-        <v>388400</v>
+        <v>471100</v>
       </c>
       <c r="G41" s="3">
-        <v>457600</v>
+        <v>435800</v>
       </c>
       <c r="H41" s="3">
-        <v>599500</v>
+        <v>376500</v>
       </c>
       <c r="I41" s="3">
+        <v>443600</v>
+      </c>
+      <c r="J41" s="3">
+        <v>581100</v>
+      </c>
+      <c r="K41" s="3">
         <v>489600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>420000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>401200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>476700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>564600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>487800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>310800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>311500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>268200</v>
       </c>
-      <c r="R41" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="S41" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="T41" s="3" t="s">
         <v>16</v>
       </c>
@@ -2639,59 +2813,65 @@
       <c r="W41" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X41" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y41" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>178200</v>
+        <v>79600</v>
       </c>
       <c r="E42" s="3">
-        <v>307900</v>
+        <v>123100</v>
       </c>
       <c r="F42" s="3">
-        <v>372400</v>
+        <v>172700</v>
       </c>
       <c r="G42" s="3">
-        <v>339000</v>
+        <v>298400</v>
       </c>
       <c r="H42" s="3">
-        <v>354100</v>
+        <v>360900</v>
       </c>
       <c r="I42" s="3">
+        <v>328500</v>
+      </c>
+      <c r="J42" s="3">
+        <v>343200</v>
+      </c>
+      <c r="K42" s="3">
         <v>362600</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>358300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>382400</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>374900</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>427900</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>361500</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>36100</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>34700</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>118500</v>
       </c>
-      <c r="R42" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="S42" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="T42" s="3" t="s">
         <v>16</v>
       </c>
@@ -2704,59 +2884,65 @@
       <c r="W42" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y42" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>376500</v>
+        <v>322900</v>
       </c>
       <c r="E43" s="3">
-        <v>416900</v>
+        <v>350000</v>
       </c>
       <c r="F43" s="3">
-        <v>459300</v>
+        <v>365000</v>
       </c>
       <c r="G43" s="3">
-        <v>545400</v>
+        <v>404100</v>
       </c>
       <c r="H43" s="3">
-        <v>537100</v>
+        <v>445100</v>
       </c>
       <c r="I43" s="3">
+        <v>528600</v>
+      </c>
+      <c r="J43" s="3">
+        <v>520500</v>
+      </c>
+      <c r="K43" s="3">
         <v>668300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>522000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>424200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>353600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>314600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>258500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>294900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>227800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>210400</v>
       </c>
-      <c r="R43" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="S43" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="T43" s="3" t="s">
         <v>16</v>
       </c>
@@ -2769,8 +2955,14 @@
       <c r="W43" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y43" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2834,59 +3026,65 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>245400</v>
+        <v>249400</v>
       </c>
       <c r="E45" s="3">
-        <v>252600</v>
+        <v>236000</v>
       </c>
       <c r="F45" s="3">
-        <v>247100</v>
+        <v>237900</v>
       </c>
       <c r="G45" s="3">
-        <v>260400</v>
+        <v>244900</v>
       </c>
       <c r="H45" s="3">
-        <v>273800</v>
+        <v>239500</v>
       </c>
       <c r="I45" s="3">
+        <v>252400</v>
+      </c>
+      <c r="J45" s="3">
+        <v>265400</v>
+      </c>
+      <c r="K45" s="3">
         <v>181700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>117500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>141100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>123500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>80800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>78700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>78500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>65000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>59100</v>
       </c>
-      <c r="R45" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="S45" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="T45" s="3" t="s">
         <v>16</v>
       </c>
@@ -2899,59 +3097,65 @@
       <c r="W45" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y45" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1286200</v>
+        <v>1162900</v>
       </c>
       <c r="E46" s="3">
-        <v>1427000</v>
+        <v>1200700</v>
       </c>
       <c r="F46" s="3">
-        <v>1467200</v>
+        <v>1246700</v>
       </c>
       <c r="G46" s="3">
-        <v>1602400</v>
+        <v>1383200</v>
       </c>
       <c r="H46" s="3">
-        <v>1764500</v>
+        <v>1422100</v>
       </c>
       <c r="I46" s="3">
+        <v>1553200</v>
+      </c>
+      <c r="J46" s="3">
+        <v>1710200</v>
+      </c>
+      <c r="K46" s="3">
         <v>1702200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>1417800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>1348900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>1328600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>1388000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>1186600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>720300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>639000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>656100</v>
       </c>
-      <c r="R46" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="S46" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="T46" s="3" t="s">
         <v>16</v>
       </c>
@@ -2964,59 +3168,65 @@
       <c r="W46" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X46" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y46" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>39700</v>
+        <v>39200</v>
       </c>
       <c r="E47" s="3">
-        <v>35000</v>
+        <v>37900</v>
       </c>
       <c r="F47" s="3">
-        <v>39200</v>
+        <v>38500</v>
       </c>
       <c r="G47" s="3">
-        <v>30900</v>
+        <v>33900</v>
       </c>
       <c r="H47" s="3">
-        <v>30300</v>
+        <v>38000</v>
       </c>
       <c r="I47" s="3">
+        <v>30000</v>
+      </c>
+      <c r="J47" s="3">
+        <v>29300</v>
+      </c>
+      <c r="K47" s="3">
         <v>13400</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>13400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>19900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>18400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>17900</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>17900</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>19200</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>18000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>10400</v>
       </c>
-      <c r="R47" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="S47" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="T47" s="3" t="s">
         <v>16</v>
       </c>
@@ -3029,59 +3239,65 @@
       <c r="W47" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y47" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>334600</v>
+        <v>255600</v>
       </c>
       <c r="E48" s="3">
-        <v>365200</v>
+        <v>272600</v>
       </c>
       <c r="F48" s="3">
-        <v>380200</v>
+        <v>324300</v>
       </c>
       <c r="G48" s="3">
-        <v>381900</v>
+        <v>354000</v>
       </c>
       <c r="H48" s="3">
-        <v>372500</v>
+        <v>368500</v>
       </c>
       <c r="I48" s="3">
+        <v>370100</v>
+      </c>
+      <c r="J48" s="3">
+        <v>361100</v>
+      </c>
+      <c r="K48" s="3">
         <v>329200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>299100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>319400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>309500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>323000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>310200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>317300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>265000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>201000</v>
       </c>
-      <c r="R48" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="S48" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="T48" s="3" t="s">
         <v>16</v>
       </c>
@@ -3094,59 +3310,65 @@
       <c r="W48" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y48" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>798000</v>
+        <v>762200</v>
       </c>
       <c r="E49" s="3">
-        <v>803300</v>
+        <v>767300</v>
       </c>
       <c r="F49" s="3">
-        <v>809200</v>
+        <v>773500</v>
       </c>
       <c r="G49" s="3">
-        <v>814800</v>
+        <v>778600</v>
       </c>
       <c r="H49" s="3">
-        <v>823700</v>
+        <v>784300</v>
       </c>
       <c r="I49" s="3">
+        <v>789700</v>
+      </c>
+      <c r="J49" s="3">
+        <v>798400</v>
+      </c>
+      <c r="K49" s="3">
         <v>803800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>17900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>12700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>2300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>2900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>1200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>1200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>1100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>1300</v>
       </c>
-      <c r="R49" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="S49" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="T49" s="3" t="s">
         <v>16</v>
       </c>
@@ -3159,8 +3381,14 @@
       <c r="W49" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y49" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3452,14 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,59 +3523,65 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="E52" s="3">
-        <v>5700</v>
+        <v>2900</v>
       </c>
       <c r="F52" s="3">
+        <v>2900</v>
+      </c>
+      <c r="G52" s="3">
+        <v>5500</v>
+      </c>
+      <c r="H52" s="3">
+        <v>4900</v>
+      </c>
+      <c r="I52" s="3">
+        <v>3800</v>
+      </c>
+      <c r="J52" s="3">
         <v>5100</v>
       </c>
-      <c r="G52" s="3">
-        <v>3900</v>
-      </c>
-      <c r="H52" s="3">
-        <v>5200</v>
-      </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>9400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>4400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>2500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>1600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>8700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>4700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>4600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>5600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>10400</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="S52" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="T52" s="3" t="s">
         <v>16</v>
       </c>
@@ -3354,8 +3594,14 @@
       <c r="W52" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y52" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,59 +3665,65 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2461500</v>
+        <v>2222900</v>
       </c>
       <c r="E54" s="3">
-        <v>2636200</v>
+        <v>2281300</v>
       </c>
       <c r="F54" s="3">
-        <v>2700900</v>
+        <v>2385800</v>
       </c>
       <c r="G54" s="3">
-        <v>2833900</v>
+        <v>2555200</v>
       </c>
       <c r="H54" s="3">
-        <v>2996200</v>
+        <v>2617900</v>
       </c>
       <c r="I54" s="3">
+        <v>2746800</v>
+      </c>
+      <c r="J54" s="3">
+        <v>2904100</v>
+      </c>
+      <c r="K54" s="3">
         <v>2858000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>1752600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>1703300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>1660500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>1740500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>1520500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>1062600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>928800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>879300</v>
       </c>
-      <c r="R54" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="S54" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="T54" s="3" t="s">
         <v>16</v>
       </c>
@@ -3484,8 +3736,14 @@
       <c r="W54" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X54" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y54" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3767,10 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,59 +3794,61 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>327200</v>
+        <v>303200</v>
       </c>
       <c r="E57" s="3">
-        <v>348900</v>
+        <v>302500</v>
       </c>
       <c r="F57" s="3">
-        <v>342500</v>
+        <v>317200</v>
       </c>
       <c r="G57" s="3">
-        <v>366800</v>
+        <v>338200</v>
       </c>
       <c r="H57" s="3">
-        <v>417700</v>
+        <v>331900</v>
       </c>
       <c r="I57" s="3">
+        <v>355600</v>
+      </c>
+      <c r="J57" s="3">
+        <v>404900</v>
+      </c>
+      <c r="K57" s="3">
         <v>448000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>377000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>330700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>286400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>290900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>255800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>291700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>193200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>191300</v>
       </c>
-      <c r="R57" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="S57" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="T57" s="3" t="s">
         <v>16</v>
       </c>
@@ -3599,59 +3861,65 @@
       <c r="W57" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y57" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>129300</v>
+        <v>136300</v>
       </c>
       <c r="E58" s="3">
-        <v>148000</v>
+        <v>149800</v>
       </c>
       <c r="F58" s="3">
-        <v>180000</v>
+        <v>125300</v>
       </c>
       <c r="G58" s="3">
-        <v>212000</v>
+        <v>143400</v>
       </c>
       <c r="H58" s="3">
-        <v>191600</v>
+        <v>174500</v>
       </c>
       <c r="I58" s="3">
+        <v>205400</v>
+      </c>
+      <c r="J58" s="3">
+        <v>185800</v>
+      </c>
+      <c r="K58" s="3">
         <v>128100</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>94400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>64900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>49100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>58800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>33700</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>15800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>31500</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>29200</v>
       </c>
-      <c r="R58" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="S58" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="T58" s="3" t="s">
         <v>16</v>
       </c>
@@ -3664,59 +3932,65 @@
       <c r="W58" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y58" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>490000</v>
+        <v>490500</v>
       </c>
       <c r="E59" s="3">
-        <v>526800</v>
+        <v>449500</v>
       </c>
       <c r="F59" s="3">
-        <v>528500</v>
+        <v>475000</v>
       </c>
       <c r="G59" s="3">
-        <v>401000</v>
+        <v>510600</v>
       </c>
       <c r="H59" s="3">
-        <v>459000</v>
+        <v>512300</v>
       </c>
       <c r="I59" s="3">
+        <v>388700</v>
+      </c>
+      <c r="J59" s="3">
+        <v>444900</v>
+      </c>
+      <c r="K59" s="3">
         <v>266800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>111800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>117300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>146900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>135000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>151800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>170800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>148000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>106900</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="S59" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="T59" s="3" t="s">
         <v>16</v>
       </c>
@@ -3729,59 +4003,65 @@
       <c r="W59" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X59" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y59" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>946500</v>
+        <v>930000</v>
       </c>
       <c r="E60" s="3">
-        <v>1023700</v>
+        <v>901800</v>
       </c>
       <c r="F60" s="3">
-        <v>1051000</v>
+        <v>917400</v>
       </c>
       <c r="G60" s="3">
-        <v>979800</v>
+        <v>992200</v>
       </c>
       <c r="H60" s="3">
-        <v>1068400</v>
+        <v>1018700</v>
       </c>
       <c r="I60" s="3">
+        <v>949700</v>
+      </c>
+      <c r="J60" s="3">
+        <v>1035500</v>
+      </c>
+      <c r="K60" s="3">
         <v>843000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>583200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>512900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>482400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>484700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>441200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>478300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>372600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>327400</v>
       </c>
-      <c r="R60" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="S60" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="T60" s="3" t="s">
         <v>16</v>
       </c>
@@ -3794,59 +4074,65 @@
       <c r="W60" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X60" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y60" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>58800</v>
+        <v>35900</v>
       </c>
       <c r="E61" s="3">
-        <v>69400</v>
+        <v>46500</v>
       </c>
       <c r="F61" s="3">
-        <v>50400</v>
+        <v>57000</v>
       </c>
       <c r="G61" s="3">
-        <v>58900</v>
+        <v>67200</v>
       </c>
       <c r="H61" s="3">
-        <v>67200</v>
+        <v>48800</v>
       </c>
       <c r="I61" s="3">
+        <v>57100</v>
+      </c>
+      <c r="J61" s="3">
+        <v>65200</v>
+      </c>
+      <c r="K61" s="3">
         <v>60500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>31500</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
       <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
         <v>11000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>11700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>11400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>19100</v>
       </c>
-      <c r="R61" s="3">
-        <v>0</v>
-      </c>
-      <c r="S61" s="3">
-        <v>0</v>
-      </c>
       <c r="T61" s="3">
         <v>0</v>
       </c>
@@ -3859,59 +4145,65 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>93900</v>
+        <v>115000</v>
       </c>
       <c r="E62" s="3">
-        <v>77400</v>
+        <v>98900</v>
       </c>
       <c r="F62" s="3">
-        <v>76300</v>
+        <v>91000</v>
       </c>
       <c r="G62" s="3">
-        <v>229200</v>
+        <v>75000</v>
       </c>
       <c r="H62" s="3">
-        <v>227000</v>
+        <v>74000</v>
       </c>
       <c r="I62" s="3">
+        <v>222100</v>
+      </c>
+      <c r="J62" s="3">
+        <v>220000</v>
+      </c>
+      <c r="K62" s="3">
         <v>240100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>28700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>34100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>31100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>36700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>30300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>34900</v>
       </c>
-      <c r="P62" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+      <c r="S62" s="3">
         <v>800</v>
       </c>
-      <c r="R62" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="S62" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="T62" s="3" t="s">
         <v>16</v>
       </c>
@@ -3924,8 +4216,14 @@
       <c r="W62" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y62" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4287,14 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4358,14 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,59 +4429,65 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1210400</v>
+        <v>1129900</v>
       </c>
       <c r="E66" s="3">
-        <v>1293300</v>
+        <v>1154800</v>
       </c>
       <c r="F66" s="3">
-        <v>1301700</v>
+        <v>1173200</v>
       </c>
       <c r="G66" s="3">
-        <v>1393300</v>
+        <v>1253500</v>
       </c>
       <c r="H66" s="3">
-        <v>1488900</v>
+        <v>1261700</v>
       </c>
       <c r="I66" s="3">
+        <v>1350400</v>
+      </c>
+      <c r="J66" s="3">
+        <v>1443100</v>
+      </c>
+      <c r="K66" s="3">
         <v>1284800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>647300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>547200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>513500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>521400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>482500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>524900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>384100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>347400</v>
       </c>
-      <c r="R66" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="S66" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="T66" s="3" t="s">
         <v>16</v>
       </c>
@@ -4184,8 +4500,14 @@
       <c r="W66" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X66" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y66" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4531,10 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4598,14 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4669,14 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4378,20 +4714,20 @@
         <v>0</v>
       </c>
       <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="3">
         <v>1264000</v>
       </c>
-      <c r="P70" s="3">
+      <c r="R70" s="3">
         <v>1209900</v>
       </c>
-      <c r="Q70" s="3">
+      <c r="S70" s="3">
         <v>1150100</v>
       </c>
-      <c r="R70" s="3">
-        <v>0</v>
-      </c>
-      <c r="S70" s="3">
-        <v>0</v>
-      </c>
       <c r="T70" s="3">
         <v>0</v>
       </c>
@@ -4404,8 +4740,14 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,59 +4811,65 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-1438100</v>
+        <v>-1546300</v>
       </c>
       <c r="E72" s="3">
-        <v>-1365800</v>
+        <v>-1477500</v>
       </c>
       <c r="F72" s="3">
-        <v>-1253100</v>
+        <v>-1393900</v>
       </c>
       <c r="G72" s="3">
-        <v>-1138900</v>
+        <v>-1323800</v>
       </c>
       <c r="H72" s="3">
-        <v>-1060300</v>
+        <v>-1214500</v>
       </c>
       <c r="I72" s="3">
+        <v>-1103900</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-1027700</v>
+      </c>
+      <c r="K72" s="3">
         <v>-992300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-920100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-898000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-816300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-841000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-833100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-825600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-754800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-717900</v>
       </c>
-      <c r="R72" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="S72" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="T72" s="3" t="s">
         <v>16</v>
       </c>
@@ -4534,8 +4882,14 @@
       <c r="W72" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X72" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y72" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4953,14 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +5024,14 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,59 +5095,65 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1251100</v>
+        <v>1093000</v>
       </c>
       <c r="E76" s="3">
-        <v>1343000</v>
+        <v>1126400</v>
       </c>
       <c r="F76" s="3">
-        <v>1399200</v>
+        <v>1212600</v>
       </c>
       <c r="G76" s="3">
-        <v>1440600</v>
+        <v>1301700</v>
       </c>
       <c r="H76" s="3">
-        <v>1507400</v>
+        <v>1356200</v>
       </c>
       <c r="I76" s="3">
+        <v>1396300</v>
+      </c>
+      <c r="J76" s="3">
+        <v>1461000</v>
+      </c>
+      <c r="K76" s="3">
         <v>1573200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>1105300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>1156100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>1147000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>1219100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>1038000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-726300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-665300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>-618200</v>
       </c>
-      <c r="R76" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="S76" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="T76" s="3" t="s">
         <v>16</v>
       </c>
@@ -4794,8 +5166,14 @@
       <c r="W76" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X76" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y76" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,143 +5237,161 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-72300</v>
+        <v>-68800</v>
       </c>
       <c r="E81" s="3">
-        <v>-112700</v>
+        <v>-83600</v>
       </c>
       <c r="F81" s="3">
-        <v>-114100</v>
+        <v>-70100</v>
       </c>
       <c r="G81" s="3">
-        <v>-78600</v>
+        <v>-109300</v>
       </c>
       <c r="H81" s="3">
-        <v>-67900</v>
+        <v>-110600</v>
       </c>
       <c r="I81" s="3">
+        <v>-76200</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-65800</v>
+      </c>
+      <c r="K81" s="3">
         <v>-72200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-31300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-54900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-14600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-15400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-61900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-55400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-44500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-54000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-48800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-30600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-42300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-147200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>-33400</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>-23500</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,8 +5415,10 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5057,35 +5455,41 @@
       <c r="N83" s="3">
         <v>0</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>16</v>
+      <c r="O83" s="3">
+        <v>0</v>
       </c>
       <c r="P83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R83" s="3">
         <v>26900</v>
       </c>
-      <c r="Q83" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="R83" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="S83" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="T83" s="3">
+      <c r="T83" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="U83" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="V83" s="3">
         <v>19100</v>
       </c>
-      <c r="U83" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="V83" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="W83" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y83" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5553,14 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5624,14 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5695,14 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5766,14 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,73 +5837,85 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>52700</v>
+        <v>9000</v>
       </c>
       <c r="E89" s="3">
-        <v>14300</v>
+        <v>-37400</v>
       </c>
       <c r="F89" s="3">
-        <v>48800</v>
+        <v>51000</v>
       </c>
       <c r="G89" s="3">
-        <v>-89000</v>
+        <v>13900</v>
       </c>
       <c r="H89" s="3">
-        <v>5400</v>
+        <v>47300</v>
       </c>
       <c r="I89" s="3">
+        <v>-86300</v>
+      </c>
+      <c r="J89" s="3">
+        <v>5200</v>
+      </c>
+      <c r="K89" s="3">
         <v>2000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-37500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-71400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-38700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-15100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>14800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-23900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-19600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>-23400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>7600</v>
       </c>
-      <c r="U89" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="V89" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="W89" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X89" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y89" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,13 +5939,15 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-311900</v>
+        <v>0</v>
       </c>
       <c r="E91" s="3">
         <v>0</v>
@@ -5537,35 +5979,41 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>16</v>
+      <c r="O91" s="3">
+        <v>0</v>
       </c>
       <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R91" s="3">
         <v>-48000</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="R91" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="S91" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="T91" s="3">
+      <c r="T91" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="U91" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="V91" s="3">
         <v>-46800</v>
       </c>
-      <c r="U91" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="V91" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="W91" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y91" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +6077,14 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,73 +6148,85 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>128100</v>
+        <v>35400</v>
       </c>
       <c r="E94" s="3">
-        <v>46000</v>
+        <v>44000</v>
       </c>
       <c r="F94" s="3">
-        <v>-104200</v>
+        <v>124100</v>
       </c>
       <c r="G94" s="3">
-        <v>-74600</v>
+        <v>44600</v>
       </c>
       <c r="H94" s="3">
-        <v>-32200</v>
+        <v>-101000</v>
       </c>
       <c r="I94" s="3">
+        <v>-72300</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-31200</v>
+      </c>
+      <c r="K94" s="3">
         <v>14100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-8000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-34200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-43000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-151400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-393900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-46500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>12000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>22900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>57500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>42500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>69000</v>
       </c>
-      <c r="U94" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="V94" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="W94" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y94" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6250,10 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5849,8 +6317,14 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6388,14 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6459,14 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,199 +6530,223 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-114700</v>
+        <v>-30700</v>
       </c>
       <c r="E100" s="3">
-        <v>-18600</v>
+        <v>14300</v>
       </c>
       <c r="F100" s="3">
-        <v>-44400</v>
+        <v>-111100</v>
       </c>
       <c r="G100" s="3">
-        <v>13900</v>
+        <v>-18000</v>
       </c>
       <c r="H100" s="3">
-        <v>154200</v>
+        <v>-43000</v>
       </c>
       <c r="I100" s="3">
+        <v>13400</v>
+      </c>
+      <c r="J100" s="3">
+        <v>149500</v>
+      </c>
+      <c r="K100" s="3">
         <v>74800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>71400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>14200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>29000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>258500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>590500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>21900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>47600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-40700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>3200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>-32400</v>
       </c>
-      <c r="U100" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="V100" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="W100" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X100" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y100" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-19500</v>
+        <v>7900</v>
       </c>
       <c r="E101" s="3">
-        <v>19300</v>
+        <v>-2700</v>
       </c>
       <c r="F101" s="3">
-        <v>13600</v>
+        <v>-18900</v>
       </c>
       <c r="G101" s="3">
+        <v>18700</v>
+      </c>
+      <c r="H101" s="3">
+        <v>13200</v>
+      </c>
+      <c r="I101" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="J101" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="K101" s="3">
+        <v>100</v>
+      </c>
+      <c r="L101" s="3">
         <v>-3000</v>
       </c>
-      <c r="H101" s="3">
-        <v>-4900</v>
-      </c>
-      <c r="I101" s="3">
-        <v>100</v>
-      </c>
-      <c r="J101" s="3">
-        <v>-3000</v>
-      </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>800</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>-8800</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>-10700</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>1400</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>1400</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>7700</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>-4100</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>700</v>
       </c>
-      <c r="S101" s="3">
+      <c r="U101" s="3">
         <v>-3100</v>
       </c>
-      <c r="T101" s="3">
+      <c r="V101" s="3">
         <v>-200</v>
       </c>
-      <c r="U101" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="V101" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="W101" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y101" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>46500</v>
+        <v>21600</v>
       </c>
       <c r="E102" s="3">
-        <v>61100</v>
+        <v>18300</v>
       </c>
       <c r="F102" s="3">
-        <v>-86100</v>
+        <v>45100</v>
       </c>
       <c r="G102" s="3">
-        <v>-152700</v>
+        <v>59200</v>
       </c>
       <c r="H102" s="3">
-        <v>122500</v>
+        <v>-83400</v>
       </c>
       <c r="I102" s="3">
+        <v>-148000</v>
+      </c>
+      <c r="J102" s="3">
+        <v>118700</v>
+      </c>
+      <c r="K102" s="3">
         <v>91000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>22900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-90700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-61500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>81200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>197600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-8400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>43400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>17200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>19200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>44000</v>
       </c>
-      <c r="U102" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="V102" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="W102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="X102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y102" s="3" t="s">
         <v>16</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="92">
   <si>
     <t>KC</t>
   </si>
@@ -771,25 +771,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>252900</v>
+        <v>253400</v>
       </c>
       <c r="E8" s="3">
-        <v>256900</v>
+        <v>257400</v>
       </c>
       <c r="F8" s="3">
-        <v>293600</v>
+        <v>294200</v>
       </c>
       <c r="G8" s="3">
-        <v>271300</v>
+        <v>271900</v>
       </c>
       <c r="H8" s="3">
-        <v>262700</v>
+        <v>263200</v>
       </c>
       <c r="I8" s="3">
-        <v>299500</v>
+        <v>300200</v>
       </c>
       <c r="J8" s="3">
-        <v>366500</v>
+        <v>367300</v>
       </c>
       <c r="K8" s="3">
         <v>343100</v>
@@ -842,25 +842,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>224400</v>
+        <v>224900</v>
       </c>
       <c r="E9" s="3">
-        <v>230100</v>
+        <v>230600</v>
       </c>
       <c r="F9" s="3">
-        <v>271300</v>
+        <v>271900</v>
       </c>
       <c r="G9" s="3">
-        <v>254400</v>
+        <v>254900</v>
       </c>
       <c r="H9" s="3">
-        <v>253700</v>
+        <v>254200</v>
       </c>
       <c r="I9" s="3">
-        <v>288500</v>
+        <v>289100</v>
       </c>
       <c r="J9" s="3">
-        <v>362600</v>
+        <v>363400</v>
       </c>
       <c r="K9" s="3">
         <v>330600</v>
@@ -919,7 +919,7 @@
         <v>26800</v>
       </c>
       <c r="F10" s="3">
-        <v>22300</v>
+        <v>22400</v>
       </c>
       <c r="G10" s="3">
         <v>16900</v>
@@ -1011,25 +1011,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>26700</v>
+        <v>26800</v>
       </c>
       <c r="E12" s="3">
         <v>29700</v>
       </c>
       <c r="F12" s="3">
-        <v>35200</v>
+        <v>35300</v>
       </c>
       <c r="G12" s="3">
-        <v>34200</v>
+        <v>34300</v>
       </c>
       <c r="H12" s="3">
-        <v>30400</v>
+        <v>30500</v>
       </c>
       <c r="I12" s="3">
-        <v>34000</v>
+        <v>34100</v>
       </c>
       <c r="J12" s="3">
-        <v>38300</v>
+        <v>38400</v>
       </c>
       <c r="K12" s="3">
         <v>38200</v>
@@ -1156,22 +1156,22 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+        <v>25600</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -1319,25 +1319,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>302900</v>
+        <v>303600</v>
       </c>
       <c r="E17" s="3">
-        <v>339300</v>
+        <v>340000</v>
       </c>
       <c r="F17" s="3">
-        <v>384900</v>
+        <v>385700</v>
       </c>
       <c r="G17" s="3">
-        <v>340700</v>
+        <v>341500</v>
       </c>
       <c r="H17" s="3">
-        <v>338700</v>
+        <v>339500</v>
       </c>
       <c r="I17" s="3">
-        <v>372900</v>
+        <v>373700</v>
       </c>
       <c r="J17" s="3">
-        <v>458900</v>
+        <v>459900</v>
       </c>
       <c r="K17" s="3">
         <v>409800</v>
@@ -1390,25 +1390,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-50000</v>
+        <v>-50100</v>
       </c>
       <c r="E18" s="3">
-        <v>-82400</v>
+        <v>-82600</v>
       </c>
       <c r="F18" s="3">
-        <v>-91300</v>
+        <v>-91500</v>
       </c>
       <c r="G18" s="3">
-        <v>-69500</v>
+        <v>-69600</v>
       </c>
       <c r="H18" s="3">
-        <v>-76100</v>
+        <v>-76200</v>
       </c>
       <c r="I18" s="3">
-        <v>-73400</v>
+        <v>-73600</v>
       </c>
       <c r="J18" s="3">
-        <v>-92400</v>
+        <v>-92600</v>
       </c>
       <c r="K18" s="3">
         <v>-66700</v>
@@ -1491,13 +1491,13 @@
         <v>-13800</v>
       </c>
       <c r="E20" s="3">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="F20" s="3">
-        <v>25400</v>
+        <v>25500</v>
       </c>
       <c r="G20" s="3">
-        <v>-33300</v>
+        <v>-33400</v>
       </c>
       <c r="H20" s="3">
         <v>-31400</v>
@@ -1559,25 +1559,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>-66900</v>
+        <v>-30300</v>
       </c>
       <c r="E21" s="3">
-        <v>-43100</v>
+        <v>-43200</v>
       </c>
       <c r="F21" s="3">
-        <v>-67000</v>
+        <v>-67100</v>
       </c>
       <c r="G21" s="3">
-        <v>-102400</v>
+        <v>-102600</v>
       </c>
       <c r="H21" s="3">
-        <v>-107000</v>
+        <v>-107200</v>
       </c>
       <c r="I21" s="3">
         <v>-32400</v>
       </c>
       <c r="J21" s="3">
-        <v>-55400</v>
+        <v>-55500</v>
       </c>
       <c r="K21" s="3">
         <v>-65100</v>
@@ -1633,7 +1633,7 @@
         <v>4200</v>
       </c>
       <c r="E22" s="3">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F22" s="3">
         <v>4400</v>
@@ -1648,7 +1648,7 @@
         <v>4700</v>
       </c>
       <c r="J22" s="3">
-        <v>3700</v>
+        <v>3800</v>
       </c>
       <c r="K22" s="3">
         <v>2000</v>
@@ -1701,25 +1701,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-68000</v>
+        <v>-68100</v>
       </c>
       <c r="E23" s="3">
-        <v>-83700</v>
+        <v>-83900</v>
       </c>
       <c r="F23" s="3">
-        <v>-70200</v>
+        <v>-70400</v>
       </c>
       <c r="G23" s="3">
-        <v>-108000</v>
+        <v>-108200</v>
       </c>
       <c r="H23" s="3">
-        <v>-112100</v>
+        <v>-112400</v>
       </c>
       <c r="I23" s="3">
-        <v>-76700</v>
+        <v>-76800</v>
       </c>
       <c r="J23" s="3">
-        <v>-65900</v>
+        <v>-66000</v>
       </c>
       <c r="K23" s="3">
         <v>-71300</v>
@@ -1914,25 +1914,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-68700</v>
+        <v>-68800</v>
       </c>
       <c r="E26" s="3">
-        <v>-83900</v>
+        <v>-84100</v>
       </c>
       <c r="F26" s="3">
-        <v>-71900</v>
+        <v>-72000</v>
       </c>
       <c r="G26" s="3">
-        <v>-110400</v>
+        <v>-110700</v>
       </c>
       <c r="H26" s="3">
-        <v>-111700</v>
+        <v>-111900</v>
       </c>
       <c r="I26" s="3">
-        <v>-76400</v>
+        <v>-76600</v>
       </c>
       <c r="J26" s="3">
-        <v>-66400</v>
+        <v>-66600</v>
       </c>
       <c r="K26" s="3">
         <v>-72000</v>
@@ -1985,25 +1985,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-68800</v>
+        <v>-68900</v>
       </c>
       <c r="E27" s="3">
-        <v>-83600</v>
+        <v>-83800</v>
       </c>
       <c r="F27" s="3">
-        <v>-70100</v>
+        <v>-70300</v>
       </c>
       <c r="G27" s="3">
-        <v>-109300</v>
+        <v>-109500</v>
       </c>
       <c r="H27" s="3">
-        <v>-110600</v>
+        <v>-110900</v>
       </c>
       <c r="I27" s="3">
-        <v>-76200</v>
+        <v>-76400</v>
       </c>
       <c r="J27" s="3">
-        <v>-65800</v>
+        <v>-66000</v>
       </c>
       <c r="K27" s="3">
         <v>-72200</v>
@@ -2343,13 +2343,13 @@
         <v>13800</v>
       </c>
       <c r="E32" s="3">
-        <v>-2500</v>
+        <v>-2600</v>
       </c>
       <c r="F32" s="3">
-        <v>-25400</v>
+        <v>-25500</v>
       </c>
       <c r="G32" s="3">
-        <v>33300</v>
+        <v>33400</v>
       </c>
       <c r="H32" s="3">
         <v>31400</v>
@@ -2411,25 +2411,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-68800</v>
+        <v>-68900</v>
       </c>
       <c r="E33" s="3">
-        <v>-83600</v>
+        <v>-83800</v>
       </c>
       <c r="F33" s="3">
-        <v>-70100</v>
+        <v>-70300</v>
       </c>
       <c r="G33" s="3">
-        <v>-109300</v>
+        <v>-109500</v>
       </c>
       <c r="H33" s="3">
-        <v>-110600</v>
+        <v>-110900</v>
       </c>
       <c r="I33" s="3">
-        <v>-76200</v>
+        <v>-76400</v>
       </c>
       <c r="J33" s="3">
-        <v>-65800</v>
+        <v>-66000</v>
       </c>
       <c r="K33" s="3">
         <v>-72200</v>
@@ -2553,25 +2553,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-68800</v>
+        <v>-68900</v>
       </c>
       <c r="E35" s="3">
-        <v>-83600</v>
+        <v>-83800</v>
       </c>
       <c r="F35" s="3">
-        <v>-70100</v>
+        <v>-70300</v>
       </c>
       <c r="G35" s="3">
-        <v>-109300</v>
+        <v>-109500</v>
       </c>
       <c r="H35" s="3">
-        <v>-110600</v>
+        <v>-110900</v>
       </c>
       <c r="I35" s="3">
-        <v>-76200</v>
+        <v>-76400</v>
       </c>
       <c r="J35" s="3">
-        <v>-65800</v>
+        <v>-66000</v>
       </c>
       <c r="K35" s="3">
         <v>-72200</v>
@@ -2754,25 +2754,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>511000</v>
+        <v>512100</v>
       </c>
       <c r="E41" s="3">
-        <v>491600</v>
+        <v>492700</v>
       </c>
       <c r="F41" s="3">
-        <v>471100</v>
+        <v>472100</v>
       </c>
       <c r="G41" s="3">
-        <v>435800</v>
+        <v>436800</v>
       </c>
       <c r="H41" s="3">
-        <v>376500</v>
+        <v>377300</v>
       </c>
       <c r="I41" s="3">
-        <v>443600</v>
+        <v>444500</v>
       </c>
       <c r="J41" s="3">
-        <v>581100</v>
+        <v>582400</v>
       </c>
       <c r="K41" s="3">
         <v>489600</v>
@@ -2825,25 +2825,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>79600</v>
+        <v>79800</v>
       </c>
       <c r="E42" s="3">
-        <v>123100</v>
+        <v>123300</v>
       </c>
       <c r="F42" s="3">
-        <v>172700</v>
+        <v>173100</v>
       </c>
       <c r="G42" s="3">
-        <v>298400</v>
+        <v>299000</v>
       </c>
       <c r="H42" s="3">
-        <v>360900</v>
+        <v>361700</v>
       </c>
       <c r="I42" s="3">
-        <v>328500</v>
+        <v>329300</v>
       </c>
       <c r="J42" s="3">
-        <v>343200</v>
+        <v>344000</v>
       </c>
       <c r="K42" s="3">
         <v>362600</v>
@@ -2896,25 +2896,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>322900</v>
+        <v>420700</v>
       </c>
       <c r="E43" s="3">
-        <v>350000</v>
+        <v>350700</v>
       </c>
       <c r="F43" s="3">
-        <v>365000</v>
+        <v>365800</v>
       </c>
       <c r="G43" s="3">
-        <v>404100</v>
+        <v>405000</v>
       </c>
       <c r="H43" s="3">
-        <v>445100</v>
+        <v>446100</v>
       </c>
       <c r="I43" s="3">
-        <v>528600</v>
+        <v>529800</v>
       </c>
       <c r="J43" s="3">
-        <v>520500</v>
+        <v>521700</v>
       </c>
       <c r="K43" s="3">
         <v>668300</v>
@@ -3038,25 +3038,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>249400</v>
+        <v>152900</v>
       </c>
       <c r="E45" s="3">
-        <v>236000</v>
+        <v>236500</v>
       </c>
       <c r="F45" s="3">
-        <v>237900</v>
+        <v>238400</v>
       </c>
       <c r="G45" s="3">
-        <v>244900</v>
+        <v>245400</v>
       </c>
       <c r="H45" s="3">
-        <v>239500</v>
+        <v>240100</v>
       </c>
       <c r="I45" s="3">
-        <v>252400</v>
+        <v>253000</v>
       </c>
       <c r="J45" s="3">
-        <v>265400</v>
+        <v>266000</v>
       </c>
       <c r="K45" s="3">
         <v>181700</v>
@@ -3109,25 +3109,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1162900</v>
+        <v>1165400</v>
       </c>
       <c r="E46" s="3">
-        <v>1200700</v>
+        <v>1203300</v>
       </c>
       <c r="F46" s="3">
-        <v>1246700</v>
+        <v>1249400</v>
       </c>
       <c r="G46" s="3">
-        <v>1383200</v>
+        <v>1386200</v>
       </c>
       <c r="H46" s="3">
-        <v>1422100</v>
+        <v>1425200</v>
       </c>
       <c r="I46" s="3">
-        <v>1553200</v>
+        <v>1556500</v>
       </c>
       <c r="J46" s="3">
-        <v>1710200</v>
+        <v>1714000</v>
       </c>
       <c r="K46" s="3">
         <v>1702200</v>
@@ -3180,25 +3180,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>39200</v>
+        <v>39300</v>
       </c>
       <c r="E47" s="3">
         <v>37900</v>
       </c>
       <c r="F47" s="3">
-        <v>38500</v>
+        <v>38600</v>
       </c>
       <c r="G47" s="3">
-        <v>33900</v>
+        <v>34000</v>
       </c>
       <c r="H47" s="3">
-        <v>38000</v>
+        <v>38100</v>
       </c>
       <c r="I47" s="3">
         <v>30000</v>
       </c>
       <c r="J47" s="3">
-        <v>29300</v>
+        <v>29400</v>
       </c>
       <c r="K47" s="3">
         <v>13400</v>
@@ -3251,25 +3251,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>255600</v>
+        <v>256200</v>
       </c>
       <c r="E48" s="3">
-        <v>272600</v>
+        <v>273200</v>
       </c>
       <c r="F48" s="3">
-        <v>324300</v>
+        <v>325000</v>
       </c>
       <c r="G48" s="3">
-        <v>354000</v>
+        <v>354800</v>
       </c>
       <c r="H48" s="3">
-        <v>368500</v>
+        <v>369300</v>
       </c>
       <c r="I48" s="3">
-        <v>370100</v>
+        <v>370900</v>
       </c>
       <c r="J48" s="3">
-        <v>361100</v>
+        <v>361800</v>
       </c>
       <c r="K48" s="3">
         <v>329200</v>
@@ -3322,25 +3322,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>762200</v>
+        <v>763800</v>
       </c>
       <c r="E49" s="3">
-        <v>767300</v>
+        <v>768900</v>
       </c>
       <c r="F49" s="3">
-        <v>773500</v>
+        <v>775100</v>
       </c>
       <c r="G49" s="3">
-        <v>778600</v>
+        <v>780300</v>
       </c>
       <c r="H49" s="3">
-        <v>784300</v>
+        <v>786000</v>
       </c>
       <c r="I49" s="3">
-        <v>789700</v>
+        <v>791400</v>
       </c>
       <c r="J49" s="3">
-        <v>798400</v>
+        <v>800200</v>
       </c>
       <c r="K49" s="3">
         <v>803800</v>
@@ -3547,7 +3547,7 @@
         <v>5500</v>
       </c>
       <c r="H52" s="3">
-        <v>4900</v>
+        <v>5000</v>
       </c>
       <c r="I52" s="3">
         <v>3800</v>
@@ -3677,25 +3677,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2222900</v>
+        <v>2227800</v>
       </c>
       <c r="E54" s="3">
-        <v>2281300</v>
+        <v>2286200</v>
       </c>
       <c r="F54" s="3">
-        <v>2385800</v>
+        <v>2391000</v>
       </c>
       <c r="G54" s="3">
-        <v>2555200</v>
+        <v>2560700</v>
       </c>
       <c r="H54" s="3">
-        <v>2617900</v>
+        <v>2623600</v>
       </c>
       <c r="I54" s="3">
-        <v>2746800</v>
+        <v>2752700</v>
       </c>
       <c r="J54" s="3">
-        <v>2904100</v>
+        <v>2910500</v>
       </c>
       <c r="K54" s="3">
         <v>2858000</v>
@@ -3802,25 +3802,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>303900</v>
+      </c>
+      <c r="E57" s="3">
         <v>303200</v>
       </c>
-      <c r="E57" s="3">
-        <v>302500</v>
-      </c>
       <c r="F57" s="3">
-        <v>317200</v>
+        <v>317900</v>
       </c>
       <c r="G57" s="3">
-        <v>338200</v>
+        <v>338900</v>
       </c>
       <c r="H57" s="3">
-        <v>331900</v>
+        <v>332700</v>
       </c>
       <c r="I57" s="3">
-        <v>355600</v>
+        <v>356300</v>
       </c>
       <c r="J57" s="3">
-        <v>404900</v>
+        <v>405800</v>
       </c>
       <c r="K57" s="3">
         <v>448000</v>
@@ -3873,25 +3873,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>136300</v>
+        <v>183600</v>
       </c>
       <c r="E58" s="3">
-        <v>149800</v>
+        <v>150100</v>
       </c>
       <c r="F58" s="3">
-        <v>125300</v>
+        <v>125600</v>
       </c>
       <c r="G58" s="3">
-        <v>143400</v>
+        <v>143700</v>
       </c>
       <c r="H58" s="3">
-        <v>174500</v>
+        <v>174800</v>
       </c>
       <c r="I58" s="3">
-        <v>205400</v>
+        <v>205900</v>
       </c>
       <c r="J58" s="3">
-        <v>185800</v>
+        <v>186200</v>
       </c>
       <c r="K58" s="3">
         <v>128100</v>
@@ -3944,25 +3944,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>490500</v>
+        <v>444600</v>
       </c>
       <c r="E59" s="3">
-        <v>449500</v>
+        <v>450500</v>
       </c>
       <c r="F59" s="3">
-        <v>475000</v>
+        <v>476000</v>
       </c>
       <c r="G59" s="3">
-        <v>510600</v>
+        <v>511700</v>
       </c>
       <c r="H59" s="3">
-        <v>512300</v>
+        <v>513400</v>
       </c>
       <c r="I59" s="3">
-        <v>388700</v>
+        <v>389500</v>
       </c>
       <c r="J59" s="3">
-        <v>444900</v>
+        <v>445900</v>
       </c>
       <c r="K59" s="3">
         <v>266800</v>
@@ -4015,25 +4015,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>930000</v>
+        <v>932000</v>
       </c>
       <c r="E60" s="3">
-        <v>901800</v>
+        <v>903800</v>
       </c>
       <c r="F60" s="3">
-        <v>917400</v>
+        <v>919400</v>
       </c>
       <c r="G60" s="3">
-        <v>992200</v>
+        <v>994400</v>
       </c>
       <c r="H60" s="3">
-        <v>1018700</v>
+        <v>1020900</v>
       </c>
       <c r="I60" s="3">
-        <v>949700</v>
+        <v>951800</v>
       </c>
       <c r="J60" s="3">
-        <v>1035500</v>
+        <v>1037800</v>
       </c>
       <c r="K60" s="3">
         <v>843000</v>
@@ -4086,25 +4086,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>35900</v>
+        <v>71700</v>
       </c>
       <c r="E61" s="3">
-        <v>46500</v>
+        <v>46600</v>
       </c>
       <c r="F61" s="3">
-        <v>57000</v>
+        <v>57100</v>
       </c>
       <c r="G61" s="3">
-        <v>67200</v>
+        <v>67400</v>
       </c>
       <c r="H61" s="3">
-        <v>48800</v>
+        <v>48900</v>
       </c>
       <c r="I61" s="3">
-        <v>57100</v>
+        <v>57200</v>
       </c>
       <c r="J61" s="3">
-        <v>65200</v>
+        <v>65300</v>
       </c>
       <c r="K61" s="3">
         <v>60500</v>
@@ -4157,25 +4157,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>115000</v>
+        <v>79600</v>
       </c>
       <c r="E62" s="3">
-        <v>98900</v>
+        <v>99100</v>
       </c>
       <c r="F62" s="3">
-        <v>91000</v>
+        <v>91200</v>
       </c>
       <c r="G62" s="3">
-        <v>75000</v>
+        <v>75200</v>
       </c>
       <c r="H62" s="3">
-        <v>74000</v>
+        <v>74200</v>
       </c>
       <c r="I62" s="3">
-        <v>222100</v>
+        <v>222600</v>
       </c>
       <c r="J62" s="3">
-        <v>220000</v>
+        <v>220500</v>
       </c>
       <c r="K62" s="3">
         <v>240100</v>
@@ -4441,25 +4441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1129900</v>
+        <v>1132400</v>
       </c>
       <c r="E66" s="3">
-        <v>1154800</v>
+        <v>1157400</v>
       </c>
       <c r="F66" s="3">
-        <v>1173200</v>
+        <v>1175800</v>
       </c>
       <c r="G66" s="3">
-        <v>1253500</v>
+        <v>1256200</v>
       </c>
       <c r="H66" s="3">
-        <v>1261700</v>
+        <v>1264400</v>
       </c>
       <c r="I66" s="3">
-        <v>1350400</v>
+        <v>1353400</v>
       </c>
       <c r="J66" s="3">
-        <v>1443100</v>
+        <v>1446300</v>
       </c>
       <c r="K66" s="3">
         <v>1284800</v>
@@ -4823,25 +4823,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-1546300</v>
+        <v>-1549700</v>
       </c>
       <c r="E72" s="3">
-        <v>-1477500</v>
+        <v>-1480800</v>
       </c>
       <c r="F72" s="3">
-        <v>-1393900</v>
+        <v>-1396900</v>
       </c>
       <c r="G72" s="3">
-        <v>-1323800</v>
+        <v>-1326700</v>
       </c>
       <c r="H72" s="3">
-        <v>-1214500</v>
+        <v>-1217200</v>
       </c>
       <c r="I72" s="3">
-        <v>-1103900</v>
+        <v>-1106300</v>
       </c>
       <c r="J72" s="3">
-        <v>-1027700</v>
+        <v>-1029900</v>
       </c>
       <c r="K72" s="3">
         <v>-992300</v>
@@ -5107,25 +5107,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1093000</v>
+        <v>1095400</v>
       </c>
       <c r="E76" s="3">
-        <v>1126400</v>
+        <v>1128900</v>
       </c>
       <c r="F76" s="3">
-        <v>1212600</v>
+        <v>1215200</v>
       </c>
       <c r="G76" s="3">
-        <v>1301700</v>
+        <v>1304500</v>
       </c>
       <c r="H76" s="3">
-        <v>1356200</v>
+        <v>1359100</v>
       </c>
       <c r="I76" s="3">
-        <v>1396300</v>
+        <v>1399400</v>
       </c>
       <c r="J76" s="3">
-        <v>1461000</v>
+        <v>1464200</v>
       </c>
       <c r="K76" s="3">
         <v>1573200</v>
@@ -5325,25 +5325,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-68800</v>
+        <v>-68900</v>
       </c>
       <c r="E81" s="3">
-        <v>-83600</v>
+        <v>-83800</v>
       </c>
       <c r="F81" s="3">
-        <v>-70100</v>
+        <v>-70300</v>
       </c>
       <c r="G81" s="3">
-        <v>-109300</v>
+        <v>-109500</v>
       </c>
       <c r="H81" s="3">
-        <v>-110600</v>
+        <v>-110900</v>
       </c>
       <c r="I81" s="3">
-        <v>-76200</v>
+        <v>-76400</v>
       </c>
       <c r="J81" s="3">
-        <v>-65800</v>
+        <v>-66000</v>
       </c>
       <c r="K81" s="3">
         <v>-72200</v>
@@ -5852,19 +5852,19 @@
         <v>9000</v>
       </c>
       <c r="E89" s="3">
-        <v>-37400</v>
+        <v>-37500</v>
       </c>
       <c r="F89" s="3">
-        <v>51000</v>
+        <v>51200</v>
       </c>
       <c r="G89" s="3">
         <v>13900</v>
       </c>
       <c r="H89" s="3">
-        <v>47300</v>
+        <v>47400</v>
       </c>
       <c r="I89" s="3">
-        <v>-86300</v>
+        <v>-86400</v>
       </c>
       <c r="J89" s="3">
         <v>5200</v>
@@ -5947,7 +5947,7 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-133600</v>
       </c>
       <c r="E91" s="3">
         <v>0</v>
@@ -6160,25 +6160,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>35400</v>
+        <v>35500</v>
       </c>
       <c r="E94" s="3">
-        <v>44000</v>
+        <v>44100</v>
       </c>
       <c r="F94" s="3">
-        <v>124100</v>
+        <v>124400</v>
       </c>
       <c r="G94" s="3">
-        <v>44600</v>
+        <v>44700</v>
       </c>
       <c r="H94" s="3">
-        <v>-101000</v>
+        <v>-101200</v>
       </c>
       <c r="I94" s="3">
-        <v>-72300</v>
+        <v>-72500</v>
       </c>
       <c r="J94" s="3">
-        <v>-31200</v>
+        <v>-31300</v>
       </c>
       <c r="K94" s="3">
         <v>14100</v>
@@ -6542,25 +6542,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-30700</v>
+        <v>-30800</v>
       </c>
       <c r="E100" s="3">
-        <v>14300</v>
+        <v>14400</v>
       </c>
       <c r="F100" s="3">
-        <v>-111100</v>
+        <v>-111400</v>
       </c>
       <c r="G100" s="3">
         <v>-18000</v>
       </c>
       <c r="H100" s="3">
-        <v>-43000</v>
+        <v>-43100</v>
       </c>
       <c r="I100" s="3">
-        <v>13400</v>
+        <v>13500</v>
       </c>
       <c r="J100" s="3">
-        <v>149500</v>
+        <v>149800</v>
       </c>
       <c r="K100" s="3">
         <v>74800</v>
@@ -6613,13 +6613,13 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>7900</v>
+        <v>8000</v>
       </c>
       <c r="E101" s="3">
         <v>-2700</v>
       </c>
       <c r="F101" s="3">
-        <v>-18900</v>
+        <v>-19000</v>
       </c>
       <c r="G101" s="3">
         <v>18700</v>
@@ -6684,25 +6684,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>21600</v>
+        <v>21700</v>
       </c>
       <c r="E102" s="3">
         <v>18300</v>
       </c>
       <c r="F102" s="3">
-        <v>45100</v>
+        <v>45200</v>
       </c>
       <c r="G102" s="3">
-        <v>59200</v>
+        <v>59300</v>
       </c>
       <c r="H102" s="3">
-        <v>-83400</v>
+        <v>-83600</v>
       </c>
       <c r="I102" s="3">
-        <v>-148000</v>
+        <v>-148300</v>
       </c>
       <c r="J102" s="3">
-        <v>118700</v>
+        <v>119000</v>
       </c>
       <c r="K102" s="3">
         <v>91000</v>
